--- a/QuantLibXL/Data2/XLS/EUR/EUR_YCSTDBootstrapping_Mx.xlsx
+++ b/QuantLibXL/Data2/XLS/EUR/EUR_YCSTDBootstrapping_Mx.xlsx
@@ -11,6 +11,9 @@
     <sheet name="EURSTD" sheetId="15" r:id="rId2"/>
     <sheet name="Mx_Deposits" sheetId="16" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <definedNames>
     <definedName name="Calendar">GeneralSettings!$D$14</definedName>
     <definedName name="Currency">GeneralSettings!$D$3</definedName>
@@ -27,6 +30,7 @@
     <definedName name="QuoteStatic">Mx_Deposits!$M$3:$M$21</definedName>
     <definedName name="QuoteSuffix">GeneralSettings!$D$9</definedName>
     <definedName name="RateHelpers" localSheetId="1">EURSTD!$M$3:$M$99</definedName>
+    <definedName name="RateHelpersSTD">EURSTD!$W$3:$W$99</definedName>
     <definedName name="Settlementdate">GeneralSettings!$D$13</definedName>
     <definedName name="Trigger">GeneralSettings!$D$5</definedName>
     <definedName name="YieldCurve_STD">GeneralSettings!$D$18</definedName>
@@ -173,7 +177,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="158">
   <si>
     <t>3M</t>
   </si>
@@ -638,6 +642,15 @@
   </si>
   <si>
     <t>MID</t>
+  </si>
+  <si>
+    <t>Quote ID</t>
+  </si>
+  <si>
+    <t>Obj</t>
+  </si>
+  <si>
+    <t>STD</t>
   </si>
 </sst>
 </file>
@@ -1044,7 +1057,7 @@
     <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="229">
+  <cellXfs count="231">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1396,12 +1409,6 @@
     <xf numFmtId="172" fontId="3" fillId="10" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1532,6 +1539,16 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Euro" xfId="6"/>
@@ -1563,20 +1580,95 @@
   <volType type="realTimeData">
     <main first="pldatasource.rdatartdserver">
       <tp t="s">
-        <v>Not Signed In</v>
+        <v>Paused at 16:50:53</v>
         <stp/>
-        <stp>{29081B12-4129-42C6-8FB4-C5A26667D64A}</stp>
+        <stp>{56515643-F5E2-49CB-8BF4-C944491D6B3B}</stp>
         <tr r="J23" s="16"/>
       </tp>
       <tp t="s">
-        <v>Not Signed In</v>
+        <v>Paused at 16:50:53</v>
         <stp/>
-        <stp>{D187B368-F6F7-4D24-AEB7-B05B03A44838}</stp>
+        <stp>{72A022D7-C89F-46DD-8FDB-AF4FFC80A8C9}</stp>
         <tr r="J2" s="16"/>
       </tp>
     </main>
   </volType>
 </volTypes>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="General Settings"/>
+      <sheetName val="Euribor"/>
+      <sheetName val="EuriborSwapIsdaFixA"/>
+      <sheetName val="Deposits"/>
+      <sheetName val="FRA"/>
+      <sheetName val="OIS"/>
+      <sheetName val="ECB OIS"/>
+      <sheetName val="IMM OIS"/>
+      <sheetName val="Futures3M"/>
+      <sheetName val="FuturesHWConvAdj"/>
+      <sheetName val="BasisSwapEON3M"/>
+      <sheetName val="BasisSwap1MxM"/>
+      <sheetName val="BasisSwap3M6M"/>
+      <sheetName val="BasisSwapxM12M"/>
+      <sheetName val="Swaps1M(&lt;1Y)"/>
+      <sheetName val="Swap1M"/>
+      <sheetName val="Swap3M"/>
+      <sheetName val="Swap6M"/>
+      <sheetName val="ForwardSwap6M"/>
+      <sheetName val="SwapsIMMDated"/>
+      <sheetName val="ImmFra6M "/>
+      <sheetName val="ON Basis Swap"/>
+      <sheetName val="1M Basis Swap"/>
+      <sheetName val="3M Basis Swap"/>
+      <sheetName val="6M Basis Swap"/>
+      <sheetName val="1Y Basis Swap"/>
+      <sheetName val="Euribor 3M Time Series"/>
+      <sheetName val="Euribor 6M Time Series"/>
+      <sheetName val="EuriborSwapIsdaFixA1Y"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="13">
+          <cell r="D13" t="str">
+            <v>EURSTD#0000</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1987,7 +2079,7 @@
       </c>
       <c r="D12" s="13">
         <f>_xll.qlSettingsEvaluationDate(Trigger)</f>
-        <v>42180</v>
+        <v>42270</v>
       </c>
       <c r="E12" s="80"/>
     </row>
@@ -1998,7 +2090,7 @@
       </c>
       <c r="D13" s="15">
         <f>_xll.qlCalendarAdvance(Calendar,Evaluationdate,"2D","F",,Trigger)</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="E13" s="80"/>
     </row>
@@ -2030,8 +2122,8 @@
         <v>10</v>
       </c>
       <c r="D18" s="41" t="str">
-        <f>_xll.qlPiecewiseYieldCurve(D20,D21,Calendar,_xll.ohPack(EURSTD!W3:W99),,,,D22,D23,D24,Permanent,,ObjectOverwrite)</f>
-        <v>_EURSTD#0092</v>
+        <f>_xll.qlPiecewiseYieldCurve(D20,D21,Calendar,_xll.ohPack(RateHelpersSTD),,,,D22,D23,D24,Permanent,,ObjectOverwrite)</f>
+        <v>_EURSTD#0002</v>
       </c>
       <c r="E18" s="42"/>
     </row>
@@ -2109,7 +2201,7 @@
       <c r="B26" s="23"/>
       <c r="C26" s="32">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve_STD)</f>
-        <v>42180</v>
+        <v>42270</v>
       </c>
       <c r="D26" s="33">
         <f>_xll.qlYieldTSDiscount(YieldCurve_STD,C26,,Trigger)</f>
@@ -2122,19 +2214,19 @@
       <c r="B27" s="23"/>
       <c r="C27" s="34">
         <f>_xll.qlTermStructureMaxDate(YieldCurve_STD,Trigger)</f>
-        <v>64105</v>
+        <v>64194</v>
       </c>
       <c r="D27" s="35">
         <f>_xll.qlYieldTSDiscount(YieldCurve_STD,C27,,Trigger)</f>
-        <v>0.36596675174558646</v>
+        <v>0.40827026530894922</v>
       </c>
       <c r="E27" s="42"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B28" s="23"/>
       <c r="C28" s="34" t="str">
-        <f>Currency&amp;"STD"</f>
-        <v>EURSTD</v>
+        <f>[1]Euribor!$D$13</f>
+        <v>EURSTD#0000</v>
       </c>
       <c r="D28" s="35" t="b">
         <f>_xll.qlRelinkableHandleLinkTo(C28,D18,Trigger)</f>
@@ -2196,7 +2288,7 @@
   <dimension ref="A1:AH127"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="AC1" sqref="AC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -2229,13 +2321,16 @@
     <col min="29" max="29" width="12" style="47" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="3.28515625" style="47" customWidth="1"/>
     <col min="31" max="31" width="24.42578125" style="47" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="26.7109375" style="47" customWidth="1"/>
+    <col min="32" max="32" width="41" style="47" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="9.140625" style="47"/>
     <col min="34" max="34" width="12" style="47" bestFit="1" customWidth="1"/>
     <col min="35" max="16384" width="9.140625" style="47"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G1" s="50" t="s">
+        <v>157</v>
+      </c>
       <c r="H1" s="50"/>
       <c r="L1" s="65" t="s">
         <v>25</v>
@@ -2251,7 +2346,7 @@
       <c r="U1" s="89"/>
       <c r="V1" s="73" t="str">
         <f>Currency&amp;$G$1</f>
-        <v>EUR</v>
+        <v>EURSTD</v>
       </c>
       <c r="W1" s="64"/>
       <c r="X1" s="64"/>
@@ -2343,12 +2438,12 @@
       </c>
       <c r="AC2" s="150">
         <f t="array" ref="AC2:AC99">_xll.qlPiecewiseYieldCurveData(YieldCurve_STD,Trigger)</f>
-        <v>-1.0138892832213192E-3</v>
-      </c>
-      <c r="AE2" s="153" t="s">
+        <v>-1.3180569215266449E-3</v>
+      </c>
+      <c r="AE2" s="229" t="s">
         <v>74</v>
       </c>
-      <c r="AF2" s="154"/>
+      <c r="AF2" s="230"/>
       <c r="AH2" s="151"/>
     </row>
     <row r="3" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2368,13 +2463,13 @@
         <v>112</v>
       </c>
       <c r="H3" s="113" t="str">
-        <f>Currency&amp;$B3&amp;"D_Mx"&amp;$H$1&amp;QuoteSuffix</f>
-        <v>EUROND_Mx_Quote</v>
+        <f>Mx_Deposits!D3</f>
+        <v>EUROND_Mx_Quote#0001</v>
       </c>
       <c r="I3" s="123"/>
       <c r="J3" s="57" t="str">
         <f>_xll.qlDepositRateHelper(,H3,G3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0080a#0057</v>
+        <v>obj_005c7#0001</v>
       </c>
       <c r="K3" s="49"/>
       <c r="L3" s="66" t="str">
@@ -2383,7 +2478,7 @@
       </c>
       <c r="M3" s="124" t="str">
         <f>IF(ISBLANK(J3),"--",J3)</f>
-        <v>obj_0080a#0057</v>
+        <v>obj_005c7#0001</v>
       </c>
       <c r="N3" s="138" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M3,Trigger),"--")</f>
@@ -2391,7 +2486,7 @@
       </c>
       <c r="O3" s="126">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M3,Trigger),"--")</f>
-        <v>-9.9999900000000011E-4</v>
+        <v>-1.299999E-3</v>
       </c>
       <c r="P3" s="125" t="b">
         <v>1</v>
@@ -2404,20 +2499,20 @@
       </c>
       <c r="S3" s="127">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M3,Trigger),"--")</f>
-        <v>42180</v>
+        <v>42270</v>
       </c>
       <c r="T3" s="127">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M3,Trigger),"--")</f>
-        <v>42181</v>
-      </c>
-      <c r="U3" s="166"/>
+        <v>42271</v>
+      </c>
+      <c r="U3" s="164"/>
       <c r="V3" s="3" t="str">
         <f>IFERROR(INDEX($L$3:$L$99,MATCH(X3,$N$3:$N$99,0),1),"")</f>
         <v>Dp</v>
       </c>
       <c r="W3" s="3" t="str">
         <f t="array" ref="W3:W99">_xll.qlRateHelperSelection(_xll.ohFilter(RateHelpers,IncludeFlag),_xll.ohFilter(Priority,IncludeFlag),$AF$3,$AF$4,$AF$5,$AF$6,_xll.ohFilter(MinDistance,IncludeFlag),Trigger)</f>
-        <v>obj_0080a</v>
+        <v>obj_005c7</v>
       </c>
       <c r="X3" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W3,Trigger),"")</f>
@@ -2425,7 +2520,7 @@
       </c>
       <c r="Y3" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W3,Trigger),"")</f>
-        <v>-9.9999900000000011E-4</v>
+        <v>-1.299999E-3</v>
       </c>
       <c r="Z3" s="100" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W3)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W3)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W3)),_xll.qlSwapRateHelperSpread($W3))</f>
@@ -2433,16 +2528,16 @@
       </c>
       <c r="AA3" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W3,Trigger),"")</f>
-        <v>42180</v>
+        <v>42270</v>
       </c>
       <c r="AB3" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W3,Trigger),"")</f>
-        <v>42181</v>
+        <v>42271</v>
       </c>
       <c r="AC3" s="68">
-        <v>-1.0138892832213192E-3</v>
-      </c>
-      <c r="AD3" s="165"/>
+        <v>-1.3180569215266449E-3</v>
+      </c>
+      <c r="AD3" s="163"/>
       <c r="AE3" s="103" t="s">
         <v>75</v>
       </c>
@@ -2468,13 +2563,13 @@
         <v>112</v>
       </c>
       <c r="H4" s="113" t="str">
-        <f>Currency&amp;$B4&amp;"D_Mx"&amp;$H$1&amp;QuoteSuffix</f>
-        <v>EURTND_Mx_Quote</v>
+        <f>Mx_Deposits!D4</f>
+        <v>EURTND_Mx_Quote#0001</v>
       </c>
       <c r="I4" s="123"/>
       <c r="J4" s="57" t="str">
         <f>_xll.qlFraRateHelper(,H4,"1D",G4,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_009f5#0021</v>
+        <v>obj_005a5#0001</v>
       </c>
       <c r="K4" s="48"/>
       <c r="L4" s="9" t="str">
@@ -2483,7 +2578,7 @@
       </c>
       <c r="M4" s="90" t="str">
         <f t="shared" ref="M4:M21" si="1">IF(ISBLANK(J4),"--",J4)</f>
-        <v>obj_009f5#0021</v>
+        <v>obj_005a5#0001</v>
       </c>
       <c r="N4" s="139" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M4,Trigger),"--")</f>
@@ -2491,7 +2586,7 @@
       </c>
       <c r="O4" s="94">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M4,Trigger),"--")</f>
-        <v>-1E-3</v>
+        <v>-1.2999999999999999E-3</v>
       </c>
       <c r="P4" s="93" t="b">
         <v>1</v>
@@ -2504,19 +2599,19 @@
       </c>
       <c r="S4" s="95">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M4,Trigger),"--")</f>
-        <v>42181</v>
+        <v>42271</v>
       </c>
       <c r="T4" s="95">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M4,Trigger),"--")</f>
-        <v>42184</v>
-      </c>
-      <c r="U4" s="166"/>
+        <v>42272</v>
+      </c>
+      <c r="U4" s="164"/>
       <c r="V4" s="3" t="str">
         <f t="shared" ref="V4:V67" si="2">IFERROR(INDEX($L$3:$L$99,MATCH(X4,$N$3:$N$99,0),1),"")</f>
         <v>Dp</v>
       </c>
       <c r="W4" s="3" t="str">
-        <v>obj_009f5</v>
+        <v>obj_005a5</v>
       </c>
       <c r="X4" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W4,Trigger),"")</f>
@@ -2524,7 +2619,7 @@
       </c>
       <c r="Y4" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W4,Trigger),"")</f>
-        <v>-1E-3</v>
+        <v>-1.2999999999999999E-3</v>
       </c>
       <c r="Z4" s="100" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W4)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W4)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W4)),_xll.qlSwapRateHelperSpread($W4))</f>
@@ -2532,16 +2627,16 @@
       </c>
       <c r="AA4" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W4,Trigger),"")</f>
-        <v>42181</v>
+        <v>42271</v>
       </c>
       <c r="AB4" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W4,Trigger),"")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="AC4" s="68">
-        <v>-1.0138921558781519E-3</v>
-      </c>
-      <c r="AD4" s="165"/>
+        <v>-1.3180574284440377E-3</v>
+      </c>
+      <c r="AD4" s="163"/>
       <c r="AE4" s="103" t="s">
         <v>76</v>
       </c>
@@ -2567,13 +2662,13 @@
         <v>112</v>
       </c>
       <c r="H5" s="115" t="str">
-        <f>Currency&amp;$B5&amp;"D_Mx"&amp;$H$1&amp;QuoteSuffix</f>
-        <v>EURSND_Mx_Quote</v>
+        <f>Mx_Deposits!D5</f>
+        <v>EURSND_Mx_Quote#0001</v>
       </c>
       <c r="I5" s="118"/>
       <c r="J5" s="2" t="str">
         <f>_xll.qlFraRateHelper(,H5,"2D",G5,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_009f6#0005</v>
+        <v>obj_0059a#0001</v>
       </c>
       <c r="K5" s="48"/>
       <c r="L5" s="9" t="str">
@@ -2582,7 +2677,7 @@
       </c>
       <c r="M5" s="90" t="str">
         <f t="shared" si="1"/>
-        <v>obj_009f6#0005</v>
+        <v>obj_0059a#0001</v>
       </c>
       <c r="N5" s="139" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M5,Trigger),"--")</f>
@@ -2590,7 +2685,7 @@
       </c>
       <c r="O5" s="94">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M5,Trigger),"--")</f>
-        <v>-1E-3</v>
+        <v>-1.2999999999999999E-3</v>
       </c>
       <c r="P5" s="93" t="b">
         <v>1</v>
@@ -2603,19 +2698,19 @@
       </c>
       <c r="S5" s="95">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M5,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="T5" s="95">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M5,Trigger),"--")</f>
-        <v>42185</v>
-      </c>
-      <c r="U5" s="166"/>
+        <v>42275</v>
+      </c>
+      <c r="U5" s="164"/>
       <c r="V5" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Dp</v>
       </c>
       <c r="W5" s="3" t="str">
-        <v>obj_009f6</v>
+        <v>obj_0059a</v>
       </c>
       <c r="X5" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W5,Trigger),"")</f>
@@ -2623,7 +2718,7 @@
       </c>
       <c r="Y5" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W5,Trigger),"")</f>
-        <v>-1E-3</v>
+        <v>-1.2999999999999999E-3</v>
       </c>
       <c r="Z5" s="100" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W5)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W5)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W5)),_xll.qlSwapRateHelperSpread($W5))</f>
@@ -2631,16 +2726,16 @@
       </c>
       <c r="AA5" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W5,Trigger),"")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="AB5" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W5,Trigger),"")</f>
-        <v>42185</v>
+        <v>42275</v>
       </c>
       <c r="AC5" s="68">
-        <v>-1.0138917841064317E-3</v>
-      </c>
-      <c r="AD5" s="165"/>
+        <v>-1.3180605884300673E-3</v>
+      </c>
+      <c r="AD5" s="163"/>
       <c r="AE5" s="103" t="s">
         <v>77</v>
       </c>
@@ -2667,13 +2762,13 @@
         <v>EuriborSW</v>
       </c>
       <c r="H6" s="114" t="str">
-        <f>Currency&amp;$B6&amp;"D_Mx"&amp;$H$1&amp;QuoteSuffix</f>
-        <v>EURSWD_Mx_Quote</v>
+        <f>Mx_Deposits!D6</f>
+        <v>EURSWD_Mx_Quote#0001</v>
       </c>
       <c r="I6" s="117"/>
       <c r="J6" s="62" t="str">
         <f>_xll.qlDepositRateHelper(,H6,G6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_009f7#0018</v>
+        <v>obj_00597#0001</v>
       </c>
       <c r="K6" s="48"/>
       <c r="L6" s="9" t="str">
@@ -2682,7 +2777,7 @@
       </c>
       <c r="M6" s="90" t="str">
         <f t="shared" si="1"/>
-        <v>obj_009f7#0018</v>
+        <v>obj_00597#0001</v>
       </c>
       <c r="N6" s="139" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M6,Trigger),"--")</f>
@@ -2690,7 +2785,7 @@
       </c>
       <c r="O6" s="94">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M6,Trigger),"--")</f>
-        <v>-8.9999999999999998E-4</v>
+        <v>-1E-3</v>
       </c>
       <c r="P6" s="93" t="b">
         <v>1</v>
@@ -2703,19 +2798,19 @@
       </c>
       <c r="S6" s="95">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M6,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="T6" s="95">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M6,Trigger),"--")</f>
-        <v>42191</v>
-      </c>
-      <c r="U6" s="166"/>
+        <v>42279</v>
+      </c>
+      <c r="U6" s="164"/>
       <c r="V6" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Dp</v>
       </c>
       <c r="W6" s="3" t="str">
-        <v>obj_009f7</v>
+        <v>obj_00597</v>
       </c>
       <c r="X6" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W6,Trigger),"")</f>
@@ -2723,7 +2818,7 @@
       </c>
       <c r="Y6" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W6,Trigger),"")</f>
-        <v>-8.9999999999999998E-4</v>
+        <v>-1E-3</v>
       </c>
       <c r="Z6" s="100" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W6)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W6)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W6)),_xll.qlSwapRateHelperSpread($W6))</f>
@@ -2731,16 +2826,16 @@
       </c>
       <c r="AA6" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W6,Trigger),"")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="AB6" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W6,Trigger),"")</f>
-        <v>42191</v>
+        <v>42279</v>
       </c>
       <c r="AC6" s="68">
-        <v>-9.4937495586600387E-4</v>
-      </c>
-      <c r="AD6" s="165"/>
+        <v>-1.0814895643963339E-3</v>
+      </c>
+      <c r="AD6" s="163"/>
       <c r="AE6" s="103" t="s">
         <v>78</v>
       </c>
@@ -2767,13 +2862,13 @@
         <v>Euribor2W</v>
       </c>
       <c r="H7" s="114" t="str">
-        <f>Currency&amp;$B7&amp;"D_Mx"&amp;$H$1&amp;QuoteSuffix</f>
-        <v>EUR2WD_Mx_Quote</v>
+        <f>Mx_Deposits!D7</f>
+        <v>EUR2WD_Mx_Quote#0001</v>
       </c>
       <c r="I7" s="117"/>
       <c r="J7" s="62" t="str">
         <f>_xll.qlDepositRateHelper(,H7,G7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_009f8#0004</v>
+        <v>obj_005a6#0001</v>
       </c>
       <c r="K7" s="48"/>
       <c r="L7" s="9" t="str">
@@ -2782,7 +2877,7 @@
       </c>
       <c r="M7" s="90" t="str">
         <f t="shared" si="1"/>
-        <v>obj_009f8#0004</v>
+        <v>obj_005a6#0001</v>
       </c>
       <c r="N7" s="139" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M7,Trigger),"--")</f>
@@ -2790,7 +2885,7 @@
       </c>
       <c r="O7" s="94">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M7,Trigger),"--")</f>
-        <v>-5.9999999999999995E-4</v>
+        <v>-1.1000000000000001E-3</v>
       </c>
       <c r="P7" s="93" t="b">
         <v>1</v>
@@ -2803,19 +2898,19 @@
       </c>
       <c r="S7" s="95">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M7,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="T7" s="95">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M7,Trigger),"--")</f>
-        <v>42198</v>
-      </c>
-      <c r="U7" s="166"/>
+        <v>42286</v>
+      </c>
+      <c r="U7" s="164"/>
       <c r="V7" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Dp</v>
       </c>
       <c r="W7" s="3" t="str">
-        <v>obj_009f8</v>
+        <v>obj_005a6</v>
       </c>
       <c r="X7" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W7,Trigger),"")</f>
@@ -2823,7 +2918,7 @@
       </c>
       <c r="Y7" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W7,Trigger),"")</f>
-        <v>-5.9999999999999995E-4</v>
+        <v>-1.1000000000000001E-3</v>
       </c>
       <c r="Z7" s="100" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W7)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W7)),_xll.qlSwapRateHelperSpread($W7))</f>
@@ -2831,43 +2926,43 @@
       </c>
       <c r="AA7" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W7,Trigger),"")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="AB7" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W7,Trigger),"")</f>
-        <v>42198</v>
+        <v>42286</v>
       </c>
       <c r="AC7" s="68">
-        <v>-6.9846303626951395E-4</v>
-      </c>
-      <c r="AD7" s="165"/>
+        <v>-1.1406461074390489E-3</v>
+      </c>
+      <c r="AD7" s="163"/>
       <c r="AH7" s="151"/>
     </row>
     <row r="8" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="180" t="s">
+      <c r="A8" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="181" t="s">
+      <c r="B8" s="179" t="s">
         <v>139</v>
       </c>
-      <c r="C8" s="182" t="s">
+      <c r="C8" s="180" t="s">
         <v>139</v>
       </c>
-      <c r="D8" s="183"/>
-      <c r="E8" s="183"/>
-      <c r="F8" s="183"/>
-      <c r="G8" s="184" t="str">
+      <c r="D8" s="181"/>
+      <c r="E8" s="181"/>
+      <c r="F8" s="181"/>
+      <c r="G8" s="182" t="str">
         <f>_xll.qlEuribor(,C8,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_009fc#0016</v>
-      </c>
-      <c r="H8" s="185" t="str">
-        <f>Currency&amp;$B8&amp;"D_Mx"&amp;$H$1&amp;QuoteSuffix</f>
-        <v>EUR3WD_Mx_Quote</v>
-      </c>
-      <c r="I8" s="183"/>
-      <c r="J8" s="186" t="str">
+        <v>obj_00582#0001</v>
+      </c>
+      <c r="H8" s="183" t="str">
+        <f>Mx_Deposits!D8</f>
+        <v>EUR3WD_Mx_Quote#0001</v>
+      </c>
+      <c r="I8" s="181"/>
+      <c r="J8" s="184" t="str">
         <f>_xll.qlDepositRateHelper(,H8,G8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_009fd#0003</v>
+        <v>obj_00596#0001</v>
       </c>
       <c r="K8" s="48"/>
       <c r="L8" s="9" t="str">
@@ -2876,7 +2971,7 @@
       </c>
       <c r="M8" s="90" t="str">
         <f t="shared" si="1"/>
-        <v>obj_009fd#0003</v>
+        <v>obj_00596#0001</v>
       </c>
       <c r="N8" s="139" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M8,Trigger),"--")</f>
@@ -2884,7 +2979,7 @@
       </c>
       <c r="O8" s="94">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M8,Trigger),"--")</f>
-        <v>-5.9999999999999995E-4</v>
+        <v>-1.1000000000000001E-3</v>
       </c>
       <c r="P8" s="93" t="b">
         <v>1</v>
@@ -2897,19 +2992,19 @@
       </c>
       <c r="S8" s="95">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M8,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="T8" s="95">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M8,Trigger),"--")</f>
-        <v>42205</v>
-      </c>
-      <c r="U8" s="166"/>
+        <v>42293</v>
+      </c>
+      <c r="U8" s="164"/>
       <c r="V8" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Dp</v>
       </c>
       <c r="W8" s="3" t="str">
-        <v>obj_009fd</v>
+        <v>obj_00596</v>
       </c>
       <c r="X8" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W8,Trigger),"")</f>
@@ -2917,7 +3012,7 @@
       </c>
       <c r="Y8" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W8,Trigger),"")</f>
-        <v>-5.9999999999999995E-4</v>
+        <v>-1.1000000000000001E-3</v>
       </c>
       <c r="Z8" s="100" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W8)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W8)),_xll.qlSwapRateHelperSpread($W8))</f>
@@ -2925,16 +3020,16 @@
       </c>
       <c r="AA8" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W8,Trigger),"")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="AB8" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W8,Trigger),"")</f>
-        <v>42205</v>
+        <v>42293</v>
       </c>
       <c r="AC8" s="68">
-        <v>-6.7323168764907119E-4</v>
-      </c>
-      <c r="AD8" s="165"/>
+        <v>-1.1329434624593813E-3</v>
+      </c>
+      <c r="AD8" s="163"/>
       <c r="AH8" s="151"/>
     </row>
     <row r="9" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2955,13 +3050,13 @@
         <v>Euribor1M</v>
       </c>
       <c r="H9" s="114" t="str">
-        <f>Currency&amp;$B9&amp;"D_Mx"&amp;$H$1&amp;QuoteSuffix</f>
-        <v>EUR1MD_Mx_Quote</v>
+        <f>Mx_Deposits!D9</f>
+        <v>EUR1MD_Mx_Quote#0001</v>
       </c>
       <c r="I9" s="117"/>
       <c r="J9" s="62" t="str">
         <f>_xll.qlDepositRateHelper(,H9,G9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_009f9#0004</v>
+        <v>obj_00598#0001</v>
       </c>
       <c r="K9" s="48"/>
       <c r="L9" s="9" t="str">
@@ -2970,7 +3065,7 @@
       </c>
       <c r="M9" s="90" t="str">
         <f t="shared" si="1"/>
-        <v>obj_009f9#0004</v>
+        <v>obj_00598#0001</v>
       </c>
       <c r="N9" s="139" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M9,Trigger),"--")</f>
@@ -2978,7 +3073,7 @@
       </c>
       <c r="O9" s="94">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M9,Trigger),"--")</f>
-        <v>-4.0000000000000002E-4</v>
+        <v>-1E-3</v>
       </c>
       <c r="P9" s="93" t="b">
         <v>1</v>
@@ -2991,19 +3086,19 @@
       </c>
       <c r="S9" s="95">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M9,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="T9" s="95">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M9,Trigger),"--")</f>
-        <v>42214</v>
-      </c>
-      <c r="U9" s="166"/>
+        <v>42303</v>
+      </c>
+      <c r="U9" s="164"/>
       <c r="V9" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Dp</v>
       </c>
       <c r="W9" s="3" t="str">
-        <v>obj_009f9</v>
+        <v>obj_00598</v>
       </c>
       <c r="X9" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W9,Trigger),"")</f>
@@ -3011,7 +3106,7 @@
       </c>
       <c r="Y9" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W9,Trigger),"")</f>
-        <v>-4.0000000000000002E-4</v>
+        <v>-1E-3</v>
       </c>
       <c r="Z9" s="100" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W9)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W9)),_xll.qlSwapRateHelperSpread($W9))</f>
@@ -3019,16 +3114,16 @@
       </c>
       <c r="AA9" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W9,Trigger),"")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="AB9" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W9,Trigger),"")</f>
-        <v>42214</v>
+        <v>42303</v>
       </c>
       <c r="AC9" s="68">
-        <v>-4.7713053154275998E-4</v>
-      </c>
-      <c r="AD9" s="165"/>
+        <v>-1.032364356066108E-3</v>
+      </c>
+      <c r="AD9" s="163"/>
       <c r="AH9" s="151"/>
     </row>
     <row r="10" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3049,13 +3144,13 @@
         <v>Euribor2M</v>
       </c>
       <c r="H10" s="114" t="str">
-        <f>Currency&amp;$B10&amp;"D_Mx"&amp;$H$1&amp;QuoteSuffix</f>
-        <v>EUR2MD_Mx_Quote</v>
+        <f>Mx_Deposits!D10</f>
+        <v>EUR2MD_Mx_Quote#0001</v>
       </c>
       <c r="I10" s="117"/>
       <c r="J10" s="62" t="str">
         <f>_xll.qlDepositRateHelper(,H10,G10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_009fa#0004</v>
+        <v>obj_005a0#0001</v>
       </c>
       <c r="K10" s="48"/>
       <c r="L10" s="9" t="str">
@@ -3064,7 +3159,7 @@
       </c>
       <c r="M10" s="90" t="str">
         <f t="shared" si="1"/>
-        <v>obj_009fa#0004</v>
+        <v>obj_005a0#0001</v>
       </c>
       <c r="N10" s="139" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M10,Trigger),"--")</f>
@@ -3072,7 +3167,7 @@
       </c>
       <c r="O10" s="94">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M10,Trigger),"--")</f>
-        <v>-2.0000000000000001E-4</v>
+        <v>-5.9999999999999995E-4</v>
       </c>
       <c r="P10" s="93" t="b">
         <v>1</v>
@@ -3085,19 +3180,19 @@
       </c>
       <c r="S10" s="95">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M10,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="T10" s="95">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M10,Trigger),"--")</f>
-        <v>42247</v>
-      </c>
-      <c r="U10" s="166"/>
+        <v>42333</v>
+      </c>
+      <c r="U10" s="164"/>
       <c r="V10" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Dp</v>
       </c>
       <c r="W10" s="3" t="str">
-        <v>obj_009fa</v>
+        <v>obj_005a0</v>
       </c>
       <c r="X10" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W10,Trigger),"")</f>
@@ -3105,7 +3200,7 @@
       </c>
       <c r="Y10" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W10,Trigger),"")</f>
-        <v>-2.0000000000000001E-4</v>
+        <v>-5.9999999999999995E-4</v>
       </c>
       <c r="Z10" s="100" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W10)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W10)),_xll.qlSwapRateHelperSpread($W10))</f>
@@ -3113,16 +3208,16 @@
       </c>
       <c r="AA10" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W10,Trigger),"")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="AB10" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W10,Trigger),"")</f>
-        <v>42247</v>
+        <v>42333</v>
       </c>
       <c r="AC10" s="68">
-        <v>-2.5120585359958636E-4</v>
-      </c>
-      <c r="AD10" s="165"/>
+        <v>-6.3089420092588748E-4</v>
+      </c>
+      <c r="AD10" s="163"/>
       <c r="AH10" s="151"/>
     </row>
     <row r="11" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3143,13 +3238,13 @@
         <v>Euribor3M</v>
       </c>
       <c r="H11" s="114" t="str">
-        <f>Currency&amp;$B11&amp;"D_Mx"&amp;$H$1&amp;QuoteSuffix</f>
-        <v>EUR3MD_Mx_Quote</v>
+        <f>Mx_Deposits!D11</f>
+        <v>EUR3MD_Mx_Quote#0001</v>
       </c>
       <c r="I11" s="117"/>
       <c r="J11" s="62" t="str">
         <f>_xll.qlDepositRateHelper(,H11,G11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_009fb#0004</v>
+        <v>obj_005a2#0001</v>
       </c>
       <c r="K11" s="48"/>
       <c r="L11" s="9" t="str">
@@ -3158,7 +3253,7 @@
       </c>
       <c r="M11" s="90" t="str">
         <f t="shared" si="1"/>
-        <v>obj_009fb#0004</v>
+        <v>obj_005a2#0001</v>
       </c>
       <c r="N11" s="139" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M11,Trigger),"--")</f>
@@ -3166,7 +3261,7 @@
       </c>
       <c r="O11" s="94">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M11,Trigger),"--")</f>
-        <v>1E-4</v>
+        <v>-2.9999999999999997E-4</v>
       </c>
       <c r="P11" s="93" t="b">
         <v>1</v>
@@ -3179,19 +3274,19 @@
       </c>
       <c r="S11" s="95">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M11,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="T11" s="95">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M11,Trigger),"--")</f>
-        <v>42276</v>
-      </c>
-      <c r="U11" s="166"/>
+        <v>42366</v>
+      </c>
+      <c r="U11" s="164"/>
       <c r="V11" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Dp</v>
       </c>
       <c r="W11" s="3" t="str">
-        <v>obj_009fb</v>
+        <v>obj_005a2</v>
       </c>
       <c r="X11" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W11,Trigger),"")</f>
@@ -3199,7 +3294,7 @@
       </c>
       <c r="Y11" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W11,Trigger),"")</f>
-        <v>1E-4</v>
+        <v>-2.9999999999999997E-4</v>
       </c>
       <c r="Z11" s="100" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W11)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W11)),_xll.qlSwapRateHelperSpread($W11))</f>
@@ -3207,43 +3302,43 @@
       </c>
       <c r="AA11" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W11,Trigger),"")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="AB11" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W11,Trigger),"")</f>
-        <v>42276</v>
+        <v>42366</v>
       </c>
       <c r="AC11" s="68">
-        <v>5.4917603833300171E-5</v>
-      </c>
-      <c r="AD11" s="165"/>
+        <v>-3.2530105648209836E-4</v>
+      </c>
+      <c r="AD11" s="163"/>
       <c r="AH11" s="151"/>
     </row>
     <row r="12" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="155" t="s">
+      <c r="A12" s="153" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="187" t="s">
+      <c r="B12" s="185" t="s">
         <v>109</v>
       </c>
-      <c r="C12" s="156" t="s">
+      <c r="C12" s="154" t="s">
         <v>109</v>
       </c>
-      <c r="D12" s="157"/>
-      <c r="E12" s="157"/>
-      <c r="F12" s="157"/>
-      <c r="G12" s="158" t="str">
+      <c r="D12" s="155"/>
+      <c r="E12" s="155"/>
+      <c r="F12" s="155"/>
+      <c r="G12" s="156" t="str">
         <f>_xll.qlEuribor(,C12,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_007fd#0019</v>
-      </c>
-      <c r="H12" s="188" t="str">
-        <f>Currency&amp;$B12&amp;"D_Mx"&amp;$H$1&amp;QuoteSuffix</f>
-        <v>EUR4MD_Mx_Quote</v>
-      </c>
-      <c r="I12" s="157"/>
-      <c r="J12" s="159" t="str">
+        <v>obj_0058c#0001</v>
+      </c>
+      <c r="H12" s="186" t="str">
+        <f>Mx_Deposits!D12</f>
+        <v>EUR4MD_Mx_Quote#0001</v>
+      </c>
+      <c r="I12" s="155"/>
+      <c r="J12" s="157" t="str">
         <f>_xll.qlDepositRateHelper(,H12,G12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00807#0071</v>
+        <v>obj_005a1#0001</v>
       </c>
       <c r="K12" s="48" t="s">
         <v>37</v>
@@ -3254,7 +3349,7 @@
       </c>
       <c r="M12" s="90" t="str">
         <f t="shared" si="1"/>
-        <v>obj_00807#0071</v>
+        <v>obj_005a1#0001</v>
       </c>
       <c r="N12" s="139" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M12,Trigger),"--")</f>
@@ -3262,7 +3357,7 @@
       </c>
       <c r="O12" s="94">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M12,Trigger),"--")</f>
-        <v>2.9999999999999997E-4</v>
+        <v>8.9999999999999992E-5</v>
       </c>
       <c r="P12" s="93" t="b">
         <v>1</v>
@@ -3275,19 +3370,19 @@
       </c>
       <c r="S12" s="95">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M12,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="T12" s="95">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M12,Trigger),"--")</f>
-        <v>42306</v>
-      </c>
-      <c r="U12" s="166"/>
+        <v>42394</v>
+      </c>
+      <c r="U12" s="164"/>
       <c r="V12" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Dp</v>
       </c>
       <c r="W12" s="3" t="str">
-        <v>obj_00807</v>
+        <v>obj_005a1</v>
       </c>
       <c r="X12" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W12,Trigger),"")</f>
@@ -3295,7 +3390,7 @@
       </c>
       <c r="Y12" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W12,Trigger),"")</f>
-        <v>2.9999999999999997E-4</v>
+        <v>8.9999999999999992E-5</v>
       </c>
       <c r="Z12" s="100" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W12)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W12)),_xll.qlSwapRateHelperSpread($W12))</f>
@@ -3303,43 +3398,43 @@
       </c>
       <c r="AA12" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W12,Trigger),"")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="AB12" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W12,Trigger),"")</f>
-        <v>42306</v>
+        <v>42394</v>
       </c>
       <c r="AC12" s="68">
-        <v>2.6230855950328902E-4</v>
-      </c>
-      <c r="AD12" s="165"/>
+        <v>6.8517865934461744E-5</v>
+      </c>
+      <c r="AD12" s="163"/>
       <c r="AH12" s="151"/>
     </row>
     <row r="13" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="160" t="s">
+      <c r="A13" s="158" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="189" t="s">
+      <c r="B13" s="187" t="s">
         <v>110</v>
       </c>
-      <c r="C13" s="161" t="s">
+      <c r="C13" s="159" t="s">
         <v>110</v>
       </c>
-      <c r="D13" s="162"/>
-      <c r="E13" s="162"/>
-      <c r="F13" s="162"/>
-      <c r="G13" s="163" t="str">
+      <c r="D13" s="160"/>
+      <c r="E13" s="160"/>
+      <c r="F13" s="160"/>
+      <c r="G13" s="161" t="str">
         <f>_xll.qlEuribor(,C13,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00803#0019</v>
-      </c>
-      <c r="H13" s="190" t="str">
-        <f>Currency&amp;$B13&amp;"D_Mx"&amp;$H$1&amp;QuoteSuffix</f>
-        <v>EUR5MD_Mx_Quote</v>
-      </c>
-      <c r="I13" s="162"/>
-      <c r="J13" s="164" t="str">
+        <v>obj_0057e#0001</v>
+      </c>
+      <c r="H13" s="188" t="str">
+        <f>Mx_Deposits!D13</f>
+        <v>EUR5MD_Mx_Quote#0001</v>
+      </c>
+      <c r="I13" s="160"/>
+      <c r="J13" s="162" t="str">
         <f>_xll.qlDepositRateHelper(,H13,G13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00809#0050</v>
+        <v>obj_0059e#0001</v>
       </c>
       <c r="K13" s="48"/>
       <c r="L13" s="9" t="str">
@@ -3348,7 +3443,7 @@
       </c>
       <c r="M13" s="90" t="str">
         <f t="shared" si="1"/>
-        <v>obj_00809#0050</v>
+        <v>obj_0059e#0001</v>
       </c>
       <c r="N13" s="139" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M13,Trigger),"--")</f>
@@ -3356,7 +3451,7 @@
       </c>
       <c r="O13" s="94">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M13,Trigger),"--")</f>
-        <v>5.9999999999999995E-4</v>
+        <v>2.4000000000000001E-4</v>
       </c>
       <c r="P13" s="93" t="b">
         <v>1</v>
@@ -3369,19 +3464,19 @@
       </c>
       <c r="S13" s="95">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M13,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="T13" s="95">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M13,Trigger),"--")</f>
-        <v>42338</v>
-      </c>
-      <c r="U13" s="166"/>
+        <v>42425</v>
+      </c>
+      <c r="U13" s="164"/>
       <c r="V13" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Dp</v>
       </c>
       <c r="W13" s="3" t="str">
-        <v>obj_00809</v>
+        <v>obj_0059e</v>
       </c>
       <c r="X13" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W13,Trigger),"")</f>
@@ -3389,7 +3484,7 @@
       </c>
       <c r="Y13" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W13,Trigger),"")</f>
-        <v>5.9999999999999995E-4</v>
+        <v>2.4000000000000001E-4</v>
       </c>
       <c r="Z13" s="100" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W13)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W13)),_xll.qlSwapRateHelperSpread($W13))</f>
@@ -3397,16 +3492,16 @@
       </c>
       <c r="AA13" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W13,Trigger),"")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="AB13" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W13,Trigger),"")</f>
-        <v>42338</v>
+        <v>42425</v>
       </c>
       <c r="AC13" s="68">
-        <v>5.6718825362132895E-4</v>
-      </c>
-      <c r="AD13" s="165"/>
+        <v>2.2317410672388543E-4</v>
+      </c>
+      <c r="AD13" s="163"/>
       <c r="AH13" s="151"/>
     </row>
     <row r="14" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3427,13 +3522,13 @@
         <v>Euribor6M</v>
       </c>
       <c r="H14" s="114" t="str">
-        <f>Currency&amp;$B14&amp;"D_Mx"&amp;$H$1&amp;QuoteSuffix</f>
-        <v>EUR6MD_Mx_Quote</v>
+        <f>Mx_Deposits!D14</f>
+        <v>EUR6MD_Mx_Quote#0001</v>
       </c>
       <c r="I14" s="117"/>
       <c r="J14" s="62" t="str">
         <f>_xll.qlDepositRateHelper(,H14,G14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00808#0055</v>
+        <v>obj_00595#0001</v>
       </c>
       <c r="K14" s="48"/>
       <c r="L14" s="9" t="str">
@@ -3442,7 +3537,7 @@
       </c>
       <c r="M14" s="90" t="str">
         <f t="shared" si="1"/>
-        <v>obj_00808#0055</v>
+        <v>obj_00595#0001</v>
       </c>
       <c r="N14" s="139" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M14,Trigger),"--")</f>
@@ -3450,7 +3545,7 @@
       </c>
       <c r="O14" s="94">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M14,Trigger),"--")</f>
-        <v>8.9999999999999998E-4</v>
+        <v>5.2000000000000006E-4</v>
       </c>
       <c r="P14" s="93" t="b">
         <v>1</v>
@@ -3463,18 +3558,18 @@
       </c>
       <c r="S14" s="95">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M14,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="T14" s="95">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M14,Trigger),"--")</f>
-        <v>42367</v>
+        <v>42458</v>
       </c>
       <c r="V14" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Dp</v>
       </c>
       <c r="W14" s="3" t="str">
-        <v>obj_00808</v>
+        <v>obj_00595</v>
       </c>
       <c r="X14" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W14,Trigger),"")</f>
@@ -3482,7 +3577,7 @@
       </c>
       <c r="Y14" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W14,Trigger),"")</f>
-        <v>8.9999999999999998E-4</v>
+        <v>5.2000000000000006E-4</v>
       </c>
       <c r="Z14" s="100" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W14)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W14)),_xll.qlSwapRateHelperSpread($W14))</f>
@@ -3490,43 +3585,43 @@
       </c>
       <c r="AA14" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W14,Trigger),"")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="AB14" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W14,Trigger),"")</f>
-        <v>42367</v>
+        <v>42458</v>
       </c>
       <c r="AC14" s="68">
-        <v>8.7108954348870187E-4</v>
-      </c>
-      <c r="AD14" s="165"/>
+        <v>5.0752153010978802E-4</v>
+      </c>
+      <c r="AD14" s="163"/>
       <c r="AH14" s="151"/>
     </row>
     <row r="15" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="155" t="s">
+      <c r="A15" s="153" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="187" t="s">
+      <c r="B15" s="185" t="s">
         <v>140</v>
       </c>
-      <c r="C15" s="156" t="s">
+      <c r="C15" s="154" t="s">
         <v>140</v>
       </c>
-      <c r="D15" s="157"/>
-      <c r="E15" s="157"/>
-      <c r="F15" s="157"/>
-      <c r="G15" s="158" t="str">
+      <c r="D15" s="155"/>
+      <c r="E15" s="155"/>
+      <c r="F15" s="155"/>
+      <c r="G15" s="156" t="str">
         <f>_xll.qlEuribor(,C15,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00801#0022</v>
-      </c>
-      <c r="H15" s="188" t="str">
-        <f>Currency&amp;$B15&amp;"D_Mx"&amp;$H$1&amp;QuoteSuffix</f>
-        <v>EUR7MD_Mx_Quote</v>
-      </c>
-      <c r="I15" s="157"/>
-      <c r="J15" s="159" t="str">
+        <v>obj_00580#0001</v>
+      </c>
+      <c r="H15" s="186" t="str">
+        <f>Mx_Deposits!D15</f>
+        <v>EUR7MD_Mx_Quote#0001</v>
+      </c>
+      <c r="I15" s="155"/>
+      <c r="J15" s="157" t="str">
         <f>_xll.qlDepositRateHelper(,H15,G15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0080c#0043</v>
+        <v>obj_0059d#0001</v>
       </c>
       <c r="K15" s="48"/>
       <c r="L15" s="9" t="str">
@@ -3535,7 +3630,7 @@
       </c>
       <c r="M15" s="90" t="str">
         <f t="shared" si="1"/>
-        <v>obj_0080c#0043</v>
+        <v>obj_0059d#0001</v>
       </c>
       <c r="N15" s="139" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M15,Trigger),"--")</f>
@@ -3543,7 +3638,7 @@
       </c>
       <c r="O15" s="94">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M15,Trigger),"--")</f>
-        <v>1.1000000000000001E-3</v>
+        <v>6.9999999999999988E-4</v>
       </c>
       <c r="P15" s="93" t="b">
         <v>1</v>
@@ -3556,18 +3651,18 @@
       </c>
       <c r="S15" s="95">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M15,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="T15" s="95">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M15,Trigger),"--")</f>
-        <v>42398</v>
+        <v>42485</v>
       </c>
       <c r="V15" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Dp</v>
       </c>
       <c r="W15" s="3" t="str">
-        <v>obj_0080c</v>
+        <v>obj_0059d</v>
       </c>
       <c r="X15" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W15,Trigger),"")</f>
@@ -3575,7 +3670,7 @@
       </c>
       <c r="Y15" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W15,Trigger),"")</f>
-        <v>1.1000000000000001E-3</v>
+        <v>6.9999999999999988E-4</v>
       </c>
       <c r="Z15" s="100" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W15)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W15)),_xll.qlSwapRateHelperSpread($W15))</f>
@@ -3583,43 +3678,43 @@
       </c>
       <c r="AA15" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W15,Trigger),"")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="AB15" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W15,Trigger),"")</f>
-        <v>42398</v>
+        <v>42485</v>
       </c>
       <c r="AC15" s="68">
-        <v>1.0758526521622333E-3</v>
-      </c>
-      <c r="AD15" s="165"/>
+        <v>6.9071359142965571E-4</v>
+      </c>
+      <c r="AD15" s="163"/>
       <c r="AH15" s="151"/>
     </row>
     <row r="16" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="160" t="s">
+      <c r="A16" s="158" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="189" t="s">
+      <c r="B16" s="187" t="s">
         <v>141</v>
       </c>
-      <c r="C16" s="161" t="s">
+      <c r="C16" s="159" t="s">
         <v>141</v>
       </c>
-      <c r="D16" s="162"/>
-      <c r="E16" s="162"/>
-      <c r="F16" s="162"/>
-      <c r="G16" s="163" t="str">
+      <c r="D16" s="160"/>
+      <c r="E16" s="160"/>
+      <c r="F16" s="160"/>
+      <c r="G16" s="161" t="str">
         <f>_xll.qlEuribor(,C16,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00804#0022</v>
-      </c>
-      <c r="H16" s="190" t="str">
-        <f>Currency&amp;$B16&amp;"D_Mx"&amp;$H$1&amp;QuoteSuffix</f>
-        <v>EUR8MD_Mx_Quote</v>
-      </c>
-      <c r="I16" s="162"/>
-      <c r="J16" s="164" t="str">
+        <v>obj_0057d#0001</v>
+      </c>
+      <c r="H16" s="188" t="str">
+        <f>Mx_Deposits!D16</f>
+        <v>EUR8MD_Mx_Quote#0001</v>
+      </c>
+      <c r="I16" s="160"/>
+      <c r="J16" s="162" t="str">
         <f>_xll.qlDepositRateHelper(,H16,G16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0080b#0043</v>
+        <v>obj_005a3#0001</v>
       </c>
       <c r="K16" s="48"/>
       <c r="L16" s="9" t="str">
@@ -3628,7 +3723,7 @@
       </c>
       <c r="M16" s="90" t="str">
         <f t="shared" si="1"/>
-        <v>obj_0080b#0043</v>
+        <v>obj_005a3#0001</v>
       </c>
       <c r="N16" s="139" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M16,Trigger),"--")</f>
@@ -3636,7 +3731,7 @@
       </c>
       <c r="O16" s="94">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M16,Trigger),"--")</f>
-        <v>1.2999999999999999E-3</v>
+        <v>8.8000000000000014E-4</v>
       </c>
       <c r="P16" s="93" t="b">
         <v>1</v>
@@ -3649,18 +3744,18 @@
       </c>
       <c r="S16" s="95">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M16,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="T16" s="95">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M16,Trigger),"--")</f>
-        <v>42429</v>
+        <v>42515</v>
       </c>
       <c r="V16" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Dp</v>
       </c>
       <c r="W16" s="3" t="str">
-        <v>obj_0080b</v>
+        <v>obj_005a3</v>
       </c>
       <c r="X16" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W16,Trigger),"")</f>
@@ -3668,7 +3763,7 @@
       </c>
       <c r="Y16" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W16,Trigger),"")</f>
-        <v>1.2999999999999999E-3</v>
+        <v>8.8000000000000014E-4</v>
       </c>
       <c r="Z16" s="100" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W16)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W16)),_xll.qlSwapRateHelperSpread($W16))</f>
@@ -3676,16 +3771,16 @@
       </c>
       <c r="AA16" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W16,Trigger),"")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="AB16" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W16,Trigger),"")</f>
-        <v>42429</v>
+        <v>42515</v>
       </c>
       <c r="AC16" s="68">
-        <v>1.2800211960934393E-3</v>
-      </c>
-      <c r="AD16" s="165"/>
+        <v>8.7391640024986578E-4</v>
+      </c>
+      <c r="AD16" s="163"/>
       <c r="AH16" s="151"/>
     </row>
     <row r="17" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3706,13 +3801,13 @@
         <v>Euribor9M</v>
       </c>
       <c r="H17" s="114" t="str">
-        <f>Currency&amp;$B17&amp;"D_Mx"&amp;$H$1&amp;QuoteSuffix</f>
-        <v>EUR9MD_Mx_Quote</v>
+        <f>Mx_Deposits!D17</f>
+        <v>EUR9MD_Mx_Quote#0001</v>
       </c>
       <c r="I17" s="117"/>
       <c r="J17" s="62" t="str">
         <f>_xll.qlDepositRateHelper(,H17,G17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00806#0055</v>
+        <v>obj_0059b#0001</v>
       </c>
       <c r="K17" s="48"/>
       <c r="L17" s="9" t="str">
@@ -3721,7 +3816,7 @@
       </c>
       <c r="M17" s="90" t="str">
         <f t="shared" si="1"/>
-        <v>obj_00806#0055</v>
+        <v>obj_0059b#0001</v>
       </c>
       <c r="N17" s="139" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M17,Trigger),"--")</f>
@@ -3729,7 +3824,7 @@
       </c>
       <c r="O17" s="94">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M17,Trigger),"--")</f>
-        <v>1.5E-3</v>
+        <v>1.0800000000000002E-3</v>
       </c>
       <c r="P17" s="93" t="b">
         <v>1</v>
@@ -3742,18 +3837,18 @@
       </c>
       <c r="S17" s="95">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M17,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="T17" s="95">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M17,Trigger),"--")</f>
-        <v>42458</v>
+        <v>42548</v>
       </c>
       <c r="V17" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Dp</v>
       </c>
       <c r="W17" s="3" t="str">
-        <v>obj_00828</v>
+        <v>obj_0059c</v>
       </c>
       <c r="X17" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W17,Trigger),"")</f>
@@ -3761,7 +3856,7 @@
       </c>
       <c r="Y17" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W17,Trigger),"")</f>
-        <v>1.0866666699999999E-3</v>
+        <v>1.0072727300000001E-3</v>
       </c>
       <c r="Z17" s="100" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W17)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W17)),_xll.qlSwapRateHelperSpread($W17))</f>
@@ -3769,43 +3864,43 @@
       </c>
       <c r="AA17" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W17,Trigger),"")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="AB17" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W17,Trigger),"")</f>
-        <v>42445</v>
+        <v>42537</v>
       </c>
       <c r="AC17" s="68">
-        <v>1.0693976756047229E-3</v>
-      </c>
-      <c r="AD17" s="165"/>
+        <v>1.0033640389903687E-3</v>
+      </c>
+      <c r="AD17" s="163"/>
       <c r="AH17" s="151"/>
     </row>
     <row r="18" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="155" t="s">
+      <c r="A18" s="153" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="187" t="s">
+      <c r="B18" s="185" t="s">
         <v>143</v>
       </c>
-      <c r="C18" s="156" t="s">
+      <c r="C18" s="154" t="s">
         <v>143</v>
       </c>
-      <c r="D18" s="157"/>
-      <c r="E18" s="157"/>
-      <c r="F18" s="157"/>
-      <c r="G18" s="158" t="str">
+      <c r="D18" s="155"/>
+      <c r="E18" s="155"/>
+      <c r="F18" s="155"/>
+      <c r="G18" s="156" t="str">
         <f>_xll.qlEuribor(,C18,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00823#0051</v>
-      </c>
-      <c r="H18" s="188" t="str">
-        <f>Currency&amp;$B18&amp;"D_Mx"&amp;$H$1&amp;QuoteSuffix</f>
-        <v>EUR10MD_Mx_Quote</v>
-      </c>
-      <c r="I18" s="157"/>
-      <c r="J18" s="159" t="str">
+        <v>obj_00593#0001</v>
+      </c>
+      <c r="H18" s="186" t="str">
+        <f>Mx_Deposits!D18</f>
+        <v>EUR10MD_Mx_Quote#0001</v>
+      </c>
+      <c r="I18" s="155"/>
+      <c r="J18" s="157" t="str">
         <f>_xll.qlDepositRateHelper(,H18,G18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00824#0038</v>
+        <v>obj_00599#0001</v>
       </c>
       <c r="K18" s="48"/>
       <c r="L18" s="9" t="str">
@@ -3814,7 +3909,7 @@
       </c>
       <c r="M18" s="90" t="str">
         <f t="shared" si="1"/>
-        <v>obj_00824#0038</v>
+        <v>obj_00599#0001</v>
       </c>
       <c r="N18" s="139" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M18,Trigger),"--")</f>
@@ -3822,7 +3917,7 @@
       </c>
       <c r="O18" s="94">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M18,Trigger),"--")</f>
-        <v>1.6999999999999999E-3</v>
+        <v>1.2600000000000001E-3</v>
       </c>
       <c r="P18" s="93" t="b">
         <v>1</v>
@@ -3835,26 +3930,26 @@
       </c>
       <c r="S18" s="95">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M18,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="T18" s="95">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M18,Trigger),"--")</f>
-        <v>42489</v>
+        <v>42576</v>
       </c>
       <c r="V18" s="3" t="str">
         <f t="shared" si="2"/>
         <v>FUT</v>
       </c>
       <c r="W18" s="3" t="str">
-        <v>obj_00813</v>
+        <v>obj_005dc</v>
       </c>
       <c r="X18" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W18,Trigger),"")</f>
-        <v>EURFUT3MH6_Quote</v>
+        <v>EURFUT3MM6_Quote</v>
       </c>
       <c r="Y18" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W18,Trigger),"")</f>
-        <v>1.7500000000003624E-4</v>
+        <v>-5.7499999999999218E-4</v>
       </c>
       <c r="Z18" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W18)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W18)),_xll.qlSwapRateHelperSpread($W18))</f>
@@ -3862,43 +3957,43 @@
       </c>
       <c r="AA18" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W18,Trigger),"")</f>
-        <v>42445</v>
+        <v>42536</v>
       </c>
       <c r="AB18" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W18,Trigger),"")</f>
-        <v>42537</v>
+        <v>42628</v>
       </c>
       <c r="AC18" s="68">
-        <v>8.3953397799189087E-4</v>
-      </c>
-      <c r="AD18" s="165"/>
+        <v>5.9131573040104143E-4</v>
+      </c>
+      <c r="AD18" s="163"/>
       <c r="AH18" s="151"/>
     </row>
     <row r="19" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="160" t="s">
+      <c r="A19" s="158" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="189" t="s">
+      <c r="B19" s="187" t="s">
         <v>144</v>
       </c>
-      <c r="C19" s="161" t="s">
+      <c r="C19" s="159" t="s">
         <v>144</v>
       </c>
-      <c r="D19" s="162"/>
-      <c r="E19" s="162"/>
-      <c r="F19" s="162"/>
-      <c r="G19" s="163" t="str">
+      <c r="D19" s="160"/>
+      <c r="E19" s="160"/>
+      <c r="F19" s="160"/>
+      <c r="G19" s="161" t="str">
         <f>_xll.qlEuribor(,C19,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00826#0040</v>
-      </c>
-      <c r="H19" s="190" t="str">
-        <f>Currency&amp;$B19&amp;"D_Mx"&amp;$H$1&amp;QuoteSuffix</f>
-        <v>EUR11MD_Mx_Quote</v>
-      </c>
-      <c r="I19" s="162"/>
-      <c r="J19" s="164" t="str">
+        <v>obj_00592#0001</v>
+      </c>
+      <c r="H19" s="188" t="str">
+        <f>Mx_Deposits!D19</f>
+        <v>EUR11MD_Mx_Quote#0001</v>
+      </c>
+      <c r="I19" s="160"/>
+      <c r="J19" s="162" t="str">
         <f>_xll.qlDepositRateHelper(,H19,G19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00827#0040</v>
+        <v>obj_005a4#0001</v>
       </c>
       <c r="K19" s="48"/>
       <c r="L19" s="9" t="str">
@@ -3907,7 +4002,7 @@
       </c>
       <c r="M19" s="90" t="str">
         <f t="shared" si="1"/>
-        <v>obj_00827#0040</v>
+        <v>obj_005a4#0001</v>
       </c>
       <c r="N19" s="139" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M19,Trigger),"--")</f>
@@ -3915,7 +4010,7 @@
       </c>
       <c r="O19" s="94">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M19,Trigger),"--")</f>
-        <v>2E-3</v>
+        <v>1.4499999999999999E-3</v>
       </c>
       <c r="P19" s="93" t="b">
         <v>1</v>
@@ -3928,26 +4023,26 @@
       </c>
       <c r="S19" s="95">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M19,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="T19" s="95">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M19,Trigger),"--")</f>
-        <v>42520</v>
+        <v>42607</v>
       </c>
       <c r="V19" s="3" t="str">
         <f t="shared" si="2"/>
         <v>FUT</v>
       </c>
       <c r="W19" s="3" t="str">
-        <v>obj_00814</v>
+        <v>obj_005d6</v>
       </c>
       <c r="X19" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W19,Trigger),"")</f>
-        <v>EURFUT3MM6_Quote</v>
+        <v>EURFUT3MU6_Quote</v>
       </c>
       <c r="Y19" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W19,Trigger),"")</f>
-        <v>3.2500000000001972E-4</v>
+        <v>-5.2500000000010871E-4</v>
       </c>
       <c r="Z19" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W19)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W19)),_xll.qlSwapRateHelperSpread($W19))</f>
@@ -3955,16 +4050,16 @@
       </c>
       <c r="AA19" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W19,Trigger),"")</f>
-        <v>42536</v>
+        <v>42634</v>
       </c>
       <c r="AB19" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W19,Trigger),"")</f>
-        <v>42628</v>
+        <v>42725</v>
       </c>
       <c r="AC19" s="68">
-        <v>7.3678032948418335E-4</v>
-      </c>
-      <c r="AD19" s="165"/>
+        <v>3.5488765277773277E-4</v>
+      </c>
+      <c r="AD19" s="163"/>
       <c r="AH19" s="151"/>
     </row>
     <row r="20" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3985,13 +4080,13 @@
         <v>Euribor1Y</v>
       </c>
       <c r="H20" s="114" t="str">
-        <f>Currency&amp;$B20&amp;"D_Mx"&amp;$H$1&amp;QuoteSuffix</f>
-        <v>EUR1YD_Mx_Quote</v>
+        <f>Mx_Deposits!D20</f>
+        <v>EUR1YD_Mx_Quote#0001</v>
       </c>
       <c r="I20" s="117"/>
       <c r="J20" s="62" t="str">
         <f>_xll.qlDepositRateHelper(,H20,G20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00825#0042</v>
+        <v>obj_0059f#0001</v>
       </c>
       <c r="K20" s="48"/>
       <c r="L20" s="9" t="str">
@@ -4000,7 +4095,7 @@
       </c>
       <c r="M20" s="90" t="str">
         <f t="shared" si="1"/>
-        <v>obj_00825#0042</v>
+        <v>obj_0059f#0001</v>
       </c>
       <c r="N20" s="139" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M20,Trigger),"--")</f>
@@ -4008,7 +4103,7 @@
       </c>
       <c r="O20" s="94">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M20,Trigger),"--")</f>
-        <v>2.2000000000000001E-3</v>
+        <v>1.64E-3</v>
       </c>
       <c r="P20" s="93" t="b">
         <v>1</v>
@@ -4021,26 +4116,26 @@
       </c>
       <c r="S20" s="95">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M20,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="T20" s="95">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M20,Trigger),"--")</f>
-        <v>42550</v>
+        <v>42639</v>
       </c>
       <c r="V20" s="3" t="str">
         <f t="shared" si="2"/>
         <v>FUT</v>
       </c>
       <c r="W20" s="3" t="str">
-        <v>obj_00815</v>
+        <v>obj_005cf</v>
       </c>
       <c r="X20" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W20,Trigger),"")</f>
-        <v>EURFUT3MU6_Quote</v>
+        <v>EURFUT3MZ6_Quote</v>
       </c>
       <c r="Y20" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W20,Trigger),"")</f>
-        <v>6.2499999999998668E-4</v>
+        <v>-3.7500000000001421E-4</v>
       </c>
       <c r="Z20" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W20)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W20)),_xll.qlSwapRateHelperSpread($W20))</f>
@@ -4048,23 +4143,23 @@
       </c>
       <c r="AA20" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W20,Trigger),"")</f>
-        <v>42634</v>
+        <v>42725</v>
       </c>
       <c r="AB20" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W20,Trigger),"")</f>
-        <v>42725</v>
+        <v>42815</v>
       </c>
       <c r="AC20" s="68">
-        <v>7.186214672920679E-4</v>
-      </c>
-      <c r="AD20" s="165"/>
+        <v>2.3349271164773989E-4</v>
+      </c>
+      <c r="AD20" s="163"/>
       <c r="AH20" s="151"/>
     </row>
     <row r="21" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="106" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="191" t="s">
+      <c r="B21" s="189" t="s">
         <v>149</v>
       </c>
       <c r="C21" s="107" t="s">
@@ -4082,14 +4177,14 @@
       <c r="G21" s="108" t="s">
         <v>137</v>
       </c>
-      <c r="H21" s="192" t="str">
-        <f>Currency&amp;$G21&amp;"_Mx"&amp;$H$1&amp;QuoteSuffix</f>
-        <v>EURSTUB_Mx_Quote</v>
+      <c r="H21" s="190" t="str">
+        <f>Mx_Deposits!D21</f>
+        <v>EURSTUB_Mx_Quote#0001</v>
       </c>
       <c r="I21" s="116"/>
       <c r="J21" s="109" t="str">
         <f>_xll.qlDepositRateHelper2(,H21,C21,2,Calendar,E21,D21,F21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00828#0017</v>
+        <v>obj_0059c#0001</v>
       </c>
       <c r="K21" s="48"/>
       <c r="L21" s="10" t="str">
@@ -4098,7 +4193,7 @@
       </c>
       <c r="M21" s="91" t="str">
         <f t="shared" si="1"/>
-        <v>obj_00828#0017</v>
+        <v>obj_0059c#0001</v>
       </c>
       <c r="N21" s="140" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M21,Trigger),"--")</f>
@@ -4106,7 +4201,7 @@
       </c>
       <c r="O21" s="97">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M21,Trigger),"--")</f>
-        <v>1.0866666699999999E-3</v>
+        <v>1.0072727300000001E-3</v>
       </c>
       <c r="P21" s="96" t="b">
         <v>1</v>
@@ -4119,26 +4214,26 @@
       </c>
       <c r="S21" s="98">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M21,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="T21" s="98">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M21,Trigger),"--")</f>
-        <v>42445</v>
+        <v>42537</v>
       </c>
       <c r="V21" s="3" t="str">
         <f t="shared" si="2"/>
         <v>FUT</v>
       </c>
       <c r="W21" s="3" t="str">
-        <v>obj_00816</v>
+        <v>obj_005cc</v>
       </c>
       <c r="X21" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W21,Trigger),"")</f>
-        <v>EURFUT3MZ6_Quote</v>
+        <v>EURFUT3MH7_Quote</v>
       </c>
       <c r="Y21" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W21,Trigger),"")</f>
-        <v>1.0249999999999426E-3</v>
+        <v>-9.9999999999988987E-5</v>
       </c>
       <c r="Z21" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W21)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W21)),_xll.qlSwapRateHelperSpread($W21))</f>
@@ -4146,16 +4241,16 @@
       </c>
       <c r="AA21" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W21,Trigger),"")</f>
-        <v>42725</v>
+        <v>42809</v>
       </c>
       <c r="AB21" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W21,Trigger),"")</f>
-        <v>42815</v>
+        <v>42901</v>
       </c>
       <c r="AC21" s="68">
-        <v>7.6404404408820928E-4</v>
-      </c>
-      <c r="AD21" s="165"/>
+        <v>1.9157971385055711E-4</v>
+      </c>
+      <c r="AD21" s="163"/>
       <c r="AH21" s="151"/>
     </row>
     <row r="22" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4207,15 +4302,15 @@
         <v>FUT</v>
       </c>
       <c r="W22" s="3" t="str">
-        <v>obj_00817</v>
+        <v>obj_005db</v>
       </c>
       <c r="X22" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W22,Trigger),"")</f>
-        <v>EURFUT3MH7_Quote</v>
+        <v>EURFUT3MM7_Quote</v>
       </c>
       <c r="Y22" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W22,Trigger),"")</f>
-        <v>1.5749999999999931E-3</v>
+        <v>2.7500000000002522E-4</v>
       </c>
       <c r="Z22" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W22)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W22)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W22)),_xll.qlSwapRateHelperSpread($W22))</f>
@@ -4223,16 +4318,16 @@
       </c>
       <c r="AA22" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W22,Trigger),"")</f>
-        <v>42809</v>
+        <v>42907</v>
       </c>
       <c r="AB22" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W22,Trigger),"")</f>
-        <v>42901</v>
+        <v>42999</v>
       </c>
       <c r="AC22" s="68">
-        <v>8.6763096451158246E-4</v>
-      </c>
-      <c r="AD22" s="165"/>
+        <v>2.0321037160719337E-4</v>
+      </c>
+      <c r="AD22" s="163"/>
       <c r="AH22" s="151"/>
     </row>
     <row r="23" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4297,15 +4392,15 @@
         <v>FUT</v>
       </c>
       <c r="W23" s="3" t="str">
-        <v>obj_00818</v>
+        <v>obj_005d5</v>
       </c>
       <c r="X23" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W23,Trigger),"")</f>
-        <v>EURFUT3MM7_Quote</v>
+        <v>EURFUT3MU7_Quote</v>
       </c>
       <c r="Y23" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W23,Trigger),"")</f>
-        <v>2.175000000000038E-3</v>
+        <v>6.7499999999998117E-4</v>
       </c>
       <c r="Z23" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W23)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W23)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W23)),_xll.qlSwapRateHelperSpread($W23))</f>
@@ -4313,16 +4408,16 @@
       </c>
       <c r="AA23" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W23,Trigger),"")</f>
-        <v>42907</v>
+        <v>42998</v>
       </c>
       <c r="AB23" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W23,Trigger),"")</f>
-        <v>42999</v>
+        <v>43089</v>
       </c>
       <c r="AC23" s="68">
-        <v>1.0264461689707747E-3</v>
-      </c>
-      <c r="AD23" s="165"/>
+        <v>2.5656112799061375E-4</v>
+      </c>
+      <c r="AD23" s="163"/>
       <c r="AH23" s="151"/>
     </row>
     <row r="24" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4340,11 +4435,11 @@
       <c r="E24" s="123"/>
       <c r="F24" s="123"/>
       <c r="G24" s="55" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$22</f>
+        <f t="shared" ref="G24:G41" si="5">PROPER(Currency)&amp;FamilyName&amp;$G$22</f>
         <v>Euribor6M</v>
       </c>
       <c r="H24" s="113" t="str">
-        <f>Currency&amp;B24&amp;C24&amp;QuoteSuffix</f>
+        <f t="shared" ref="H24:H41" si="6">Currency&amp;B24&amp;C24&amp;QuoteSuffix</f>
         <v>EUR1x7F_Quote</v>
       </c>
       <c r="I24" s="123"/>
@@ -4390,7 +4485,7 @@
         <v>Sw</v>
       </c>
       <c r="W24" s="3" t="str">
-        <v>obj_00942</v>
+        <v>obj_005bb</v>
       </c>
       <c r="X24" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W24,Trigger),"")</f>
@@ -4398,7 +4493,7 @@
       </c>
       <c r="Y24" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W24,Trigger),"")</f>
-        <v>2.32E-3</v>
+        <v>1.2800000000000001E-3</v>
       </c>
       <c r="Z24" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W24)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W24)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W24)),_xll.qlSwapRateHelperSpread($W24))</f>
@@ -4406,16 +4501,16 @@
       </c>
       <c r="AA24" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W24,Trigger),"")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="AB24" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W24,Trigger),"")</f>
-        <v>43280</v>
+        <v>43368</v>
       </c>
       <c r="AC24" s="68">
-        <v>2.3758640647119516E-3</v>
-      </c>
-      <c r="AD24" s="165"/>
+        <v>1.3072044946034873E-3</v>
+      </c>
+      <c r="AD24" s="163"/>
       <c r="AH24" s="151"/>
     </row>
     <row r="25" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4426,18 +4521,18 @@
         <v>2</v>
       </c>
       <c r="C25" s="61" t="str">
-        <f t="shared" ref="C25:C41" si="5">"x"&amp;B25+SUBSTITUTE($G$22,"M","")&amp;"F"</f>
+        <f t="shared" ref="C25:C41" si="7">"x"&amp;B25+SUBSTITUTE($G$22,"M","")&amp;"F"</f>
         <v>x8F</v>
       </c>
       <c r="D25" s="117"/>
       <c r="E25" s="117"/>
       <c r="F25" s="117"/>
       <c r="G25" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$22</f>
+        <f t="shared" si="5"/>
         <v>Euribor6M</v>
       </c>
       <c r="H25" s="114" t="str">
-        <f>Currency&amp;B25&amp;C25&amp;QuoteSuffix</f>
+        <f t="shared" si="6"/>
         <v>EUR2x8F_Quote</v>
       </c>
       <c r="I25" s="117"/>
@@ -4481,7 +4576,7 @@
         <v>Sw</v>
       </c>
       <c r="W25" s="3" t="str">
-        <v>obj_00949</v>
+        <v>obj_005b3</v>
       </c>
       <c r="X25" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W25,Trigger),"")</f>
@@ -4489,7 +4584,7 @@
       </c>
       <c r="Y25" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W25,Trigger),"")</f>
-        <v>3.7399999999999998E-3</v>
+        <v>2.3899999999999998E-3</v>
       </c>
       <c r="Z25" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W25)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W25)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W25)),_xll.qlSwapRateHelperSpread($W25))</f>
@@ -4497,16 +4592,16 @@
       </c>
       <c r="AA25" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W25,Trigger),"")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="AB25" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W25,Trigger),"")</f>
-        <v>43644</v>
+        <v>43733</v>
       </c>
       <c r="AC25" s="68">
-        <v>3.7817972207059747E-3</v>
-      </c>
-      <c r="AD25" s="165"/>
+        <v>2.4107312622728182E-3</v>
+      </c>
+      <c r="AD25" s="163"/>
       <c r="AH25" s="151"/>
     </row>
     <row r="26" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4517,18 +4612,18 @@
         <v>3</v>
       </c>
       <c r="C26" s="61" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>x9F</v>
       </c>
       <c r="D26" s="117"/>
       <c r="E26" s="117"/>
       <c r="F26" s="117"/>
       <c r="G26" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$22</f>
+        <f t="shared" si="5"/>
         <v>Euribor6M</v>
       </c>
       <c r="H26" s="114" t="str">
-        <f>Currency&amp;B26&amp;C26&amp;QuoteSuffix</f>
+        <f t="shared" si="6"/>
         <v>EUR3x9F_Quote</v>
       </c>
       <c r="I26" s="117"/>
@@ -4572,7 +4667,7 @@
         <v>Sw</v>
       </c>
       <c r="W26" s="3" t="str">
-        <v>obj_00948</v>
+        <v>obj_005b9</v>
       </c>
       <c r="X26" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W26,Trigger),"")</f>
@@ -4580,7 +4675,7 @@
       </c>
       <c r="Y26" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W26,Trigger),"")</f>
-        <v>5.3499999999999989E-3</v>
+        <v>3.6800000000000001E-3</v>
       </c>
       <c r="Z26" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W26)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W26)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W26)),_xll.qlSwapRateHelperSpread($W26))</f>
@@ -4588,16 +4683,16 @@
       </c>
       <c r="AA26" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W26,Trigger),"")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="AB26" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W26,Trigger),"")</f>
-        <v>44011</v>
+        <v>44099</v>
       </c>
       <c r="AC26" s="68">
-        <v>5.3890272326636993E-3</v>
-      </c>
-      <c r="AD26" s="165"/>
+        <v>3.7000280343199138E-3</v>
+      </c>
+      <c r="AD26" s="163"/>
       <c r="AH26" s="151"/>
     </row>
     <row r="27" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4608,18 +4703,18 @@
         <v>4</v>
       </c>
       <c r="C27" s="61" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>x10F</v>
       </c>
       <c r="D27" s="117"/>
       <c r="E27" s="117"/>
       <c r="F27" s="117"/>
       <c r="G27" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$22</f>
+        <f t="shared" si="5"/>
         <v>Euribor6M</v>
       </c>
       <c r="H27" s="114" t="str">
-        <f>Currency&amp;B27&amp;C27&amp;QuoteSuffix</f>
+        <f t="shared" si="6"/>
         <v>EUR4x10F_Quote</v>
       </c>
       <c r="I27" s="117"/>
@@ -4663,7 +4758,7 @@
         <v>Sw</v>
       </c>
       <c r="W27" s="3" t="str">
-        <v>obj_00960</v>
+        <v>obj_005ba</v>
       </c>
       <c r="X27" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W27,Trigger),"")</f>
@@ -4671,7 +4766,7 @@
       </c>
       <c r="Y27" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W27,Trigger),"")</f>
-        <v>6.9500000000000004E-3</v>
+        <v>5.0200000000000002E-3</v>
       </c>
       <c r="Z27" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W27)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W27)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W27)),_xll.qlSwapRateHelperSpread($W27))</f>
@@ -4679,16 +4774,16 @@
       </c>
       <c r="AA27" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W27,Trigger),"")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="AB27" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W27,Trigger),"")</f>
-        <v>44376</v>
+        <v>44466</v>
       </c>
       <c r="AC27" s="68">
-        <v>7.0020626285497685E-3</v>
-      </c>
-      <c r="AD27" s="165"/>
+        <v>5.0494075475303411E-3</v>
+      </c>
+      <c r="AD27" s="163"/>
       <c r="AH27" s="151"/>
     </row>
     <row r="28" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4699,18 +4794,18 @@
         <v>5</v>
       </c>
       <c r="C28" s="61" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>x11F</v>
       </c>
       <c r="D28" s="117"/>
       <c r="E28" s="117"/>
       <c r="F28" s="117"/>
       <c r="G28" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$22</f>
+        <f t="shared" si="5"/>
         <v>Euribor6M</v>
       </c>
       <c r="H28" s="114" t="str">
-        <f>Currency&amp;B28&amp;C28&amp;QuoteSuffix</f>
+        <f t="shared" si="6"/>
         <v>EUR5x11F_Quote</v>
       </c>
       <c r="I28" s="117"/>
@@ -4754,7 +4849,7 @@
         <v>Sw</v>
       </c>
       <c r="W28" s="3" t="str">
-        <v>obj_00951</v>
+        <v>obj_005bf</v>
       </c>
       <c r="X28" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W28,Trigger),"")</f>
@@ -4762,7 +4857,7 @@
       </c>
       <c r="Y28" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W28,Trigger),"")</f>
-        <v>8.4600000000000005E-3</v>
+        <v>6.3599999999999993E-3</v>
       </c>
       <c r="Z28" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W28)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W28)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W28)),_xll.qlSwapRateHelperSpread($W28))</f>
@@ -4770,16 +4865,16 @@
       </c>
       <c r="AA28" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W28,Trigger),"")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="AB28" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W28,Trigger),"")</f>
-        <v>44741</v>
+        <v>44830</v>
       </c>
       <c r="AC28" s="68">
-        <v>8.5369748822671804E-3</v>
-      </c>
-      <c r="AD28" s="165"/>
+        <v>6.4080744729809675E-3</v>
+      </c>
+      <c r="AD28" s="163"/>
       <c r="AH28" s="151"/>
     </row>
     <row r="29" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4790,18 +4885,18 @@
         <v>6</v>
       </c>
       <c r="C29" s="61" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>x12F</v>
       </c>
       <c r="D29" s="117"/>
       <c r="E29" s="117"/>
       <c r="F29" s="117"/>
       <c r="G29" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$22</f>
+        <f t="shared" si="5"/>
         <v>Euribor6M</v>
       </c>
       <c r="H29" s="114" t="str">
-        <f>Currency&amp;B29&amp;C29&amp;QuoteSuffix</f>
+        <f t="shared" si="6"/>
         <v>EUR6x12F_Quote</v>
       </c>
       <c r="I29" s="117"/>
@@ -4845,7 +4940,7 @@
         <v>Sw</v>
       </c>
       <c r="W29" s="3" t="str">
-        <v>obj_00943</v>
+        <v>obj_005b1</v>
       </c>
       <c r="X29" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W29,Trigger),"")</f>
@@ -4853,7 +4948,7 @@
       </c>
       <c r="Y29" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W29,Trigger),"")</f>
-        <v>9.8399999999999998E-3</v>
+        <v>7.6499999999999988E-3</v>
       </c>
       <c r="Z29" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W29)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W29)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W29)),_xll.qlSwapRateHelperSpread($W29))</f>
@@ -4861,16 +4956,16 @@
       </c>
       <c r="AA29" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W29,Trigger),"")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="AB29" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W29,Trigger),"")</f>
-        <v>45106</v>
+        <v>45194</v>
       </c>
       <c r="AC29" s="68">
-        <v>9.9516693742287901E-3</v>
-      </c>
-      <c r="AD29" s="165"/>
+        <v>7.7259658490480441E-3</v>
+      </c>
+      <c r="AD29" s="163"/>
       <c r="AH29" s="151"/>
     </row>
     <row r="30" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4881,18 +4976,18 @@
         <v>7</v>
       </c>
       <c r="C30" s="61" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>x13F</v>
       </c>
       <c r="D30" s="117"/>
       <c r="E30" s="117"/>
       <c r="F30" s="117"/>
       <c r="G30" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$22</f>
+        <f t="shared" si="5"/>
         <v>Euribor6M</v>
       </c>
       <c r="H30" s="114" t="str">
-        <f>Currency&amp;B30&amp;C30&amp;QuoteSuffix</f>
+        <f t="shared" si="6"/>
         <v>EUR7x13F_Quote</v>
       </c>
       <c r="I30" s="117"/>
@@ -4936,7 +5031,7 @@
         <v>Sw</v>
       </c>
       <c r="W30" s="3" t="str">
-        <v>obj_00957</v>
+        <v>obj_005b4</v>
       </c>
       <c r="X30" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W30,Trigger),"")</f>
@@ -4944,7 +5039,7 @@
       </c>
       <c r="Y30" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W30,Trigger),"")</f>
-        <v>1.1059999999999999E-2</v>
+        <v>8.8400000000000006E-3</v>
       </c>
       <c r="Z30" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W30)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W30)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W30)),_xll.qlSwapRateHelperSpread($W30))</f>
@@ -4952,16 +5047,16 @@
       </c>
       <c r="AA30" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W30,Trigger),"")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="AB30" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W30,Trigger),"")</f>
-        <v>45471</v>
+        <v>45560</v>
       </c>
       <c r="AC30" s="68">
-        <v>1.1209386941279507E-2</v>
-      </c>
-      <c r="AD30" s="165"/>
+        <v>8.9485900852184358E-3</v>
+      </c>
+      <c r="AD30" s="163"/>
       <c r="AH30" s="151"/>
     </row>
     <row r="31" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4972,18 +5067,18 @@
         <v>8</v>
       </c>
       <c r="C31" s="61" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>x14F</v>
       </c>
       <c r="D31" s="117"/>
       <c r="E31" s="117"/>
       <c r="F31" s="117"/>
       <c r="G31" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$22</f>
+        <f t="shared" si="5"/>
         <v>Euribor6M</v>
       </c>
       <c r="H31" s="114" t="str">
-        <f>Currency&amp;B31&amp;C31&amp;QuoteSuffix</f>
+        <f t="shared" si="6"/>
         <v>EUR8x14F_Quote</v>
       </c>
       <c r="I31" s="117"/>
@@ -5027,7 +5122,7 @@
         <v>Sw</v>
       </c>
       <c r="W31" s="3" t="str">
-        <v>obj_0094d</v>
+        <v>obj_005b6</v>
       </c>
       <c r="X31" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W31,Trigger),"")</f>
@@ -5035,7 +5130,7 @@
       </c>
       <c r="Y31" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W31,Trigger),"")</f>
-        <v>1.2110000000000001E-2</v>
+        <v>9.8999999999999991E-3</v>
       </c>
       <c r="Z31" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W31)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W31)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W31)),_xll.qlSwapRateHelperSpread($W31))</f>
@@ -5043,16 +5138,16 @@
       </c>
       <c r="AA31" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W31,Trigger),"")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="AB31" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W31,Trigger),"")</f>
-        <v>45838</v>
+        <v>45925</v>
       </c>
       <c r="AC31" s="68">
-        <v>1.2302999098825571E-2</v>
-      </c>
-      <c r="AD31" s="165"/>
+        <v>1.004853505493635E-2</v>
+      </c>
+      <c r="AD31" s="163"/>
       <c r="AH31" s="151"/>
     </row>
     <row r="32" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5063,18 +5158,18 @@
         <v>9</v>
       </c>
       <c r="C32" s="61" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>x15F</v>
       </c>
       <c r="D32" s="117"/>
       <c r="E32" s="117"/>
       <c r="F32" s="117"/>
       <c r="G32" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$22</f>
+        <f t="shared" si="5"/>
         <v>Euribor6M</v>
       </c>
       <c r="H32" s="114" t="str">
-        <f>Currency&amp;B32&amp;C32&amp;QuoteSuffix</f>
+        <f t="shared" si="6"/>
         <v>EUR9x15F_Quote</v>
       </c>
       <c r="I32" s="117"/>
@@ -5118,7 +5213,7 @@
         <v>Sw</v>
       </c>
       <c r="W32" s="3" t="str">
-        <v>obj_00941</v>
+        <v>obj_005b8</v>
       </c>
       <c r="X32" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W32,Trigger),"")</f>
@@ -5126,7 +5221,7 @@
       </c>
       <c r="Y32" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W32,Trigger),"")</f>
-        <v>1.303E-2</v>
+        <v>1.0860000000000002E-2</v>
       </c>
       <c r="Z32" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W32)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W32)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W32)),_xll.qlSwapRateHelperSpread($W32))</f>
@@ -5134,16 +5229,16 @@
       </c>
       <c r="AA32" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W32,Trigger),"")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="AB32" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W32,Trigger),"")</f>
-        <v>46202</v>
+        <v>46290</v>
       </c>
       <c r="AC32" s="68">
-        <v>1.3268842079098323E-2</v>
-      </c>
-      <c r="AD32" s="165"/>
+        <v>1.1052856795162203E-2</v>
+      </c>
+      <c r="AD32" s="163"/>
     </row>
     <row r="33" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="58" t="s">
@@ -5153,18 +5248,18 @@
         <v>10</v>
       </c>
       <c r="C33" s="61" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>x16F</v>
       </c>
       <c r="D33" s="117"/>
       <c r="E33" s="117"/>
       <c r="F33" s="117"/>
       <c r="G33" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$22</f>
+        <f t="shared" si="5"/>
         <v>Euribor6M</v>
       </c>
       <c r="H33" s="114" t="str">
-        <f>Currency&amp;B33&amp;C33&amp;QuoteSuffix</f>
+        <f t="shared" si="6"/>
         <v>EUR10x16F_Quote</v>
       </c>
       <c r="I33" s="117"/>
@@ -5208,7 +5303,7 @@
         <v>Sw</v>
       </c>
       <c r="W33" s="3" t="str">
-        <v>obj_00961</v>
+        <v>obj_005c4</v>
       </c>
       <c r="X33" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W33,Trigger),"")</f>
@@ -5216,7 +5311,7 @@
       </c>
       <c r="Y33" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W33,Trigger),"")</f>
-        <v>1.3839999999999998E-2</v>
+        <v>1.171E-2</v>
       </c>
       <c r="Z33" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W33)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W33)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W33)),_xll.qlSwapRateHelperSpread($W33))</f>
@@ -5224,16 +5319,16 @@
       </c>
       <c r="AA33" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W33,Trigger),"")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="AB33" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W33,Trigger),"")</f>
-        <v>46567</v>
+        <v>46657</v>
       </c>
       <c r="AC33" s="68">
-        <v>1.4125585634664964E-2</v>
-      </c>
-      <c r="AD33" s="165"/>
+        <v>1.1948799501942487E-2</v>
+      </c>
+      <c r="AD33" s="163"/>
     </row>
     <row r="34" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="58" t="s">
@@ -5243,18 +5338,18 @@
         <v>11</v>
       </c>
       <c r="C34" s="61" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>x17F</v>
       </c>
       <c r="D34" s="117"/>
       <c r="E34" s="117"/>
       <c r="F34" s="117"/>
       <c r="G34" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$22</f>
+        <f t="shared" si="5"/>
         <v>Euribor6M</v>
       </c>
       <c r="H34" s="114" t="str">
-        <f>Currency&amp;B34&amp;C34&amp;QuoteSuffix</f>
+        <f t="shared" si="6"/>
         <v>EUR11x17F_Quote</v>
       </c>
       <c r="I34" s="117"/>
@@ -5298,7 +5393,7 @@
         <v>Sw</v>
       </c>
       <c r="W34" s="3" t="str">
-        <v>obj_00953</v>
+        <v>obj_005c2</v>
       </c>
       <c r="X34" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W34,Trigger),"")</f>
@@ -5306,7 +5401,7 @@
       </c>
       <c r="Y34" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W34,Trigger),"")</f>
-        <v>1.452E-2</v>
+        <v>1.2450000000000001E-2</v>
       </c>
       <c r="Z34" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W34)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W34)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W34)),_xll.qlSwapRateHelperSpread($W34))</f>
@@ -5314,16 +5409,16 @@
       </c>
       <c r="AA34" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W34,Trigger),"")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="AB34" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W34,Trigger),"")</f>
-        <v>46933</v>
+        <v>47021</v>
       </c>
       <c r="AC34" s="68">
-        <v>1.484536777497468E-2</v>
-      </c>
-      <c r="AD34" s="165"/>
+        <v>1.2731625477171592E-2</v>
+      </c>
+      <c r="AD34" s="163"/>
     </row>
     <row r="35" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="58" t="s">
@@ -5333,18 +5428,18 @@
         <v>12</v>
       </c>
       <c r="C35" s="61" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>x18F</v>
       </c>
       <c r="D35" s="117"/>
       <c r="E35" s="117"/>
       <c r="F35" s="117"/>
       <c r="G35" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$22</f>
+        <f t="shared" si="5"/>
         <v>Euribor6M</v>
       </c>
       <c r="H35" s="114" t="str">
-        <f>Currency&amp;B35&amp;C35&amp;QuoteSuffix</f>
+        <f t="shared" si="6"/>
         <v>EUR12x18F_Quote</v>
       </c>
       <c r="I35" s="117"/>
@@ -5388,7 +5483,7 @@
         <v>Sw</v>
       </c>
       <c r="W35" s="3" t="str">
-        <v>obj_00946</v>
+        <v>obj_005b5</v>
       </c>
       <c r="X35" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W35,Trigger),"")</f>
@@ -5396,7 +5491,7 @@
       </c>
       <c r="Y35" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W35,Trigger),"")</f>
-        <v>1.5089999999999999E-2</v>
+        <v>1.307E-2</v>
       </c>
       <c r="Z35" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W35)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W35)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W35)),_xll.qlSwapRateHelperSpread($W35))</f>
@@ -5404,16 +5499,16 @@
       </c>
       <c r="AA35" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W35,Trigger),"")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="AB35" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W35,Trigger),"")</f>
-        <v>47298</v>
+        <v>47386</v>
       </c>
       <c r="AC35" s="68">
-        <v>1.5453676696388098E-2</v>
-      </c>
-      <c r="AD35" s="165"/>
+        <v>1.3392620374080646E-2</v>
+      </c>
+      <c r="AD35" s="163"/>
     </row>
     <row r="36" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="58" t="s">
@@ -5423,18 +5518,18 @@
         <v>13</v>
       </c>
       <c r="C36" s="61" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>x19F</v>
       </c>
       <c r="D36" s="117"/>
       <c r="E36" s="117"/>
       <c r="F36" s="117"/>
       <c r="G36" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$22</f>
+        <f t="shared" si="5"/>
         <v>Euribor6M</v>
       </c>
       <c r="H36" s="114" t="str">
-        <f>Currency&amp;B36&amp;C36&amp;QuoteSuffix</f>
+        <f t="shared" si="6"/>
         <v>EUR13x19F_Quote</v>
       </c>
       <c r="I36" s="117"/>
@@ -5478,7 +5573,7 @@
         <v>Sw</v>
       </c>
       <c r="W36" s="3" t="str">
-        <v>obj_0095a</v>
+        <v>obj_005ae</v>
       </c>
       <c r="X36" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W36,Trigger),"")</f>
@@ -5486,7 +5581,7 @@
       </c>
       <c r="Y36" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W36,Trigger),"")</f>
-        <v>1.555E-2</v>
+        <v>1.359E-2</v>
       </c>
       <c r="Z36" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W36)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W36)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W36)),_xll.qlSwapRateHelperSpread($W36))</f>
@@ -5494,16 +5589,16 @@
       </c>
       <c r="AA36" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W36,Trigger),"")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="AB36" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W36,Trigger),"")</f>
-        <v>47662</v>
+        <v>47751</v>
       </c>
       <c r="AC36" s="68">
-        <v>1.5944523067612369E-2</v>
-      </c>
-      <c r="AD36" s="165"/>
+        <v>1.3948733102349207E-2</v>
+      </c>
+      <c r="AD36" s="163"/>
     </row>
     <row r="37" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="58" t="s">
@@ -5513,18 +5608,18 @@
         <v>14</v>
       </c>
       <c r="C37" s="61" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>x20F</v>
       </c>
       <c r="D37" s="117"/>
       <c r="E37" s="117"/>
       <c r="F37" s="117"/>
       <c r="G37" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$22</f>
+        <f t="shared" si="5"/>
         <v>Euribor6M</v>
       </c>
       <c r="H37" s="114" t="str">
-        <f>Currency&amp;B37&amp;C37&amp;QuoteSuffix</f>
+        <f t="shared" si="6"/>
         <v>EUR14x20F_Quote</v>
       </c>
       <c r="I37" s="117"/>
@@ -5568,7 +5663,7 @@
         <v>Sw</v>
       </c>
       <c r="W37" s="3" t="str">
-        <v>obj_0094f</v>
+        <v>obj_005be</v>
       </c>
       <c r="X37" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W37,Trigger),"")</f>
@@ -5576,7 +5671,7 @@
       </c>
       <c r="Y37" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W37,Trigger),"")</f>
-        <v>1.5949999999999999E-2</v>
+        <v>1.4030000000000001E-2</v>
       </c>
       <c r="Z37" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W37)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W37)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W37)),_xll.qlSwapRateHelperSpread($W37))</f>
@@ -5584,16 +5679,16 @@
       </c>
       <c r="AA37" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W37,Trigger),"")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="AB37" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W37,Trigger),"")</f>
-        <v>48029</v>
+        <v>48116</v>
       </c>
       <c r="AC37" s="68">
-        <v>1.6372461565389459E-2</v>
-      </c>
-      <c r="AD37" s="165"/>
+        <v>1.4420303964073095E-2</v>
+      </c>
+      <c r="AD37" s="163"/>
     </row>
     <row r="38" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="58" t="s">
@@ -5603,18 +5698,18 @@
         <v>15</v>
       </c>
       <c r="C38" s="61" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>x21F</v>
       </c>
       <c r="D38" s="117"/>
       <c r="E38" s="117"/>
       <c r="F38" s="117"/>
       <c r="G38" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$22</f>
+        <f t="shared" si="5"/>
         <v>Euribor6M</v>
       </c>
       <c r="H38" s="114" t="str">
-        <f>Currency&amp;B38&amp;C38&amp;QuoteSuffix</f>
+        <f t="shared" si="6"/>
         <v>EUR15x21F_Quote</v>
       </c>
       <c r="I38" s="117"/>
@@ -5658,7 +5753,7 @@
         <v>Sw</v>
       </c>
       <c r="W38" s="3" t="str">
-        <v>obj_00956</v>
+        <v>obj_005aa</v>
       </c>
       <c r="X38" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W38,Trigger),"")</f>
@@ -5666,7 +5761,7 @@
       </c>
       <c r="Y38" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W38,Trigger),"")</f>
-        <v>1.627E-2</v>
+        <v>1.44E-2</v>
       </c>
       <c r="Z38" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W38)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W38)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W38)),_xll.qlSwapRateHelperSpread($W38))</f>
@@ -5674,16 +5769,16 @@
       </c>
       <c r="AA38" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W38,Trigger),"")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="AB38" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W38,Trigger),"")</f>
-        <v>48394</v>
+        <v>48484</v>
       </c>
       <c r="AC38" s="68">
-        <v>1.6710437097758418E-2</v>
-      </c>
-      <c r="AD38" s="165"/>
+        <v>1.4814416819105577E-2</v>
+      </c>
+      <c r="AD38" s="163"/>
     </row>
     <row r="39" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="58" t="s">
@@ -5693,18 +5788,18 @@
         <v>16</v>
       </c>
       <c r="C39" s="61" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>x22F</v>
       </c>
       <c r="D39" s="117"/>
       <c r="E39" s="117"/>
       <c r="F39" s="117"/>
       <c r="G39" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$22</f>
+        <f t="shared" si="5"/>
         <v>Euribor6M</v>
       </c>
       <c r="H39" s="114" t="str">
-        <f>Currency&amp;B39&amp;C39&amp;QuoteSuffix</f>
+        <f t="shared" si="6"/>
         <v>EUR16x22F_Quote</v>
       </c>
       <c r="I39" s="117"/>
@@ -5748,7 +5843,7 @@
         <v>Sw</v>
       </c>
       <c r="W39" s="3" t="str">
-        <v>obj_0094c</v>
+        <v>obj_005a8</v>
       </c>
       <c r="X39" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W39,Trigger),"")</f>
@@ -5756,7 +5851,7 @@
       </c>
       <c r="Y39" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W39,Trigger),"")</f>
-        <v>1.6539999999999999E-2</v>
+        <v>1.47E-2</v>
       </c>
       <c r="Z39" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W39)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W39)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W39)),_xll.qlSwapRateHelperSpread($W39))</f>
@@ -5764,16 +5859,16 @@
       </c>
       <c r="AA39" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W39,Trigger),"")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="AB39" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W39,Trigger),"")</f>
-        <v>48759</v>
+        <v>48848</v>
       </c>
       <c r="AC39" s="68">
-        <v>1.699704361190529E-2</v>
-      </c>
-      <c r="AD39" s="165"/>
+        <v>1.5134626829913234E-2</v>
+      </c>
+      <c r="AD39" s="163"/>
     </row>
     <row r="40" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="58" t="s">
@@ -5783,38 +5878,38 @@
         <v>17</v>
       </c>
       <c r="C40" s="61" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>x23F</v>
       </c>
       <c r="D40" s="117"/>
       <c r="E40" s="117"/>
       <c r="F40" s="117"/>
       <c r="G40" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$22</f>
+        <f t="shared" si="5"/>
         <v>Euribor6M</v>
       </c>
       <c r="H40" s="114" t="str">
-        <f>Currency&amp;B40&amp;C40&amp;QuoteSuffix</f>
+        <f t="shared" si="6"/>
         <v>EUR17x23F_Quote</v>
       </c>
       <c r="I40" s="117"/>
       <c r="J40" s="62"/>
       <c r="K40" s="48"/>
       <c r="L40" s="66" t="str">
-        <f>A44</f>
+        <f t="shared" ref="L40:L61" si="8">A44</f>
         <v>FUT</v>
       </c>
       <c r="M40" s="124" t="str">
-        <f>IF(ISBLANK(J44),"--",J44)</f>
-        <v>obj_0080f#0043</v>
+        <f t="shared" ref="M40:M61" si="9">IF(ISBLANK(J44),"--",J44)</f>
+        <v>obj_005d3#0001</v>
       </c>
       <c r="N40" s="138" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M40,Trigger),"--")</f>
-        <v>EURFUT3MN5_Quote</v>
+        <v>EURFUT3MV5_Quote</v>
       </c>
       <c r="O40" s="143">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M40,Trigger),"--")</f>
-        <v>100.0025</v>
+        <v>100.0425</v>
       </c>
       <c r="P40" s="125" t="b">
         <v>0</v>
@@ -5827,18 +5922,18 @@
       </c>
       <c r="S40" s="127">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M40,Trigger),"--")</f>
-        <v>42200</v>
+        <v>42298</v>
       </c>
       <c r="T40" s="127">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M40,Trigger),"--")</f>
-        <v>42292</v>
+        <v>42390</v>
       </c>
       <c r="V40" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Sw</v>
       </c>
       <c r="W40" s="3" t="str">
-        <v>obj_00940</v>
+        <v>obj_005ad</v>
       </c>
       <c r="X40" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W40,Trigger),"")</f>
@@ -5846,7 +5941,7 @@
       </c>
       <c r="Y40" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W40,Trigger),"")</f>
-        <v>1.6739999999999998E-2</v>
+        <v>1.4929999999999999E-2</v>
       </c>
       <c r="Z40" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W40)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W40)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W40)),_xll.qlSwapRateHelperSpread($W40))</f>
@@ -5854,16 +5949,16 @@
       </c>
       <c r="AA40" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W40,Trigger),"")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="AB40" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W40,Trigger),"")</f>
-        <v>49124</v>
+        <v>49212</v>
       </c>
       <c r="AC40" s="68">
-        <v>1.720441923455809E-2</v>
-      </c>
-      <c r="AD40" s="165"/>
+        <v>1.5376600778594202E-2</v>
+      </c>
+      <c r="AD40" s="163"/>
     </row>
     <row r="41" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
@@ -5873,37 +5968,37 @@
         <v>18</v>
       </c>
       <c r="C41" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>x24F</v>
       </c>
       <c r="D41" s="118"/>
       <c r="E41" s="118"/>
       <c r="F41" s="118"/>
       <c r="G41" s="6" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$22</f>
+        <f t="shared" si="5"/>
         <v>Euribor6M</v>
       </c>
       <c r="H41" s="115" t="str">
-        <f>Currency&amp;B41&amp;C41&amp;QuoteSuffix</f>
+        <f t="shared" si="6"/>
         <v>EUR18x24F_Quote</v>
       </c>
       <c r="I41" s="118"/>
       <c r="J41" s="2"/>
       <c r="L41" s="9" t="str">
-        <f>A45</f>
+        <f t="shared" si="8"/>
         <v>FUT</v>
       </c>
       <c r="M41" s="90" t="str">
-        <f>IF(ISBLANK(J45),"--",J45)</f>
-        <v>obj_0080d#0034</v>
+        <f t="shared" si="9"/>
+        <v>obj_005c8#0001</v>
       </c>
       <c r="N41" s="139" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M41,Trigger),"--")</f>
-        <v>EURFUT3MQ5_Quote</v>
+        <v>EURFUT3MX5_Quote</v>
       </c>
       <c r="O41" s="144">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M41,Trigger),"--")</f>
-        <v>99.995000000000005</v>
+        <v>100.0425</v>
       </c>
       <c r="P41" s="93" t="b">
         <v>0</v>
@@ -5916,18 +6011,18 @@
       </c>
       <c r="S41" s="95">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M41,Trigger),"--")</f>
-        <v>42235</v>
+        <v>42326</v>
       </c>
       <c r="T41" s="95">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M41,Trigger),"--")</f>
-        <v>42327</v>
+        <v>42418</v>
       </c>
       <c r="V41" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Sw</v>
       </c>
       <c r="W41" s="3" t="str">
-        <v>obj_00954</v>
+        <v>obj_005ac</v>
       </c>
       <c r="X41" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W41,Trigger),"")</f>
@@ -5935,7 +6030,7 @@
       </c>
       <c r="Y41" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W41,Trigger),"")</f>
-        <v>1.6899999999999998E-2</v>
+        <v>1.5110000000000002E-2</v>
       </c>
       <c r="Z41" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W41)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W41)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W41)),_xll.qlSwapRateHelperSpread($W41))</f>
@@ -5943,16 +6038,16 @@
       </c>
       <c r="AA41" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W41,Trigger),"")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="AB41" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W41,Trigger),"")</f>
-        <v>49489</v>
+        <v>49577</v>
       </c>
       <c r="AC41" s="68">
-        <v>1.7367204487849969E-2</v>
-      </c>
-      <c r="AD41" s="165"/>
+        <v>1.5562567567235456E-2</v>
+      </c>
+      <c r="AD41" s="163"/>
     </row>
     <row r="42" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="47"/>
@@ -5967,20 +6062,20 @@
         <v>82</v>
       </c>
       <c r="L42" s="9" t="str">
-        <f>A46</f>
+        <f t="shared" si="8"/>
         <v>FUT</v>
       </c>
       <c r="M42" s="90" t="str">
-        <f>IF(ISBLANK(J46),"--",J46)</f>
-        <v>obj_00810#0034</v>
+        <f t="shared" si="9"/>
+        <v>obj_005dd#0001</v>
       </c>
       <c r="N42" s="139" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M42,Trigger),"--")</f>
-        <v>EURFUT3MU5_Quote</v>
+        <v>EURFUT3MZ5_Quote</v>
       </c>
       <c r="O42" s="144">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M42,Trigger),"--")</f>
-        <v>99.992500000000007</v>
+        <v>100.0475</v>
       </c>
       <c r="P42" s="93" t="b">
         <v>0</v>
@@ -5993,18 +6088,18 @@
       </c>
       <c r="S42" s="95">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M42,Trigger),"--")</f>
-        <v>42263</v>
+        <v>42354</v>
       </c>
       <c r="T42" s="95">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M42,Trigger),"--")</f>
-        <v>42354</v>
+        <v>42445</v>
       </c>
       <c r="V42" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Sw</v>
       </c>
       <c r="W42" s="3" t="str">
-        <v>obj_00947</v>
+        <v>obj_005c0</v>
       </c>
       <c r="X42" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W42,Trigger),"")</f>
@@ -6012,7 +6107,7 @@
       </c>
       <c r="Y42" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W42,Trigger),"")</f>
-        <v>1.702E-2</v>
+        <v>1.525E-2</v>
       </c>
       <c r="Z42" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W42)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W42)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W42)),_xll.qlSwapRateHelperSpread($W42))</f>
@@ -6020,16 +6115,16 @@
       </c>
       <c r="AA42" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W42,Trigger),"")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="AB42" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W42,Trigger),"")</f>
-        <v>49856</v>
+        <v>49943</v>
       </c>
       <c r="AC42" s="68">
-        <v>1.7482110419430076E-2</v>
-      </c>
-      <c r="AD42" s="165"/>
+        <v>1.5701524672114921E-2</v>
+      </c>
+      <c r="AD42" s="163"/>
     </row>
     <row r="43" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="63" t="s">
@@ -6057,16 +6152,16 @@
         <v>25</v>
       </c>
       <c r="L43" s="9" t="str">
-        <f>A47</f>
+        <f t="shared" si="8"/>
         <v>FUT</v>
       </c>
       <c r="M43" s="90" t="str">
-        <f>IF(ISBLANK(J47),"--",J47)</f>
-        <v>obj_0080e#0034</v>
+        <f t="shared" si="9"/>
+        <v>obj_005d7#0001</v>
       </c>
       <c r="N43" s="139" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M43,Trigger),"--")</f>
-        <v>EURFUT3MV5_Quote</v>
+        <v>EURFUT3MF6_Quote</v>
       </c>
       <c r="O43" s="144" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M43,Trigger),"--")</f>
@@ -6083,18 +6178,18 @@
       </c>
       <c r="S43" s="95">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M43,Trigger),"--")</f>
-        <v>42298</v>
+        <v>42389</v>
       </c>
       <c r="T43" s="95">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M43,Trigger),"--")</f>
-        <v>42390</v>
+        <v>42480</v>
       </c>
       <c r="V43" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Sw</v>
       </c>
       <c r="W43" s="3" t="str">
-        <v>obj_0095b</v>
+        <v>obj_005b7</v>
       </c>
       <c r="X43" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W43,Trigger),"")</f>
@@ -6102,7 +6197,7 @@
       </c>
       <c r="Y43" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W43,Trigger),"")</f>
-        <v>1.7090000000000001E-2</v>
+        <v>1.5339999999999999E-2</v>
       </c>
       <c r="Z43" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W43)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W43)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W43)),_xll.qlSwapRateHelperSpread($W43))</f>
@@ -6110,16 +6205,16 @@
       </c>
       <c r="AA43" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W43,Trigger),"")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="AB43" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W43,Trigger),"")</f>
-        <v>50220</v>
+        <v>50308</v>
       </c>
       <c r="AC43" s="68">
-        <v>1.7540796187317936E-2</v>
-      </c>
-      <c r="AD43" s="165"/>
+        <v>1.5784710187168906E-2</v>
+      </c>
+      <c r="AD43" s="163"/>
     </row>
     <row r="44" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="53" t="s">
@@ -6130,38 +6225,38 @@
       </c>
       <c r="C44" s="56" t="str">
         <f>_xll.qlIMMNextCode(Evaluationdate-1,B44,Trigger)</f>
-        <v>N5</v>
+        <v>V5</v>
       </c>
       <c r="D44" s="123"/>
       <c r="E44" s="123"/>
       <c r="F44" s="123"/>
       <c r="G44" s="55" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$42</f>
+        <f t="shared" ref="G44:G65" si="10">PROPER(Currency)&amp;FamilyName&amp;$G$42</f>
         <v>Euribor3M</v>
       </c>
       <c r="H44" s="113" t="str">
-        <f>Currency&amp;"FUT"&amp;$G$42&amp;$C44&amp;QuoteSuffix</f>
-        <v>EURFUT3MN5_Quote</v>
+        <f t="shared" ref="H44:H65" si="11">Currency&amp;"FUT"&amp;$G$42&amp;$C44&amp;QuoteSuffix</f>
+        <v>EURFUT3MV5_Quote</v>
       </c>
       <c r="I44" s="113" t="str">
-        <f>Currency&amp;"FUT"&amp;$G$42&amp;$C44&amp;"ConvAdj"&amp;QuoteSuffix</f>
-        <v>EURFUT3MN5ConvAdj_Quote</v>
+        <f t="shared" ref="I44:I65" si="12">Currency&amp;"FUT"&amp;$G$42&amp;$C44&amp;"ConvAdj"&amp;QuoteSuffix</f>
+        <v>EURFUT3MV5ConvAdj_Quote</v>
       </c>
       <c r="J44" s="57" t="str">
         <f>_xll.qlFuturesRateHelper(,H44,,C44,G44,I44,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0080f#0043</v>
+        <v>obj_005d3#0001</v>
       </c>
       <c r="L44" s="9" t="str">
-        <f>A48</f>
+        <f t="shared" si="8"/>
         <v>FUT</v>
       </c>
       <c r="M44" s="90" t="str">
-        <f>IF(ISBLANK(J48),"--",J48)</f>
-        <v>obj_00811#0034</v>
+        <f t="shared" si="9"/>
+        <v>obj_005ce#0001</v>
       </c>
       <c r="N44" s="139" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M44,Trigger),"--")</f>
-        <v>EURFUT3MX5_Quote</v>
+        <v>EURFUT3MG6_Quote</v>
       </c>
       <c r="O44" s="144" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M44,Trigger),"--")</f>
@@ -6178,18 +6273,18 @@
       </c>
       <c r="S44" s="95">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M44,Trigger),"--")</f>
-        <v>42326</v>
+        <v>42417</v>
       </c>
       <c r="T44" s="95">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M44,Trigger),"--")</f>
-        <v>42418</v>
+        <v>42507</v>
       </c>
       <c r="V44" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Sw</v>
       </c>
       <c r="W44" s="3" t="str">
-        <v>obj_00944</v>
+        <v>obj_005b2</v>
       </c>
       <c r="X44" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W44,Trigger),"")</f>
@@ -6197,7 +6292,7 @@
       </c>
       <c r="Y44" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W44,Trigger),"")</f>
-        <v>1.7149999999999999E-2</v>
+        <v>1.541E-2</v>
       </c>
       <c r="Z44" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W44)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W44)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W44)),_xll.qlSwapRateHelperSpread($W44))</f>
@@ -6205,16 +6300,16 @@
       </c>
       <c r="AA44" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W44,Trigger),"")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="AB44" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W44,Trigger),"")</f>
-        <v>50585</v>
+        <v>50675</v>
       </c>
       <c r="AC44" s="68">
-        <v>1.7589434049616232E-2</v>
-      </c>
-      <c r="AD44" s="165"/>
+        <v>1.5845665123441814E-2</v>
+      </c>
+      <c r="AD44" s="163"/>
     </row>
     <row r="45" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="58" t="s">
@@ -6225,42 +6320,42 @@
       </c>
       <c r="C45" s="61" t="str">
         <f>_xll.qlIMMNextCode(C44,B45,Trigger)</f>
-        <v>Q5</v>
+        <v>X5</v>
       </c>
       <c r="D45" s="117"/>
       <c r="E45" s="117"/>
       <c r="F45" s="117"/>
       <c r="G45" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$42</f>
+        <f t="shared" si="10"/>
         <v>Euribor3M</v>
       </c>
       <c r="H45" s="114" t="str">
-        <f>Currency&amp;"FUT"&amp;$G$42&amp;$C45&amp;QuoteSuffix</f>
-        <v>EURFUT3MQ5_Quote</v>
+        <f t="shared" si="11"/>
+        <v>EURFUT3MX5_Quote</v>
       </c>
       <c r="I45" s="114" t="str">
-        <f>Currency&amp;"FUT"&amp;$G$42&amp;$C45&amp;"ConvAdj"&amp;QuoteSuffix</f>
-        <v>EURFUT3MQ5ConvAdj_Quote</v>
+        <f t="shared" si="12"/>
+        <v>EURFUT3MX5ConvAdj_Quote</v>
       </c>
       <c r="J45" s="62" t="str">
         <f>_xll.qlFuturesRateHelper(,H45,,C45,G45,I45,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0080d#0034</v>
+        <v>obj_005c8#0001</v>
       </c>
       <c r="L45" s="9" t="str">
-        <f>A49</f>
+        <f t="shared" si="8"/>
         <v>FUT</v>
       </c>
       <c r="M45" s="90" t="str">
-        <f>IF(ISBLANK(J49),"--",J49)</f>
-        <v>obj_00812#0034</v>
+        <f t="shared" si="9"/>
+        <v>obj_005cd#0001</v>
       </c>
       <c r="N45" s="139" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M45,Trigger),"--")</f>
-        <v>EURFUT3MZ5_Quote</v>
+        <v>EURFUT3MH6_Quote</v>
       </c>
       <c r="O45" s="144">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M45,Trigger),"--")</f>
-        <v>99.987499999999997</v>
+        <v>100.05250000000001</v>
       </c>
       <c r="P45" s="93" t="b">
         <v>0</v>
@@ -6273,18 +6368,18 @@
       </c>
       <c r="S45" s="95">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M45,Trigger),"--")</f>
-        <v>42354</v>
+        <v>42445</v>
       </c>
       <c r="T45" s="95">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M45,Trigger),"--")</f>
-        <v>42445</v>
+        <v>42537</v>
       </c>
       <c r="V45" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Sw</v>
       </c>
       <c r="W45" s="3" t="str">
-        <v>obj_0095f</v>
+        <v>obj_005b0</v>
       </c>
       <c r="X45" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W45,Trigger),"")</f>
@@ -6292,7 +6387,7 @@
       </c>
       <c r="Y45" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W45,Trigger),"")</f>
-        <v>1.7180000000000001E-2</v>
+        <v>1.5449999999999998E-2</v>
       </c>
       <c r="Z45" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W45)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W45)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W45)),_xll.qlSwapRateHelperSpread($W45))</f>
@@ -6300,16 +6395,16 @@
       </c>
       <c r="AA45" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W45,Trigger),"")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="AB45" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W45,Trigger),"")</f>
-        <v>50950</v>
+        <v>51039</v>
       </c>
       <c r="AC45" s="68">
-        <v>1.7602670605632541E-2</v>
-      </c>
-      <c r="AD45" s="165"/>
+        <v>1.5871916407421655E-2</v>
+      </c>
+      <c r="AD45" s="163"/>
     </row>
     <row r="46" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="58" t="s">
@@ -6320,42 +6415,42 @@
       </c>
       <c r="C46" s="61" t="str">
         <f>_xll.qlIMMNextCode(C45,B46,Trigger)</f>
-        <v>U5</v>
+        <v>Z5</v>
       </c>
       <c r="D46" s="117"/>
       <c r="E46" s="117"/>
       <c r="F46" s="117"/>
       <c r="G46" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$42</f>
+        <f t="shared" si="10"/>
         <v>Euribor3M</v>
       </c>
       <c r="H46" s="114" t="str">
-        <f>Currency&amp;"FUT"&amp;$G$42&amp;$C46&amp;QuoteSuffix</f>
-        <v>EURFUT3MU5_Quote</v>
+        <f t="shared" si="11"/>
+        <v>EURFUT3MZ5_Quote</v>
       </c>
       <c r="I46" s="114" t="str">
-        <f>Currency&amp;"FUT"&amp;$G$42&amp;$C46&amp;"ConvAdj"&amp;QuoteSuffix</f>
-        <v>EURFUT3MU5ConvAdj_Quote</v>
+        <f t="shared" si="12"/>
+        <v>EURFUT3MZ5ConvAdj_Quote</v>
       </c>
       <c r="J46" s="62" t="str">
         <f>_xll.qlFuturesRateHelper(,H46,,C46,G46,I46,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00810#0034</v>
+        <v>obj_005dd#0001</v>
       </c>
       <c r="L46" s="9" t="str">
-        <f>A50</f>
+        <f t="shared" si="8"/>
         <v>FUT</v>
       </c>
       <c r="M46" s="90" t="str">
-        <f>IF(ISBLANK(J50),"--",J50)</f>
-        <v>obj_00813#0034</v>
+        <f t="shared" si="9"/>
+        <v>obj_005dc#0001</v>
       </c>
       <c r="N46" s="139" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M46,Trigger),"--")</f>
-        <v>EURFUT3MH6_Quote</v>
+        <v>EURFUT3MM6_Quote</v>
       </c>
       <c r="O46" s="144">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M46,Trigger),"--")</f>
-        <v>99.982500000000002</v>
+        <v>100.0575</v>
       </c>
       <c r="P46" s="93" t="b">
         <v>1</v>
@@ -6368,18 +6463,18 @@
       </c>
       <c r="S46" s="95">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M46,Trigger),"--")</f>
-        <v>42445</v>
+        <v>42536</v>
       </c>
       <c r="T46" s="95">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M46,Trigger),"--")</f>
-        <v>42537</v>
+        <v>42628</v>
       </c>
       <c r="V46" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Sw</v>
       </c>
       <c r="W46" s="3" t="str">
-        <v>obj_00955</v>
+        <v>obj_005a9</v>
       </c>
       <c r="X46" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W46,Trigger),"")</f>
@@ -6387,7 +6482,7 @@
       </c>
       <c r="Y46" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W46,Trigger),"")</f>
-        <v>1.721E-2</v>
+        <v>1.5480000000000001E-2</v>
       </c>
       <c r="Z46" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W46)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W46)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W46)),_xll.qlSwapRateHelperSpread($W46))</f>
@@ -6395,16 +6490,16 @@
       </c>
       <c r="AA46" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W46,Trigger),"")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="AB46" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W46,Trigger),"")</f>
-        <v>51316</v>
+        <v>51404</v>
       </c>
       <c r="AC46" s="68">
-        <v>1.7615930017154738E-2</v>
-      </c>
-      <c r="AD46" s="165"/>
+        <v>1.5885849704561084E-2</v>
+      </c>
+      <c r="AD46" s="163"/>
     </row>
     <row r="47" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="58" t="s">
@@ -6415,42 +6510,42 @@
       </c>
       <c r="C47" s="61" t="str">
         <f>_xll.qlIMMNextCode(C46,B47,Trigger)</f>
-        <v>V5</v>
+        <v>F6</v>
       </c>
       <c r="D47" s="117"/>
       <c r="E47" s="117"/>
       <c r="F47" s="117"/>
       <c r="G47" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$42</f>
+        <f t="shared" si="10"/>
         <v>Euribor3M</v>
       </c>
       <c r="H47" s="114" t="str">
-        <f>Currency&amp;"FUT"&amp;$G$42&amp;$C47&amp;QuoteSuffix</f>
-        <v>EURFUT3MV5_Quote</v>
+        <f t="shared" si="11"/>
+        <v>EURFUT3MF6_Quote</v>
       </c>
       <c r="I47" s="114" t="str">
-        <f>Currency&amp;"FUT"&amp;$G$42&amp;$C47&amp;"ConvAdj"&amp;QuoteSuffix</f>
-        <v>EURFUT3MV5ConvAdj_Quote</v>
+        <f t="shared" si="12"/>
+        <v>EURFUT3MF6ConvAdj_Quote</v>
       </c>
       <c r="J47" s="62" t="str">
         <f>_xll.qlFuturesRateHelper(,H47,,C47,G47,I47,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0080e#0034</v>
+        <v>obj_005d7#0001</v>
       </c>
       <c r="L47" s="9" t="str">
-        <f>A51</f>
+        <f t="shared" si="8"/>
         <v>FUT</v>
       </c>
       <c r="M47" s="90" t="str">
-        <f>IF(ISBLANK(J51),"--",J51)</f>
-        <v>obj_00814#0034</v>
+        <f t="shared" si="9"/>
+        <v>obj_005d6#0001</v>
       </c>
       <c r="N47" s="139" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M47,Trigger),"--")</f>
-        <v>EURFUT3MM6_Quote</v>
+        <v>EURFUT3MU6_Quote</v>
       </c>
       <c r="O47" s="144">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M47,Trigger),"--")</f>
-        <v>99.967500000000001</v>
+        <v>100.05250000000001</v>
       </c>
       <c r="P47" s="93" t="b">
         <v>1</v>
@@ -6463,18 +6558,18 @@
       </c>
       <c r="S47" s="95">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M47,Trigger),"--")</f>
-        <v>42536</v>
+        <v>42634</v>
       </c>
       <c r="T47" s="95">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M47,Trigger),"--")</f>
-        <v>42628</v>
+        <v>42725</v>
       </c>
       <c r="V47" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Sw</v>
       </c>
       <c r="W47" s="3" t="str">
-        <v>obj_0094b</v>
+        <v>obj_005c5</v>
       </c>
       <c r="X47" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W47,Trigger),"")</f>
@@ -6482,7 +6577,7 @@
       </c>
       <c r="Y47" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W47,Trigger),"")</f>
-        <v>1.7239999999999998E-2</v>
+        <v>1.55E-2</v>
       </c>
       <c r="Z47" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W47)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W47)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W47)),_xll.qlSwapRateHelperSpread($W47))</f>
@@ -6490,16 +6585,16 @@
       </c>
       <c r="AA47" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W47,Trigger),"")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="AB47" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W47,Trigger),"")</f>
-        <v>51680</v>
+        <v>51769</v>
       </c>
       <c r="AC47" s="68">
-        <v>1.7632998339174207E-2</v>
-      </c>
-      <c r="AD47" s="165"/>
+        <v>1.5890690084728109E-2</v>
+      </c>
+      <c r="AD47" s="163"/>
     </row>
     <row r="48" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
@@ -6510,42 +6605,42 @@
       </c>
       <c r="C48" s="8" t="str">
         <f>_xll.qlIMMNextCode(C47,B48,Trigger)</f>
-        <v>X5</v>
+        <v>G6</v>
       </c>
       <c r="D48" s="118"/>
       <c r="E48" s="118"/>
       <c r="F48" s="118"/>
       <c r="G48" s="6" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$42</f>
+        <f t="shared" si="10"/>
         <v>Euribor3M</v>
       </c>
       <c r="H48" s="115" t="str">
-        <f>Currency&amp;"FUT"&amp;$G$42&amp;$C48&amp;QuoteSuffix</f>
-        <v>EURFUT3MX5_Quote</v>
+        <f t="shared" si="11"/>
+        <v>EURFUT3MG6_Quote</v>
       </c>
       <c r="I48" s="115" t="str">
-        <f>Currency&amp;"FUT"&amp;$G$42&amp;$C48&amp;"ConvAdj"&amp;QuoteSuffix</f>
-        <v>EURFUT3MX5ConvAdj_Quote</v>
+        <f t="shared" si="12"/>
+        <v>EURFUT3MG6ConvAdj_Quote</v>
       </c>
       <c r="J48" s="2" t="str">
         <f>_xll.qlFuturesRateHelper(,H48,,C48,G48,I48,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00811#0034</v>
+        <v>obj_005ce#0001</v>
       </c>
       <c r="L48" s="9" t="str">
-        <f>A52</f>
+        <f t="shared" si="8"/>
         <v>FUT</v>
       </c>
       <c r="M48" s="90" t="str">
-        <f>IF(ISBLANK(J52),"--",J52)</f>
-        <v>obj_00815#0034</v>
+        <f t="shared" si="9"/>
+        <v>obj_005cf#0001</v>
       </c>
       <c r="N48" s="139" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M48,Trigger),"--")</f>
-        <v>EURFUT3MU6_Quote</v>
+        <v>EURFUT3MZ6_Quote</v>
       </c>
       <c r="O48" s="144">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M48,Trigger),"--")</f>
-        <v>99.9375</v>
+        <v>100.03749999999999</v>
       </c>
       <c r="P48" s="93" t="b">
         <v>1</v>
@@ -6558,18 +6653,18 @@
       </c>
       <c r="S48" s="95">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M48,Trigger),"--")</f>
-        <v>42634</v>
+        <v>42725</v>
       </c>
       <c r="T48" s="95">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M48,Trigger),"--")</f>
-        <v>42725</v>
+        <v>42815</v>
       </c>
       <c r="V48" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Sw</v>
       </c>
       <c r="W48" s="3" t="str">
-        <v>obj_0093f</v>
+        <v>obj_005c3</v>
       </c>
       <c r="X48" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W48,Trigger),"")</f>
@@ -6577,7 +6672,7 @@
       </c>
       <c r="Y48" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W48,Trigger),"")</f>
-        <v>1.7260000000000001E-2</v>
+        <v>1.5509999999999999E-2</v>
       </c>
       <c r="Z48" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W48)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W48)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W48)),_xll.qlSwapRateHelperSpread($W48))</f>
@@ -6585,16 +6680,16 @@
       </c>
       <c r="AA48" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W48,Trigger),"")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="AB48" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W48,Trigger),"")</f>
-        <v>52047</v>
+        <v>52134</v>
       </c>
       <c r="AC48" s="68">
-        <v>1.7638653652211487E-2</v>
-      </c>
-      <c r="AD48" s="165"/>
+        <v>1.5884424006018017E-2</v>
+      </c>
+      <c r="AD48" s="163"/>
     </row>
     <row r="49" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="58" t="s">
@@ -6605,42 +6700,42 @@
       </c>
       <c r="C49" s="61" t="str">
         <f>_xll.qlIMMNextCode(C48,B49,Trigger)</f>
-        <v>Z5</v>
+        <v>H6</v>
       </c>
       <c r="D49" s="117"/>
       <c r="E49" s="117"/>
       <c r="F49" s="117"/>
       <c r="G49" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$42</f>
+        <f t="shared" si="10"/>
         <v>Euribor3M</v>
       </c>
       <c r="H49" s="114" t="str">
-        <f>Currency&amp;"FUT"&amp;$G$42&amp;$C49&amp;QuoteSuffix</f>
-        <v>EURFUT3MZ5_Quote</v>
+        <f t="shared" si="11"/>
+        <v>EURFUT3MH6_Quote</v>
       </c>
       <c r="I49" s="114" t="str">
-        <f>Currency&amp;"FUT"&amp;$G$42&amp;$C49&amp;"ConvAdj"&amp;QuoteSuffix</f>
-        <v>EURFUT3MZ5ConvAdj_Quote</v>
+        <f t="shared" si="12"/>
+        <v>EURFUT3MH6ConvAdj_Quote</v>
       </c>
       <c r="J49" s="62" t="str">
         <f>_xll.qlFuturesRateHelper(,H49,,C49,G49,I49,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00812#0034</v>
+        <v>obj_005cd#0001</v>
       </c>
       <c r="L49" s="9" t="str">
-        <f>A53</f>
+        <f t="shared" si="8"/>
         <v>FUT</v>
       </c>
       <c r="M49" s="90" t="str">
-        <f>IF(ISBLANK(J53),"--",J53)</f>
-        <v>obj_00816#0034</v>
+        <f t="shared" si="9"/>
+        <v>obj_005cc#0001</v>
       </c>
       <c r="N49" s="139" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M49,Trigger),"--")</f>
-        <v>EURFUT3MZ6_Quote</v>
+        <v>EURFUT3MH7_Quote</v>
       </c>
       <c r="O49" s="144">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M49,Trigger),"--")</f>
-        <v>99.897500000000008</v>
+        <v>100.00999999999999</v>
       </c>
       <c r="P49" s="93" t="b">
         <v>1</v>
@@ -6653,18 +6748,18 @@
       </c>
       <c r="S49" s="95">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M49,Trigger),"--")</f>
-        <v>42725</v>
+        <v>42809</v>
       </c>
       <c r="T49" s="95">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M49,Trigger),"--")</f>
-        <v>42815</v>
+        <v>42901</v>
       </c>
       <c r="V49" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Sw</v>
       </c>
       <c r="W49" s="3" t="str">
-        <v>obj_0095d</v>
+        <v>obj_005c1</v>
       </c>
       <c r="X49" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W49,Trigger),"")</f>
@@ -6672,7 +6767,7 @@
       </c>
       <c r="Y49" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W49,Trigger),"")</f>
-        <v>1.729E-2</v>
+        <v>1.5520000000000001E-2</v>
       </c>
       <c r="Z49" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W49)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W49)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W49)),_xll.qlSwapRateHelperSpread($W49))</f>
@@ -6680,16 +6775,16 @@
       </c>
       <c r="AA49" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W49,Trigger),"")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="AB49" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W49,Trigger),"")</f>
-        <v>52411</v>
+        <v>52499</v>
       </c>
       <c r="AC49" s="68">
-        <v>1.7658867744394079E-2</v>
-      </c>
-      <c r="AD49" s="165"/>
+        <v>1.5879500283656291E-2</v>
+      </c>
+      <c r="AD49" s="163"/>
     </row>
     <row r="50" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="58" t="s">
@@ -6700,42 +6795,42 @@
       </c>
       <c r="C50" s="61" t="str">
         <f>_xll.qlIMMNextCode(C49,B50,Trigger)</f>
-        <v>H6</v>
+        <v>M6</v>
       </c>
       <c r="D50" s="117"/>
       <c r="E50" s="117"/>
       <c r="F50" s="117"/>
       <c r="G50" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$42</f>
+        <f t="shared" si="10"/>
         <v>Euribor3M</v>
       </c>
       <c r="H50" s="114" t="str">
-        <f>Currency&amp;"FUT"&amp;$G$42&amp;$C50&amp;QuoteSuffix</f>
-        <v>EURFUT3MH6_Quote</v>
+        <f t="shared" si="11"/>
+        <v>EURFUT3MM6_Quote</v>
       </c>
       <c r="I50" s="114" t="str">
-        <f>Currency&amp;"FUT"&amp;$G$42&amp;$C50&amp;"ConvAdj"&amp;QuoteSuffix</f>
-        <v>EURFUT3MH6ConvAdj_Quote</v>
+        <f t="shared" si="12"/>
+        <v>EURFUT3MM6ConvAdj_Quote</v>
       </c>
       <c r="J50" s="62" t="str">
         <f>_xll.qlFuturesRateHelper(,H50,,C50,G50,I50,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00813#0034</v>
+        <v>obj_005dc#0001</v>
       </c>
       <c r="L50" s="9" t="str">
-        <f>A54</f>
+        <f t="shared" si="8"/>
         <v>FUT</v>
       </c>
       <c r="M50" s="90" t="str">
-        <f>IF(ISBLANK(J54),"--",J54)</f>
-        <v>obj_00817#0034</v>
+        <f t="shared" si="9"/>
+        <v>obj_005db#0001</v>
       </c>
       <c r="N50" s="139" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M50,Trigger),"--")</f>
-        <v>EURFUT3MH7_Quote</v>
+        <v>EURFUT3MM7_Quote</v>
       </c>
       <c r="O50" s="144">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M50,Trigger),"--")</f>
-        <v>99.842500000000001</v>
+        <v>99.972499999999997</v>
       </c>
       <c r="P50" s="93" t="b">
         <v>1</v>
@@ -6748,18 +6843,18 @@
       </c>
       <c r="S50" s="95">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M50,Trigger),"--")</f>
-        <v>42809</v>
+        <v>42907</v>
       </c>
       <c r="T50" s="95">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M50,Trigger),"--")</f>
-        <v>42901</v>
+        <v>42999</v>
       </c>
       <c r="V50" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Sw</v>
       </c>
       <c r="W50" s="3" t="str">
-        <v>obj_0095c</v>
+        <v>obj_005ab</v>
       </c>
       <c r="X50" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W50,Trigger),"")</f>
@@ -6767,7 +6862,7 @@
       </c>
       <c r="Y50" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W50,Trigger),"")</f>
-        <v>1.7309999999999999E-2</v>
+        <v>1.5529999999999999E-2</v>
       </c>
       <c r="Z50" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W50)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W50)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W50)),_xll.qlSwapRateHelperSpread($W50))</f>
@@ -6775,16 +6870,16 @@
       </c>
       <c r="AA50" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W50,Trigger),"")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="AB50" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W50,Trigger),"")</f>
-        <v>52777</v>
+        <v>52866</v>
       </c>
       <c r="AC50" s="68">
-        <v>1.7665597776145743E-2</v>
-      </c>
-      <c r="AD50" s="165"/>
+        <v>1.5874255484886298E-2</v>
+      </c>
+      <c r="AD50" s="163"/>
     </row>
     <row r="51" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="58" t="s">
@@ -6795,42 +6890,42 @@
       </c>
       <c r="C51" s="61" t="str">
         <f>_xll.qlIMMNextCode(C50,B51,Trigger)</f>
-        <v>M6</v>
+        <v>U6</v>
       </c>
       <c r="D51" s="117"/>
       <c r="E51" s="117"/>
       <c r="F51" s="117"/>
       <c r="G51" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$42</f>
+        <f t="shared" si="10"/>
         <v>Euribor3M</v>
       </c>
       <c r="H51" s="114" t="str">
-        <f>Currency&amp;"FUT"&amp;$G$42&amp;$C51&amp;QuoteSuffix</f>
-        <v>EURFUT3MM6_Quote</v>
+        <f t="shared" si="11"/>
+        <v>EURFUT3MU6_Quote</v>
       </c>
       <c r="I51" s="114" t="str">
-        <f>Currency&amp;"FUT"&amp;$G$42&amp;$C51&amp;"ConvAdj"&amp;QuoteSuffix</f>
-        <v>EURFUT3MM6ConvAdj_Quote</v>
+        <f t="shared" si="12"/>
+        <v>EURFUT3MU6ConvAdj_Quote</v>
       </c>
       <c r="J51" s="62" t="str">
         <f>_xll.qlFuturesRateHelper(,H51,,C51,G51,I51,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00814#0034</v>
+        <v>obj_005d6#0001</v>
       </c>
       <c r="L51" s="9" t="str">
-        <f>A55</f>
+        <f t="shared" si="8"/>
         <v>FUT</v>
       </c>
       <c r="M51" s="90" t="str">
-        <f>IF(ISBLANK(J55),"--",J55)</f>
-        <v>obj_00818#0034</v>
+        <f t="shared" si="9"/>
+        <v>obj_005d5#0001</v>
       </c>
       <c r="N51" s="139" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M51,Trigger),"--")</f>
-        <v>EURFUT3MM7_Quote</v>
+        <v>EURFUT3MU7_Quote</v>
       </c>
       <c r="O51" s="144">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M51,Trigger),"--")</f>
-        <v>99.782499999999999</v>
+        <v>99.932500000000005</v>
       </c>
       <c r="P51" s="93" t="b">
         <v>1</v>
@@ -6843,18 +6938,18 @@
       </c>
       <c r="S51" s="95">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M51,Trigger),"--")</f>
-        <v>42907</v>
+        <v>42998</v>
       </c>
       <c r="T51" s="95">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M51,Trigger),"--")</f>
-        <v>42999</v>
+        <v>43089</v>
       </c>
       <c r="V51" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Sw</v>
       </c>
       <c r="W51" s="3" t="str">
-        <v>obj_00952</v>
+        <v>obj_005c6</v>
       </c>
       <c r="X51" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W51,Trigger),"")</f>
@@ -6862,7 +6957,7 @@
       </c>
       <c r="Y51" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W51,Trigger),"")</f>
-        <v>1.7340000000000001E-2</v>
+        <v>1.554E-2</v>
       </c>
       <c r="Z51" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W51)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W51)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W51)),_xll.qlSwapRateHelperSpread($W51))</f>
@@ -6870,16 +6965,16 @@
       </c>
       <c r="AA51" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W51,Trigger),"")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="AB51" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W51,Trigger),"")</f>
-        <v>53142</v>
+        <v>53230</v>
       </c>
       <c r="AC51" s="68">
-        <v>1.7688480504269792E-2</v>
-      </c>
-      <c r="AD51" s="165"/>
+        <v>1.5871729136836807E-2</v>
+      </c>
+      <c r="AD51" s="163"/>
     </row>
     <row r="52" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="58" t="s">
@@ -6890,42 +6985,42 @@
       </c>
       <c r="C52" s="61" t="str">
         <f>_xll.qlIMMNextCode(C51,B52,Trigger)</f>
-        <v>U6</v>
+        <v>Z6</v>
       </c>
       <c r="D52" s="117"/>
       <c r="E52" s="117"/>
       <c r="F52" s="117"/>
       <c r="G52" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$42</f>
+        <f t="shared" si="10"/>
         <v>Euribor3M</v>
       </c>
       <c r="H52" s="114" t="str">
-        <f>Currency&amp;"FUT"&amp;$G$42&amp;$C52&amp;QuoteSuffix</f>
-        <v>EURFUT3MU6_Quote</v>
+        <f t="shared" si="11"/>
+        <v>EURFUT3MZ6_Quote</v>
       </c>
       <c r="I52" s="114" t="str">
-        <f>Currency&amp;"FUT"&amp;$G$42&amp;$C52&amp;"ConvAdj"&amp;QuoteSuffix</f>
-        <v>EURFUT3MU6ConvAdj_Quote</v>
+        <f t="shared" si="12"/>
+        <v>EURFUT3MZ6ConvAdj_Quote</v>
       </c>
       <c r="J52" s="62" t="str">
         <f>_xll.qlFuturesRateHelper(,H52,,C52,G52,I52,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00815#0034</v>
+        <v>obj_005cf#0001</v>
       </c>
       <c r="L52" s="9" t="str">
-        <f>A56</f>
+        <f t="shared" si="8"/>
         <v>FUT</v>
       </c>
       <c r="M52" s="90" t="str">
-        <f>IF(ISBLANK(J56),"--",J56)</f>
-        <v>obj_00819#0034</v>
+        <f t="shared" si="9"/>
+        <v>obj_005d2#0001</v>
       </c>
       <c r="N52" s="139" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M52,Trigger),"--")</f>
-        <v>EURFUT3MU7_Quote</v>
+        <v>EURFUT3MZ7_Quote</v>
       </c>
       <c r="O52" s="144">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M52,Trigger),"--")</f>
-        <v>99.722499999999997</v>
+        <v>99.882499999999993</v>
       </c>
       <c r="P52" s="93" t="b">
         <v>1</v>
@@ -6938,18 +7033,18 @@
       </c>
       <c r="S52" s="95">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M52,Trigger),"--")</f>
-        <v>42998</v>
+        <v>43089</v>
       </c>
       <c r="T52" s="95">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M52,Trigger),"--")</f>
-        <v>43089</v>
+        <v>43179</v>
       </c>
       <c r="V52" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Sw</v>
       </c>
       <c r="W52" s="3" t="str">
-        <v>obj_00950</v>
+        <v>obj_005af</v>
       </c>
       <c r="X52" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W52,Trigger),"")</f>
@@ -6957,7 +7052,7 @@
       </c>
       <c r="Y52" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W52,Trigger),"")</f>
-        <v>1.745E-2</v>
+        <v>1.5600000000000001E-2</v>
       </c>
       <c r="Z52" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W52)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W52)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W52)),_xll.qlSwapRateHelperSpread($W52))</f>
@@ -6965,16 +7060,16 @@
       </c>
       <c r="AA52" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W52,Trigger),"")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="AB52" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W52,Trigger),"")</f>
-        <v>54968</v>
+        <v>55057</v>
       </c>
       <c r="AC52" s="68">
-        <v>1.7763330645319816E-2</v>
-      </c>
-      <c r="AD52" s="165"/>
+        <v>1.5883974750377519E-2</v>
+      </c>
+      <c r="AD52" s="163"/>
     </row>
     <row r="53" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="58" t="s">
@@ -6985,42 +7080,42 @@
       </c>
       <c r="C53" s="61" t="str">
         <f>_xll.qlIMMNextCode(C52,B53,Trigger)</f>
-        <v>Z6</v>
+        <v>H7</v>
       </c>
       <c r="D53" s="117"/>
       <c r="E53" s="117"/>
       <c r="F53" s="117"/>
       <c r="G53" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$42</f>
+        <f t="shared" si="10"/>
         <v>Euribor3M</v>
       </c>
       <c r="H53" s="114" t="str">
-        <f>Currency&amp;"FUT"&amp;$G$42&amp;$C53&amp;QuoteSuffix</f>
-        <v>EURFUT3MZ6_Quote</v>
+        <f t="shared" si="11"/>
+        <v>EURFUT3MH7_Quote</v>
       </c>
       <c r="I53" s="114" t="str">
-        <f>Currency&amp;"FUT"&amp;$G$42&amp;$C53&amp;"ConvAdj"&amp;QuoteSuffix</f>
-        <v>EURFUT3MZ6ConvAdj_Quote</v>
+        <f t="shared" si="12"/>
+        <v>EURFUT3MH7ConvAdj_Quote</v>
       </c>
       <c r="J53" s="62" t="str">
         <f>_xll.qlFuturesRateHelper(,H53,,C53,G53,I53,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00816#0034</v>
+        <v>obj_005cc#0001</v>
       </c>
       <c r="L53" s="9" t="str">
-        <f>A57</f>
+        <f t="shared" si="8"/>
         <v>FUT</v>
       </c>
       <c r="M53" s="90" t="str">
-        <f>IF(ISBLANK(J57),"--",J57)</f>
-        <v>obj_0081a#0034</v>
+        <f t="shared" si="9"/>
+        <v>obj_005cb#0001</v>
       </c>
       <c r="N53" s="139" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M53,Trigger),"--")</f>
-        <v>EURFUT3MZ7_Quote</v>
+        <v>EURFUT3MH8_Quote</v>
       </c>
       <c r="O53" s="144">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M53,Trigger),"--")</f>
-        <v>99.647500000000008</v>
+        <v>99.817499999999995</v>
       </c>
       <c r="P53" s="93" t="b">
         <v>1</v>
@@ -7033,18 +7128,18 @@
       </c>
       <c r="S53" s="95">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M53,Trigger),"--")</f>
-        <v>43089</v>
+        <v>43180</v>
       </c>
       <c r="T53" s="95">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M53,Trigger),"--")</f>
-        <v>43179</v>
+        <v>43272</v>
       </c>
       <c r="V53" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Sw</v>
       </c>
       <c r="W53" s="3" t="str">
-        <v>obj_0095e</v>
+        <v>obj_005bd</v>
       </c>
       <c r="X53" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W53,Trigger),"")</f>
@@ -7052,7 +7147,7 @@
       </c>
       <c r="Y53" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W53,Trigger),"")</f>
-        <v>1.745E-2</v>
+        <v>1.5600000000000001E-2</v>
       </c>
       <c r="Z53" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W53)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W53)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W53)),_xll.qlSwapRateHelperSpread($W53))</f>
@@ -7060,16 +7155,16 @@
       </c>
       <c r="AA53" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W53,Trigger),"")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="AB53" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W53,Trigger),"")</f>
-        <v>56794</v>
+        <v>56884</v>
       </c>
       <c r="AC53" s="68">
-        <v>1.7704068591121648E-2</v>
-      </c>
-      <c r="AD53" s="165"/>
+        <v>1.5832267522101706E-2</v>
+      </c>
+      <c r="AD53" s="163"/>
     </row>
     <row r="54" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="58" t="s">
@@ -7080,42 +7175,42 @@
       </c>
       <c r="C54" s="61" t="str">
         <f>_xll.qlIMMNextCode(C53,B54,Trigger)</f>
-        <v>H7</v>
+        <v>M7</v>
       </c>
       <c r="D54" s="117"/>
       <c r="E54" s="117"/>
       <c r="F54" s="117"/>
       <c r="G54" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$42</f>
+        <f t="shared" si="10"/>
         <v>Euribor3M</v>
       </c>
       <c r="H54" s="114" t="str">
-        <f>Currency&amp;"FUT"&amp;$G$42&amp;$C54&amp;QuoteSuffix</f>
-        <v>EURFUT3MH7_Quote</v>
+        <f t="shared" si="11"/>
+        <v>EURFUT3MM7_Quote</v>
       </c>
       <c r="I54" s="114" t="str">
-        <f>Currency&amp;"FUT"&amp;$G$42&amp;$C54&amp;"ConvAdj"&amp;QuoteSuffix</f>
-        <v>EURFUT3MH7ConvAdj_Quote</v>
+        <f t="shared" si="12"/>
+        <v>EURFUT3MM7ConvAdj_Quote</v>
       </c>
       <c r="J54" s="62" t="str">
         <f>_xll.qlFuturesRateHelper(,H54,,C54,G54,I54,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00817#0034</v>
+        <v>obj_005db#0001</v>
       </c>
       <c r="L54" s="9" t="str">
-        <f>A58</f>
+        <f t="shared" si="8"/>
         <v>FUT</v>
       </c>
       <c r="M54" s="90" t="str">
-        <f>IF(ISBLANK(J58),"--",J58)</f>
-        <v>obj_0081b#0034</v>
+        <f t="shared" si="9"/>
+        <v>obj_005da#0001</v>
       </c>
       <c r="N54" s="139" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M54,Trigger),"--")</f>
-        <v>EURFUT3MH8_Quote</v>
+        <v>EURFUT3MM8_Quote</v>
       </c>
       <c r="O54" s="144">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M54,Trigger),"--")</f>
-        <v>99.557500000000005</v>
+        <v>99.752499999999998</v>
       </c>
       <c r="P54" s="93" t="b">
         <v>1</v>
@@ -7128,18 +7223,18 @@
       </c>
       <c r="S54" s="95">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M54,Trigger),"--")</f>
-        <v>43180</v>
+        <v>43271</v>
       </c>
       <c r="T54" s="95">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M54,Trigger),"--")</f>
-        <v>43272</v>
+        <v>43363</v>
       </c>
       <c r="V54" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Sw</v>
       </c>
       <c r="W54" s="3" t="str">
-        <v>obj_0094a</v>
+        <v>obj_005bc</v>
       </c>
       <c r="X54" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W54,Trigger),"")</f>
@@ -7147,7 +7242,7 @@
       </c>
       <c r="Y54" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W54,Trigger),"")</f>
-        <v>1.702E-2</v>
+        <v>1.5169999999999999E-2</v>
       </c>
       <c r="Z54" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W54)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W54)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W54)),_xll.qlSwapRateHelperSpread($W54))</f>
@@ -7155,16 +7250,16 @@
       </c>
       <c r="AA54" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W54,Trigger),"")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="AB54" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W54,Trigger),"")</f>
-        <v>60447</v>
+        <v>60535</v>
       </c>
       <c r="AC54" s="68">
-        <v>1.6991905782550106E-2</v>
-      </c>
-      <c r="AD54" s="165"/>
+        <v>1.5156806650219302E-2</v>
+      </c>
+      <c r="AD54" s="163"/>
     </row>
     <row r="55" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="58" t="s">
@@ -7175,42 +7270,42 @@
       </c>
       <c r="C55" s="61" t="str">
         <f>_xll.qlIMMNextCode(C54,B55,Trigger)</f>
-        <v>M7</v>
+        <v>U7</v>
       </c>
       <c r="D55" s="117"/>
       <c r="E55" s="117"/>
       <c r="F55" s="117"/>
       <c r="G55" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$42</f>
+        <f t="shared" si="10"/>
         <v>Euribor3M</v>
       </c>
       <c r="H55" s="114" t="str">
-        <f>Currency&amp;"FUT"&amp;$G$42&amp;$C55&amp;QuoteSuffix</f>
-        <v>EURFUT3MM7_Quote</v>
+        <f t="shared" si="11"/>
+        <v>EURFUT3MU7_Quote</v>
       </c>
       <c r="I55" s="114" t="str">
-        <f>Currency&amp;"FUT"&amp;$G$42&amp;$C55&amp;"ConvAdj"&amp;QuoteSuffix</f>
-        <v>EURFUT3MM7ConvAdj_Quote</v>
+        <f t="shared" si="12"/>
+        <v>EURFUT3MU7ConvAdj_Quote</v>
       </c>
       <c r="J55" s="62" t="str">
         <f>_xll.qlFuturesRateHelper(,H55,,C55,G55,I55,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00818#0034</v>
+        <v>obj_005d5#0001</v>
       </c>
       <c r="L55" s="9" t="str">
-        <f>A59</f>
+        <f t="shared" si="8"/>
         <v>FUT</v>
       </c>
       <c r="M55" s="90" t="str">
-        <f>IF(ISBLANK(J59),"--",J59)</f>
-        <v>obj_0081c#0034</v>
+        <f t="shared" si="9"/>
+        <v>obj_005d4#0001</v>
       </c>
       <c r="N55" s="139" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M55,Trigger),"--")</f>
-        <v>EURFUT3MM8_Quote</v>
+        <v>EURFUT3MU8_Quote</v>
       </c>
       <c r="O55" s="144">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M55,Trigger),"--")</f>
-        <v>99.462500000000006</v>
+        <v>99.672499999999999</v>
       </c>
       <c r="P55" s="93" t="b">
         <v>1</v>
@@ -7223,18 +7318,18 @@
       </c>
       <c r="S55" s="95">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M55,Trigger),"--")</f>
-        <v>43271</v>
+        <v>43362</v>
       </c>
       <c r="T55" s="95">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M55,Trigger),"--")</f>
-        <v>43363</v>
+        <v>43453</v>
       </c>
       <c r="V55" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Sw</v>
       </c>
       <c r="W55" s="3" t="str">
-        <v>obj_0093e</v>
+        <v>obj_005a7</v>
       </c>
       <c r="X55" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W55,Trigger),"")</f>
@@ -7242,7 +7337,7 @@
       </c>
       <c r="Y55" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W55,Trigger),"")</f>
-        <v>1.687E-2</v>
+        <v>1.502E-2</v>
       </c>
       <c r="Z55" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W55)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W55)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W55)),_xll.qlSwapRateHelperSpread($W55))</f>
@@ -7250,16 +7345,16 @@
       </c>
       <c r="AA55" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W55,Trigger),"")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="AB55" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W55,Trigger),"")</f>
-        <v>64098</v>
+        <v>64187</v>
       </c>
       <c r="AC55" s="68">
-        <v>1.6734935813282843E-2</v>
-      </c>
-      <c r="AD55" s="165"/>
+        <v>1.4914551805124313E-2</v>
+      </c>
+      <c r="AD55" s="163"/>
     </row>
     <row r="56" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="58" t="s">
@@ -7270,42 +7365,42 @@
       </c>
       <c r="C56" s="61" t="str">
         <f>_xll.qlIMMNextCode(C55,B56,Trigger)</f>
-        <v>U7</v>
+        <v>Z7</v>
       </c>
       <c r="D56" s="117"/>
       <c r="E56" s="117"/>
       <c r="F56" s="117"/>
       <c r="G56" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$42</f>
+        <f t="shared" si="10"/>
         <v>Euribor3M</v>
       </c>
       <c r="H56" s="114" t="str">
-        <f>Currency&amp;"FUT"&amp;$G$42&amp;$C56&amp;QuoteSuffix</f>
-        <v>EURFUT3MU7_Quote</v>
+        <f t="shared" si="11"/>
+        <v>EURFUT3MZ7_Quote</v>
       </c>
       <c r="I56" s="114" t="str">
-        <f>Currency&amp;"FUT"&amp;$G$42&amp;$C56&amp;"ConvAdj"&amp;QuoteSuffix</f>
-        <v>EURFUT3MU7ConvAdj_Quote</v>
+        <f t="shared" si="12"/>
+        <v>EURFUT3MZ7ConvAdj_Quote</v>
       </c>
       <c r="J56" s="62" t="str">
         <f>_xll.qlFuturesRateHelper(,H56,,C56,G56,I56,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00819#0034</v>
+        <v>obj_005d2#0001</v>
       </c>
       <c r="L56" s="9" t="str">
-        <f>A60</f>
+        <f t="shared" si="8"/>
         <v>FUT</v>
       </c>
       <c r="M56" s="90" t="str">
-        <f>IF(ISBLANK(J60),"--",J60)</f>
-        <v>obj_0081d#0034</v>
+        <f t="shared" si="9"/>
+        <v>obj_005d1#0001</v>
       </c>
       <c r="N56" s="139" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M56,Trigger),"--")</f>
-        <v>EURFUT3MU8_Quote</v>
+        <v>EURFUT3MZ8_Quote</v>
       </c>
       <c r="O56" s="144">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M56,Trigger),"--")</f>
-        <v>99.362499999999997</v>
+        <v>99.592500000000001</v>
       </c>
       <c r="P56" s="93" t="b">
         <v>1</v>
@@ -7318,11 +7413,11 @@
       </c>
       <c r="S56" s="95">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M56,Trigger),"--")</f>
-        <v>43362</v>
+        <v>43453</v>
       </c>
       <c r="T56" s="95">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M56,Trigger),"--")</f>
-        <v>43453</v>
+        <v>43543</v>
       </c>
       <c r="V56" s="3" t="str">
         <f t="shared" si="2"/>
@@ -7354,7 +7449,7 @@
       <c r="AC56" s="68" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AD56" s="165"/>
+      <c r="AD56" s="163"/>
     </row>
     <row r="57" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="58" t="s">
@@ -7365,42 +7460,42 @@
       </c>
       <c r="C57" s="61" t="str">
         <f>_xll.qlIMMNextCode(C56,B57,Trigger)</f>
-        <v>Z7</v>
+        <v>H8</v>
       </c>
       <c r="D57" s="117"/>
       <c r="E57" s="117"/>
       <c r="F57" s="117"/>
       <c r="G57" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$42</f>
+        <f t="shared" si="10"/>
         <v>Euribor3M</v>
       </c>
       <c r="H57" s="114" t="str">
-        <f>Currency&amp;"FUT"&amp;$G$42&amp;$C57&amp;QuoteSuffix</f>
-        <v>EURFUT3MZ7_Quote</v>
+        <f t="shared" si="11"/>
+        <v>EURFUT3MH8_Quote</v>
       </c>
       <c r="I57" s="114" t="str">
-        <f>Currency&amp;"FUT"&amp;$G$42&amp;$C57&amp;"ConvAdj"&amp;QuoteSuffix</f>
-        <v>EURFUT3MZ7ConvAdj_Quote</v>
+        <f t="shared" si="12"/>
+        <v>EURFUT3MH8ConvAdj_Quote</v>
       </c>
       <c r="J57" s="62" t="str">
         <f>_xll.qlFuturesRateHelper(,H57,,C57,G57,I57,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0081a#0034</v>
+        <v>obj_005cb#0001</v>
       </c>
       <c r="L57" s="9" t="str">
-        <f>A61</f>
+        <f t="shared" si="8"/>
         <v>FUT</v>
       </c>
       <c r="M57" s="90" t="str">
-        <f>IF(ISBLANK(J61),"--",J61)</f>
-        <v>obj_0081e#0034</v>
+        <f t="shared" si="9"/>
+        <v>obj_005ca#0001</v>
       </c>
       <c r="N57" s="139" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M57,Trigger),"--")</f>
-        <v>EURFUT3MZ8_Quote</v>
+        <v>EURFUT3MH9_Quote</v>
       </c>
       <c r="O57" s="144">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M57,Trigger),"--")</f>
-        <v>99.257499999999993</v>
+        <v>99.512500000000003</v>
       </c>
       <c r="P57" s="93" t="b">
         <v>1</v>
@@ -7413,11 +7508,11 @@
       </c>
       <c r="S57" s="95">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M57,Trigger),"--")</f>
-        <v>43453</v>
+        <v>43544</v>
       </c>
       <c r="T57" s="95">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M57,Trigger),"--")</f>
-        <v>43543</v>
+        <v>43636</v>
       </c>
       <c r="V57" s="3" t="str">
         <f t="shared" si="2"/>
@@ -7449,7 +7544,7 @@
       <c r="AC57" s="68" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AD57" s="165"/>
+      <c r="AD57" s="163"/>
     </row>
     <row r="58" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="58" t="s">
@@ -7460,42 +7555,42 @@
       </c>
       <c r="C58" s="61" t="str">
         <f>_xll.qlIMMNextCode(C57,B58,Trigger)</f>
-        <v>H8</v>
+        <v>M8</v>
       </c>
       <c r="D58" s="117"/>
       <c r="E58" s="117"/>
       <c r="F58" s="117"/>
       <c r="G58" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$42</f>
+        <f t="shared" si="10"/>
         <v>Euribor3M</v>
       </c>
       <c r="H58" s="114" t="str">
-        <f>Currency&amp;"FUT"&amp;$G$42&amp;$C58&amp;QuoteSuffix</f>
-        <v>EURFUT3MH8_Quote</v>
+        <f t="shared" si="11"/>
+        <v>EURFUT3MM8_Quote</v>
       </c>
       <c r="I58" s="114" t="str">
-        <f>Currency&amp;"FUT"&amp;$G$42&amp;$C58&amp;"ConvAdj"&amp;QuoteSuffix</f>
-        <v>EURFUT3MH8ConvAdj_Quote</v>
+        <f t="shared" si="12"/>
+        <v>EURFUT3MM8ConvAdj_Quote</v>
       </c>
       <c r="J58" s="62" t="str">
         <f>_xll.qlFuturesRateHelper(,H58,,C58,G58,I58,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0081b#0034</v>
+        <v>obj_005da#0001</v>
       </c>
       <c r="L58" s="9" t="str">
-        <f>A62</f>
+        <f t="shared" si="8"/>
         <v>FUT</v>
       </c>
       <c r="M58" s="90" t="str">
-        <f>IF(ISBLANK(J62),"--",J62)</f>
-        <v>obj_0081f#0034</v>
+        <f t="shared" si="9"/>
+        <v>obj_005d9#0001</v>
       </c>
       <c r="N58" s="139" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M58,Trigger),"--")</f>
-        <v>EURFUT3MH9_Quote</v>
+        <v>EURFUT3MM9_Quote</v>
       </c>
       <c r="O58" s="144">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M58,Trigger),"--")</f>
-        <v>99.152500000000003</v>
+        <v>99.432500000000005</v>
       </c>
       <c r="P58" s="93" t="b">
         <v>1</v>
@@ -7508,11 +7603,11 @@
       </c>
       <c r="S58" s="95">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M58,Trigger),"--")</f>
-        <v>43544</v>
+        <v>43635</v>
       </c>
       <c r="T58" s="95">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M58,Trigger),"--")</f>
-        <v>43636</v>
+        <v>43727</v>
       </c>
       <c r="V58" s="3" t="str">
         <f t="shared" si="2"/>
@@ -7544,7 +7639,7 @@
       <c r="AC58" s="68" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AD58" s="165"/>
+      <c r="AD58" s="163"/>
     </row>
     <row r="59" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="58" t="s">
@@ -7555,42 +7650,42 @@
       </c>
       <c r="C59" s="61" t="str">
         <f>_xll.qlIMMNextCode(C58,B59,Trigger)</f>
-        <v>M8</v>
+        <v>U8</v>
       </c>
       <c r="D59" s="117"/>
       <c r="E59" s="117"/>
       <c r="F59" s="117"/>
       <c r="G59" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$42</f>
+        <f t="shared" si="10"/>
         <v>Euribor3M</v>
       </c>
       <c r="H59" s="114" t="str">
-        <f>Currency&amp;"FUT"&amp;$G$42&amp;$C59&amp;QuoteSuffix</f>
-        <v>EURFUT3MM8_Quote</v>
+        <f t="shared" si="11"/>
+        <v>EURFUT3MU8_Quote</v>
       </c>
       <c r="I59" s="114" t="str">
-        <f>Currency&amp;"FUT"&amp;$G$42&amp;$C59&amp;"ConvAdj"&amp;QuoteSuffix</f>
-        <v>EURFUT3MM8ConvAdj_Quote</v>
+        <f t="shared" si="12"/>
+        <v>EURFUT3MU8ConvAdj_Quote</v>
       </c>
       <c r="J59" s="62" t="str">
         <f>_xll.qlFuturesRateHelper(,H59,,C59,G59,I59,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0081c#0034</v>
+        <v>obj_005d4#0001</v>
       </c>
       <c r="L59" s="9" t="str">
-        <f>A63</f>
+        <f t="shared" si="8"/>
         <v>FUT</v>
       </c>
       <c r="M59" s="90" t="str">
-        <f>IF(ISBLANK(J63),"--",J63)</f>
-        <v>obj_00820#0034</v>
+        <f t="shared" si="9"/>
+        <v>obj_005d8#0001</v>
       </c>
       <c r="N59" s="139" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M59,Trigger),"--")</f>
-        <v>EURFUT3MM9_Quote</v>
+        <v>EURFUT3MU9_Quote</v>
       </c>
       <c r="O59" s="144">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M59,Trigger),"--")</f>
-        <v>99.045000000000002</v>
+        <v>99.352499999999992</v>
       </c>
       <c r="P59" s="93" t="b">
         <v>1</v>
@@ -7603,11 +7698,11 @@
       </c>
       <c r="S59" s="95">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M59,Trigger),"--")</f>
-        <v>43635</v>
+        <v>43726</v>
       </c>
       <c r="T59" s="95">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M59,Trigger),"--")</f>
-        <v>43727</v>
+        <v>43817</v>
       </c>
       <c r="V59" s="3" t="str">
         <f t="shared" si="2"/>
@@ -7639,7 +7734,7 @@
       <c r="AC59" s="68" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AD59" s="165"/>
+      <c r="AD59" s="163"/>
     </row>
     <row r="60" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="58" t="s">
@@ -7650,42 +7745,42 @@
       </c>
       <c r="C60" s="61" t="str">
         <f>_xll.qlIMMNextCode(C59,B60,Trigger)</f>
-        <v>U8</v>
+        <v>Z8</v>
       </c>
       <c r="D60" s="117"/>
       <c r="E60" s="117"/>
       <c r="F60" s="117"/>
       <c r="G60" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$42</f>
+        <f t="shared" si="10"/>
         <v>Euribor3M</v>
       </c>
       <c r="H60" s="114" t="str">
-        <f>Currency&amp;"FUT"&amp;$G$42&amp;$C60&amp;QuoteSuffix</f>
-        <v>EURFUT3MU8_Quote</v>
+        <f t="shared" si="11"/>
+        <v>EURFUT3MZ8_Quote</v>
       </c>
       <c r="I60" s="114" t="str">
-        <f>Currency&amp;"FUT"&amp;$G$42&amp;$C60&amp;"ConvAdj"&amp;QuoteSuffix</f>
-        <v>EURFUT3MU8ConvAdj_Quote</v>
+        <f t="shared" si="12"/>
+        <v>EURFUT3MZ8ConvAdj_Quote</v>
       </c>
       <c r="J60" s="62" t="str">
         <f>_xll.qlFuturesRateHelper(,H60,,C60,G60,I60,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0081d#0034</v>
+        <v>obj_005d1#0001</v>
       </c>
       <c r="L60" s="9" t="str">
-        <f>A64</f>
+        <f t="shared" si="8"/>
         <v>FUT</v>
       </c>
       <c r="M60" s="90" t="str">
-        <f>IF(ISBLANK(J64),"--",J64)</f>
-        <v>obj_00821#0034</v>
+        <f t="shared" si="9"/>
+        <v>obj_005d0#0001</v>
       </c>
       <c r="N60" s="139" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M60,Trigger),"--")</f>
-        <v>EURFUT3MU9_Quote</v>
+        <v>EURFUT3MZ9_Quote</v>
       </c>
       <c r="O60" s="144">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M60,Trigger),"--")</f>
-        <v>98.942499999999995</v>
+        <v>99.27000000000001</v>
       </c>
       <c r="P60" s="93" t="b">
         <v>1</v>
@@ -7698,11 +7793,11 @@
       </c>
       <c r="S60" s="95">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M60,Trigger),"--")</f>
-        <v>43726</v>
+        <v>43817</v>
       </c>
       <c r="T60" s="95">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M60,Trigger),"--")</f>
-        <v>43817</v>
+        <v>43908</v>
       </c>
       <c r="V60" s="3" t="str">
         <f t="shared" si="2"/>
@@ -7734,7 +7829,7 @@
       <c r="AC60" s="68" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AD60" s="165"/>
+      <c r="AD60" s="163"/>
     </row>
     <row r="61" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="58" t="s">
@@ -7745,42 +7840,42 @@
       </c>
       <c r="C61" s="61" t="str">
         <f>_xll.qlIMMNextCode(C60,B61,Trigger)</f>
-        <v>Z8</v>
+        <v>H9</v>
       </c>
       <c r="D61" s="117"/>
       <c r="E61" s="117"/>
       <c r="F61" s="117"/>
       <c r="G61" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$42</f>
+        <f t="shared" si="10"/>
         <v>Euribor3M</v>
       </c>
       <c r="H61" s="114" t="str">
-        <f>Currency&amp;"FUT"&amp;$G$42&amp;$C61&amp;QuoteSuffix</f>
-        <v>EURFUT3MZ8_Quote</v>
+        <f t="shared" si="11"/>
+        <v>EURFUT3MH9_Quote</v>
       </c>
       <c r="I61" s="114" t="str">
-        <f>Currency&amp;"FUT"&amp;$G$42&amp;$C61&amp;"ConvAdj"&amp;QuoteSuffix</f>
-        <v>EURFUT3MZ8ConvAdj_Quote</v>
+        <f t="shared" si="12"/>
+        <v>EURFUT3MH9ConvAdj_Quote</v>
       </c>
       <c r="J61" s="62" t="str">
         <f>_xll.qlFuturesRateHelper(,H61,,C61,G61,I61,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0081e#0034</v>
+        <v>obj_005ca#0001</v>
       </c>
       <c r="L61" s="10" t="str">
-        <f>A65</f>
+        <f t="shared" si="8"/>
         <v>FUT</v>
       </c>
       <c r="M61" s="91" t="str">
-        <f>IF(ISBLANK(J65),"--",J65)</f>
-        <v>obj_00822#0034</v>
+        <f t="shared" si="9"/>
+        <v>obj_005c9#0001</v>
       </c>
       <c r="N61" s="140" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M61,Trigger),"--")</f>
-        <v>EURFUT3MZ9_Quote</v>
+        <v>EURFUT3MH0_Quote</v>
       </c>
       <c r="O61" s="145">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M61,Trigger),"--")</f>
-        <v>98.837500000000006</v>
+        <v>99.19</v>
       </c>
       <c r="P61" s="96" t="b">
         <v>1</v>
@@ -7793,11 +7888,11 @@
       </c>
       <c r="S61" s="98">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M61,Trigger),"--")</f>
-        <v>43817</v>
+        <v>43908</v>
       </c>
       <c r="T61" s="98">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M61,Trigger),"--")</f>
-        <v>43908</v>
+        <v>44000</v>
       </c>
       <c r="V61" s="3" t="str">
         <f t="shared" si="2"/>
@@ -7829,7 +7924,7 @@
       <c r="AC61" s="68" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AD61" s="165"/>
+      <c r="AD61" s="163"/>
     </row>
     <row r="62" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="58" t="s">
@@ -7840,33 +7935,33 @@
       </c>
       <c r="C62" s="61" t="str">
         <f>_xll.qlIMMNextCode(C61,B62,Trigger)</f>
-        <v>H9</v>
+        <v>M9</v>
       </c>
       <c r="D62" s="117"/>
       <c r="E62" s="117"/>
       <c r="F62" s="117"/>
       <c r="G62" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$42</f>
+        <f t="shared" si="10"/>
         <v>Euribor3M</v>
       </c>
       <c r="H62" s="114" t="str">
-        <f>Currency&amp;"FUT"&amp;$G$42&amp;$C62&amp;QuoteSuffix</f>
-        <v>EURFUT3MH9_Quote</v>
+        <f t="shared" si="11"/>
+        <v>EURFUT3MM9_Quote</v>
       </c>
       <c r="I62" s="114" t="str">
-        <f>Currency&amp;"FUT"&amp;$G$42&amp;$C62&amp;"ConvAdj"&amp;QuoteSuffix</f>
-        <v>EURFUT3MH9ConvAdj_Quote</v>
+        <f t="shared" si="12"/>
+        <v>EURFUT3MM9ConvAdj_Quote</v>
       </c>
       <c r="J62" s="62" t="str">
         <f>_xll.qlFuturesRateHelper(,H62,,C62,G62,I62,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0081f#0034</v>
+        <v>obj_005d9#0001</v>
       </c>
       <c r="L62" s="128" t="str">
-        <f>A68</f>
+        <f t="shared" ref="L62:L99" si="13">A68</f>
         <v>Sw</v>
       </c>
       <c r="M62" s="129" t="str">
-        <f>IF(ISBLANK(J68),"--",J68)</f>
+        <f t="shared" ref="M62:M99" si="14">IF(ISBLANK(J68),"--",J68)</f>
         <v>--</v>
       </c>
       <c r="N62" s="141" t="str">
@@ -7924,7 +8019,7 @@
       <c r="AC62" s="68" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AD62" s="165"/>
+      <c r="AD62" s="163"/>
     </row>
     <row r="63" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="58" t="s">
@@ -7935,33 +8030,33 @@
       </c>
       <c r="C63" s="61" t="str">
         <f>_xll.qlIMMNextCode(C62,B63,Trigger)</f>
-        <v>M9</v>
+        <v>U9</v>
       </c>
       <c r="D63" s="117"/>
       <c r="E63" s="117"/>
       <c r="F63" s="117"/>
       <c r="G63" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$42</f>
+        <f t="shared" si="10"/>
         <v>Euribor3M</v>
       </c>
       <c r="H63" s="114" t="str">
-        <f>Currency&amp;"FUT"&amp;$G$42&amp;$C63&amp;QuoteSuffix</f>
-        <v>EURFUT3MM9_Quote</v>
+        <f t="shared" si="11"/>
+        <v>EURFUT3MU9_Quote</v>
       </c>
       <c r="I63" s="114" t="str">
-        <f>Currency&amp;"FUT"&amp;$G$42&amp;$C63&amp;"ConvAdj"&amp;QuoteSuffix</f>
-        <v>EURFUT3MM9ConvAdj_Quote</v>
+        <f t="shared" si="12"/>
+        <v>EURFUT3MU9ConvAdj_Quote</v>
       </c>
       <c r="J63" s="62" t="str">
         <f>_xll.qlFuturesRateHelper(,H63,,C63,G63,I63,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00820#0034</v>
+        <v>obj_005d8#0001</v>
       </c>
       <c r="L63" s="69" t="str">
-        <f>A69</f>
+        <f t="shared" si="13"/>
         <v>Sw</v>
       </c>
       <c r="M63" s="133" t="str">
-        <f>IF(ISBLANK(J69),"--",J69)</f>
+        <f t="shared" si="14"/>
         <v>--</v>
       </c>
       <c r="N63" s="142" t="str">
@@ -8019,7 +8114,7 @@
       <c r="AC63" s="68" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AD63" s="165"/>
+      <c r="AD63" s="163"/>
     </row>
     <row r="64" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="58" t="s">
@@ -8030,33 +8125,33 @@
       </c>
       <c r="C64" s="61" t="str">
         <f>_xll.qlIMMNextCode(C63,B64,Trigger)</f>
-        <v>U9</v>
+        <v>Z9</v>
       </c>
       <c r="D64" s="117"/>
       <c r="E64" s="117"/>
       <c r="F64" s="117"/>
       <c r="G64" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$42</f>
+        <f t="shared" si="10"/>
         <v>Euribor3M</v>
       </c>
       <c r="H64" s="114" t="str">
-        <f>Currency&amp;"FUT"&amp;$G$42&amp;$C64&amp;QuoteSuffix</f>
-        <v>EURFUT3MU9_Quote</v>
+        <f t="shared" si="11"/>
+        <v>EURFUT3MZ9_Quote</v>
       </c>
       <c r="I64" s="114" t="str">
-        <f>Currency&amp;"FUT"&amp;$G$42&amp;$C64&amp;"ConvAdj"&amp;QuoteSuffix</f>
-        <v>EURFUT3MU9ConvAdj_Quote</v>
+        <f t="shared" si="12"/>
+        <v>EURFUT3MZ9ConvAdj_Quote</v>
       </c>
       <c r="J64" s="62" t="str">
         <f>_xll.qlFuturesRateHelper(,H64,,C64,G64,I64,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00821#0034</v>
+        <v>obj_005d0#0001</v>
       </c>
       <c r="L64" s="69" t="str">
-        <f>A70</f>
+        <f t="shared" si="13"/>
         <v>Sw</v>
       </c>
       <c r="M64" s="133" t="str">
-        <f>IF(ISBLANK(J70),"--",J70)</f>
+        <f t="shared" si="14"/>
         <v>--</v>
       </c>
       <c r="N64" s="142" t="str">
@@ -8114,7 +8209,7 @@
       <c r="AC64" s="68" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AD64" s="165"/>
+      <c r="AD64" s="163"/>
     </row>
     <row r="65" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
@@ -8125,33 +8220,33 @@
       </c>
       <c r="C65" s="8" t="str">
         <f>_xll.qlIMMNextCode(C64,B65,Trigger)</f>
-        <v>Z9</v>
+        <v>H0</v>
       </c>
       <c r="D65" s="118"/>
       <c r="E65" s="118"/>
       <c r="F65" s="118"/>
       <c r="G65" s="6" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$42</f>
+        <f t="shared" si="10"/>
         <v>Euribor3M</v>
       </c>
       <c r="H65" s="115" t="str">
-        <f>Currency&amp;"FUT"&amp;$G$42&amp;$C65&amp;QuoteSuffix</f>
-        <v>EURFUT3MZ9_Quote</v>
+        <f t="shared" si="11"/>
+        <v>EURFUT3MH0_Quote</v>
       </c>
       <c r="I65" s="115" t="str">
-        <f>Currency&amp;"FUT"&amp;$G$42&amp;$C65&amp;"ConvAdj"&amp;QuoteSuffix</f>
-        <v>EURFUT3MZ9ConvAdj_Quote</v>
+        <f t="shared" si="12"/>
+        <v>EURFUT3MH0ConvAdj_Quote</v>
       </c>
       <c r="J65" s="2" t="str">
         <f>_xll.qlFuturesRateHelper(,H65,,C65,G65,I65,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00822#0034</v>
+        <v>obj_005c9#0001</v>
       </c>
       <c r="L65" s="69" t="str">
-        <f>A71</f>
+        <f t="shared" si="13"/>
         <v>Sw</v>
       </c>
       <c r="M65" s="133" t="str">
-        <f>IF(ISBLANK(J71),"--",J71)</f>
+        <f t="shared" si="14"/>
         <v>--</v>
       </c>
       <c r="N65" s="142" t="str">
@@ -8209,7 +8304,7 @@
       <c r="AC65" s="68" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AD65" s="165"/>
+      <c r="AD65" s="163"/>
     </row>
     <row r="66" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G66" s="50" t="s">
@@ -8219,11 +8314,11 @@
         <v>117</v>
       </c>
       <c r="L66" s="69" t="str">
-        <f>A72</f>
+        <f t="shared" si="13"/>
         <v>Sw</v>
       </c>
       <c r="M66" s="133" t="str">
-        <f>IF(ISBLANK(J72),"--",J72)</f>
+        <f t="shared" si="14"/>
         <v>--</v>
       </c>
       <c r="N66" s="142" t="str">
@@ -8281,7 +8376,7 @@
       <c r="AC66" s="68" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AD66" s="165"/>
+      <c r="AD66" s="163"/>
     </row>
     <row r="67" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="63" t="s">
@@ -8315,12 +8410,12 @@
         <v>25</v>
       </c>
       <c r="L67" s="69" t="str">
-        <f>A73</f>
+        <f t="shared" si="13"/>
         <v>Sw</v>
       </c>
       <c r="M67" s="133" t="str">
-        <f>IF(ISBLANK(J73),"--",J73)</f>
-        <v>obj_00942#0024</v>
+        <f t="shared" si="14"/>
+        <v>obj_005bb#0001</v>
       </c>
       <c r="N67" s="142" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M67,Trigger),"--")</f>
@@ -8328,7 +8423,7 @@
       </c>
       <c r="O67" s="135">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M67,Trigger),"--")</f>
-        <v>2.32E-3</v>
+        <v>1.2800000000000001E-3</v>
       </c>
       <c r="P67" s="134" t="b">
         <v>1</v>
@@ -8341,11 +8436,11 @@
       </c>
       <c r="S67" s="136">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M67,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="T67" s="136">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M67,Trigger),"--")</f>
-        <v>43280</v>
+        <v>43368</v>
       </c>
       <c r="V67" s="3" t="str">
         <f t="shared" si="2"/>
@@ -8377,7 +8472,7 @@
       <c r="AC67" s="68" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AD67" s="165"/>
+      <c r="AD67" s="163"/>
     </row>
     <row r="68" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="53" t="s">
@@ -8399,11 +8494,11 @@
         <v>118</v>
       </c>
       <c r="G68" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$66,"E","M")</f>
+        <f t="shared" ref="G68:G105" si="15">PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$66,"E","M")</f>
         <v>Euribor6M</v>
       </c>
       <c r="H68" s="58" t="str">
-        <f t="shared" ref="H68:H105" si="6">Currency&amp;$G$66&amp;$H$66&amp;$B68&amp;"_Quote"</f>
+        <f t="shared" ref="H68:H105" si="16">Currency&amp;$G$66&amp;$H$66&amp;$B68&amp;"_Quote"</f>
         <v>EURAB6E1Y_Quote</v>
       </c>
       <c r="I68" s="120">
@@ -8411,12 +8506,12 @@
       </c>
       <c r="J68" s="57"/>
       <c r="L68" s="69" t="str">
-        <f>A74</f>
+        <f t="shared" si="13"/>
         <v>Sw</v>
       </c>
       <c r="M68" s="133" t="str">
-        <f>IF(ISBLANK(J74),"--",J74)</f>
-        <v>obj_00949#0023</v>
+        <f t="shared" si="14"/>
+        <v>obj_005b3#0001</v>
       </c>
       <c r="N68" s="142" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M68,Trigger),"--")</f>
@@ -8424,7 +8519,7 @@
       </c>
       <c r="O68" s="135">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M68,Trigger),"--")</f>
-        <v>3.7399999999999998E-3</v>
+        <v>2.3899999999999998E-3</v>
       </c>
       <c r="P68" s="134" t="b">
         <v>1</v>
@@ -8437,14 +8532,14 @@
       </c>
       <c r="S68" s="136">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M68,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="T68" s="136">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M68,Trigger),"--")</f>
-        <v>43644</v>
+        <v>43733</v>
       </c>
       <c r="V68" s="3" t="str">
-        <f t="shared" ref="V68:V99" si="7">IFERROR(INDEX($L$3:$L$99,MATCH(X68,$N$3:$N$99,0),1),"")</f>
+        <f t="shared" ref="V68:V99" si="17">IFERROR(INDEX($L$3:$L$99,MATCH(X68,$N$3:$N$99,0),1),"")</f>
         <v/>
       </c>
       <c r="W68" s="3" t="e">
@@ -8473,7 +8568,7 @@
       <c r="AC68" s="68" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AD68" s="165"/>
+      <c r="AD68" s="163"/>
     </row>
     <row r="69" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="58" t="s">
@@ -8495,11 +8590,11 @@
         <v>118</v>
       </c>
       <c r="G69" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$66,"E","M")</f>
+        <f t="shared" si="15"/>
         <v>Euribor6M</v>
       </c>
       <c r="H69" s="58" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>EURAB6E15M_Quote</v>
       </c>
       <c r="I69" s="121">
@@ -8507,12 +8602,12 @@
       </c>
       <c r="J69" s="62"/>
       <c r="L69" s="69" t="str">
-        <f>A75</f>
+        <f t="shared" si="13"/>
         <v>Sw</v>
       </c>
       <c r="M69" s="133" t="str">
-        <f>IF(ISBLANK(J75),"--",J75)</f>
-        <v>obj_00948#0023</v>
+        <f t="shared" si="14"/>
+        <v>obj_005b9#0001</v>
       </c>
       <c r="N69" s="142" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M69,Trigger),"--")</f>
@@ -8520,7 +8615,7 @@
       </c>
       <c r="O69" s="135">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M69,Trigger),"--")</f>
-        <v>5.3499999999999989E-3</v>
+        <v>3.6800000000000001E-3</v>
       </c>
       <c r="P69" s="134" t="b">
         <v>1</v>
@@ -8533,14 +8628,14 @@
       </c>
       <c r="S69" s="136">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M69,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="T69" s="136">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M69,Trigger),"--")</f>
-        <v>44011</v>
+        <v>44099</v>
       </c>
       <c r="V69" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="W69" s="3" t="e">
@@ -8569,7 +8664,7 @@
       <c r="AC69" s="68" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AD69" s="165"/>
+      <c r="AD69" s="163"/>
     </row>
     <row r="70" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="58" t="s">
@@ -8591,11 +8686,11 @@
         <v>118</v>
       </c>
       <c r="G70" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$66,"E","M")</f>
+        <f t="shared" si="15"/>
         <v>Euribor6M</v>
       </c>
       <c r="H70" s="58" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>EURAB6E18M_Quote</v>
       </c>
       <c r="I70" s="121">
@@ -8603,12 +8698,12 @@
       </c>
       <c r="J70" s="62"/>
       <c r="L70" s="69" t="str">
-        <f>A76</f>
+        <f t="shared" si="13"/>
         <v>Sw</v>
       </c>
       <c r="M70" s="133" t="str">
-        <f>IF(ISBLANK(J76),"--",J76)</f>
-        <v>obj_00960#0024</v>
+        <f t="shared" si="14"/>
+        <v>obj_005ba#0001</v>
       </c>
       <c r="N70" s="142" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M70,Trigger),"--")</f>
@@ -8616,7 +8711,7 @@
       </c>
       <c r="O70" s="135">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M70,Trigger),"--")</f>
-        <v>6.9500000000000004E-3</v>
+        <v>5.0200000000000002E-3</v>
       </c>
       <c r="P70" s="134" t="b">
         <v>1</v>
@@ -8629,14 +8724,14 @@
       </c>
       <c r="S70" s="136">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M70,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="T70" s="136">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M70,Trigger),"--")</f>
-        <v>44376</v>
+        <v>44466</v>
       </c>
       <c r="V70" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="W70" s="3" t="e">
@@ -8665,7 +8760,7 @@
       <c r="AC70" s="68" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AD70" s="165"/>
+      <c r="AD70" s="163"/>
     </row>
     <row r="71" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="58" t="s">
@@ -8687,11 +8782,11 @@
         <v>118</v>
       </c>
       <c r="G71" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$66,"E","M")</f>
+        <f t="shared" si="15"/>
         <v>Euribor6M</v>
       </c>
       <c r="H71" s="58" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>EURAB6E21M_Quote</v>
       </c>
       <c r="I71" s="121">
@@ -8699,12 +8794,12 @@
       </c>
       <c r="J71" s="62"/>
       <c r="L71" s="69" t="str">
-        <f>A77</f>
+        <f t="shared" si="13"/>
         <v>Sw</v>
       </c>
       <c r="M71" s="133" t="str">
-        <f>IF(ISBLANK(J77),"--",J77)</f>
-        <v>obj_00951#0024</v>
+        <f t="shared" si="14"/>
+        <v>obj_005bf#0001</v>
       </c>
       <c r="N71" s="142" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M71,Trigger),"--")</f>
@@ -8712,7 +8807,7 @@
       </c>
       <c r="O71" s="135">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M71,Trigger),"--")</f>
-        <v>8.4600000000000005E-3</v>
+        <v>6.3599999999999993E-3</v>
       </c>
       <c r="P71" s="134" t="b">
         <v>1</v>
@@ -8725,14 +8820,14 @@
       </c>
       <c r="S71" s="136">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M71,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="T71" s="136">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M71,Trigger),"--")</f>
-        <v>44741</v>
+        <v>44830</v>
       </c>
       <c r="V71" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="W71" s="3" t="e">
@@ -8761,7 +8856,7 @@
       <c r="AC71" s="68" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AD71" s="165"/>
+      <c r="AD71" s="163"/>
     </row>
     <row r="72" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="58" t="s">
@@ -8783,11 +8878,11 @@
         <v>118</v>
       </c>
       <c r="G72" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$66,"E","M")</f>
+        <f t="shared" si="15"/>
         <v>Euribor6M</v>
       </c>
       <c r="H72" s="58" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>EURAB6E2Y_Quote</v>
       </c>
       <c r="I72" s="121">
@@ -8795,12 +8890,12 @@
       </c>
       <c r="J72" s="62"/>
       <c r="L72" s="69" t="str">
-        <f>A78</f>
+        <f t="shared" si="13"/>
         <v>Sw</v>
       </c>
       <c r="M72" s="133" t="str">
-        <f>IF(ISBLANK(J78),"--",J78)</f>
-        <v>obj_00943#0024</v>
+        <f t="shared" si="14"/>
+        <v>obj_005b1#0001</v>
       </c>
       <c r="N72" s="142" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M72,Trigger),"--")</f>
@@ -8808,7 +8903,7 @@
       </c>
       <c r="O72" s="135">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M72,Trigger),"--")</f>
-        <v>9.8399999999999998E-3</v>
+        <v>7.6499999999999988E-3</v>
       </c>
       <c r="P72" s="134" t="b">
         <v>1</v>
@@ -8821,14 +8916,14 @@
       </c>
       <c r="S72" s="136">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M72,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="T72" s="136">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M72,Trigger),"--")</f>
-        <v>45106</v>
+        <v>45194</v>
       </c>
       <c r="V72" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="W72" s="3" t="e">
@@ -8857,7 +8952,7 @@
       <c r="AC72" s="68" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AD72" s="165"/>
+      <c r="AD72" s="163"/>
     </row>
     <row r="73" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="58" t="s">
@@ -8879,11 +8974,11 @@
         <v>118</v>
       </c>
       <c r="G73" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$66,"E","M")</f>
+        <f t="shared" si="15"/>
         <v>Euribor6M</v>
       </c>
       <c r="H73" s="58" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>EURAB6E3Y_Quote</v>
       </c>
       <c r="I73" s="121">
@@ -8891,15 +8986,15 @@
       </c>
       <c r="J73" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H73,,B73,Calendar,D73,E73,F73,G73,I73,C73,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00942#0024</v>
+        <v>obj_005bb#0001</v>
       </c>
       <c r="L73" s="69" t="str">
-        <f>A79</f>
+        <f t="shared" si="13"/>
         <v>Sw</v>
       </c>
       <c r="M73" s="133" t="str">
-        <f>IF(ISBLANK(J79),"--",J79)</f>
-        <v>obj_00957#0024</v>
+        <f t="shared" si="14"/>
+        <v>obj_005b4#0001</v>
       </c>
       <c r="N73" s="142" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M73,Trigger),"--")</f>
@@ -8907,7 +9002,7 @@
       </c>
       <c r="O73" s="135">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M73,Trigger),"--")</f>
-        <v>1.1059999999999999E-2</v>
+        <v>8.8400000000000006E-3</v>
       </c>
       <c r="P73" s="134" t="b">
         <v>1</v>
@@ -8920,14 +9015,14 @@
       </c>
       <c r="S73" s="136">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M73,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="T73" s="136">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M73,Trigger),"--")</f>
-        <v>45471</v>
+        <v>45560</v>
       </c>
       <c r="V73" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="W73" s="3" t="e">
@@ -8956,7 +9051,7 @@
       <c r="AC73" s="68" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AD73" s="165"/>
+      <c r="AD73" s="163"/>
     </row>
     <row r="74" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="58" t="s">
@@ -8978,11 +9073,11 @@
         <v>118</v>
       </c>
       <c r="G74" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$66,"E","M")</f>
+        <f t="shared" si="15"/>
         <v>Euribor6M</v>
       </c>
       <c r="H74" s="58" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>EURAB6E4Y_Quote</v>
       </c>
       <c r="I74" s="121">
@@ -8990,15 +9085,15 @@
       </c>
       <c r="J74" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H74,,B74,Calendar,D74,E74,F74,G74,I74,C74,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00949#0023</v>
+        <v>obj_005b3#0001</v>
       </c>
       <c r="L74" s="69" t="str">
-        <f>A80</f>
+        <f t="shared" si="13"/>
         <v>Sw</v>
       </c>
       <c r="M74" s="133" t="str">
-        <f>IF(ISBLANK(J80),"--",J80)</f>
-        <v>obj_0094d#0024</v>
+        <f t="shared" si="14"/>
+        <v>obj_005b6#0001</v>
       </c>
       <c r="N74" s="142" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M74,Trigger),"--")</f>
@@ -9006,7 +9101,7 @@
       </c>
       <c r="O74" s="135">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M74,Trigger),"--")</f>
-        <v>1.2110000000000001E-2</v>
+        <v>9.8999999999999991E-3</v>
       </c>
       <c r="P74" s="134" t="b">
         <v>1</v>
@@ -9019,14 +9114,14 @@
       </c>
       <c r="S74" s="136">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M74,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="T74" s="136">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M74,Trigger),"--")</f>
-        <v>45838</v>
+        <v>45925</v>
       </c>
       <c r="V74" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="W74" s="3" t="e">
@@ -9055,7 +9150,7 @@
       <c r="AC74" s="68" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AD74" s="165"/>
+      <c r="AD74" s="163"/>
     </row>
     <row r="75" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="58" t="s">
@@ -9077,11 +9172,11 @@
         <v>118</v>
       </c>
       <c r="G75" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$66,"E","M")</f>
+        <f t="shared" si="15"/>
         <v>Euribor6M</v>
       </c>
       <c r="H75" s="58" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>EURAB6E5Y_Quote</v>
       </c>
       <c r="I75" s="121">
@@ -9089,15 +9184,15 @@
       </c>
       <c r="J75" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H75,,B75,Calendar,D75,E75,F75,G75,I75,C75,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00948#0023</v>
+        <v>obj_005b9#0001</v>
       </c>
       <c r="L75" s="69" t="str">
-        <f>A81</f>
+        <f t="shared" si="13"/>
         <v>Sw</v>
       </c>
       <c r="M75" s="134" t="str">
-        <f>IF(ISBLANK(J81),"--",J81)</f>
-        <v>obj_00941#0024</v>
+        <f t="shared" si="14"/>
+        <v>obj_005b8#0001</v>
       </c>
       <c r="N75" s="142" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M75,Trigger),"--")</f>
@@ -9105,7 +9200,7 @@
       </c>
       <c r="O75" s="135">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M75,Trigger),"--")</f>
-        <v>1.303E-2</v>
+        <v>1.0860000000000002E-2</v>
       </c>
       <c r="P75" s="134" t="b">
         <v>1</v>
@@ -9118,14 +9213,14 @@
       </c>
       <c r="S75" s="136">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M75,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="T75" s="136">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M75,Trigger),"--")</f>
-        <v>46202</v>
+        <v>46290</v>
       </c>
       <c r="V75" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="W75" s="3" t="e">
@@ -9154,7 +9249,7 @@
       <c r="AC75" s="68" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AD75" s="165"/>
+      <c r="AD75" s="163"/>
     </row>
     <row r="76" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="58" t="s">
@@ -9176,11 +9271,11 @@
         <v>118</v>
       </c>
       <c r="G76" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$66,"E","M")</f>
+        <f t="shared" si="15"/>
         <v>Euribor6M</v>
       </c>
       <c r="H76" s="58" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>EURAB6E6Y_Quote</v>
       </c>
       <c r="I76" s="121">
@@ -9188,15 +9283,15 @@
       </c>
       <c r="J76" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H76,,B76,Calendar,D76,E76,F76,G76,I76,C76,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00960#0024</v>
+        <v>obj_005ba#0001</v>
       </c>
       <c r="L76" s="69" t="str">
-        <f>A82</f>
+        <f t="shared" si="13"/>
         <v>Sw</v>
       </c>
       <c r="M76" s="134" t="str">
-        <f>IF(ISBLANK(J82),"--",J82)</f>
-        <v>obj_00961#0023</v>
+        <f t="shared" si="14"/>
+        <v>obj_005c4#0001</v>
       </c>
       <c r="N76" s="142" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M76,Trigger),"--")</f>
@@ -9204,7 +9299,7 @@
       </c>
       <c r="O76" s="135">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M76,Trigger),"--")</f>
-        <v>1.3839999999999998E-2</v>
+        <v>1.171E-2</v>
       </c>
       <c r="P76" s="134" t="b">
         <v>1</v>
@@ -9217,14 +9312,14 @@
       </c>
       <c r="S76" s="136">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M76,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="T76" s="136">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M76,Trigger),"--")</f>
-        <v>46567</v>
+        <v>46657</v>
       </c>
       <c r="V76" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="W76" s="3" t="e">
@@ -9253,7 +9348,7 @@
       <c r="AC76" s="68" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AD76" s="165"/>
+      <c r="AD76" s="163"/>
     </row>
     <row r="77" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="58" t="s">
@@ -9275,11 +9370,11 @@
         <v>118</v>
       </c>
       <c r="G77" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$66,"E","M")</f>
+        <f t="shared" si="15"/>
         <v>Euribor6M</v>
       </c>
       <c r="H77" s="58" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>EURAB6E7Y_Quote</v>
       </c>
       <c r="I77" s="121">
@@ -9287,15 +9382,15 @@
       </c>
       <c r="J77" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H77,,B77,Calendar,D77,E77,F77,G77,I77,C77,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00951#0024</v>
+        <v>obj_005bf#0001</v>
       </c>
       <c r="L77" s="69" t="str">
-        <f>A83</f>
+        <f t="shared" si="13"/>
         <v>Sw</v>
       </c>
       <c r="M77" s="134" t="str">
-        <f>IF(ISBLANK(J83),"--",J83)</f>
-        <v>obj_00953#0023</v>
+        <f t="shared" si="14"/>
+        <v>obj_005c2#0001</v>
       </c>
       <c r="N77" s="142" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M77,Trigger),"--")</f>
@@ -9303,7 +9398,7 @@
       </c>
       <c r="O77" s="135">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M77,Trigger),"--")</f>
-        <v>1.452E-2</v>
+        <v>1.2450000000000001E-2</v>
       </c>
       <c r="P77" s="134" t="b">
         <v>1</v>
@@ -9316,14 +9411,14 @@
       </c>
       <c r="S77" s="136">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M77,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="T77" s="136">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M77,Trigger),"--")</f>
-        <v>46933</v>
+        <v>47021</v>
       </c>
       <c r="V77" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="W77" s="3" t="e">
@@ -9352,7 +9447,7 @@
       <c r="AC77" s="68" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AD77" s="165"/>
+      <c r="AD77" s="163"/>
     </row>
     <row r="78" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="58" t="s">
@@ -9374,11 +9469,11 @@
         <v>118</v>
       </c>
       <c r="G78" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$66,"E","M")</f>
+        <f t="shared" si="15"/>
         <v>Euribor6M</v>
       </c>
       <c r="H78" s="58" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>EURAB6E8Y_Quote</v>
       </c>
       <c r="I78" s="121">
@@ -9386,15 +9481,15 @@
       </c>
       <c r="J78" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H78,,B78,Calendar,D78,E78,F78,G78,I78,C78,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00943#0024</v>
+        <v>obj_005b1#0001</v>
       </c>
       <c r="L78" s="69" t="str">
-        <f>A84</f>
+        <f t="shared" si="13"/>
         <v>Sw</v>
       </c>
       <c r="M78" s="134" t="str">
-        <f>IF(ISBLANK(J84),"--",J84)</f>
-        <v>obj_00946#0023</v>
+        <f t="shared" si="14"/>
+        <v>obj_005b5#0001</v>
       </c>
       <c r="N78" s="142" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M78,Trigger),"--")</f>
@@ -9402,7 +9497,7 @@
       </c>
       <c r="O78" s="135">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M78,Trigger),"--")</f>
-        <v>1.5089999999999999E-2</v>
+        <v>1.307E-2</v>
       </c>
       <c r="P78" s="134" t="b">
         <v>1</v>
@@ -9415,14 +9510,14 @@
       </c>
       <c r="S78" s="136">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M78,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="T78" s="136">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M78,Trigger),"--")</f>
-        <v>47298</v>
+        <v>47386</v>
       </c>
       <c r="V78" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="W78" s="3" t="e">
@@ -9451,7 +9546,7 @@
       <c r="AC78" s="68" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AD78" s="165"/>
+      <c r="AD78" s="163"/>
     </row>
     <row r="79" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="58" t="s">
@@ -9473,11 +9568,11 @@
         <v>118</v>
       </c>
       <c r="G79" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$66,"E","M")</f>
+        <f t="shared" si="15"/>
         <v>Euribor6M</v>
       </c>
       <c r="H79" s="58" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>EURAB6E9Y_Quote</v>
       </c>
       <c r="I79" s="121">
@@ -9485,15 +9580,15 @@
       </c>
       <c r="J79" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H79,,B79,Calendar,D79,E79,F79,G79,I79,C79,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00957#0024</v>
+        <v>obj_005b4#0001</v>
       </c>
       <c r="L79" s="69" t="str">
-        <f>A85</f>
+        <f t="shared" si="13"/>
         <v>Sw</v>
       </c>
       <c r="M79" s="134" t="str">
-        <f>IF(ISBLANK(J85),"--",J85)</f>
-        <v>obj_0095a#0024</v>
+        <f t="shared" si="14"/>
+        <v>obj_005ae#0001</v>
       </c>
       <c r="N79" s="142" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M79,Trigger),"--")</f>
@@ -9501,7 +9596,7 @@
       </c>
       <c r="O79" s="135">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M79,Trigger),"--")</f>
-        <v>1.555E-2</v>
+        <v>1.359E-2</v>
       </c>
       <c r="P79" s="134" t="b">
         <v>1</v>
@@ -9514,14 +9609,14 @@
       </c>
       <c r="S79" s="136">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M79,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="T79" s="136">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M79,Trigger),"--")</f>
-        <v>47662</v>
+        <v>47751</v>
       </c>
       <c r="V79" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="W79" s="3" t="e">
@@ -9550,7 +9645,7 @@
       <c r="AC79" s="68" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AD79" s="165"/>
+      <c r="AD79" s="163"/>
     </row>
     <row r="80" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="58" t="s">
@@ -9572,11 +9667,11 @@
         <v>118</v>
       </c>
       <c r="G80" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$66,"E","M")</f>
+        <f t="shared" si="15"/>
         <v>Euribor6M</v>
       </c>
       <c r="H80" s="58" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>EURAB6E10Y_Quote</v>
       </c>
       <c r="I80" s="121">
@@ -9584,15 +9679,15 @@
       </c>
       <c r="J80" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H80,,B80,Calendar,D80,E80,F80,G80,I80,C80,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0094d#0024</v>
+        <v>obj_005b6#0001</v>
       </c>
       <c r="L80" s="69" t="str">
-        <f>A86</f>
+        <f t="shared" si="13"/>
         <v>Sw</v>
       </c>
       <c r="M80" s="134" t="str">
-        <f>IF(ISBLANK(J86),"--",J86)</f>
-        <v>obj_0094f#0024</v>
+        <f t="shared" si="14"/>
+        <v>obj_005be#0001</v>
       </c>
       <c r="N80" s="142" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M80,Trigger),"--")</f>
@@ -9600,7 +9695,7 @@
       </c>
       <c r="O80" s="135">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M80,Trigger),"--")</f>
-        <v>1.5949999999999999E-2</v>
+        <v>1.4030000000000001E-2</v>
       </c>
       <c r="P80" s="134" t="b">
         <v>1</v>
@@ -9613,14 +9708,14 @@
       </c>
       <c r="S80" s="136">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M80,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="T80" s="136">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M80,Trigger),"--")</f>
-        <v>48029</v>
+        <v>48116</v>
       </c>
       <c r="V80" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="W80" s="3" t="e">
@@ -9649,7 +9744,7 @@
       <c r="AC80" s="68" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AD80" s="165"/>
+      <c r="AD80" s="163"/>
     </row>
     <row r="81" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A81" s="58" t="s">
@@ -9671,11 +9766,11 @@
         <v>118</v>
       </c>
       <c r="G81" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$66,"E","M")</f>
+        <f t="shared" si="15"/>
         <v>Euribor6M</v>
       </c>
       <c r="H81" s="58" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>EURAB6E11Y_Quote</v>
       </c>
       <c r="I81" s="121">
@@ -9683,15 +9778,15 @@
       </c>
       <c r="J81" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H81,,B81,Calendar,D81,E81,F81,G81,I81,C81,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00941#0024</v>
+        <v>obj_005b8#0001</v>
       </c>
       <c r="L81" s="69" t="str">
-        <f>A87</f>
+        <f t="shared" si="13"/>
         <v>Sw</v>
       </c>
       <c r="M81" s="134" t="str">
-        <f>IF(ISBLANK(J87),"--",J87)</f>
-        <v>obj_00956#0024</v>
+        <f t="shared" si="14"/>
+        <v>obj_005aa#0001</v>
       </c>
       <c r="N81" s="142" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M81,Trigger),"--")</f>
@@ -9699,7 +9794,7 @@
       </c>
       <c r="O81" s="135">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M81,Trigger),"--")</f>
-        <v>1.627E-2</v>
+        <v>1.44E-2</v>
       </c>
       <c r="P81" s="134" t="b">
         <v>1</v>
@@ -9712,14 +9807,14 @@
       </c>
       <c r="S81" s="136">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M81,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="T81" s="136">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M81,Trigger),"--")</f>
-        <v>48394</v>
+        <v>48484</v>
       </c>
       <c r="V81" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="W81" s="3" t="e">
@@ -9748,7 +9843,7 @@
       <c r="AC81" s="68" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AD81" s="165"/>
+      <c r="AD81" s="163"/>
     </row>
     <row r="82" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A82" s="58" t="s">
@@ -9770,11 +9865,11 @@
         <v>118</v>
       </c>
       <c r="G82" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$66,"E","M")</f>
+        <f t="shared" si="15"/>
         <v>Euribor6M</v>
       </c>
       <c r="H82" s="58" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>EURAB6E12Y_Quote</v>
       </c>
       <c r="I82" s="121">
@@ -9782,15 +9877,15 @@
       </c>
       <c r="J82" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H82,,B82,Calendar,D82,E82,F82,G82,I82,C82,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00961#0023</v>
+        <v>obj_005c4#0001</v>
       </c>
       <c r="L82" s="69" t="str">
-        <f>A88</f>
+        <f t="shared" si="13"/>
         <v>Sw</v>
       </c>
       <c r="M82" s="134" t="str">
-        <f>IF(ISBLANK(J88),"--",J88)</f>
-        <v>obj_0094c#0024</v>
+        <f t="shared" si="14"/>
+        <v>obj_005a8#0001</v>
       </c>
       <c r="N82" s="142" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M82,Trigger),"--")</f>
@@ -9798,7 +9893,7 @@
       </c>
       <c r="O82" s="135">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M82,Trigger),"--")</f>
-        <v>1.6539999999999999E-2</v>
+        <v>1.47E-2</v>
       </c>
       <c r="P82" s="134" t="b">
         <v>1</v>
@@ -9811,14 +9906,14 @@
       </c>
       <c r="S82" s="136">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M82,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="T82" s="136">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M82,Trigger),"--")</f>
-        <v>48759</v>
+        <v>48848</v>
       </c>
       <c r="V82" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="W82" s="3" t="e">
@@ -9847,7 +9942,7 @@
       <c r="AC82" s="68" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AD82" s="165"/>
+      <c r="AD82" s="163"/>
     </row>
     <row r="83" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A83" s="58" t="s">
@@ -9869,11 +9964,11 @@
         <v>118</v>
       </c>
       <c r="G83" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$66,"E","M")</f>
+        <f t="shared" si="15"/>
         <v>Euribor6M</v>
       </c>
       <c r="H83" s="58" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>EURAB6E13Y_Quote</v>
       </c>
       <c r="I83" s="121">
@@ -9881,15 +9976,15 @@
       </c>
       <c r="J83" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H83,,B83,Calendar,D83,E83,F83,G83,I83,C83,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00953#0023</v>
+        <v>obj_005c2#0001</v>
       </c>
       <c r="L83" s="69" t="str">
-        <f>A89</f>
+        <f t="shared" si="13"/>
         <v>Sw</v>
       </c>
       <c r="M83" s="134" t="str">
-        <f>IF(ISBLANK(J89),"--",J89)</f>
-        <v>obj_00940#0024</v>
+        <f t="shared" si="14"/>
+        <v>obj_005ad#0001</v>
       </c>
       <c r="N83" s="142" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M83,Trigger),"--")</f>
@@ -9897,7 +9992,7 @@
       </c>
       <c r="O83" s="135">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M83,Trigger),"--")</f>
-        <v>1.6739999999999998E-2</v>
+        <v>1.4929999999999999E-2</v>
       </c>
       <c r="P83" s="134" t="b">
         <v>1</v>
@@ -9910,14 +10005,14 @@
       </c>
       <c r="S83" s="136">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M83,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="T83" s="136">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M83,Trigger),"--")</f>
-        <v>49124</v>
+        <v>49212</v>
       </c>
       <c r="V83" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="W83" s="3" t="e">
@@ -9946,7 +10041,7 @@
       <c r="AC83" s="68" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AD83" s="165"/>
+      <c r="AD83" s="163"/>
     </row>
     <row r="84" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A84" s="58" t="s">
@@ -9968,11 +10063,11 @@
         <v>118</v>
       </c>
       <c r="G84" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$66,"E","M")</f>
+        <f t="shared" si="15"/>
         <v>Euribor6M</v>
       </c>
       <c r="H84" s="58" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>EURAB6E14Y_Quote</v>
       </c>
       <c r="I84" s="121">
@@ -9980,15 +10075,15 @@
       </c>
       <c r="J84" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H84,,B84,Calendar,D84,E84,F84,G84,I84,C84,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00946#0023</v>
+        <v>obj_005b5#0001</v>
       </c>
       <c r="L84" s="69" t="str">
-        <f>A90</f>
+        <f t="shared" si="13"/>
         <v>Sw</v>
       </c>
       <c r="M84" s="134" t="str">
-        <f>IF(ISBLANK(J90),"--",J90)</f>
-        <v>obj_00954#0023</v>
+        <f t="shared" si="14"/>
+        <v>obj_005ac#0001</v>
       </c>
       <c r="N84" s="142" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M84,Trigger),"--")</f>
@@ -9996,7 +10091,7 @@
       </c>
       <c r="O84" s="135">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M84,Trigger),"--")</f>
-        <v>1.6899999999999998E-2</v>
+        <v>1.5110000000000002E-2</v>
       </c>
       <c r="P84" s="134" t="b">
         <v>1</v>
@@ -10009,14 +10104,14 @@
       </c>
       <c r="S84" s="136">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M84,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="T84" s="136">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M84,Trigger),"--")</f>
-        <v>49489</v>
+        <v>49577</v>
       </c>
       <c r="V84" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="W84" s="3" t="e">
@@ -10045,7 +10140,7 @@
       <c r="AC84" s="68" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AD84" s="165"/>
+      <c r="AD84" s="163"/>
     </row>
     <row r="85" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A85" s="58" t="s">
@@ -10067,11 +10162,11 @@
         <v>118</v>
       </c>
       <c r="G85" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$66,"E","M")</f>
+        <f t="shared" si="15"/>
         <v>Euribor6M</v>
       </c>
       <c r="H85" s="58" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>EURAB6E15Y_Quote</v>
       </c>
       <c r="I85" s="121">
@@ -10079,15 +10174,15 @@
       </c>
       <c r="J85" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H85,,B85,Calendar,D85,E85,F85,G85,I85,C85,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0095a#0024</v>
+        <v>obj_005ae#0001</v>
       </c>
       <c r="L85" s="69" t="str">
-        <f>A91</f>
+        <f t="shared" si="13"/>
         <v>Sw</v>
       </c>
       <c r="M85" s="134" t="str">
-        <f>IF(ISBLANK(J91),"--",J91)</f>
-        <v>obj_00947#0023</v>
+        <f t="shared" si="14"/>
+        <v>obj_005c0#0001</v>
       </c>
       <c r="N85" s="142" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M85,Trigger),"--")</f>
@@ -10095,7 +10190,7 @@
       </c>
       <c r="O85" s="135">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M85,Trigger),"--")</f>
-        <v>1.702E-2</v>
+        <v>1.525E-2</v>
       </c>
       <c r="P85" s="134" t="b">
         <v>1</v>
@@ -10108,14 +10203,14 @@
       </c>
       <c r="S85" s="136">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M85,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="T85" s="136">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M85,Trigger),"--")</f>
-        <v>49856</v>
+        <v>49943</v>
       </c>
       <c r="V85" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="W85" s="3" t="e">
@@ -10144,7 +10239,7 @@
       <c r="AC85" s="68" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AD85" s="165"/>
+      <c r="AD85" s="163"/>
     </row>
     <row r="86" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A86" s="58" t="s">
@@ -10166,11 +10261,11 @@
         <v>118</v>
       </c>
       <c r="G86" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$66,"E","M")</f>
+        <f t="shared" si="15"/>
         <v>Euribor6M</v>
       </c>
       <c r="H86" s="58" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>EURAB6E16Y_Quote</v>
       </c>
       <c r="I86" s="121">
@@ -10178,15 +10273,15 @@
       </c>
       <c r="J86" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H86,,B86,Calendar,D86,E86,F86,G86,I86,C86,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0094f#0024</v>
+        <v>obj_005be#0001</v>
       </c>
       <c r="L86" s="69" t="str">
-        <f>A92</f>
+        <f t="shared" si="13"/>
         <v>Sw</v>
       </c>
       <c r="M86" s="134" t="str">
-        <f>IF(ISBLANK(J92),"--",J92)</f>
-        <v>obj_0095b#0024</v>
+        <f t="shared" si="14"/>
+        <v>obj_005b7#0001</v>
       </c>
       <c r="N86" s="142" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M86,Trigger),"--")</f>
@@ -10194,7 +10289,7 @@
       </c>
       <c r="O86" s="135">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M86,Trigger),"--")</f>
-        <v>1.7090000000000001E-2</v>
+        <v>1.5339999999999999E-2</v>
       </c>
       <c r="P86" s="134" t="b">
         <v>1</v>
@@ -10207,14 +10302,14 @@
       </c>
       <c r="S86" s="136">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M86,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="T86" s="136">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M86,Trigger),"--")</f>
-        <v>50220</v>
+        <v>50308</v>
       </c>
       <c r="V86" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="W86" s="3" t="e">
@@ -10243,7 +10338,7 @@
       <c r="AC86" s="68" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AD86" s="165"/>
+      <c r="AD86" s="163"/>
     </row>
     <row r="87" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A87" s="58" t="s">
@@ -10265,11 +10360,11 @@
         <v>118</v>
       </c>
       <c r="G87" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$66,"E","M")</f>
+        <f t="shared" si="15"/>
         <v>Euribor6M</v>
       </c>
       <c r="H87" s="58" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>EURAB6E17Y_Quote</v>
       </c>
       <c r="I87" s="121">
@@ -10277,15 +10372,15 @@
       </c>
       <c r="J87" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H87,,B87,Calendar,D87,E87,F87,G87,I87,C87,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00956#0024</v>
+        <v>obj_005aa#0001</v>
       </c>
       <c r="L87" s="69" t="str">
-        <f>A93</f>
+        <f t="shared" si="13"/>
         <v>Sw</v>
       </c>
       <c r="M87" s="134" t="str">
-        <f>IF(ISBLANK(J93),"--",J93)</f>
-        <v>obj_00944#0024</v>
+        <f t="shared" si="14"/>
+        <v>obj_005b2#0001</v>
       </c>
       <c r="N87" s="142" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M87,Trigger),"--")</f>
@@ -10293,7 +10388,7 @@
       </c>
       <c r="O87" s="135">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M87,Trigger),"--")</f>
-        <v>1.7149999999999999E-2</v>
+        <v>1.541E-2</v>
       </c>
       <c r="P87" s="134" t="b">
         <v>1</v>
@@ -10306,14 +10401,14 @@
       </c>
       <c r="S87" s="136">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M87,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="T87" s="136">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M87,Trigger),"--")</f>
-        <v>50585</v>
+        <v>50675</v>
       </c>
       <c r="V87" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="W87" s="3" t="e">
@@ -10342,7 +10437,7 @@
       <c r="AC87" s="68" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AD87" s="165"/>
+      <c r="AD87" s="163"/>
     </row>
     <row r="88" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A88" s="58" t="s">
@@ -10364,11 +10459,11 @@
         <v>118</v>
       </c>
       <c r="G88" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$66,"E","M")</f>
+        <f t="shared" si="15"/>
         <v>Euribor6M</v>
       </c>
       <c r="H88" s="58" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>EURAB6E18Y_Quote</v>
       </c>
       <c r="I88" s="121">
@@ -10376,15 +10471,15 @@
       </c>
       <c r="J88" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H88,,B88,Calendar,D88,E88,F88,G88,I88,C88,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0094c#0024</v>
+        <v>obj_005a8#0001</v>
       </c>
       <c r="L88" s="69" t="str">
-        <f>A94</f>
+        <f t="shared" si="13"/>
         <v>Sw</v>
       </c>
       <c r="M88" s="134" t="str">
-        <f>IF(ISBLANK(J94),"--",J94)</f>
-        <v>obj_0095f#0024</v>
+        <f t="shared" si="14"/>
+        <v>obj_005b0#0001</v>
       </c>
       <c r="N88" s="142" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M88,Trigger),"--")</f>
@@ -10392,7 +10487,7 @@
       </c>
       <c r="O88" s="135">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M88,Trigger),"--")</f>
-        <v>1.7180000000000001E-2</v>
+        <v>1.5449999999999998E-2</v>
       </c>
       <c r="P88" s="134" t="b">
         <v>1</v>
@@ -10405,14 +10500,14 @@
       </c>
       <c r="S88" s="136">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M88,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="T88" s="136">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M88,Trigger),"--")</f>
-        <v>50950</v>
+        <v>51039</v>
       </c>
       <c r="V88" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="W88" s="3" t="e">
@@ -10441,7 +10536,7 @@
       <c r="AC88" s="68" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AD88" s="165"/>
+      <c r="AD88" s="163"/>
     </row>
     <row r="89" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A89" s="58" t="s">
@@ -10463,11 +10558,11 @@
         <v>118</v>
       </c>
       <c r="G89" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$66,"E","M")</f>
+        <f t="shared" si="15"/>
         <v>Euribor6M</v>
       </c>
       <c r="H89" s="58" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>EURAB6E19Y_Quote</v>
       </c>
       <c r="I89" s="121">
@@ -10475,15 +10570,15 @@
       </c>
       <c r="J89" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H89,,B89,Calendar,D89,E89,F89,G89,I89,C89,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00940#0024</v>
+        <v>obj_005ad#0001</v>
       </c>
       <c r="L89" s="69" t="str">
-        <f>A95</f>
+        <f t="shared" si="13"/>
         <v>Sw</v>
       </c>
       <c r="M89" s="134" t="str">
-        <f>IF(ISBLANK(J95),"--",J95)</f>
-        <v>obj_00955#0024</v>
+        <f t="shared" si="14"/>
+        <v>obj_005a9#0001</v>
       </c>
       <c r="N89" s="142" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M89,Trigger),"--")</f>
@@ -10491,7 +10586,7 @@
       </c>
       <c r="O89" s="135">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M89,Trigger),"--")</f>
-        <v>1.721E-2</v>
+        <v>1.5480000000000001E-2</v>
       </c>
       <c r="P89" s="134" t="b">
         <v>1</v>
@@ -10504,14 +10599,14 @@
       </c>
       <c r="S89" s="136">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M89,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="T89" s="136">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M89,Trigger),"--")</f>
-        <v>51316</v>
+        <v>51404</v>
       </c>
       <c r="V89" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="W89" s="3" t="e">
@@ -10540,7 +10635,7 @@
       <c r="AC89" s="68" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AD89" s="165"/>
+      <c r="AD89" s="163"/>
     </row>
     <row r="90" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A90" s="58" t="s">
@@ -10562,11 +10657,11 @@
         <v>118</v>
       </c>
       <c r="G90" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$66,"E","M")</f>
+        <f t="shared" si="15"/>
         <v>Euribor6M</v>
       </c>
       <c r="H90" s="58" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>EURAB6E20Y_Quote</v>
       </c>
       <c r="I90" s="121">
@@ -10574,18 +10669,18 @@
       </c>
       <c r="J90" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H90,,B90,Calendar,D90,E90,F90,G90,I90,C90,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00954#0023</v>
+        <v>obj_005ac#0001</v>
       </c>
       <c r="K90" s="47" t="s">
         <v>37</v>
       </c>
       <c r="L90" s="69" t="str">
-        <f>A96</f>
+        <f t="shared" si="13"/>
         <v>Sw</v>
       </c>
       <c r="M90" s="134" t="str">
-        <f>IF(ISBLANK(J96),"--",J96)</f>
-        <v>obj_0094b#0024</v>
+        <f t="shared" si="14"/>
+        <v>obj_005c5#0001</v>
       </c>
       <c r="N90" s="142" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M90,Trigger),"--")</f>
@@ -10593,7 +10688,7 @@
       </c>
       <c r="O90" s="135">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M90,Trigger),"--")</f>
-        <v>1.7239999999999998E-2</v>
+        <v>1.55E-2</v>
       </c>
       <c r="P90" s="134" t="b">
         <v>1</v>
@@ -10606,14 +10701,14 @@
       </c>
       <c r="S90" s="136">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M90,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="T90" s="136">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M90,Trigger),"--")</f>
-        <v>51680</v>
+        <v>51769</v>
       </c>
       <c r="V90" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="W90" s="3" t="e">
@@ -10642,7 +10737,7 @@
       <c r="AC90" s="68" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AD90" s="165"/>
+      <c r="AD90" s="163"/>
     </row>
     <row r="91" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A91" s="58" t="s">
@@ -10664,11 +10759,11 @@
         <v>118</v>
       </c>
       <c r="G91" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$66,"E","M")</f>
+        <f t="shared" si="15"/>
         <v>Euribor6M</v>
       </c>
       <c r="H91" s="58" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>EURAB6E21Y_Quote</v>
       </c>
       <c r="I91" s="121">
@@ -10676,15 +10771,15 @@
       </c>
       <c r="J91" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H91,,B91,Calendar,D91,E91,F91,G91,I91,C91,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00947#0023</v>
+        <v>obj_005c0#0001</v>
       </c>
       <c r="L91" s="69" t="str">
-        <f>A97</f>
+        <f t="shared" si="13"/>
         <v>Sw</v>
       </c>
       <c r="M91" s="134" t="str">
-        <f>IF(ISBLANK(J97),"--",J97)</f>
-        <v>obj_0093f#0024</v>
+        <f t="shared" si="14"/>
+        <v>obj_005c3#0001</v>
       </c>
       <c r="N91" s="142" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M91,Trigger),"--")</f>
@@ -10692,7 +10787,7 @@
       </c>
       <c r="O91" s="135">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M91,Trigger),"--")</f>
-        <v>1.7260000000000001E-2</v>
+        <v>1.5509999999999999E-2</v>
       </c>
       <c r="P91" s="134" t="b">
         <v>1</v>
@@ -10705,14 +10800,14 @@
       </c>
       <c r="S91" s="136">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M91,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="T91" s="136">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M91,Trigger),"--")</f>
-        <v>52047</v>
+        <v>52134</v>
       </c>
       <c r="V91" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="W91" s="3" t="e">
@@ -10741,7 +10836,7 @@
       <c r="AC91" s="68" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AD91" s="165"/>
+      <c r="AD91" s="163"/>
     </row>
     <row r="92" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A92" s="58" t="s">
@@ -10763,11 +10858,11 @@
         <v>118</v>
       </c>
       <c r="G92" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$66,"E","M")</f>
+        <f t="shared" si="15"/>
         <v>Euribor6M</v>
       </c>
       <c r="H92" s="58" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>EURAB6E22Y_Quote</v>
       </c>
       <c r="I92" s="121">
@@ -10775,15 +10870,15 @@
       </c>
       <c r="J92" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H92,,B92,Calendar,D92,E92,F92,G92,I92,C92,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0095b#0024</v>
+        <v>obj_005b7#0001</v>
       </c>
       <c r="L92" s="69" t="str">
-        <f>A98</f>
+        <f t="shared" si="13"/>
         <v>Sw</v>
       </c>
       <c r="M92" s="134" t="str">
-        <f>IF(ISBLANK(J98),"--",J98)</f>
-        <v>obj_0095d#0023</v>
+        <f t="shared" si="14"/>
+        <v>obj_005c1#0001</v>
       </c>
       <c r="N92" s="142" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M92,Trigger),"--")</f>
@@ -10791,7 +10886,7 @@
       </c>
       <c r="O92" s="135">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M92,Trigger),"--")</f>
-        <v>1.729E-2</v>
+        <v>1.5520000000000001E-2</v>
       </c>
       <c r="P92" s="134" t="b">
         <v>1</v>
@@ -10804,14 +10899,14 @@
       </c>
       <c r="S92" s="136">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M92,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="T92" s="136">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M92,Trigger),"--")</f>
-        <v>52411</v>
+        <v>52499</v>
       </c>
       <c r="V92" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="W92" s="3" t="e">
@@ -10840,7 +10935,7 @@
       <c r="AC92" s="68" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AD92" s="165"/>
+      <c r="AD92" s="163"/>
     </row>
     <row r="93" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A93" s="58" t="s">
@@ -10862,11 +10957,11 @@
         <v>118</v>
       </c>
       <c r="G93" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$66,"E","M")</f>
+        <f t="shared" si="15"/>
         <v>Euribor6M</v>
       </c>
       <c r="H93" s="58" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>EURAB6E23Y_Quote</v>
       </c>
       <c r="I93" s="121">
@@ -10874,15 +10969,15 @@
       </c>
       <c r="J93" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H93,,B93,Calendar,D93,E93,F93,G93,I93,C93,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00944#0024</v>
+        <v>obj_005b2#0001</v>
       </c>
       <c r="L93" s="69" t="str">
-        <f>A99</f>
+        <f t="shared" si="13"/>
         <v>Sw</v>
       </c>
       <c r="M93" s="134" t="str">
-        <f>IF(ISBLANK(J99),"--",J99)</f>
-        <v>obj_0095c#0023</v>
+        <f t="shared" si="14"/>
+        <v>obj_005ab#0001</v>
       </c>
       <c r="N93" s="142" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M93,Trigger),"--")</f>
@@ -10890,7 +10985,7 @@
       </c>
       <c r="O93" s="135">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M93,Trigger),"--")</f>
-        <v>1.7309999999999999E-2</v>
+        <v>1.5529999999999999E-2</v>
       </c>
       <c r="P93" s="134" t="b">
         <v>1</v>
@@ -10903,14 +10998,14 @@
       </c>
       <c r="S93" s="136">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M93,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="T93" s="136">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M93,Trigger),"--")</f>
-        <v>52777</v>
+        <v>52866</v>
       </c>
       <c r="V93" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="W93" s="3" t="e">
@@ -10939,7 +11034,7 @@
       <c r="AC93" s="68" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AD93" s="165"/>
+      <c r="AD93" s="163"/>
     </row>
     <row r="94" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A94" s="58" t="s">
@@ -10961,11 +11056,11 @@
         <v>118</v>
       </c>
       <c r="G94" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$66,"E","M")</f>
+        <f t="shared" si="15"/>
         <v>Euribor6M</v>
       </c>
       <c r="H94" s="58" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>EURAB6E24Y_Quote</v>
       </c>
       <c r="I94" s="121">
@@ -10973,15 +11068,15 @@
       </c>
       <c r="J94" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H94,,B94,Calendar,D94,E94,F94,G94,I94,C94,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0095f#0024</v>
+        <v>obj_005b0#0001</v>
       </c>
       <c r="L94" s="69" t="str">
-        <f>A100</f>
+        <f t="shared" si="13"/>
         <v>Sw</v>
       </c>
       <c r="M94" s="134" t="str">
-        <f>IF(ISBLANK(J100),"--",J100)</f>
-        <v>obj_00952#0024</v>
+        <f t="shared" si="14"/>
+        <v>obj_005c6#0001</v>
       </c>
       <c r="N94" s="142" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M94,Trigger),"--")</f>
@@ -10989,7 +11084,7 @@
       </c>
       <c r="O94" s="135">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M94,Trigger),"--")</f>
-        <v>1.7340000000000001E-2</v>
+        <v>1.554E-2</v>
       </c>
       <c r="P94" s="134" t="b">
         <v>1</v>
@@ -11002,14 +11097,14 @@
       </c>
       <c r="S94" s="136">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M94,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="T94" s="136">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M94,Trigger),"--")</f>
-        <v>53142</v>
+        <v>53230</v>
       </c>
       <c r="V94" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="W94" s="3" t="e">
@@ -11038,7 +11133,7 @@
       <c r="AC94" s="68" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AD94" s="165"/>
+      <c r="AD94" s="163"/>
     </row>
     <row r="95" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A95" s="58" t="s">
@@ -11060,11 +11155,11 @@
         <v>118</v>
       </c>
       <c r="G95" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$66,"E","M")</f>
+        <f t="shared" si="15"/>
         <v>Euribor6M</v>
       </c>
       <c r="H95" s="58" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>EURAB6E25Y_Quote</v>
       </c>
       <c r="I95" s="121">
@@ -11072,15 +11167,15 @@
       </c>
       <c r="J95" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H95,,B95,Calendar,D95,E95,F95,G95,I95,C95,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00955#0024</v>
+        <v>obj_005a9#0001</v>
       </c>
       <c r="L95" s="69" t="str">
-        <f>A101</f>
+        <f t="shared" si="13"/>
         <v>Sw</v>
       </c>
       <c r="M95" s="134" t="str">
-        <f>IF(ISBLANK(J101),"--",J101)</f>
-        <v>obj_00950#0024</v>
+        <f t="shared" si="14"/>
+        <v>obj_005af#0001</v>
       </c>
       <c r="N95" s="142" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M95,Trigger),"--")</f>
@@ -11088,7 +11183,7 @@
       </c>
       <c r="O95" s="135">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M95,Trigger),"--")</f>
-        <v>1.745E-2</v>
+        <v>1.5600000000000001E-2</v>
       </c>
       <c r="P95" s="134" t="b">
         <v>1</v>
@@ -11101,14 +11196,14 @@
       </c>
       <c r="S95" s="136">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M95,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="T95" s="136">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M95,Trigger),"--")</f>
-        <v>54968</v>
+        <v>55057</v>
       </c>
       <c r="V95" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="W95" s="3" t="e">
@@ -11137,7 +11232,7 @@
       <c r="AC95" s="68" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AD95" s="165"/>
+      <c r="AD95" s="163"/>
     </row>
     <row r="96" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A96" s="58" t="s">
@@ -11159,11 +11254,11 @@
         <v>118</v>
       </c>
       <c r="G96" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$66,"E","M")</f>
+        <f t="shared" si="15"/>
         <v>Euribor6M</v>
       </c>
       <c r="H96" s="58" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>EURAB6E26Y_Quote</v>
       </c>
       <c r="I96" s="121">
@@ -11171,15 +11266,15 @@
       </c>
       <c r="J96" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H96,,B96,Calendar,D96,E96,F96,G96,I96,C96,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0094b#0024</v>
+        <v>obj_005c5#0001</v>
       </c>
       <c r="L96" s="69" t="str">
-        <f>A102</f>
+        <f t="shared" si="13"/>
         <v>Sw</v>
       </c>
       <c r="M96" s="134" t="str">
-        <f>IF(ISBLANK(J102),"--",J102)</f>
-        <v>obj_0095e#0024</v>
+        <f t="shared" si="14"/>
+        <v>obj_005bd#0001</v>
       </c>
       <c r="N96" s="142" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M96,Trigger),"--")</f>
@@ -11187,7 +11282,7 @@
       </c>
       <c r="O96" s="135">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M96,Trigger),"--")</f>
-        <v>1.745E-2</v>
+        <v>1.5600000000000001E-2</v>
       </c>
       <c r="P96" s="134" t="b">
         <v>1</v>
@@ -11200,14 +11295,14 @@
       </c>
       <c r="S96" s="136">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M96,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="T96" s="136">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M96,Trigger),"--")</f>
-        <v>56794</v>
+        <v>56884</v>
       </c>
       <c r="V96" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="W96" s="3" t="e">
@@ -11236,7 +11331,7 @@
       <c r="AC96" s="68" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AD96" s="165"/>
+      <c r="AD96" s="163"/>
     </row>
     <row r="97" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A97" s="58" t="s">
@@ -11258,11 +11353,11 @@
         <v>118</v>
       </c>
       <c r="G97" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$66,"E","M")</f>
+        <f t="shared" si="15"/>
         <v>Euribor6M</v>
       </c>
       <c r="H97" s="58" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>EURAB6E27Y_Quote</v>
       </c>
       <c r="I97" s="121">
@@ -11270,14 +11365,14 @@
       </c>
       <c r="J97" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H97,,B97,Calendar,D97,E97,F97,G97,I97,C97,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0093f#0024</v>
+        <v>obj_005c3#0001</v>
       </c>
       <c r="L97" s="69" t="str">
-        <f>A103</f>
+        <f t="shared" si="13"/>
         <v>Sw</v>
       </c>
       <c r="M97" s="134" t="str">
-        <f>IF(ISBLANK(J103),"--",J103)</f>
+        <f t="shared" si="14"/>
         <v>--</v>
       </c>
       <c r="N97" s="142" t="str">
@@ -11306,7 +11401,7 @@
         <v>--</v>
       </c>
       <c r="V97" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="W97" s="3" t="e">
@@ -11335,7 +11430,7 @@
       <c r="AC97" s="68" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AD97" s="165"/>
+      <c r="AD97" s="163"/>
     </row>
     <row r="98" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A98" s="58" t="s">
@@ -11357,11 +11452,11 @@
         <v>118</v>
       </c>
       <c r="G98" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$66,"E","M")</f>
+        <f t="shared" si="15"/>
         <v>Euribor6M</v>
       </c>
       <c r="H98" s="58" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>EURAB6E28Y_Quote</v>
       </c>
       <c r="I98" s="121">
@@ -11369,15 +11464,15 @@
       </c>
       <c r="J98" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H98,,B98,Calendar,D98,E98,F98,G98,I98,C98,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0095d#0023</v>
+        <v>obj_005c1#0001</v>
       </c>
       <c r="L98" s="69" t="str">
-        <f>A104</f>
+        <f t="shared" si="13"/>
         <v>Sw</v>
       </c>
       <c r="M98" s="134" t="str">
-        <f>IF(ISBLANK(J104),"--",J104)</f>
-        <v>obj_0094a#0024</v>
+        <f t="shared" si="14"/>
+        <v>obj_005bc#0001</v>
       </c>
       <c r="N98" s="142" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M98,Trigger),"--")</f>
@@ -11385,7 +11480,7 @@
       </c>
       <c r="O98" s="135">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M98,Trigger),"--")</f>
-        <v>1.702E-2</v>
+        <v>1.5169999999999999E-2</v>
       </c>
       <c r="P98" s="134" t="b">
         <v>1</v>
@@ -11398,14 +11493,14 @@
       </c>
       <c r="S98" s="136">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M98,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="T98" s="136">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M98,Trigger),"--")</f>
-        <v>60447</v>
+        <v>60535</v>
       </c>
       <c r="V98" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="W98" s="3" t="e">
@@ -11434,7 +11529,7 @@
       <c r="AC98" s="68" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AD98" s="165"/>
+      <c r="AD98" s="163"/>
     </row>
     <row r="99" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A99" s="58" t="s">
@@ -11456,11 +11551,11 @@
         <v>118</v>
       </c>
       <c r="G99" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$66,"E","M")</f>
+        <f t="shared" si="15"/>
         <v>Euribor6M</v>
       </c>
       <c r="H99" s="58" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>EURAB6E29Y_Quote</v>
       </c>
       <c r="I99" s="121">
@@ -11468,15 +11563,15 @@
       </c>
       <c r="J99" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H99,,B99,Calendar,D99,E99,F99,G99,I99,C99,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0095c#0023</v>
+        <v>obj_005ab#0001</v>
       </c>
       <c r="L99" s="70" t="str">
-        <f>A105</f>
+        <f t="shared" si="13"/>
         <v>Sw</v>
       </c>
       <c r="M99" s="137" t="str">
-        <f>IF(ISBLANK(J105),"--",J105)</f>
-        <v>obj_0093e#0024</v>
+        <f t="shared" si="14"/>
+        <v>obj_005a7#0001</v>
       </c>
       <c r="N99" s="147" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M99,Trigger),"--")</f>
@@ -11484,7 +11579,7 @@
       </c>
       <c r="O99" s="148">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M99,Trigger),"--")</f>
-        <v>1.687E-2</v>
+        <v>1.502E-2</v>
       </c>
       <c r="P99" s="137" t="b">
         <v>1</v>
@@ -11497,14 +11592,14 @@
       </c>
       <c r="S99" s="146">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M99,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42272</v>
       </c>
       <c r="T99" s="146">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M99,Trigger),"--")</f>
-        <v>64098</v>
+        <v>64187</v>
       </c>
       <c r="V99" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="W99" s="5" t="e">
@@ -11533,7 +11628,7 @@
       <c r="AC99" s="75" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AD99" s="165"/>
+      <c r="AD99" s="163"/>
     </row>
     <row r="100" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A100" s="58" t="s">
@@ -11555,11 +11650,11 @@
         <v>118</v>
       </c>
       <c r="G100" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$66,"E","M")</f>
+        <f t="shared" si="15"/>
         <v>Euribor6M</v>
       </c>
       <c r="H100" s="58" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>EURAB6E30Y_Quote</v>
       </c>
       <c r="I100" s="121">
@@ -11567,9 +11662,9 @@
       </c>
       <c r="J100" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H100,,B100,Calendar,D100,E100,F100,G100,I100,C100,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00952#0024</v>
-      </c>
-      <c r="AD100" s="165"/>
+        <v>obj_005c6#0001</v>
+      </c>
+      <c r="AD100" s="163"/>
     </row>
     <row r="101" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A101" s="58" t="s">
@@ -11591,11 +11686,11 @@
         <v>118</v>
       </c>
       <c r="G101" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$66,"E","M")</f>
+        <f t="shared" si="15"/>
         <v>Euribor6M</v>
       </c>
       <c r="H101" s="58" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>EURAB6E35Y_Quote</v>
       </c>
       <c r="I101" s="121">
@@ -11603,9 +11698,9 @@
       </c>
       <c r="J101" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H101,,B101,Calendar,D101,E101,F101,G101,I101,C101,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00950#0024</v>
-      </c>
-      <c r="AD101" s="165"/>
+        <v>obj_005af#0001</v>
+      </c>
+      <c r="AD101" s="163"/>
     </row>
     <row r="102" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A102" s="58" t="s">
@@ -11627,11 +11722,11 @@
         <v>118</v>
       </c>
       <c r="G102" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$66,"E","M")</f>
+        <f t="shared" si="15"/>
         <v>Euribor6M</v>
       </c>
       <c r="H102" s="58" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>EURAB6E40Y_Quote</v>
       </c>
       <c r="I102" s="119">
@@ -11639,9 +11734,9 @@
       </c>
       <c r="J102" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H102,,B102,Calendar,D102,E102,F102,G102,I102,C102,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0095e#0024</v>
-      </c>
-      <c r="AD102" s="165"/>
+        <v>obj_005bd#0001</v>
+      </c>
+      <c r="AD102" s="163"/>
     </row>
     <row r="103" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A103" s="58" t="s">
@@ -11663,18 +11758,18 @@
         <v>118</v>
       </c>
       <c r="G103" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$66,"E","M")</f>
+        <f t="shared" si="15"/>
         <v>Euribor6M</v>
       </c>
       <c r="H103" s="58" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>EURAB6E45Y_Quote</v>
       </c>
       <c r="I103" s="119">
         <v>0</v>
       </c>
       <c r="J103" s="62"/>
-      <c r="AD103" s="165"/>
+      <c r="AD103" s="163"/>
     </row>
     <row r="104" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A104" s="58" t="s">
@@ -11696,11 +11791,11 @@
         <v>118</v>
       </c>
       <c r="G104" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$66,"E","M")</f>
+        <f t="shared" si="15"/>
         <v>Euribor6M</v>
       </c>
       <c r="H104" s="58" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>EURAB6E50Y_Quote</v>
       </c>
       <c r="I104" s="119">
@@ -11708,9 +11803,9 @@
       </c>
       <c r="J104" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H104,,B104,Calendar,D104,E104,F104,G104,I104,C104,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0094a#0024</v>
-      </c>
-      <c r="AD104" s="165"/>
+        <v>obj_005bc#0001</v>
+      </c>
+      <c r="AD104" s="163"/>
     </row>
     <row r="105" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
@@ -11732,11 +11827,11 @@
         <v>118</v>
       </c>
       <c r="G105" s="6" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$66,"E","M")</f>
+        <f t="shared" si="15"/>
         <v>Euribor6M</v>
       </c>
       <c r="H105" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>EURAB6E60Y_Quote</v>
       </c>
       <c r="I105" s="122">
@@ -11744,75 +11839,75 @@
       </c>
       <c r="J105" s="2" t="str">
         <f>_xll.qlSwapRateHelper2(,H105,,B105,Calendar,D105,E105,F105,G105,I105,C105,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0093e#0024</v>
-      </c>
-      <c r="AD105" s="165"/>
+        <v>obj_005a7#0001</v>
+      </c>
+      <c r="AD105" s="163"/>
     </row>
     <row r="106" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="AD106" s="165"/>
+      <c r="AD106" s="163"/>
     </row>
     <row r="107" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="AD107" s="165"/>
+      <c r="AD107" s="163"/>
     </row>
     <row r="108" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="AD108" s="165"/>
+      <c r="AD108" s="163"/>
     </row>
     <row r="109" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="AD109" s="165"/>
+      <c r="AD109" s="163"/>
     </row>
     <row r="110" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="AD110" s="165"/>
+      <c r="AD110" s="163"/>
     </row>
     <row r="111" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="AD111" s="165"/>
+      <c r="AD111" s="163"/>
     </row>
     <row r="112" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="AD112" s="165"/>
+      <c r="AD112" s="163"/>
     </row>
     <row r="113" spans="30:30" x14ac:dyDescent="0.2">
-      <c r="AD113" s="165"/>
+      <c r="AD113" s="163"/>
     </row>
     <row r="114" spans="30:30" x14ac:dyDescent="0.2">
-      <c r="AD114" s="165"/>
+      <c r="AD114" s="163"/>
     </row>
     <row r="115" spans="30:30" x14ac:dyDescent="0.2">
-      <c r="AD115" s="165"/>
+      <c r="AD115" s="163"/>
     </row>
     <row r="116" spans="30:30" x14ac:dyDescent="0.2">
-      <c r="AD116" s="165"/>
+      <c r="AD116" s="163"/>
     </row>
     <row r="117" spans="30:30" x14ac:dyDescent="0.2">
-      <c r="AD117" s="165"/>
+      <c r="AD117" s="163"/>
     </row>
     <row r="118" spans="30:30" x14ac:dyDescent="0.2">
-      <c r="AD118" s="165"/>
+      <c r="AD118" s="163"/>
     </row>
     <row r="119" spans="30:30" x14ac:dyDescent="0.2">
-      <c r="AD119" s="165"/>
+      <c r="AD119" s="163"/>
     </row>
     <row r="120" spans="30:30" x14ac:dyDescent="0.2">
-      <c r="AD120" s="165"/>
+      <c r="AD120" s="163"/>
     </row>
     <row r="121" spans="30:30" x14ac:dyDescent="0.2">
-      <c r="AD121" s="165"/>
+      <c r="AD121" s="163"/>
     </row>
     <row r="122" spans="30:30" x14ac:dyDescent="0.2">
-      <c r="AD122" s="165"/>
+      <c r="AD122" s="163"/>
     </row>
     <row r="123" spans="30:30" x14ac:dyDescent="0.2">
-      <c r="AD123" s="165"/>
+      <c r="AD123" s="163"/>
     </row>
     <row r="124" spans="30:30" x14ac:dyDescent="0.2">
-      <c r="AD124" s="165"/>
+      <c r="AD124" s="163"/>
     </row>
     <row r="125" spans="30:30" x14ac:dyDescent="0.2">
-      <c r="AD125" s="165"/>
+      <c r="AD125" s="163"/>
     </row>
     <row r="126" spans="30:30" x14ac:dyDescent="0.2">
-      <c r="AD126" s="165"/>
+      <c r="AD126" s="163"/>
     </row>
     <row r="127" spans="30:30" x14ac:dyDescent="0.2">
-      <c r="AD127" s="165"/>
+      <c r="AD127" s="163"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11841,19 +11936,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.7109375" style="47" customWidth="1"/>
-    <col min="2" max="2" width="5" style="47" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" style="47" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.28515625" style="47" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.42578125" style="47" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" style="47" customWidth="1"/>
     <col min="6" max="8" width="2.7109375" style="47" customWidth="1"/>
     <col min="9" max="10" width="14.140625" style="47" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.140625" style="47" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12" style="47" customWidth="1"/>
+    <col min="12" max="12" width="7" style="47" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8" style="47" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="2.7109375" style="47" customWidth="1"/>
     <col min="15" max="15" width="10.140625" style="47" bestFit="1" customWidth="1"/>
@@ -11866,1071 +11963,1081 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A1" s="167"/>
-      <c r="B1" s="168"/>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="224"/>
-      <c r="H1" s="170"/>
-      <c r="I1" s="171"/>
-      <c r="J1" s="171"/>
-      <c r="K1" s="171"/>
-      <c r="L1" s="172"/>
-      <c r="M1" s="172"/>
-      <c r="N1" s="172"/>
-      <c r="O1" s="171"/>
-      <c r="P1" s="173"/>
-      <c r="Q1" s="174"/>
-      <c r="R1" s="224"/>
-      <c r="S1" s="224"/>
-      <c r="T1" s="224"/>
-      <c r="U1" s="224"/>
-      <c r="V1" s="224"/>
-      <c r="W1" s="224"/>
+      <c r="A1" s="165"/>
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
+      <c r="F1" s="167"/>
+      <c r="G1" s="222"/>
+      <c r="H1" s="168"/>
+      <c r="I1" s="169"/>
+      <c r="J1" s="169"/>
+      <c r="K1" s="169"/>
+      <c r="L1" s="170"/>
+      <c r="M1" s="170"/>
+      <c r="N1" s="170"/>
+      <c r="O1" s="169"/>
+      <c r="P1" s="171"/>
+      <c r="Q1" s="172"/>
+      <c r="R1" s="222"/>
+      <c r="S1" s="222"/>
+      <c r="T1" s="222"/>
+      <c r="U1" s="222"/>
+      <c r="V1" s="222"/>
+      <c r="W1" s="222"/>
     </row>
     <row r="2" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="175"/>
-      <c r="B2" s="193"/>
-      <c r="C2" s="193"/>
-      <c r="D2" s="194"/>
-      <c r="E2" s="194"/>
+      <c r="A2" s="173"/>
+      <c r="B2" s="191" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="191" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" s="192" t="s">
+        <v>156</v>
+      </c>
+      <c r="E2" s="192" t="s">
+        <v>11</v>
+      </c>
       <c r="F2" s="16"/>
-      <c r="G2" s="224"/>
-      <c r="H2" s="175"/>
-      <c r="I2" s="194"/>
-      <c r="J2" s="194" t="str">
+      <c r="G2" s="222"/>
+      <c r="H2" s="173"/>
+      <c r="I2" s="192" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="227" t="str">
         <f>_xll.RData(J3:J20,K2:K2,"RTFEED:DTSIMI1","FRQ:1S",,K3)</f>
-        <v>Not Signed In</v>
-      </c>
-      <c r="K2" s="194" t="s">
+        <v>Paused at 16:50:53</v>
+      </c>
+      <c r="K2" s="192" t="s">
         <v>145</v>
       </c>
-      <c r="L2" s="176"/>
-      <c r="M2" s="194" t="s">
+      <c r="L2" s="174"/>
+      <c r="M2" s="192" t="s">
         <v>146</v>
       </c>
-      <c r="N2" s="176"/>
-      <c r="O2" s="194" t="s">
+      <c r="N2" s="174"/>
+      <c r="O2" s="192" t="s">
         <v>147</v>
       </c>
-      <c r="P2" s="194" t="s">
+      <c r="P2" s="192" t="s">
         <v>148</v>
       </c>
       <c r="Q2" s="16"/>
-      <c r="R2" s="224"/>
-      <c r="S2" s="224"/>
-      <c r="T2" s="224"/>
-      <c r="U2" s="224"/>
-      <c r="V2" s="224"/>
-      <c r="W2" s="224"/>
+      <c r="R2" s="222"/>
+      <c r="S2" s="222"/>
+      <c r="T2" s="222"/>
+      <c r="U2" s="222"/>
+      <c r="V2" s="222"/>
+      <c r="W2" s="222"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A3" s="175"/>
-      <c r="B3" s="195" t="s">
+      <c r="A3" s="173"/>
+      <c r="B3" s="193" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="195" t="str">
-        <f>Currency&amp;B3&amp;"_Mx"&amp;QuoteSuffix</f>
+      <c r="C3" s="193" t="str">
+        <f t="shared" ref="C3:C21" si="0">Currency&amp;B3&amp;"_Mx"&amp;QuoteSuffix</f>
         <v>EUROND_Mx_Quote</v>
       </c>
-      <c r="D3" s="196" t="str">
+      <c r="D3" s="194" t="str">
         <f>_xll.qlSimpleQuote(C3,,0.01%,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUROND_Mx_Quote#0007</v>
-      </c>
-      <c r="E3" s="197" t="str">
+        <v>EUROND_Mx_Quote#0001</v>
+      </c>
+      <c r="E3" s="195" t="str">
         <f>_xll.ohRangeRetrieveError(D3)</f>
         <v/>
       </c>
       <c r="F3" s="16"/>
-      <c r="G3" s="224"/>
-      <c r="H3" s="175"/>
-      <c r="I3" s="204" t="s">
+      <c r="G3" s="222"/>
+      <c r="H3" s="173"/>
+      <c r="I3" s="202" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="217" t="str">
-        <f>Currency&amp;"X"&amp;I3&amp;"D="</f>
+      <c r="J3" s="215" t="str">
+        <f t="shared" ref="J3:J21" si="1">Currency&amp;"X"&amp;I3&amp;"D="</f>
         <v>EURXOND=</v>
       </c>
-      <c r="K3" s="205">
+      <c r="K3" s="203">
+        <v>-0.1299999</v>
+      </c>
+      <c r="L3" s="204"/>
+      <c r="M3" s="205">
         <v>-9.9999900000000003E-2</v>
       </c>
-      <c r="L3" s="206"/>
-      <c r="M3" s="207">
-        <v>-9.9999900000000003E-2</v>
-      </c>
-      <c r="N3" s="206"/>
-      <c r="O3" s="220">
+      <c r="N3" s="204"/>
+      <c r="O3" s="218">
         <f t="array" ref="O3:O21">QuoteLive</f>
-        <v>-9.9999900000000003E-2</v>
-      </c>
-      <c r="P3" s="208" t="e">
+        <v>-0.1299999</v>
+      </c>
+      <c r="P3" s="206" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D3,O3/100,Trigger)</f>
         <v>#N/A</v>
       </c>
       <c r="Q3" s="16"/>
-      <c r="R3" s="224"/>
-      <c r="S3" s="224"/>
-      <c r="T3" s="224"/>
-      <c r="U3" s="224"/>
-      <c r="V3" s="224"/>
-      <c r="W3" s="224"/>
+      <c r="R3" s="222"/>
+      <c r="S3" s="222"/>
+      <c r="T3" s="222"/>
+      <c r="U3" s="222"/>
+      <c r="V3" s="222"/>
+      <c r="W3" s="222"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A4" s="175"/>
-      <c r="B4" s="198" t="s">
+      <c r="A4" s="173"/>
+      <c r="B4" s="196" t="s">
         <v>120</v>
       </c>
-      <c r="C4" s="198" t="str">
-        <f>Currency&amp;B4&amp;"_Mx"&amp;QuoteSuffix</f>
+      <c r="C4" s="196" t="str">
+        <f t="shared" si="0"/>
         <v>EURTND_Mx_Quote</v>
       </c>
-      <c r="D4" s="199" t="str">
+      <c r="D4" s="197" t="str">
         <f>_xll.qlSimpleQuote(C4,,0.01%,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EURTND_Mx_Quote#0004</v>
-      </c>
-      <c r="E4" s="200" t="str">
+        <v>EURTND_Mx_Quote#0001</v>
+      </c>
+      <c r="E4" s="198" t="str">
         <f>_xll.ohRangeRetrieveError(D4)</f>
         <v/>
       </c>
       <c r="F4" s="16"/>
-      <c r="G4" s="224"/>
-      <c r="H4" s="175"/>
-      <c r="I4" s="209" t="s">
+      <c r="G4" s="222"/>
+      <c r="H4" s="173"/>
+      <c r="I4" s="207" t="s">
         <v>64</v>
       </c>
-      <c r="J4" s="218" t="str">
-        <f>Currency&amp;"X"&amp;I4&amp;"D="</f>
+      <c r="J4" s="216" t="str">
+        <f t="shared" si="1"/>
         <v>EURXTND=</v>
       </c>
-      <c r="K4" s="210">
+      <c r="K4" s="208">
+        <v>-0.13</v>
+      </c>
+      <c r="L4" s="204"/>
+      <c r="M4" s="209">
         <v>-0.1</v>
       </c>
-      <c r="L4" s="206"/>
-      <c r="M4" s="211">
-        <v>-0.1</v>
-      </c>
-      <c r="N4" s="206"/>
-      <c r="O4" s="221">
-        <v>-0.1</v>
-      </c>
-      <c r="P4" s="212" t="e">
+      <c r="N4" s="204"/>
+      <c r="O4" s="219">
+        <v>-0.13</v>
+      </c>
+      <c r="P4" s="210" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D4,O4/100,Trigger)</f>
         <v>#N/A</v>
       </c>
       <c r="Q4" s="16"/>
-      <c r="R4" s="224"/>
-      <c r="S4" s="224"/>
-      <c r="T4" s="224"/>
-      <c r="U4" s="224"/>
-      <c r="V4" s="224"/>
-      <c r="W4" s="224"/>
+      <c r="R4" s="222"/>
+      <c r="S4" s="222"/>
+      <c r="T4" s="222"/>
+      <c r="U4" s="222"/>
+      <c r="V4" s="222"/>
+      <c r="W4" s="222"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A5" s="175"/>
-      <c r="B5" s="198" t="s">
+      <c r="A5" s="173"/>
+      <c r="B5" s="196" t="s">
         <v>121</v>
       </c>
-      <c r="C5" s="198" t="str">
-        <f>Currency&amp;B5&amp;"_Mx"&amp;QuoteSuffix</f>
+      <c r="C5" s="196" t="str">
+        <f t="shared" si="0"/>
         <v>EURSND_Mx_Quote</v>
       </c>
-      <c r="D5" s="199" t="str">
+      <c r="D5" s="197" t="str">
         <f>_xll.qlSimpleQuote(C5,,0.01%,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EURSND_Mx_Quote#0004</v>
-      </c>
-      <c r="E5" s="200" t="str">
+        <v>EURSND_Mx_Quote#0001</v>
+      </c>
+      <c r="E5" s="198" t="str">
         <f>_xll.ohRangeRetrieveError(D5)</f>
         <v/>
       </c>
       <c r="F5" s="16"/>
-      <c r="G5" s="224"/>
-      <c r="H5" s="175"/>
-      <c r="I5" s="209" t="s">
+      <c r="G5" s="222"/>
+      <c r="H5" s="173"/>
+      <c r="I5" s="207" t="s">
         <v>65</v>
       </c>
-      <c r="J5" s="218" t="str">
-        <f>Currency&amp;"X"&amp;I5&amp;"D="</f>
+      <c r="J5" s="216" t="str">
+        <f t="shared" si="1"/>
         <v>EURXSND=</v>
       </c>
-      <c r="K5" s="210">
+      <c r="K5" s="208">
+        <v>-0.13</v>
+      </c>
+      <c r="L5" s="204"/>
+      <c r="M5" s="209">
         <v>-0.1</v>
       </c>
-      <c r="L5" s="206"/>
-      <c r="M5" s="211">
-        <v>-0.1</v>
-      </c>
-      <c r="N5" s="206"/>
-      <c r="O5" s="221">
-        <v>-0.1</v>
-      </c>
-      <c r="P5" s="212" t="e">
+      <c r="N5" s="204"/>
+      <c r="O5" s="219">
+        <v>-0.13</v>
+      </c>
+      <c r="P5" s="210" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D5,O5/100,Trigger)</f>
         <v>#N/A</v>
       </c>
       <c r="Q5" s="16"/>
-      <c r="R5" s="224"/>
-      <c r="S5" s="224"/>
-      <c r="T5" s="224"/>
-      <c r="U5" s="224"/>
-      <c r="V5" s="224"/>
-      <c r="W5" s="224"/>
+      <c r="R5" s="222"/>
+      <c r="S5" s="222"/>
+      <c r="T5" s="222"/>
+      <c r="U5" s="222"/>
+      <c r="V5" s="222"/>
+      <c r="W5" s="222"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A6" s="175"/>
-      <c r="B6" s="198" t="s">
+      <c r="A6" s="173"/>
+      <c r="B6" s="196" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="198" t="str">
-        <f>Currency&amp;B6&amp;"_Mx"&amp;QuoteSuffix</f>
+      <c r="C6" s="196" t="str">
+        <f t="shared" si="0"/>
         <v>EURSWD_Mx_Quote</v>
       </c>
-      <c r="D6" s="199" t="str">
+      <c r="D6" s="197" t="str">
         <f>_xll.qlSimpleQuote(C6,,0.01%,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EURSWD_Mx_Quote#0004</v>
-      </c>
-      <c r="E6" s="200" t="str">
+        <v>EURSWD_Mx_Quote#0001</v>
+      </c>
+      <c r="E6" s="198" t="str">
         <f>_xll.ohRangeRetrieveError(D6)</f>
         <v/>
       </c>
       <c r="F6" s="16"/>
-      <c r="G6" s="224"/>
-      <c r="H6" s="175"/>
-      <c r="I6" s="209" t="s">
+      <c r="G6" s="222"/>
+      <c r="H6" s="173"/>
+      <c r="I6" s="207" t="s">
         <v>79</v>
       </c>
-      <c r="J6" s="218" t="str">
-        <f>Currency&amp;"X"&amp;I6&amp;"D="</f>
+      <c r="J6" s="216" t="str">
+        <f t="shared" si="1"/>
         <v>EURXSWD=</v>
       </c>
-      <c r="K6" s="210">
+      <c r="K6" s="208">
+        <v>-0.1</v>
+      </c>
+      <c r="L6" s="204"/>
+      <c r="M6" s="209">
         <v>-0.09</v>
       </c>
-      <c r="L6" s="206"/>
-      <c r="M6" s="211">
-        <v>-0.09</v>
-      </c>
-      <c r="N6" s="206"/>
-      <c r="O6" s="221">
-        <v>-0.09</v>
-      </c>
-      <c r="P6" s="212" t="e">
+      <c r="N6" s="204"/>
+      <c r="O6" s="219">
+        <v>-0.1</v>
+      </c>
+      <c r="P6" s="210" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D6,O6/100,Trigger)</f>
         <v>#N/A</v>
       </c>
       <c r="Q6" s="16"/>
-      <c r="R6" s="224"/>
-      <c r="S6" s="224"/>
-      <c r="T6" s="224"/>
-      <c r="U6" s="224"/>
-      <c r="V6" s="224"/>
-      <c r="W6" s="224"/>
+      <c r="R6" s="222"/>
+      <c r="S6" s="222"/>
+      <c r="T6" s="222"/>
+      <c r="U6" s="222"/>
+      <c r="V6" s="222"/>
+      <c r="W6" s="222"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A7" s="175"/>
-      <c r="B7" s="198" t="s">
+      <c r="A7" s="173"/>
+      <c r="B7" s="196" t="s">
         <v>123</v>
       </c>
-      <c r="C7" s="198" t="str">
-        <f>Currency&amp;B7&amp;"_Mx"&amp;QuoteSuffix</f>
+      <c r="C7" s="196" t="str">
+        <f t="shared" si="0"/>
         <v>EUR2WD_Mx_Quote</v>
       </c>
-      <c r="D7" s="199" t="str">
+      <c r="D7" s="197" t="str">
         <f>_xll.qlSimpleQuote(C7,,0.01%,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR2WD_Mx_Quote#0004</v>
-      </c>
-      <c r="E7" s="200" t="str">
+        <v>EUR2WD_Mx_Quote#0001</v>
+      </c>
+      <c r="E7" s="198" t="str">
         <f>_xll.ohRangeRetrieveError(D7)</f>
         <v/>
       </c>
       <c r="F7" s="16"/>
-      <c r="G7" s="224"/>
-      <c r="H7" s="175"/>
-      <c r="I7" s="209" t="s">
+      <c r="G7" s="222"/>
+      <c r="H7" s="173"/>
+      <c r="I7" s="207" t="s">
         <v>138</v>
       </c>
-      <c r="J7" s="218" t="str">
-        <f>Currency&amp;"X"&amp;I7&amp;"D="</f>
+      <c r="J7" s="216" t="str">
+        <f t="shared" si="1"/>
         <v>EURX2WD=</v>
       </c>
-      <c r="K7" s="210">
-        <v>-0.06</v>
-      </c>
-      <c r="L7" s="206"/>
-      <c r="M7" s="211">
+      <c r="K7" s="208">
+        <v>-0.11000000000000001</v>
+      </c>
+      <c r="L7" s="204"/>
+      <c r="M7" s="209">
         <v>-0.08</v>
       </c>
-      <c r="N7" s="206"/>
-      <c r="O7" s="221">
-        <v>-0.06</v>
-      </c>
-      <c r="P7" s="212" t="e">
+      <c r="N7" s="204"/>
+      <c r="O7" s="219">
+        <v>-0.11000000000000001</v>
+      </c>
+      <c r="P7" s="210" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D7,O7/100,Trigger)</f>
         <v>#N/A</v>
       </c>
       <c r="Q7" s="16"/>
-      <c r="R7" s="224"/>
-      <c r="S7" s="224"/>
-      <c r="T7" s="224"/>
-      <c r="U7" s="224"/>
-      <c r="V7" s="224"/>
-      <c r="W7" s="224"/>
+      <c r="R7" s="222"/>
+      <c r="S7" s="222"/>
+      <c r="T7" s="222"/>
+      <c r="U7" s="222"/>
+      <c r="V7" s="222"/>
+      <c r="W7" s="222"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A8" s="175"/>
-      <c r="B8" s="198" t="s">
+      <c r="A8" s="173"/>
+      <c r="B8" s="196" t="s">
         <v>124</v>
       </c>
-      <c r="C8" s="198" t="str">
-        <f>Currency&amp;B8&amp;"_Mx"&amp;QuoteSuffix</f>
+      <c r="C8" s="196" t="str">
+        <f t="shared" si="0"/>
         <v>EUR3WD_Mx_Quote</v>
       </c>
-      <c r="D8" s="199" t="str">
+      <c r="D8" s="197" t="str">
         <f>_xll.qlSimpleQuote(C8,,0.01%,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR3WD_Mx_Quote#0004</v>
-      </c>
-      <c r="E8" s="200" t="str">
+        <v>EUR3WD_Mx_Quote#0001</v>
+      </c>
+      <c r="E8" s="198" t="str">
         <f>_xll.ohRangeRetrieveError(D8)</f>
         <v/>
       </c>
       <c r="F8" s="16"/>
-      <c r="G8" s="224"/>
-      <c r="H8" s="175"/>
-      <c r="I8" s="209" t="s">
+      <c r="G8" s="222"/>
+      <c r="H8" s="173"/>
+      <c r="I8" s="207" t="s">
         <v>139</v>
       </c>
-      <c r="J8" s="218" t="str">
-        <f>Currency&amp;"X"&amp;I8&amp;"D="</f>
+      <c r="J8" s="216" t="str">
+        <f t="shared" si="1"/>
         <v>EURX3WD=</v>
       </c>
-      <c r="K8" s="210">
+      <c r="K8" s="208">
+        <v>-0.11000000000000001</v>
+      </c>
+      <c r="L8" s="204"/>
+      <c r="M8" s="209">
         <v>-0.06</v>
       </c>
-      <c r="L8" s="206"/>
-      <c r="M8" s="211">
-        <v>-0.06</v>
-      </c>
-      <c r="N8" s="206"/>
-      <c r="O8" s="221">
-        <v>-0.06</v>
-      </c>
-      <c r="P8" s="212" t="e">
+      <c r="N8" s="204"/>
+      <c r="O8" s="219">
+        <v>-0.11000000000000001</v>
+      </c>
+      <c r="P8" s="210" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D8,O8/100,Trigger)</f>
         <v>#N/A</v>
       </c>
       <c r="Q8" s="16"/>
-      <c r="R8" s="224"/>
-      <c r="S8" s="224"/>
-      <c r="T8" s="224"/>
-      <c r="U8" s="224"/>
-      <c r="V8" s="224"/>
-      <c r="W8" s="224"/>
+      <c r="R8" s="222"/>
+      <c r="S8" s="222"/>
+      <c r="T8" s="222"/>
+      <c r="U8" s="222"/>
+      <c r="V8" s="222"/>
+      <c r="W8" s="222"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A9" s="175"/>
-      <c r="B9" s="198" t="s">
+      <c r="A9" s="173"/>
+      <c r="B9" s="196" t="s">
         <v>125</v>
       </c>
-      <c r="C9" s="198" t="str">
-        <f>Currency&amp;B9&amp;"_Mx"&amp;QuoteSuffix</f>
+      <c r="C9" s="196" t="str">
+        <f t="shared" si="0"/>
         <v>EUR1MD_Mx_Quote</v>
       </c>
-      <c r="D9" s="199" t="str">
+      <c r="D9" s="197" t="str">
         <f>_xll.qlSimpleQuote(C9,,0.01%,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR1MD_Mx_Quote#0004</v>
-      </c>
-      <c r="E9" s="200" t="str">
+        <v>EUR1MD_Mx_Quote#0001</v>
+      </c>
+      <c r="E9" s="198" t="str">
         <f>_xll.ohRangeRetrieveError(D9)</f>
         <v/>
       </c>
       <c r="F9" s="16"/>
-      <c r="G9" s="224"/>
-      <c r="H9" s="175"/>
-      <c r="I9" s="209" t="s">
+      <c r="G9" s="222"/>
+      <c r="H9" s="173"/>
+      <c r="I9" s="207" t="s">
         <v>2</v>
       </c>
-      <c r="J9" s="218" t="str">
-        <f>Currency&amp;"X"&amp;I9&amp;"D="</f>
+      <c r="J9" s="216" t="str">
+        <f t="shared" si="1"/>
         <v>EURX1MD=</v>
       </c>
-      <c r="K9" s="210">
+      <c r="K9" s="208">
+        <v>-0.1</v>
+      </c>
+      <c r="L9" s="204"/>
+      <c r="M9" s="209">
         <v>-0.04</v>
       </c>
-      <c r="L9" s="206"/>
-      <c r="M9" s="211">
-        <v>-0.04</v>
-      </c>
-      <c r="N9" s="206"/>
-      <c r="O9" s="221">
-        <v>-0.04</v>
-      </c>
-      <c r="P9" s="212" t="e">
+      <c r="N9" s="204"/>
+      <c r="O9" s="219">
+        <v>-0.1</v>
+      </c>
+      <c r="P9" s="210" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D9,O9/100,Trigger)</f>
         <v>#N/A</v>
       </c>
       <c r="Q9" s="16"/>
-      <c r="R9" s="224"/>
-      <c r="S9" s="224"/>
-      <c r="T9" s="224"/>
-      <c r="U9" s="224"/>
-      <c r="V9" s="224"/>
-      <c r="W9" s="224"/>
+      <c r="R9" s="222"/>
+      <c r="S9" s="222"/>
+      <c r="T9" s="222"/>
+      <c r="U9" s="222"/>
+      <c r="V9" s="222"/>
+      <c r="W9" s="222"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A10" s="175"/>
-      <c r="B10" s="198" t="s">
+      <c r="A10" s="173"/>
+      <c r="B10" s="196" t="s">
         <v>126</v>
       </c>
-      <c r="C10" s="198" t="str">
-        <f>Currency&amp;B10&amp;"_Mx"&amp;QuoteSuffix</f>
+      <c r="C10" s="196" t="str">
+        <f t="shared" si="0"/>
         <v>EUR2MD_Mx_Quote</v>
       </c>
-      <c r="D10" s="199" t="str">
+      <c r="D10" s="197" t="str">
         <f>_xll.qlSimpleQuote(C10,,0.01%,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR2MD_Mx_Quote#0004</v>
-      </c>
-      <c r="E10" s="200" t="str">
+        <v>EUR2MD_Mx_Quote#0001</v>
+      </c>
+      <c r="E10" s="198" t="str">
         <f>_xll.ohRangeRetrieveError(D10)</f>
         <v/>
       </c>
       <c r="F10" s="16"/>
-      <c r="G10" s="224"/>
-      <c r="H10" s="175"/>
-      <c r="I10" s="209" t="s">
+      <c r="G10" s="222"/>
+      <c r="H10" s="173"/>
+      <c r="I10" s="207" t="s">
         <v>39</v>
       </c>
-      <c r="J10" s="218" t="str">
-        <f>Currency&amp;"X"&amp;I10&amp;"D="</f>
+      <c r="J10" s="216" t="str">
+        <f t="shared" si="1"/>
         <v>EURX2MD=</v>
       </c>
-      <c r="K10" s="210">
+      <c r="K10" s="208">
+        <v>-0.06</v>
+      </c>
+      <c r="L10" s="204"/>
+      <c r="M10" s="209">
         <v>-0.02</v>
       </c>
-      <c r="L10" s="206"/>
-      <c r="M10" s="211">
-        <v>-0.02</v>
-      </c>
-      <c r="N10" s="206"/>
-      <c r="O10" s="221">
-        <v>-0.02</v>
-      </c>
-      <c r="P10" s="212" t="e">
+      <c r="N10" s="204"/>
+      <c r="O10" s="219">
+        <v>-0.06</v>
+      </c>
+      <c r="P10" s="210" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D10,O10/100,Trigger)</f>
         <v>#N/A</v>
       </c>
       <c r="Q10" s="16"/>
-      <c r="R10" s="224"/>
-      <c r="S10" s="224"/>
-      <c r="T10" s="224"/>
-      <c r="U10" s="224"/>
-      <c r="V10" s="224"/>
-      <c r="W10" s="224"/>
+      <c r="R10" s="222"/>
+      <c r="S10" s="222"/>
+      <c r="T10" s="222"/>
+      <c r="U10" s="222"/>
+      <c r="V10" s="222"/>
+      <c r="W10" s="222"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A11" s="175"/>
-      <c r="B11" s="198" t="s">
+      <c r="A11" s="173"/>
+      <c r="B11" s="196" t="s">
         <v>127</v>
       </c>
-      <c r="C11" s="198" t="str">
-        <f>Currency&amp;B11&amp;"_Mx"&amp;QuoteSuffix</f>
+      <c r="C11" s="196" t="str">
+        <f t="shared" si="0"/>
         <v>EUR3MD_Mx_Quote</v>
       </c>
-      <c r="D11" s="199" t="str">
+      <c r="D11" s="197" t="str">
         <f>_xll.qlSimpleQuote(C11,,0.01%,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR3MD_Mx_Quote#0004</v>
-      </c>
-      <c r="E11" s="200" t="str">
+        <v>EUR3MD_Mx_Quote#0001</v>
+      </c>
+      <c r="E11" s="198" t="str">
         <f>_xll.ohRangeRetrieveError(D11)</f>
         <v/>
       </c>
       <c r="F11" s="16"/>
-      <c r="G11" s="224"/>
-      <c r="H11" s="175"/>
-      <c r="I11" s="209" t="s">
+      <c r="G11" s="222"/>
+      <c r="H11" s="173"/>
+      <c r="I11" s="207" t="s">
         <v>0</v>
       </c>
-      <c r="J11" s="218" t="str">
-        <f>Currency&amp;"X"&amp;I11&amp;"D="</f>
+      <c r="J11" s="216" t="str">
+        <f t="shared" si="1"/>
         <v>EURX3MD=</v>
       </c>
-      <c r="K11" s="210">
+      <c r="K11" s="208">
+        <v>-0.03</v>
+      </c>
+      <c r="L11" s="204"/>
+      <c r="M11" s="209">
         <v>0.01</v>
       </c>
-      <c r="L11" s="206"/>
-      <c r="M11" s="211">
-        <v>0.01</v>
-      </c>
-      <c r="N11" s="206"/>
-      <c r="O11" s="221">
-        <v>0.01</v>
-      </c>
-      <c r="P11" s="212" t="e">
+      <c r="N11" s="204"/>
+      <c r="O11" s="219">
+        <v>-0.03</v>
+      </c>
+      <c r="P11" s="210" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D11,O11/100,Trigger)</f>
         <v>#N/A</v>
       </c>
       <c r="Q11" s="16"/>
-      <c r="R11" s="224"/>
-      <c r="S11" s="224"/>
-      <c r="T11" s="224"/>
-      <c r="U11" s="224"/>
-      <c r="V11" s="224"/>
-      <c r="W11" s="224"/>
+      <c r="R11" s="222"/>
+      <c r="S11" s="222"/>
+      <c r="T11" s="222"/>
+      <c r="U11" s="222"/>
+      <c r="V11" s="222"/>
+      <c r="W11" s="222"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A12" s="175"/>
-      <c r="B12" s="198" t="s">
+      <c r="A12" s="173"/>
+      <c r="B12" s="196" t="s">
         <v>128</v>
       </c>
-      <c r="C12" s="198" t="str">
-        <f>Currency&amp;B12&amp;"_Mx"&amp;QuoteSuffix</f>
+      <c r="C12" s="196" t="str">
+        <f t="shared" si="0"/>
         <v>EUR4MD_Mx_Quote</v>
       </c>
-      <c r="D12" s="199" t="str">
+      <c r="D12" s="197" t="str">
         <f>_xll.qlSimpleQuote(C12,,0.01%,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR4MD_Mx_Quote#0004</v>
-      </c>
-      <c r="E12" s="200" t="str">
+        <v>EUR4MD_Mx_Quote#0001</v>
+      </c>
+      <c r="E12" s="198" t="str">
         <f>_xll.ohRangeRetrieveError(D12)</f>
         <v/>
       </c>
       <c r="F12" s="16"/>
-      <c r="G12" s="224"/>
-      <c r="H12" s="175"/>
-      <c r="I12" s="209" t="s">
+      <c r="G12" s="222"/>
+      <c r="H12" s="173"/>
+      <c r="I12" s="207" t="s">
         <v>109</v>
       </c>
-      <c r="J12" s="218" t="str">
-        <f>Currency&amp;"X"&amp;I12&amp;"D="</f>
+      <c r="J12" s="216" t="str">
+        <f t="shared" si="1"/>
         <v>EURX4MD=</v>
       </c>
-      <c r="K12" s="210">
+      <c r="K12" s="208">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="L12" s="204"/>
+      <c r="M12" s="209">
         <v>0.03</v>
       </c>
-      <c r="L12" s="206"/>
-      <c r="M12" s="211">
-        <v>0.03</v>
-      </c>
-      <c r="N12" s="206"/>
-      <c r="O12" s="221">
-        <v>0.03</v>
-      </c>
-      <c r="P12" s="212" t="e">
+      <c r="N12" s="204"/>
+      <c r="O12" s="219">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="P12" s="210" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D12,O12/100,Trigger)</f>
         <v>#N/A</v>
       </c>
       <c r="Q12" s="16"/>
-      <c r="R12" s="224"/>
-      <c r="S12" s="224"/>
-      <c r="T12" s="224"/>
-      <c r="U12" s="224"/>
-      <c r="V12" s="224"/>
-      <c r="W12" s="224"/>
+      <c r="R12" s="222"/>
+      <c r="S12" s="222"/>
+      <c r="T12" s="222"/>
+      <c r="U12" s="222"/>
+      <c r="V12" s="222"/>
+      <c r="W12" s="222"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A13" s="175"/>
-      <c r="B13" s="198" t="s">
+      <c r="A13" s="173"/>
+      <c r="B13" s="196" t="s">
         <v>129</v>
       </c>
-      <c r="C13" s="198" t="str">
-        <f>Currency&amp;B13&amp;"_Mx"&amp;QuoteSuffix</f>
+      <c r="C13" s="196" t="str">
+        <f t="shared" si="0"/>
         <v>EUR5MD_Mx_Quote</v>
       </c>
-      <c r="D13" s="199" t="str">
+      <c r="D13" s="197" t="str">
         <f>_xll.qlSimpleQuote(C13,,0.01%,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR5MD_Mx_Quote#0003</v>
-      </c>
-      <c r="E13" s="200" t="str">
+        <v>EUR5MD_Mx_Quote#0001</v>
+      </c>
+      <c r="E13" s="198" t="str">
         <f>_xll.ohRangeRetrieveError(D13)</f>
         <v/>
       </c>
       <c r="F13" s="16"/>
-      <c r="G13" s="224"/>
-      <c r="H13" s="175"/>
-      <c r="I13" s="209" t="s">
+      <c r="G13" s="222"/>
+      <c r="H13" s="173"/>
+      <c r="I13" s="207" t="s">
         <v>110</v>
       </c>
-      <c r="J13" s="218" t="str">
-        <f>Currency&amp;"X"&amp;I13&amp;"D="</f>
+      <c r="J13" s="216" t="str">
+        <f t="shared" si="1"/>
         <v>EURX5MD=</v>
       </c>
-      <c r="K13" s="210">
+      <c r="K13" s="208">
+        <v>2.4E-2</v>
+      </c>
+      <c r="L13" s="204"/>
+      <c r="M13" s="209">
         <v>0.06</v>
       </c>
-      <c r="L13" s="206"/>
-      <c r="M13" s="211">
-        <v>0.06</v>
-      </c>
-      <c r="N13" s="206"/>
-      <c r="O13" s="221">
-        <v>0.06</v>
-      </c>
-      <c r="P13" s="212" t="e">
+      <c r="N13" s="204"/>
+      <c r="O13" s="219">
+        <v>2.4E-2</v>
+      </c>
+      <c r="P13" s="210" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D13,O13/100,Trigger)</f>
         <v>#N/A</v>
       </c>
       <c r="Q13" s="16"/>
-      <c r="R13" s="224"/>
-      <c r="S13" s="224"/>
-      <c r="T13" s="224"/>
-      <c r="U13" s="224"/>
-      <c r="V13" s="224"/>
-      <c r="W13" s="224"/>
+      <c r="R13" s="222"/>
+      <c r="S13" s="222"/>
+      <c r="T13" s="222"/>
+      <c r="U13" s="222"/>
+      <c r="V13" s="222"/>
+      <c r="W13" s="222"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A14" s="175"/>
-      <c r="B14" s="198" t="s">
+      <c r="A14" s="173"/>
+      <c r="B14" s="196" t="s">
         <v>130</v>
       </c>
-      <c r="C14" s="198" t="str">
-        <f>Currency&amp;B14&amp;"_Mx"&amp;QuoteSuffix</f>
+      <c r="C14" s="196" t="str">
+        <f t="shared" si="0"/>
         <v>EUR6MD_Mx_Quote</v>
       </c>
-      <c r="D14" s="199" t="str">
+      <c r="D14" s="197" t="str">
         <f>_xll.qlSimpleQuote(C14,,0.01%,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR6MD_Mx_Quote#0003</v>
-      </c>
-      <c r="E14" s="200" t="str">
+        <v>EUR6MD_Mx_Quote#0001</v>
+      </c>
+      <c r="E14" s="198" t="str">
         <f>_xll.ohRangeRetrieveError(D14)</f>
         <v/>
       </c>
       <c r="F14" s="16"/>
-      <c r="G14" s="224"/>
-      <c r="H14" s="175"/>
-      <c r="I14" s="209" t="s">
+      <c r="G14" s="222"/>
+      <c r="H14" s="173"/>
+      <c r="I14" s="207" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="218" t="str">
-        <f>Currency&amp;"X"&amp;I14&amp;"D="</f>
+      <c r="J14" s="216" t="str">
+        <f t="shared" si="1"/>
         <v>EURX6MD=</v>
       </c>
-      <c r="K14" s="210">
+      <c r="K14" s="208">
+        <v>5.2000000000000005E-2</v>
+      </c>
+      <c r="L14" s="204"/>
+      <c r="M14" s="209">
         <v>0.09</v>
       </c>
-      <c r="L14" s="206"/>
-      <c r="M14" s="211">
-        <v>0.09</v>
-      </c>
-      <c r="N14" s="206"/>
-      <c r="O14" s="221">
-        <v>0.09</v>
-      </c>
-      <c r="P14" s="212" t="e">
+      <c r="N14" s="204"/>
+      <c r="O14" s="219">
+        <v>5.2000000000000005E-2</v>
+      </c>
+      <c r="P14" s="210" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D14,O14/100,Trigger)</f>
         <v>#N/A</v>
       </c>
       <c r="Q14" s="16"/>
-      <c r="R14" s="224"/>
-      <c r="S14" s="224"/>
-      <c r="T14" s="224"/>
-      <c r="U14" s="224"/>
-      <c r="V14" s="224"/>
-      <c r="W14" s="224"/>
+      <c r="R14" s="222"/>
+      <c r="S14" s="222"/>
+      <c r="T14" s="222"/>
+      <c r="U14" s="222"/>
+      <c r="V14" s="222"/>
+      <c r="W14" s="222"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A15" s="175"/>
-      <c r="B15" s="198" t="s">
+      <c r="A15" s="173"/>
+      <c r="B15" s="196" t="s">
         <v>131</v>
       </c>
-      <c r="C15" s="198" t="str">
-        <f>Currency&amp;B15&amp;"_Mx"&amp;QuoteSuffix</f>
+      <c r="C15" s="196" t="str">
+        <f t="shared" si="0"/>
         <v>EUR7MD_Mx_Quote</v>
       </c>
-      <c r="D15" s="199" t="str">
+      <c r="D15" s="197" t="str">
         <f>_xll.qlSimpleQuote(C15,,0.01%,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR7MD_Mx_Quote#0003</v>
-      </c>
-      <c r="E15" s="200" t="str">
+        <v>EUR7MD_Mx_Quote#0001</v>
+      </c>
+      <c r="E15" s="198" t="str">
         <f>_xll.ohRangeRetrieveError(D15)</f>
         <v/>
       </c>
       <c r="F15" s="16"/>
-      <c r="G15" s="224"/>
-      <c r="H15" s="175"/>
-      <c r="I15" s="209" t="s">
+      <c r="G15" s="222"/>
+      <c r="H15" s="173"/>
+      <c r="I15" s="207" t="s">
         <v>140</v>
       </c>
-      <c r="J15" s="218" t="str">
-        <f>Currency&amp;"X"&amp;I15&amp;"D="</f>
+      <c r="J15" s="216" t="str">
+        <f t="shared" si="1"/>
         <v>EURX7MD=</v>
       </c>
-      <c r="K15" s="210">
+      <c r="K15" s="208">
+        <v>6.9999999999999993E-2</v>
+      </c>
+      <c r="L15" s="204"/>
+      <c r="M15" s="209">
         <v>0.11000000000000001</v>
       </c>
-      <c r="L15" s="206"/>
-      <c r="M15" s="211">
-        <v>0.11000000000000001</v>
-      </c>
-      <c r="N15" s="206"/>
-      <c r="O15" s="221">
-        <v>0.11000000000000001</v>
-      </c>
-      <c r="P15" s="212" t="e">
+      <c r="N15" s="204"/>
+      <c r="O15" s="219">
+        <v>6.9999999999999993E-2</v>
+      </c>
+      <c r="P15" s="210" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D15,O15/100,Trigger)</f>
         <v>#N/A</v>
       </c>
       <c r="Q15" s="16"/>
-      <c r="R15" s="224"/>
-      <c r="S15" s="224"/>
-      <c r="T15" s="224"/>
-      <c r="U15" s="224"/>
-      <c r="V15" s="224"/>
-      <c r="W15" s="224"/>
+      <c r="R15" s="222"/>
+      <c r="S15" s="222"/>
+      <c r="T15" s="222"/>
+      <c r="U15" s="222"/>
+      <c r="V15" s="222"/>
+      <c r="W15" s="222"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A16" s="175"/>
-      <c r="B16" s="198" t="s">
+      <c r="A16" s="173"/>
+      <c r="B16" s="196" t="s">
         <v>132</v>
       </c>
-      <c r="C16" s="198" t="str">
-        <f>Currency&amp;B16&amp;"_Mx"&amp;QuoteSuffix</f>
+      <c r="C16" s="196" t="str">
+        <f t="shared" si="0"/>
         <v>EUR8MD_Mx_Quote</v>
       </c>
-      <c r="D16" s="199" t="str">
+      <c r="D16" s="197" t="str">
         <f>_xll.qlSimpleQuote(C16,,0.01%,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR8MD_Mx_Quote#0003</v>
-      </c>
-      <c r="E16" s="200" t="str">
+        <v>EUR8MD_Mx_Quote#0001</v>
+      </c>
+      <c r="E16" s="198" t="str">
         <f>_xll.ohRangeRetrieveError(D16)</f>
         <v/>
       </c>
       <c r="F16" s="16"/>
-      <c r="G16" s="224"/>
-      <c r="H16" s="175"/>
-      <c r="I16" s="209" t="s">
+      <c r="G16" s="222"/>
+      <c r="H16" s="173"/>
+      <c r="I16" s="207" t="s">
         <v>141</v>
       </c>
-      <c r="J16" s="218" t="str">
-        <f>Currency&amp;"X"&amp;I16&amp;"D="</f>
+      <c r="J16" s="216" t="str">
+        <f t="shared" si="1"/>
         <v>EURX8MD=</v>
       </c>
-      <c r="K16" s="210">
+      <c r="K16" s="208">
+        <v>8.8000000000000009E-2</v>
+      </c>
+      <c r="L16" s="204"/>
+      <c r="M16" s="209">
         <v>0.13</v>
       </c>
-      <c r="L16" s="206"/>
-      <c r="M16" s="211">
-        <v>0.13</v>
-      </c>
-      <c r="N16" s="206"/>
-      <c r="O16" s="221">
-        <v>0.13</v>
-      </c>
-      <c r="P16" s="212" t="e">
+      <c r="N16" s="204"/>
+      <c r="O16" s="219">
+        <v>8.8000000000000009E-2</v>
+      </c>
+      <c r="P16" s="210" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D16,O16/100,Trigger)</f>
         <v>#N/A</v>
       </c>
       <c r="Q16" s="16"/>
-      <c r="R16" s="224"/>
-      <c r="S16" s="224"/>
-      <c r="T16" s="224"/>
-      <c r="U16" s="224"/>
-      <c r="V16" s="224"/>
-      <c r="W16" s="224"/>
+      <c r="R16" s="222"/>
+      <c r="S16" s="222"/>
+      <c r="T16" s="222"/>
+      <c r="U16" s="222"/>
+      <c r="V16" s="222"/>
+      <c r="W16" s="222"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A17" s="175"/>
-      <c r="B17" s="198" t="s">
+      <c r="A17" s="173"/>
+      <c r="B17" s="196" t="s">
         <v>133</v>
       </c>
-      <c r="C17" s="198" t="str">
-        <f>Currency&amp;B17&amp;"_Mx"&amp;QuoteSuffix</f>
+      <c r="C17" s="196" t="str">
+        <f t="shared" si="0"/>
         <v>EUR9MD_Mx_Quote</v>
       </c>
-      <c r="D17" s="199" t="str">
+      <c r="D17" s="197" t="str">
         <f>_xll.qlSimpleQuote(C17,,0.01%,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR9MD_Mx_Quote#0003</v>
-      </c>
-      <c r="E17" s="200" t="str">
+        <v>EUR9MD_Mx_Quote#0001</v>
+      </c>
+      <c r="E17" s="198" t="str">
         <f>_xll.ohRangeRetrieveError(D17)</f>
         <v/>
       </c>
       <c r="F17" s="16"/>
-      <c r="G17" s="224"/>
-      <c r="H17" s="175"/>
-      <c r="I17" s="209" t="s">
+      <c r="G17" s="222"/>
+      <c r="H17" s="173"/>
+      <c r="I17" s="207" t="s">
         <v>142</v>
       </c>
-      <c r="J17" s="218" t="str">
-        <f>Currency&amp;"X"&amp;I17&amp;"D="</f>
+      <c r="J17" s="216" t="str">
+        <f t="shared" si="1"/>
         <v>EURX9MD=</v>
       </c>
-      <c r="K17" s="210">
+      <c r="K17" s="208">
+        <v>0.10800000000000001</v>
+      </c>
+      <c r="L17" s="204"/>
+      <c r="M17" s="209">
         <v>0.15</v>
       </c>
-      <c r="L17" s="206"/>
-      <c r="M17" s="211">
-        <v>0.15</v>
-      </c>
-      <c r="N17" s="206"/>
-      <c r="O17" s="221">
-        <v>0.15</v>
-      </c>
-      <c r="P17" s="212" t="e">
+      <c r="N17" s="204"/>
+      <c r="O17" s="219">
+        <v>0.10800000000000001</v>
+      </c>
+      <c r="P17" s="210" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D17,O17/100,Trigger)</f>
         <v>#N/A</v>
       </c>
       <c r="Q17" s="16"/>
-      <c r="R17" s="224"/>
-      <c r="S17" s="224"/>
-      <c r="T17" s="224"/>
-      <c r="U17" s="224"/>
-      <c r="V17" s="224"/>
-      <c r="W17" s="224"/>
+      <c r="R17" s="222"/>
+      <c r="S17" s="222"/>
+      <c r="T17" s="222"/>
+      <c r="U17" s="222"/>
+      <c r="V17" s="222"/>
+      <c r="W17" s="222"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A18" s="175"/>
-      <c r="B18" s="198" t="s">
+      <c r="A18" s="173"/>
+      <c r="B18" s="196" t="s">
         <v>134</v>
       </c>
-      <c r="C18" s="198" t="str">
-        <f>Currency&amp;B18&amp;"_Mx"&amp;QuoteSuffix</f>
+      <c r="C18" s="196" t="str">
+        <f t="shared" si="0"/>
         <v>EUR10MD_Mx_Quote</v>
       </c>
-      <c r="D18" s="199" t="str">
+      <c r="D18" s="197" t="str">
         <f>_xll.qlSimpleQuote(C18,,0.01%,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR10MD_Mx_Quote#0003</v>
-      </c>
-      <c r="E18" s="200" t="str">
+        <v>EUR10MD_Mx_Quote#0001</v>
+      </c>
+      <c r="E18" s="198" t="str">
         <f>_xll.ohRangeRetrieveError(D18)</f>
         <v/>
       </c>
       <c r="F18" s="16"/>
-      <c r="G18" s="224"/>
-      <c r="H18" s="175"/>
-      <c r="I18" s="209" t="s">
+      <c r="G18" s="222"/>
+      <c r="H18" s="173"/>
+      <c r="I18" s="207" t="s">
         <v>143</v>
       </c>
-      <c r="J18" s="218" t="str">
-        <f>Currency&amp;"X"&amp;I18&amp;"D="</f>
+      <c r="J18" s="216" t="str">
+        <f t="shared" si="1"/>
         <v>EURX10MD=</v>
       </c>
-      <c r="K18" s="210">
+      <c r="K18" s="208">
+        <v>0.126</v>
+      </c>
+      <c r="L18" s="204"/>
+      <c r="M18" s="209">
         <v>0.16999999999999998</v>
       </c>
-      <c r="L18" s="206"/>
-      <c r="M18" s="211">
-        <v>0.16999999999999998</v>
-      </c>
-      <c r="N18" s="206"/>
-      <c r="O18" s="221">
-        <v>0.16999999999999998</v>
-      </c>
-      <c r="P18" s="212" t="e">
+      <c r="N18" s="204"/>
+      <c r="O18" s="219">
+        <v>0.126</v>
+      </c>
+      <c r="P18" s="210" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D18,O18/100,Trigger)</f>
         <v>#N/A</v>
       </c>
       <c r="Q18" s="16"/>
-      <c r="R18" s="224"/>
-      <c r="S18" s="224"/>
-      <c r="T18" s="224"/>
-      <c r="U18" s="224"/>
-      <c r="V18" s="224"/>
-      <c r="W18" s="224"/>
+      <c r="R18" s="222"/>
+      <c r="S18" s="222"/>
+      <c r="T18" s="222"/>
+      <c r="U18" s="222"/>
+      <c r="V18" s="222"/>
+      <c r="W18" s="222"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A19" s="175"/>
-      <c r="B19" s="198" t="s">
+      <c r="A19" s="173"/>
+      <c r="B19" s="196" t="s">
         <v>135</v>
       </c>
-      <c r="C19" s="198" t="str">
-        <f>Currency&amp;B19&amp;"_Mx"&amp;QuoteSuffix</f>
+      <c r="C19" s="196" t="str">
+        <f t="shared" si="0"/>
         <v>EUR11MD_Mx_Quote</v>
       </c>
-      <c r="D19" s="199" t="str">
+      <c r="D19" s="197" t="str">
         <f>_xll.qlSimpleQuote(C19,,0.01%,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR11MD_Mx_Quote#0003</v>
-      </c>
-      <c r="E19" s="200" t="str">
+        <v>EUR11MD_Mx_Quote#0001</v>
+      </c>
+      <c r="E19" s="198" t="str">
         <f>_xll.ohRangeRetrieveError(D19)</f>
         <v/>
       </c>
       <c r="F19" s="16"/>
-      <c r="G19" s="224"/>
-      <c r="H19" s="175"/>
-      <c r="I19" s="209" t="s">
+      <c r="G19" s="222"/>
+      <c r="H19" s="173"/>
+      <c r="I19" s="207" t="s">
         <v>144</v>
       </c>
-      <c r="J19" s="218" t="str">
-        <f>Currency&amp;"X"&amp;I19&amp;"D="</f>
+      <c r="J19" s="216" t="str">
+        <f t="shared" si="1"/>
         <v>EURX11MD=</v>
       </c>
-      <c r="K19" s="210">
-        <v>0.2</v>
-      </c>
-      <c r="L19" s="206"/>
-      <c r="M19" s="211">
+      <c r="K19" s="208">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="L19" s="204"/>
+      <c r="M19" s="209">
         <v>0.19</v>
       </c>
-      <c r="N19" s="206"/>
-      <c r="O19" s="221">
-        <v>0.2</v>
-      </c>
-      <c r="P19" s="212" t="e">
+      <c r="N19" s="204"/>
+      <c r="O19" s="219">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="P19" s="210" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D19,O19/100,Trigger)</f>
         <v>#N/A</v>
       </c>
       <c r="Q19" s="16"/>
-      <c r="R19" s="224"/>
-      <c r="S19" s="224"/>
-      <c r="T19" s="224"/>
-      <c r="U19" s="224"/>
-      <c r="V19" s="224"/>
-      <c r="W19" s="224"/>
+      <c r="R19" s="222"/>
+      <c r="S19" s="222"/>
+      <c r="T19" s="222"/>
+      <c r="U19" s="222"/>
+      <c r="V19" s="222"/>
+      <c r="W19" s="222"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A20" s="175"/>
-      <c r="B20" s="198" t="s">
+      <c r="A20" s="173"/>
+      <c r="B20" s="196" t="s">
         <v>136</v>
       </c>
-      <c r="C20" s="198" t="str">
-        <f>Currency&amp;B20&amp;"_Mx"&amp;QuoteSuffix</f>
+      <c r="C20" s="196" t="str">
+        <f t="shared" si="0"/>
         <v>EUR1YD_Mx_Quote</v>
       </c>
-      <c r="D20" s="199" t="str">
+      <c r="D20" s="197" t="str">
         <f>_xll.qlSimpleQuote(C20,,0.01%,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EUR1YD_Mx_Quote#0003</v>
-      </c>
-      <c r="E20" s="200" t="str">
+        <v>EUR1YD_Mx_Quote#0001</v>
+      </c>
+      <c r="E20" s="198" t="str">
         <f>_xll.ohRangeRetrieveError(D20)</f>
         <v/>
       </c>
       <c r="F20" s="16"/>
-      <c r="G20" s="224"/>
-      <c r="H20" s="175"/>
-      <c r="I20" s="209" t="s">
+      <c r="G20" s="222"/>
+      <c r="H20" s="173"/>
+      <c r="I20" s="207" t="s">
         <v>29</v>
       </c>
-      <c r="J20" s="218" t="str">
-        <f>Currency&amp;"X"&amp;I20&amp;"D="</f>
+      <c r="J20" s="216" t="str">
+        <f t="shared" si="1"/>
         <v>EURX1YD=</v>
       </c>
-      <c r="K20" s="210">
+      <c r="K20" s="208">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="L20" s="204"/>
+      <c r="M20" s="211">
         <v>0.22000000000000003</v>
       </c>
-      <c r="L20" s="206"/>
-      <c r="M20" s="213">
-        <v>0.22000000000000003</v>
-      </c>
-      <c r="N20" s="206"/>
-      <c r="O20" s="222">
-        <v>0.22000000000000003</v>
-      </c>
-      <c r="P20" s="214" t="e">
+      <c r="N20" s="204"/>
+      <c r="O20" s="220">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="P20" s="212" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D20,O20/100,Trigger)</f>
         <v>#N/A</v>
       </c>
       <c r="Q20" s="16"/>
-      <c r="R20" s="224"/>
-      <c r="S20" s="224"/>
+      <c r="R20" s="222"/>
+      <c r="S20" s="222"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A21" s="175"/>
-      <c r="B21" s="201" t="s">
+      <c r="A21" s="173"/>
+      <c r="B21" s="199" t="s">
         <v>137</v>
       </c>
-      <c r="C21" s="201" t="str">
-        <f>Currency&amp;B21&amp;"_Mx"&amp;QuoteSuffix</f>
+      <c r="C21" s="199" t="str">
+        <f t="shared" si="0"/>
         <v>EURSTUB_Mx_Quote</v>
       </c>
-      <c r="D21" s="202" t="str">
+      <c r="D21" s="200" t="str">
         <f>_xll.qlSimpleQuote(C21,,0.01%,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>EURSTUB_Mx_Quote#0003</v>
-      </c>
-      <c r="E21" s="203" t="str">
+        <v>EURSTUB_Mx_Quote#0001</v>
+      </c>
+      <c r="E21" s="201" t="str">
         <f>_xll.ohRangeRetrieveError(D21)</f>
         <v/>
       </c>
       <c r="F21" s="16"/>
-      <c r="G21" s="224"/>
-      <c r="H21" s="175"/>
-      <c r="I21" s="215" t="s">
+      <c r="G21" s="222"/>
+      <c r="H21" s="173"/>
+      <c r="I21" s="213" t="s">
         <v>137</v>
       </c>
-      <c r="J21" s="219" t="str">
-        <f>Currency&amp;"X"&amp;I21&amp;"D="</f>
+      <c r="J21" s="217" t="str">
+        <f t="shared" si="1"/>
         <v>EURXSTUBD=</v>
       </c>
-      <c r="K21" s="216">
+      <c r="K21" s="214">
         <f>$M$24</f>
-        <v>0.10866666699999999</v>
-      </c>
-      <c r="L21" s="206"/>
-      <c r="M21" s="213">
+        <v>0.10072727300000001</v>
+      </c>
+      <c r="L21" s="204"/>
+      <c r="M21" s="211">
         <v>0.12129032300000001</v>
       </c>
-      <c r="N21" s="206"/>
-      <c r="O21" s="222">
-        <v>0.10866666699999999</v>
-      </c>
-      <c r="P21" s="214" t="e">
+      <c r="N21" s="204"/>
+      <c r="O21" s="220">
+        <v>0.10072727300000001</v>
+      </c>
+      <c r="P21" s="212" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D21,O21/100,Trigger)</f>
         <v>#N/A</v>
       </c>
       <c r="Q21" s="16"/>
-      <c r="R21" s="224"/>
-      <c r="S21" s="224"/>
+      <c r="R21" s="222"/>
+      <c r="S21" s="222"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A22" s="177"/>
-      <c r="B22" s="177"/>
-      <c r="C22" s="177"/>
-      <c r="D22" s="177"/>
-      <c r="E22" s="177"/>
-      <c r="F22" s="178"/>
-      <c r="G22" s="224"/>
-      <c r="H22" s="179"/>
-      <c r="I22" s="177"/>
-      <c r="J22" s="177"/>
-      <c r="K22" s="177"/>
-      <c r="L22" s="177"/>
-      <c r="M22" s="177"/>
-      <c r="N22" s="177"/>
-      <c r="O22" s="177"/>
-      <c r="P22" s="177"/>
-      <c r="Q22" s="178"/>
-      <c r="R22" s="224"/>
-      <c r="S22" s="224"/>
-      <c r="T22" s="224"/>
-      <c r="U22" s="224"/>
-      <c r="V22" s="224"/>
-      <c r="W22" s="224"/>
+      <c r="A22" s="175"/>
+      <c r="B22" s="175"/>
+      <c r="C22" s="175"/>
+      <c r="D22" s="175"/>
+      <c r="E22" s="175"/>
+      <c r="F22" s="176"/>
+      <c r="G22" s="222"/>
+      <c r="H22" s="177"/>
+      <c r="I22" s="175"/>
+      <c r="J22" s="175"/>
+      <c r="K22" s="175"/>
+      <c r="L22" s="175"/>
+      <c r="M22" s="175"/>
+      <c r="N22" s="175"/>
+      <c r="O22" s="175"/>
+      <c r="P22" s="175"/>
+      <c r="Q22" s="176"/>
+      <c r="R22" s="222"/>
+      <c r="S22" s="222"/>
+      <c r="T22" s="222"/>
+      <c r="U22" s="222"/>
+      <c r="V22" s="222"/>
+      <c r="W22" s="222"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="J23" s="225" t="str">
+      <c r="J23" s="223" t="str">
         <f>_xll.RData(J24,K23:L23,"RTFEED:DTSIMI1","FRQ:1S",,K24)</f>
-        <v>Not Signed In</v>
-      </c>
-      <c r="K23" s="226" t="s">
+        <v>Paused at 16:50:53</v>
+      </c>
+      <c r="K23" s="224" t="s">
         <v>145</v>
       </c>
-      <c r="L23" s="227" t="s">
+      <c r="L23" s="225" t="s">
         <v>153</v>
       </c>
-      <c r="M23" s="227" t="s">
+      <c r="M23" s="225" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="J24" s="228" t="str">
+      <c r="J24" s="226" t="str">
         <f>$J$21</f>
         <v>EURXSTUBD=</v>
       </c>
-      <c r="K24" s="227">
-        <v>0.11866666699999999</v>
-      </c>
-      <c r="L24" s="227">
-        <v>9.8666667E-2</v>
-      </c>
-      <c r="M24" s="227">
+      <c r="K24" s="228">
+        <v>0.110727273</v>
+      </c>
+      <c r="L24" s="228">
+        <v>9.0727273000000011E-2</v>
+      </c>
+      <c r="M24" s="228">
         <f>AVERAGE(K24,L24)</f>
-        <v>0.10866666699999999</v>
+        <v>0.10072727300000001</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="E32" s="223"/>
+      <c r="E32" s="221"/>
     </row>
     <row r="33" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E33" s="223"/>
+      <c r="E33" s="221"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/QuantLibXL/Data2/XLS/EUR/EUR_YCSTDBootstrapping_Mx.xlsx
+++ b/QuantLibXL/Data2/XLS/EUR/EUR_YCSTDBootstrapping_Mx.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="19230" windowHeight="5685"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="19140" windowHeight="12960"/>
   </bookViews>
   <sheets>
     <sheet name="GeneralSettings" sheetId="1" r:id="rId1"/>
@@ -118,6 +118,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Ferdinando Ametrano</author>
+    <author>MAZZOCCHI PAOLO</author>
   </authors>
   <commentList>
     <comment ref="AF3" authorId="0">
@@ -172,12 +173,26 @@
         </r>
       </text>
     </comment>
+    <comment ref="AF12" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Check if there are more recent values available</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="161">
   <si>
     <t>3M</t>
   </si>
@@ -278,9 +293,6 @@
     <t>SettlementDate</t>
   </si>
   <si>
-    <t>Discount</t>
-  </si>
-  <si>
     <t>Code</t>
   </si>
   <si>
@@ -626,9 +638,6 @@
     <t>Change</t>
   </si>
   <si>
-    <t>185D</t>
-  </si>
-  <si>
     <t>Business Day Convention</t>
   </si>
   <si>
@@ -651,13 +660,28 @@
   </si>
   <si>
     <t>STD</t>
+  </si>
+  <si>
+    <t>IMM Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First used Imm </t>
+  </si>
+  <si>
+    <t>Mx Convexity</t>
+  </si>
+  <si>
+    <t>Zero Rate</t>
+  </si>
+  <si>
+    <t>Stub</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="17">
+  <numFmts count="18">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
     <numFmt numFmtId="165" formatCode="0.0000%"/>
     <numFmt numFmtId="166" formatCode="0.00000%"/>
@@ -675,8 +699,9 @@
     <numFmt numFmtId="178" formatCode="dd\-mmm\-yy"/>
     <numFmt numFmtId="179" formatCode="0.0000"/>
     <numFmt numFmtId="180" formatCode="0.0000E+00"/>
+    <numFmt numFmtId="181" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -743,6 +768,13 @@
       <color indexed="10"/>
       <name val="Courier New"/>
       <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="12">
@@ -1057,7 +1089,7 @@
     <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="231">
+  <cellXfs count="238">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1456,9 +1488,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1491,12 +1520,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="3" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -1533,11 +1556,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1547,6 +1565,45 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1580,15 +1637,15 @@
   <volType type="realTimeData">
     <main first="pldatasource.rdatartdserver">
       <tp t="s">
-        <v>Paused at 16:50:53</v>
+        <v>Paused at 10:59:27</v>
         <stp/>
-        <stp>{56515643-F5E2-49CB-8BF4-C944491D6B3B}</stp>
-        <tr r="J23" s="16"/>
+        <stp>{533A68F8-6D28-4489-A943-917DB82DB048}</stp>
+        <tr r="J24" s="16"/>
       </tp>
       <tp t="s">
-        <v>Paused at 16:50:53</v>
+        <v>Paused at 10:49:43</v>
         <stp/>
-        <stp>{72A022D7-C89F-46DD-8FDB-AF4FFC80A8C9}</stp>
+        <stp>{2425AE21-59B7-421D-947C-253960E6F2E0}</stp>
         <tr r="J2" s="16"/>
       </tp>
     </main>
@@ -1992,7 +2049,7 @@
         <v>22</v>
       </c>
       <c r="D3" s="76" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E3" s="80"/>
     </row>
@@ -2039,30 +2096,30 @@
       <c r="A8" s="48"/>
       <c r="B8" s="83"/>
       <c r="C8" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E8" s="80"/>
     </row>
     <row r="9" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="84"/>
       <c r="C9" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="19" t="s">
         <v>62</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>63</v>
       </c>
       <c r="E9" s="80"/>
     </row>
     <row r="10" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="84"/>
       <c r="C10" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="149" t="s">
         <v>66</v>
-      </c>
-      <c r="D10" s="149" t="s">
-        <v>67</v>
       </c>
       <c r="E10" s="80"/>
     </row>
@@ -2079,7 +2136,7 @@
       </c>
       <c r="D12" s="13">
         <f>_xll.qlSettingsEvaluationDate(Trigger)</f>
-        <v>42270</v>
+        <v>42271</v>
       </c>
       <c r="E12" s="80"/>
     </row>
@@ -2090,7 +2147,7 @@
       </c>
       <c r="D13" s="15">
         <f>_xll.qlCalendarAdvance(Calendar,Evaluationdate,"2D","F",,Trigger)</f>
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="E13" s="80"/>
     </row>
@@ -2100,7 +2157,7 @@
         <v>14</v>
       </c>
       <c r="D14" s="88" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E14" s="80"/>
     </row>
@@ -2123,7 +2180,7 @@
       </c>
       <c r="D18" s="41" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D20,D21,Calendar,_xll.ohPack(RateHelpersSTD),,,,D22,D23,D24,Permanent,,ObjectOverwrite)</f>
-        <v>_EURSTD#0002</v>
+        <v>_EURSTD#0029</v>
       </c>
       <c r="E18" s="42"/>
     </row>
@@ -2177,7 +2234,7 @@
         <v>16</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E23" s="42"/>
     </row>
@@ -2187,7 +2244,7 @@
         <v>17</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E24" s="42"/>
     </row>
@@ -2201,7 +2258,7 @@
       <c r="B26" s="23"/>
       <c r="C26" s="32">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve_STD)</f>
-        <v>42270</v>
+        <v>42271</v>
       </c>
       <c r="D26" s="33">
         <f>_xll.qlYieldTSDiscount(YieldCurve_STD,C26,,Trigger)</f>
@@ -2214,11 +2271,11 @@
       <c r="B27" s="23"/>
       <c r="C27" s="34">
         <f>_xll.qlTermStructureMaxDate(YieldCurve_STD,Trigger)</f>
-        <v>64194</v>
+        <v>64199</v>
       </c>
       <c r="D27" s="35">
         <f>_xll.qlYieldTSDiscount(YieldCurve_STD,C27,,Trigger)</f>
-        <v>0.40827026530894922</v>
+        <v>0.41048904328016095</v>
       </c>
       <c r="E27" s="42"/>
     </row>
@@ -2237,7 +2294,7 @@
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B29" s="23"/>
       <c r="C29" s="36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D29" s="37" t="b">
         <v>0</v>
@@ -2300,8 +2357,8 @@
     <col min="5" max="5" width="19.28515625" style="50" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="6" max="6" width="20.28515625" style="50" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="7" max="7" width="15.140625" style="50" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="21.42578125" style="52" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="24.42578125" style="47" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="22.42578125" style="52" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="9" style="47" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="10" max="10" width="15.140625" style="47" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="11" max="11" width="2.7109375" style="47" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="5" style="47" hidden="1" customWidth="1" outlineLevel="1"/>
@@ -2329,7 +2386,7 @@
   <sheetData>
     <row r="1" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G1" s="50" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H1" s="50"/>
       <c r="L1" s="65" t="s">
@@ -2355,7 +2412,7 @@
       <c r="AA1" s="64"/>
       <c r="AB1" s="64"/>
       <c r="AC1" s="71" t="s">
-        <v>33</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2366,16 +2423,16 @@
         <v>30</v>
       </c>
       <c r="C2" s="63" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D2" s="63" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E2" s="63" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F2" s="63" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G2" s="63" t="s">
         <v>4</v>
@@ -2394,25 +2451,25 @@
         <v>25</v>
       </c>
       <c r="N2" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="O2" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="P2" s="72" t="s">
         <v>68</v>
       </c>
-      <c r="O2" s="72" t="s">
+      <c r="Q2" s="72" t="s">
+        <v>69</v>
+      </c>
+      <c r="R2" s="72" t="s">
         <v>71</v>
-      </c>
-      <c r="P2" s="72" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q2" s="72" t="s">
-        <v>70</v>
-      </c>
-      <c r="R2" s="72" t="s">
-        <v>72</v>
       </c>
       <c r="S2" s="72" t="s">
         <v>23</v>
       </c>
       <c r="T2" s="72" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="U2" s="89"/>
       <c r="V2" s="72" t="s">
@@ -2422,28 +2479,28 @@
         <v>25</v>
       </c>
       <c r="X2" s="72" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y2" s="74" t="s">
         <v>24</v>
       </c>
       <c r="Z2" s="74" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AA2" s="72" t="s">
         <v>23</v>
       </c>
       <c r="AB2" s="72" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AC2" s="150">
         <f t="array" ref="AC2:AC99">_xll.qlPiecewiseYieldCurveData(YieldCurve_STD,Trigger)</f>
         <v>-1.3180569215266449E-3</v>
       </c>
-      <c r="AE2" s="229" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF2" s="230"/>
+      <c r="AE2" s="223" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF2" s="224"/>
       <c r="AH2" s="151"/>
     </row>
     <row r="3" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2451,16 +2508,16 @@
         <v>27</v>
       </c>
       <c r="B3" s="110" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="56" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" s="123"/>
       <c r="E3" s="123"/>
       <c r="F3" s="123"/>
       <c r="G3" s="55" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H3" s="113" t="str">
         <f>Mx_Deposits!D3</f>
@@ -2469,7 +2526,7 @@
       <c r="I3" s="123"/>
       <c r="J3" s="57" t="str">
         <f>_xll.qlDepositRateHelper(,H3,G3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005c7#0001</v>
+        <v>obj_005ef#0002</v>
       </c>
       <c r="K3" s="49"/>
       <c r="L3" s="66" t="str">
@@ -2478,7 +2535,7 @@
       </c>
       <c r="M3" s="124" t="str">
         <f>IF(ISBLANK(J3),"--",J3)</f>
-        <v>obj_005c7#0001</v>
+        <v>obj_005ef#0002</v>
       </c>
       <c r="N3" s="138" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M3,Trigger),"--")</f>
@@ -2499,11 +2556,11 @@
       </c>
       <c r="S3" s="127">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M3,Trigger),"--")</f>
-        <v>42270</v>
+        <v>42271</v>
       </c>
       <c r="T3" s="127">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M3,Trigger),"--")</f>
-        <v>42271</v>
+        <v>42272</v>
       </c>
       <c r="U3" s="164"/>
       <c r="V3" s="3" t="str">
@@ -2512,7 +2569,7 @@
       </c>
       <c r="W3" s="3" t="str">
         <f t="array" ref="W3:W99">_xll.qlRateHelperSelection(_xll.ohFilter(RateHelpers,IncludeFlag),_xll.ohFilter(Priority,IncludeFlag),$AF$3,$AF$4,$AF$5,$AF$6,_xll.ohFilter(MinDistance,IncludeFlag),Trigger)</f>
-        <v>obj_005c7</v>
+        <v>obj_005ef</v>
       </c>
       <c r="X3" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W3,Trigger),"")</f>
@@ -2528,18 +2585,18 @@
       </c>
       <c r="AA3" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W3,Trigger),"")</f>
-        <v>42270</v>
+        <v>42271</v>
       </c>
       <c r="AB3" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W3,Trigger),"")</f>
-        <v>42271</v>
+        <v>42272</v>
       </c>
       <c r="AC3" s="68">
         <v>-1.3180569215266449E-3</v>
       </c>
       <c r="AD3" s="163"/>
       <c r="AE3" s="103" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AF3" s="104">
         <v>6</v>
@@ -2551,16 +2608,16 @@
         <v>27</v>
       </c>
       <c r="B4" s="110" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C4" s="56" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4" s="123"/>
       <c r="E4" s="123"/>
       <c r="F4" s="123"/>
       <c r="G4" s="55" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H4" s="113" t="str">
         <f>Mx_Deposits!D4</f>
@@ -2569,7 +2626,7 @@
       <c r="I4" s="123"/>
       <c r="J4" s="57" t="str">
         <f>_xll.qlFraRateHelper(,H4,"1D",G4,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005a5#0001</v>
+        <v>obj_005c0#0002</v>
       </c>
       <c r="K4" s="48"/>
       <c r="L4" s="9" t="str">
@@ -2578,7 +2635,7 @@
       </c>
       <c r="M4" s="90" t="str">
         <f t="shared" ref="M4:M21" si="1">IF(ISBLANK(J4),"--",J4)</f>
-        <v>obj_005a5#0001</v>
+        <v>obj_005c0#0002</v>
       </c>
       <c r="N4" s="139" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M4,Trigger),"--")</f>
@@ -2599,11 +2656,11 @@
       </c>
       <c r="S4" s="95">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M4,Trigger),"--")</f>
-        <v>42271</v>
+        <v>42272</v>
       </c>
       <c r="T4" s="95">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M4,Trigger),"--")</f>
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="U4" s="164"/>
       <c r="V4" s="3" t="str">
@@ -2611,7 +2668,7 @@
         <v>Dp</v>
       </c>
       <c r="W4" s="3" t="str">
-        <v>obj_005a5</v>
+        <v>obj_005c0</v>
       </c>
       <c r="X4" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W4,Trigger),"")</f>
@@ -2627,18 +2684,18 @@
       </c>
       <c r="AA4" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W4,Trigger),"")</f>
-        <v>42271</v>
+        <v>42272</v>
       </c>
       <c r="AB4" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W4,Trigger),"")</f>
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="AC4" s="68">
-        <v>-1.3180574284440377E-3</v>
+        <v>-1.3180612516680487E-3</v>
       </c>
       <c r="AD4" s="163"/>
       <c r="AE4" s="103" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AF4" s="104">
         <v>0</v>
@@ -2650,16 +2707,16 @@
         <v>27</v>
       </c>
       <c r="B5" s="112" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D5" s="118"/>
       <c r="E5" s="118"/>
       <c r="F5" s="118"/>
       <c r="G5" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H5" s="115" t="str">
         <f>Mx_Deposits!D5</f>
@@ -2668,7 +2725,7 @@
       <c r="I5" s="118"/>
       <c r="J5" s="2" t="str">
         <f>_xll.qlFraRateHelper(,H5,"2D",G5,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0059a#0001</v>
+        <v>obj_005be#0002</v>
       </c>
       <c r="K5" s="48"/>
       <c r="L5" s="9" t="str">
@@ -2677,7 +2734,7 @@
       </c>
       <c r="M5" s="90" t="str">
         <f t="shared" si="1"/>
-        <v>obj_0059a#0001</v>
+        <v>obj_005be#0002</v>
       </c>
       <c r="N5" s="139" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M5,Trigger),"--")</f>
@@ -2698,11 +2755,11 @@
       </c>
       <c r="S5" s="95">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M5,Trigger),"--")</f>
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="T5" s="95">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M5,Trigger),"--")</f>
-        <v>42275</v>
+        <v>42276</v>
       </c>
       <c r="U5" s="164"/>
       <c r="V5" s="3" t="str">
@@ -2710,7 +2767,7 @@
         <v>Dp</v>
       </c>
       <c r="W5" s="3" t="str">
-        <v>obj_0059a</v>
+        <v>obj_005be</v>
       </c>
       <c r="X5" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W5,Trigger),"")</f>
@@ -2726,18 +2783,18 @@
       </c>
       <c r="AA5" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W5,Trigger),"")</f>
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="AB5" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W5,Trigger),"")</f>
-        <v>42275</v>
+        <v>42276</v>
       </c>
       <c r="AC5" s="68">
-        <v>-1.3180605884300673E-3</v>
+        <v>-1.3180605884141766E-3</v>
       </c>
       <c r="AD5" s="163"/>
       <c r="AE5" s="103" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AF5" s="104">
         <v>5</v>
@@ -2749,10 +2806,10 @@
         <v>27</v>
       </c>
       <c r="B6" s="111" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C6" s="61" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D6" s="117"/>
       <c r="E6" s="117"/>
@@ -2768,7 +2825,7 @@
       <c r="I6" s="117"/>
       <c r="J6" s="62" t="str">
         <f>_xll.qlDepositRateHelper(,H6,G6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00597#0001</v>
+        <v>obj_005c4#0002</v>
       </c>
       <c r="K6" s="48"/>
       <c r="L6" s="9" t="str">
@@ -2777,7 +2834,7 @@
       </c>
       <c r="M6" s="90" t="str">
         <f t="shared" si="1"/>
-        <v>obj_00597#0001</v>
+        <v>obj_005c4#0002</v>
       </c>
       <c r="N6" s="139" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M6,Trigger),"--")</f>
@@ -2798,11 +2855,11 @@
       </c>
       <c r="S6" s="95">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M6,Trigger),"--")</f>
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="T6" s="95">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M6,Trigger),"--")</f>
-        <v>42279</v>
+        <v>42282</v>
       </c>
       <c r="U6" s="164"/>
       <c r="V6" s="3" t="str">
@@ -2810,7 +2867,7 @@
         <v>Dp</v>
       </c>
       <c r="W6" s="3" t="str">
-        <v>obj_00597</v>
+        <v>obj_005c4</v>
       </c>
       <c r="X6" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W6,Trigger),"")</f>
@@ -2826,21 +2883,21 @@
       </c>
       <c r="AA6" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W6,Trigger),"")</f>
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="AB6" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W6,Trigger),"")</f>
-        <v>42279</v>
+        <v>42282</v>
       </c>
       <c r="AC6" s="68">
-        <v>-1.0814895643963339E-3</v>
+        <v>-1.1245032935199061E-3</v>
       </c>
       <c r="AD6" s="163"/>
       <c r="AE6" s="103" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AF6" s="105" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AH6" s="151"/>
     </row>
@@ -2849,10 +2906,10 @@
         <v>27</v>
       </c>
       <c r="B7" s="111" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C7" s="61" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D7" s="117"/>
       <c r="E7" s="117"/>
@@ -2868,7 +2925,7 @@
       <c r="I7" s="117"/>
       <c r="J7" s="62" t="str">
         <f>_xll.qlDepositRateHelper(,H7,G7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005a6#0001</v>
+        <v>obj_005c8#0002</v>
       </c>
       <c r="K7" s="48"/>
       <c r="L7" s="9" t="str">
@@ -2877,7 +2934,7 @@
       </c>
       <c r="M7" s="90" t="str">
         <f t="shared" si="1"/>
-        <v>obj_005a6#0001</v>
+        <v>obj_005c8#0002</v>
       </c>
       <c r="N7" s="139" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M7,Trigger),"--")</f>
@@ -2898,11 +2955,11 @@
       </c>
       <c r="S7" s="95">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M7,Trigger),"--")</f>
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="T7" s="95">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M7,Trigger),"--")</f>
-        <v>42286</v>
+        <v>42289</v>
       </c>
       <c r="U7" s="164"/>
       <c r="V7" s="3" t="str">
@@ -2910,7 +2967,7 @@
         <v>Dp</v>
       </c>
       <c r="W7" s="3" t="str">
-        <v>obj_005a6</v>
+        <v>obj_005c8</v>
       </c>
       <c r="X7" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W7,Trigger),"")</f>
@@ -2926,43 +2983,43 @@
       </c>
       <c r="AA7" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W7,Trigger),"")</f>
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="AB7" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W7,Trigger),"")</f>
-        <v>42286</v>
+        <v>42289</v>
       </c>
       <c r="AC7" s="68">
-        <v>-1.1406461074390489E-3</v>
+        <v>-1.1603593260458526E-3</v>
       </c>
       <c r="AD7" s="163"/>
       <c r="AH7" s="151"/>
     </row>
     <row r="8" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="178" t="s">
+      <c r="A8" s="177" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="179" t="s">
-        <v>139</v>
-      </c>
-      <c r="C8" s="180" t="s">
-        <v>139</v>
-      </c>
-      <c r="D8" s="181"/>
-      <c r="E8" s="181"/>
-      <c r="F8" s="181"/>
-      <c r="G8" s="182" t="str">
+      <c r="B8" s="178" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8" s="179" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" s="180"/>
+      <c r="E8" s="180"/>
+      <c r="F8" s="180"/>
+      <c r="G8" s="181" t="str">
         <f>_xll.qlEuribor(,C8,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00582#0001</v>
-      </c>
-      <c r="H8" s="183" t="str">
+        <v>obj_005a3#0001</v>
+      </c>
+      <c r="H8" s="182" t="str">
         <f>Mx_Deposits!D8</f>
         <v>EUR3WD_Mx_Quote#0001</v>
       </c>
-      <c r="I8" s="181"/>
-      <c r="J8" s="184" t="str">
+      <c r="I8" s="180"/>
+      <c r="J8" s="183" t="str">
         <f>_xll.qlDepositRateHelper(,H8,G8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00596#0001</v>
+        <v>obj_005c1#0002</v>
       </c>
       <c r="K8" s="48"/>
       <c r="L8" s="9" t="str">
@@ -2971,7 +3028,7 @@
       </c>
       <c r="M8" s="90" t="str">
         <f t="shared" si="1"/>
-        <v>obj_00596#0001</v>
+        <v>obj_005c1#0002</v>
       </c>
       <c r="N8" s="139" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M8,Trigger),"--")</f>
@@ -2992,11 +3049,11 @@
       </c>
       <c r="S8" s="95">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M8,Trigger),"--")</f>
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="T8" s="95">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M8,Trigger),"--")</f>
-        <v>42293</v>
+        <v>42296</v>
       </c>
       <c r="U8" s="164"/>
       <c r="V8" s="3" t="str">
@@ -3004,7 +3061,7 @@
         <v>Dp</v>
       </c>
       <c r="W8" s="3" t="str">
-        <v>obj_00596</v>
+        <v>obj_005c1</v>
       </c>
       <c r="X8" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W8,Trigger),"")</f>
@@ -3020,14 +3077,14 @@
       </c>
       <c r="AA8" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W8,Trigger),"")</f>
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="AB8" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W8,Trigger),"")</f>
-        <v>42293</v>
+        <v>42296</v>
       </c>
       <c r="AC8" s="68">
-        <v>-1.1329434624593813E-3</v>
+        <v>-1.1477531915009389E-3</v>
       </c>
       <c r="AD8" s="163"/>
       <c r="AH8" s="151"/>
@@ -3056,7 +3113,7 @@
       <c r="I9" s="117"/>
       <c r="J9" s="62" t="str">
         <f>_xll.qlDepositRateHelper(,H9,G9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00598#0001</v>
+        <v>obj_005c9#0002</v>
       </c>
       <c r="K9" s="48"/>
       <c r="L9" s="9" t="str">
@@ -3065,7 +3122,7 @@
       </c>
       <c r="M9" s="90" t="str">
         <f t="shared" si="1"/>
-        <v>obj_00598#0001</v>
+        <v>obj_005c9#0002</v>
       </c>
       <c r="N9" s="139" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M9,Trigger),"--")</f>
@@ -3086,11 +3143,11 @@
       </c>
       <c r="S9" s="95">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M9,Trigger),"--")</f>
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="T9" s="95">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M9,Trigger),"--")</f>
-        <v>42303</v>
+        <v>42305</v>
       </c>
       <c r="U9" s="164"/>
       <c r="V9" s="3" t="str">
@@ -3098,7 +3155,7 @@
         <v>Dp</v>
       </c>
       <c r="W9" s="3" t="str">
-        <v>obj_00598</v>
+        <v>obj_005c9</v>
       </c>
       <c r="X9" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W9,Trigger),"")</f>
@@ -3114,14 +3171,14 @@
       </c>
       <c r="AA9" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W9,Trigger),"")</f>
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="AB9" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W9,Trigger),"")</f>
-        <v>42303</v>
+        <v>42305</v>
       </c>
       <c r="AC9" s="68">
-        <v>-1.032364356066108E-3</v>
+        <v>-1.0497111501421394E-3</v>
       </c>
       <c r="AD9" s="163"/>
       <c r="AH9" s="151"/>
@@ -3131,10 +3188,10 @@
         <v>27</v>
       </c>
       <c r="B10" s="111" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" s="61" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" s="117"/>
       <c r="E10" s="117"/>
@@ -3150,7 +3207,7 @@
       <c r="I10" s="117"/>
       <c r="J10" s="62" t="str">
         <f>_xll.qlDepositRateHelper(,H10,G10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005a0#0001</v>
+        <v>obj_005c6#0002</v>
       </c>
       <c r="K10" s="48"/>
       <c r="L10" s="9" t="str">
@@ -3159,7 +3216,7 @@
       </c>
       <c r="M10" s="90" t="str">
         <f t="shared" si="1"/>
-        <v>obj_005a0#0001</v>
+        <v>obj_005c6#0002</v>
       </c>
       <c r="N10" s="139" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M10,Trigger),"--")</f>
@@ -3180,11 +3237,11 @@
       </c>
       <c r="S10" s="95">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M10,Trigger),"--")</f>
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="T10" s="95">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M10,Trigger),"--")</f>
-        <v>42333</v>
+        <v>42338</v>
       </c>
       <c r="U10" s="164"/>
       <c r="V10" s="3" t="str">
@@ -3192,7 +3249,7 @@
         <v>Dp</v>
       </c>
       <c r="W10" s="3" t="str">
-        <v>obj_005a0</v>
+        <v>obj_005c6</v>
       </c>
       <c r="X10" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W10,Trigger),"")</f>
@@ -3208,14 +3265,14 @@
       </c>
       <c r="AA10" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W10,Trigger),"")</f>
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="AB10" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W10,Trigger),"")</f>
-        <v>42333</v>
+        <v>42338</v>
       </c>
       <c r="AC10" s="68">
-        <v>-6.3089420092588748E-4</v>
+        <v>-6.5073518223914342E-4</v>
       </c>
       <c r="AD10" s="163"/>
       <c r="AH10" s="151"/>
@@ -3244,7 +3301,7 @@
       <c r="I11" s="117"/>
       <c r="J11" s="62" t="str">
         <f>_xll.qlDepositRateHelper(,H11,G11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005a2#0001</v>
+        <v>obj_005cd#0002</v>
       </c>
       <c r="K11" s="48"/>
       <c r="L11" s="9" t="str">
@@ -3253,7 +3310,7 @@
       </c>
       <c r="M11" s="90" t="str">
         <f t="shared" si="1"/>
-        <v>obj_005a2#0001</v>
+        <v>obj_005cd#0002</v>
       </c>
       <c r="N11" s="139" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M11,Trigger),"--")</f>
@@ -3274,7 +3331,7 @@
       </c>
       <c r="S11" s="95">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M11,Trigger),"--")</f>
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="T11" s="95">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M11,Trigger),"--")</f>
@@ -3286,7 +3343,7 @@
         <v>Dp</v>
       </c>
       <c r="W11" s="3" t="str">
-        <v>obj_005a2</v>
+        <v>obj_005cd</v>
       </c>
       <c r="X11" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W11,Trigger),"")</f>
@@ -3302,46 +3359,52 @@
       </c>
       <c r="AA11" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W11,Trigger),"")</f>
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="AB11" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W11,Trigger),"")</f>
         <v>42366</v>
       </c>
       <c r="AC11" s="68">
-        <v>-3.2530105648209836E-4</v>
+        <v>-3.4686801292801235E-4</v>
       </c>
       <c r="AD11" s="163"/>
+      <c r="AE11" s="71" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF11" s="71" t="s">
+        <v>158</v>
+      </c>
       <c r="AH11" s="151"/>
     </row>
     <row r="12" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="153" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="185" t="s">
-        <v>109</v>
+      <c r="B12" s="184" t="s">
+        <v>108</v>
       </c>
       <c r="C12" s="154" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D12" s="155"/>
       <c r="E12" s="155"/>
       <c r="F12" s="155"/>
       <c r="G12" s="156" t="str">
         <f>_xll.qlEuribor(,C12,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0058c#0001</v>
-      </c>
-      <c r="H12" s="186" t="str">
+        <v>obj_005aa#0001</v>
+      </c>
+      <c r="H12" s="185" t="str">
         <f>Mx_Deposits!D12</f>
         <v>EUR4MD_Mx_Quote#0001</v>
       </c>
       <c r="I12" s="155"/>
       <c r="J12" s="157" t="str">
         <f>_xll.qlDepositRateHelper(,H12,G12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005a1#0001</v>
+        <v>obj_005ca#0002</v>
       </c>
       <c r="K12" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L12" s="9" t="str">
         <f t="shared" si="0"/>
@@ -3349,7 +3412,7 @@
       </c>
       <c r="M12" s="90" t="str">
         <f t="shared" si="1"/>
-        <v>obj_005a1#0001</v>
+        <v>obj_005ca#0002</v>
       </c>
       <c r="N12" s="139" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M12,Trigger),"--")</f>
@@ -3357,7 +3420,7 @@
       </c>
       <c r="O12" s="94">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M12,Trigger),"--")</f>
-        <v>8.9999999999999992E-5</v>
+        <v>1E-4</v>
       </c>
       <c r="P12" s="93" t="b">
         <v>1</v>
@@ -3370,11 +3433,11 @@
       </c>
       <c r="S12" s="95">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M12,Trigger),"--")</f>
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="T12" s="95">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M12,Trigger),"--")</f>
-        <v>42394</v>
+        <v>42397</v>
       </c>
       <c r="U12" s="164"/>
       <c r="V12" s="3" t="str">
@@ -3382,7 +3445,7 @@
         <v>Dp</v>
       </c>
       <c r="W12" s="3" t="str">
-        <v>obj_005a1</v>
+        <v>obj_005ca</v>
       </c>
       <c r="X12" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W12,Trigger),"")</f>
@@ -3390,7 +3453,7 @@
       </c>
       <c r="Y12" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W12,Trigger),"")</f>
-        <v>8.9999999999999992E-5</v>
+        <v>1E-4</v>
       </c>
       <c r="Z12" s="100" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W12)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W12)),_xll.qlSwapRateHelperSpread($W12))</f>
@@ -3398,43 +3461,50 @@
       </c>
       <c r="AA12" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W12,Trigger),"")</f>
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="AB12" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W12,Trigger),"")</f>
-        <v>42394</v>
+        <v>42397</v>
       </c>
       <c r="AC12" s="68">
-        <v>6.8517865934461744E-5</v>
+        <v>5.6325316262652067E-5</v>
       </c>
       <c r="AD12" s="163"/>
+      <c r="AE12" s="100" t="str">
+        <f>_xll.qlIMMNextCode($E$44-1,TRUE,Trigger)</f>
+        <v>M6</v>
+      </c>
+      <c r="AF12" s="226">
+        <v>0</v>
+      </c>
       <c r="AH12" s="151"/>
     </row>
     <row r="13" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="158" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="187" t="s">
-        <v>110</v>
+      <c r="B13" s="186" t="s">
+        <v>109</v>
       </c>
       <c r="C13" s="159" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D13" s="160"/>
       <c r="E13" s="160"/>
       <c r="F13" s="160"/>
       <c r="G13" s="161" t="str">
         <f>_xll.qlEuribor(,C13,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0057e#0001</v>
-      </c>
-      <c r="H13" s="188" t="str">
+        <v>obj_005af#0001</v>
+      </c>
+      <c r="H13" s="187" t="str">
         <f>Mx_Deposits!D13</f>
         <v>EUR5MD_Mx_Quote#0001</v>
       </c>
       <c r="I13" s="160"/>
       <c r="J13" s="162" t="str">
         <f>_xll.qlDepositRateHelper(,H13,G13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0059e#0001</v>
+        <v>obj_005c2#0002</v>
       </c>
       <c r="K13" s="48"/>
       <c r="L13" s="9" t="str">
@@ -3443,7 +3513,7 @@
       </c>
       <c r="M13" s="90" t="str">
         <f t="shared" si="1"/>
-        <v>obj_0059e#0001</v>
+        <v>obj_005c2#0002</v>
       </c>
       <c r="N13" s="139" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M13,Trigger),"--")</f>
@@ -3451,7 +3521,7 @@
       </c>
       <c r="O13" s="94">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M13,Trigger),"--")</f>
-        <v>2.4000000000000001E-4</v>
+        <v>2.6000000000000003E-4</v>
       </c>
       <c r="P13" s="93" t="b">
         <v>1</v>
@@ -3464,11 +3534,11 @@
       </c>
       <c r="S13" s="95">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M13,Trigger),"--")</f>
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="T13" s="95">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M13,Trigger),"--")</f>
-        <v>42425</v>
+        <v>42429</v>
       </c>
       <c r="U13" s="164"/>
       <c r="V13" s="3" t="str">
@@ -3476,7 +3546,7 @@
         <v>Dp</v>
       </c>
       <c r="W13" s="3" t="str">
-        <v>obj_0059e</v>
+        <v>obj_005c2</v>
       </c>
       <c r="X13" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W13,Trigger),"")</f>
@@ -3484,7 +3554,7 @@
       </c>
       <c r="Y13" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W13,Trigger),"")</f>
-        <v>2.4000000000000001E-4</v>
+        <v>2.6000000000000003E-4</v>
       </c>
       <c r="Z13" s="100" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W13)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W13)),_xll.qlSwapRateHelperSpread($W13))</f>
@@ -3492,16 +3562,23 @@
       </c>
       <c r="AA13" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W13,Trigger),"")</f>
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="AB13" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W13,Trigger),"")</f>
-        <v>42425</v>
+        <v>42429</v>
       </c>
       <c r="AC13" s="68">
-        <v>2.2317410672388543E-4</v>
+        <v>2.2355448529695089E-4</v>
       </c>
       <c r="AD13" s="163"/>
+      <c r="AE13" s="100" t="str">
+        <f>_xll.qlIMMNextCode(_xll.qlIMMdate(AE12,,Trigger),TRUE,Trigger)</f>
+        <v>U6</v>
+      </c>
+      <c r="AF13" s="226">
+        <v>0</v>
+      </c>
       <c r="AH13" s="151"/>
     </row>
     <row r="14" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3528,7 +3605,7 @@
       <c r="I14" s="117"/>
       <c r="J14" s="62" t="str">
         <f>_xll.qlDepositRateHelper(,H14,G14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00595#0001</v>
+        <v>obj_005cb#0002</v>
       </c>
       <c r="K14" s="48"/>
       <c r="L14" s="9" t="str">
@@ -3537,7 +3614,7 @@
       </c>
       <c r="M14" s="90" t="str">
         <f t="shared" si="1"/>
-        <v>obj_00595#0001</v>
+        <v>obj_005cb#0002</v>
       </c>
       <c r="N14" s="139" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M14,Trigger),"--")</f>
@@ -3545,7 +3622,7 @@
       </c>
       <c r="O14" s="94">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M14,Trigger),"--")</f>
-        <v>5.2000000000000006E-4</v>
+        <v>5.5000000000000003E-4</v>
       </c>
       <c r="P14" s="93" t="b">
         <v>1</v>
@@ -3558,7 +3635,7 @@
       </c>
       <c r="S14" s="95">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M14,Trigger),"--")</f>
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="T14" s="95">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M14,Trigger),"--")</f>
@@ -3569,7 +3646,7 @@
         <v>Dp</v>
       </c>
       <c r="W14" s="3" t="str">
-        <v>obj_00595</v>
+        <v>obj_005cb</v>
       </c>
       <c r="X14" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W14,Trigger),"")</f>
@@ -3577,7 +3654,7 @@
       </c>
       <c r="Y14" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W14,Trigger),"")</f>
-        <v>5.2000000000000006E-4</v>
+        <v>5.5000000000000003E-4</v>
       </c>
       <c r="Z14" s="100" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W14)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W14)),_xll.qlSwapRateHelperSpread($W14))</f>
@@ -3585,43 +3662,50 @@
       </c>
       <c r="AA14" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W14,Trigger),"")</f>
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="AB14" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W14,Trigger),"")</f>
         <v>42458</v>
       </c>
       <c r="AC14" s="68">
-        <v>5.0752153010978802E-4</v>
+        <v>5.1744068914125337E-4</v>
       </c>
       <c r="AD14" s="163"/>
+      <c r="AE14" s="100" t="str">
+        <f>_xll.qlIMMNextCode(_xll.qlIMMdate(AE13,,Trigger),TRUE,Trigger)</f>
+        <v>Z6</v>
+      </c>
+      <c r="AF14" s="226">
+        <v>0</v>
+      </c>
       <c r="AH14" s="151"/>
     </row>
     <row r="15" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="153" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="185" t="s">
-        <v>140</v>
+      <c r="B15" s="184" t="s">
+        <v>139</v>
       </c>
       <c r="C15" s="154" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D15" s="155"/>
       <c r="E15" s="155"/>
       <c r="F15" s="155"/>
       <c r="G15" s="156" t="str">
         <f>_xll.qlEuribor(,C15,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00580#0001</v>
-      </c>
-      <c r="H15" s="186" t="str">
+        <v>obj_005b6#0001</v>
+      </c>
+      <c r="H15" s="185" t="str">
         <f>Mx_Deposits!D15</f>
         <v>EUR7MD_Mx_Quote#0001</v>
       </c>
       <c r="I15" s="155"/>
       <c r="J15" s="157" t="str">
         <f>_xll.qlDepositRateHelper(,H15,G15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0059d#0001</v>
+        <v>obj_005bf#0002</v>
       </c>
       <c r="K15" s="48"/>
       <c r="L15" s="9" t="str">
@@ -3630,7 +3714,7 @@
       </c>
       <c r="M15" s="90" t="str">
         <f t="shared" si="1"/>
-        <v>obj_0059d#0001</v>
+        <v>obj_005bf#0002</v>
       </c>
       <c r="N15" s="139" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M15,Trigger),"--")</f>
@@ -3638,7 +3722,7 @@
       </c>
       <c r="O15" s="94">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M15,Trigger),"--")</f>
-        <v>6.9999999999999988E-4</v>
+        <v>7.2999999999999996E-4</v>
       </c>
       <c r="P15" s="93" t="b">
         <v>1</v>
@@ -3651,18 +3735,18 @@
       </c>
       <c r="S15" s="95">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M15,Trigger),"--")</f>
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="T15" s="95">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M15,Trigger),"--")</f>
-        <v>42485</v>
+        <v>42488</v>
       </c>
       <c r="V15" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Dp</v>
       </c>
       <c r="W15" s="3" t="str">
-        <v>obj_0059d</v>
+        <v>obj_005bf</v>
       </c>
       <c r="X15" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W15,Trigger),"")</f>
@@ -3670,7 +3754,7 @@
       </c>
       <c r="Y15" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W15,Trigger),"")</f>
-        <v>6.9999999999999988E-4</v>
+        <v>7.2999999999999996E-4</v>
       </c>
       <c r="Z15" s="100" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W15)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W15)),_xll.qlSwapRateHelperSpread($W15))</f>
@@ -3678,43 +3762,50 @@
       </c>
       <c r="AA15" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W15,Trigger),"")</f>
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="AB15" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W15,Trigger),"")</f>
-        <v>42485</v>
+        <v>42488</v>
       </c>
       <c r="AC15" s="68">
-        <v>6.9071359142965571E-4</v>
+        <v>7.0204286813573165E-4</v>
       </c>
       <c r="AD15" s="163"/>
+      <c r="AE15" s="100" t="str">
+        <f>_xll.qlIMMNextCode(_xll.qlIMMdate(AE14,,Trigger),TRUE,Trigger)</f>
+        <v>H7</v>
+      </c>
+      <c r="AF15" s="226">
+        <v>1.5E-3</v>
+      </c>
       <c r="AH15" s="151"/>
     </row>
     <row r="16" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="158" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="187" t="s">
-        <v>141</v>
+      <c r="B16" s="186" t="s">
+        <v>140</v>
       </c>
       <c r="C16" s="159" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D16" s="160"/>
       <c r="E16" s="160"/>
       <c r="F16" s="160"/>
       <c r="G16" s="161" t="str">
         <f>_xll.qlEuribor(,C16,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0057d#0001</v>
-      </c>
-      <c r="H16" s="188" t="str">
+        <v>obj_005ab#0001</v>
+      </c>
+      <c r="H16" s="187" t="str">
         <f>Mx_Deposits!D16</f>
         <v>EUR8MD_Mx_Quote#0001</v>
       </c>
       <c r="I16" s="160"/>
       <c r="J16" s="162" t="str">
         <f>_xll.qlDepositRateHelper(,H16,G16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005a3#0001</v>
+        <v>obj_005c3#0002</v>
       </c>
       <c r="K16" s="48"/>
       <c r="L16" s="9" t="str">
@@ -3723,7 +3814,7 @@
       </c>
       <c r="M16" s="90" t="str">
         <f t="shared" si="1"/>
-        <v>obj_005a3#0001</v>
+        <v>obj_005c3#0002</v>
       </c>
       <c r="N16" s="139" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M16,Trigger),"--")</f>
@@ -3731,7 +3822,7 @@
       </c>
       <c r="O16" s="94">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M16,Trigger),"--")</f>
-        <v>8.8000000000000014E-4</v>
+        <v>9.2000000000000003E-4</v>
       </c>
       <c r="P16" s="93" t="b">
         <v>1</v>
@@ -3744,18 +3835,18 @@
       </c>
       <c r="S16" s="95">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M16,Trigger),"--")</f>
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="T16" s="95">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M16,Trigger),"--")</f>
-        <v>42515</v>
+        <v>42520</v>
       </c>
       <c r="V16" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Dp</v>
       </c>
       <c r="W16" s="3" t="str">
-        <v>obj_005a3</v>
+        <v>obj_005c3</v>
       </c>
       <c r="X16" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W16,Trigger),"")</f>
@@ -3763,7 +3854,7 @@
       </c>
       <c r="Y16" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W16,Trigger),"")</f>
-        <v>8.8000000000000014E-4</v>
+        <v>9.2000000000000003E-4</v>
       </c>
       <c r="Z16" s="100" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W16)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W16)),_xll.qlSwapRateHelperSpread($W16))</f>
@@ -3771,16 +3862,23 @@
       </c>
       <c r="AA16" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W16,Trigger),"")</f>
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="AB16" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W16,Trigger),"")</f>
-        <v>42515</v>
+        <v>42520</v>
       </c>
       <c r="AC16" s="68">
-        <v>8.7391640024986578E-4</v>
+        <v>8.96332520631659E-4</v>
       </c>
       <c r="AD16" s="163"/>
+      <c r="AE16" s="100" t="str">
+        <f>_xll.qlIMMNextCode(_xll.qlIMMdate(AE15,,Trigger),TRUE,Trigger)</f>
+        <v>M7</v>
+      </c>
+      <c r="AF16" s="226">
+        <v>2E-3</v>
+      </c>
       <c r="AH16" s="151"/>
     </row>
     <row r="17" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3788,10 +3886,10 @@
         <v>27</v>
       </c>
       <c r="B17" s="111" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C17" s="61" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D17" s="117"/>
       <c r="E17" s="117"/>
@@ -3807,7 +3905,7 @@
       <c r="I17" s="117"/>
       <c r="J17" s="62" t="str">
         <f>_xll.qlDepositRateHelper(,H17,G17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0059b#0001</v>
+        <v>obj_005c5#0002</v>
       </c>
       <c r="K17" s="48"/>
       <c r="L17" s="9" t="str">
@@ -3816,7 +3914,7 @@
       </c>
       <c r="M17" s="90" t="str">
         <f t="shared" si="1"/>
-        <v>obj_0059b#0001</v>
+        <v>obj_005c5#0002</v>
       </c>
       <c r="N17" s="139" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M17,Trigger),"--")</f>
@@ -3824,7 +3922,7 @@
       </c>
       <c r="O17" s="94">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M17,Trigger),"--")</f>
-        <v>1.0800000000000002E-3</v>
+        <v>1.1200000000000001E-3</v>
       </c>
       <c r="P17" s="93" t="b">
         <v>1</v>
@@ -3837,18 +3935,18 @@
       </c>
       <c r="S17" s="95">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M17,Trigger),"--")</f>
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="T17" s="95">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M17,Trigger),"--")</f>
-        <v>42548</v>
+        <v>42549</v>
       </c>
       <c r="V17" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>Dp</v>
+        <v>Stub</v>
       </c>
       <c r="W17" s="3" t="str">
-        <v>obj_0059c</v>
+        <v>obj_005ce</v>
       </c>
       <c r="X17" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W17,Trigger),"")</f>
@@ -3856,7 +3954,7 @@
       </c>
       <c r="Y17" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W17,Trigger),"")</f>
-        <v>1.0072727300000001E-3</v>
+        <v>1.03034483E-3</v>
       </c>
       <c r="Z17" s="100" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W17)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W17)),_xll.qlSwapRateHelperSpread($W17))</f>
@@ -3864,43 +3962,50 @@
       </c>
       <c r="AA17" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W17,Trigger),"")</f>
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="AB17" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W17,Trigger),"")</f>
-        <v>42537</v>
+        <v>42536</v>
       </c>
       <c r="AC17" s="68">
-        <v>1.0033640389903687E-3</v>
+        <v>1.0086074327371403E-3</v>
       </c>
       <c r="AD17" s="163"/>
+      <c r="AE17" s="101" t="str">
+        <f>_xll.qlIMMNextCode(_xll.qlIMMdate(AE16,,Trigger),TRUE,Trigger)</f>
+        <v>U7</v>
+      </c>
+      <c r="AF17" s="227">
+        <v>2.5000000000000001E-3</v>
+      </c>
       <c r="AH17" s="151"/>
     </row>
     <row r="18" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="153" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="185" t="s">
-        <v>143</v>
+      <c r="B18" s="184" t="s">
+        <v>142</v>
       </c>
       <c r="C18" s="154" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D18" s="155"/>
       <c r="E18" s="155"/>
       <c r="F18" s="155"/>
       <c r="G18" s="156" t="str">
         <f>_xll.qlEuribor(,C18,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00593#0001</v>
-      </c>
-      <c r="H18" s="186" t="str">
+        <v>obj_005b5#0001</v>
+      </c>
+      <c r="H18" s="185" t="str">
         <f>Mx_Deposits!D18</f>
         <v>EUR10MD_Mx_Quote#0001</v>
       </c>
       <c r="I18" s="155"/>
       <c r="J18" s="157" t="str">
         <f>_xll.qlDepositRateHelper(,H18,G18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00599#0001</v>
+        <v>obj_005bd#0002</v>
       </c>
       <c r="K18" s="48"/>
       <c r="L18" s="9" t="str">
@@ -3909,7 +4014,7 @@
       </c>
       <c r="M18" s="90" t="str">
         <f t="shared" si="1"/>
-        <v>obj_00599#0001</v>
+        <v>obj_005bd#0002</v>
       </c>
       <c r="N18" s="139" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M18,Trigger),"--")</f>
@@ -3917,7 +4022,7 @@
       </c>
       <c r="O18" s="94">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M18,Trigger),"--")</f>
-        <v>1.2600000000000001E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="P18" s="93" t="b">
         <v>1</v>
@@ -3930,18 +4035,18 @@
       </c>
       <c r="S18" s="95">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M18,Trigger),"--")</f>
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="T18" s="95">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M18,Trigger),"--")</f>
-        <v>42576</v>
+        <v>42579</v>
       </c>
       <c r="V18" s="3" t="str">
         <f t="shared" si="2"/>
         <v>FUT</v>
       </c>
       <c r="W18" s="3" t="str">
-        <v>obj_005dc</v>
+        <v>obj_00604</v>
       </c>
       <c r="X18" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W18,Trigger),"")</f>
@@ -3949,7 +4054,7 @@
       </c>
       <c r="Y18" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W18,Trigger),"")</f>
-        <v>-5.7499999999999218E-4</v>
+        <v>-5.2500000000010871E-4</v>
       </c>
       <c r="Z18" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W18)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W18)),_xll.qlSwapRateHelperSpread($W18))</f>
@@ -3964,7 +4069,7 @@
         <v>42628</v>
       </c>
       <c r="AC18" s="68">
-        <v>5.9131573040104143E-4</v>
+        <v>6.1150378415299102E-4</v>
       </c>
       <c r="AD18" s="163"/>
       <c r="AH18" s="151"/>
@@ -3973,27 +4078,27 @@
       <c r="A19" s="158" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="187" t="s">
-        <v>144</v>
+      <c r="B19" s="186" t="s">
+        <v>143</v>
       </c>
       <c r="C19" s="159" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D19" s="160"/>
       <c r="E19" s="160"/>
       <c r="F19" s="160"/>
       <c r="G19" s="161" t="str">
         <f>_xll.qlEuribor(,C19,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00592#0001</v>
-      </c>
-      <c r="H19" s="188" t="str">
+        <v>obj_005b2#0001</v>
+      </c>
+      <c r="H19" s="187" t="str">
         <f>Mx_Deposits!D19</f>
         <v>EUR11MD_Mx_Quote#0001</v>
       </c>
       <c r="I19" s="160"/>
       <c r="J19" s="162" t="str">
         <f>_xll.qlDepositRateHelper(,H19,G19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005a4#0001</v>
+        <v>obj_005c7#0002</v>
       </c>
       <c r="K19" s="48"/>
       <c r="L19" s="9" t="str">
@@ -4002,7 +4107,7 @@
       </c>
       <c r="M19" s="90" t="str">
         <f t="shared" si="1"/>
-        <v>obj_005a4#0001</v>
+        <v>obj_005c7#0002</v>
       </c>
       <c r="N19" s="139" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M19,Trigger),"--")</f>
@@ -4010,7 +4115,7 @@
       </c>
       <c r="O19" s="94">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M19,Trigger),"--")</f>
-        <v>1.4499999999999999E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="P19" s="93" t="b">
         <v>1</v>
@@ -4023,18 +4128,18 @@
       </c>
       <c r="S19" s="95">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M19,Trigger),"--")</f>
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="T19" s="95">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M19,Trigger),"--")</f>
-        <v>42607</v>
+        <v>42611</v>
       </c>
       <c r="V19" s="3" t="str">
         <f t="shared" si="2"/>
         <v>FUT</v>
       </c>
       <c r="W19" s="3" t="str">
-        <v>obj_005d6</v>
+        <v>obj_005fe</v>
       </c>
       <c r="X19" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W19,Trigger),"")</f>
@@ -4042,7 +4147,7 @@
       </c>
       <c r="Y19" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W19,Trigger),"")</f>
-        <v>-5.2500000000010871E-4</v>
+        <v>-4.750000000000032E-4</v>
       </c>
       <c r="Z19" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W19)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W19)),_xll.qlSwapRateHelperSpread($W19))</f>
@@ -4057,7 +4162,7 @@
         <v>42725</v>
       </c>
       <c r="AC19" s="68">
-        <v>3.5488765277773277E-4</v>
+        <v>3.8099595312756924E-4</v>
       </c>
       <c r="AD19" s="163"/>
       <c r="AH19" s="151"/>
@@ -4086,7 +4191,7 @@
       <c r="I20" s="117"/>
       <c r="J20" s="62" t="str">
         <f>_xll.qlDepositRateHelper(,H20,G20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0059f#0001</v>
+        <v>obj_005cc#0002</v>
       </c>
       <c r="K20" s="48"/>
       <c r="L20" s="9" t="str">
@@ -4095,7 +4200,7 @@
       </c>
       <c r="M20" s="90" t="str">
         <f t="shared" si="1"/>
-        <v>obj_0059f#0001</v>
+        <v>obj_005cc#0002</v>
       </c>
       <c r="N20" s="139" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M20,Trigger),"--")</f>
@@ -4103,7 +4208,7 @@
       </c>
       <c r="O20" s="94">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M20,Trigger),"--")</f>
-        <v>1.64E-3</v>
+        <v>1.6899999999999999E-3</v>
       </c>
       <c r="P20" s="93" t="b">
         <v>1</v>
@@ -4116,18 +4221,18 @@
       </c>
       <c r="S20" s="95">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M20,Trigger),"--")</f>
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="T20" s="95">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M20,Trigger),"--")</f>
-        <v>42639</v>
+        <v>42641</v>
       </c>
       <c r="V20" s="3" t="str">
         <f t="shared" si="2"/>
         <v>FUT</v>
       </c>
       <c r="W20" s="3" t="str">
-        <v>obj_005cf</v>
+        <v>obj_005f6</v>
       </c>
       <c r="X20" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W20,Trigger),"")</f>
@@ -4135,7 +4240,7 @@
       </c>
       <c r="Y20" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W20,Trigger),"")</f>
-        <v>-3.7500000000001421E-4</v>
+        <v>-3.249999999999087E-4</v>
       </c>
       <c r="Z20" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W20)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W20)),_xll.qlSwapRateHelperSpread($W20))</f>
@@ -4150,20 +4255,22 @@
         <v>42815</v>
       </c>
       <c r="AC20" s="68">
-        <v>2.3349271164773989E-4</v>
+        <v>2.6344615406510895E-4</v>
       </c>
       <c r="AD20" s="163"/>
       <c r="AH20" s="151"/>
     </row>
     <row r="21" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="106" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="189" t="s">
-        <v>149</v>
-      </c>
-      <c r="C21" s="107" t="s">
-        <v>149</v>
+        <v>160</v>
+      </c>
+      <c r="B21" s="188" t="str">
+        <f>(_xll.qlCalendarBusinessDaysBetween(Calendar,Settlementdate,E44,Trigger)-1)&amp;"D"</f>
+        <v>183D</v>
+      </c>
+      <c r="C21" s="107" t="str">
+        <f>B21</f>
+        <v>183D</v>
       </c>
       <c r="D21" s="107" t="b">
         <v>0</v>
@@ -4175,25 +4282,25 @@
         <v>28</v>
       </c>
       <c r="G21" s="108" t="s">
-        <v>137</v>
-      </c>
-      <c r="H21" s="190" t="str">
+        <v>136</v>
+      </c>
+      <c r="H21" s="189" t="str">
         <f>Mx_Deposits!D21</f>
         <v>EURSTUB_Mx_Quote#0001</v>
       </c>
       <c r="I21" s="116"/>
       <c r="J21" s="109" t="str">
         <f>_xll.qlDepositRateHelper2(,H21,C21,2,Calendar,E21,D21,F21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0059c#0001</v>
+        <v>obj_005ce#0003</v>
       </c>
       <c r="K21" s="48"/>
       <c r="L21" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>Dp</v>
+        <v>Stub</v>
       </c>
       <c r="M21" s="91" t="str">
         <f t="shared" si="1"/>
-        <v>obj_0059c#0001</v>
+        <v>obj_005ce#0003</v>
       </c>
       <c r="N21" s="140" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M21,Trigger),"--")</f>
@@ -4201,7 +4308,7 @@
       </c>
       <c r="O21" s="97">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M21,Trigger),"--")</f>
-        <v>1.0072727300000001E-3</v>
+        <v>1.03034483E-3</v>
       </c>
       <c r="P21" s="96" t="b">
         <v>1</v>
@@ -4214,18 +4321,18 @@
       </c>
       <c r="S21" s="98">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M21,Trigger),"--")</f>
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="T21" s="98">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M21,Trigger),"--")</f>
-        <v>42537</v>
+        <v>42536</v>
       </c>
       <c r="V21" s="3" t="str">
         <f t="shared" si="2"/>
         <v>FUT</v>
       </c>
       <c r="W21" s="3" t="str">
-        <v>obj_005cc</v>
+        <v>obj_005f4</v>
       </c>
       <c r="X21" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W21,Trigger),"")</f>
@@ -4233,11 +4340,11 @@
       </c>
       <c r="Y21" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W21,Trigger),"")</f>
-        <v>-9.9999999999988987E-5</v>
+        <v>-3.9999999999941734E-5</v>
       </c>
       <c r="Z21" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W21)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W21)),_xll.qlSwapRateHelperSpread($W21))</f>
-        <v>0</v>
+        <v>1.5E-5</v>
       </c>
       <c r="AA21" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W21,Trigger),"")</f>
@@ -4248,7 +4355,7 @@
         <v>42901</v>
       </c>
       <c r="AC21" s="68">
-        <v>1.9157971385055711E-4</v>
+        <v>2.2574447636457837E-4</v>
       </c>
       <c r="AD21" s="163"/>
       <c r="AH21" s="151"/>
@@ -4302,7 +4409,7 @@
         <v>FUT</v>
       </c>
       <c r="W22" s="3" t="str">
-        <v>obj_005db</v>
+        <v>obj_00603</v>
       </c>
       <c r="X22" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W22,Trigger),"")</f>
@@ -4310,11 +4417,11 @@
       </c>
       <c r="Y22" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W22,Trigger),"")</f>
-        <v>2.7500000000002522E-4</v>
+        <v>3.0500000000001972E-4</v>
       </c>
       <c r="Z22" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W22)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W22)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W22)),_xll.qlSwapRateHelperSpread($W22))</f>
-        <v>0</v>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="AA22" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W22,Trigger),"")</f>
@@ -4325,7 +4432,7 @@
         <v>42999</v>
       </c>
       <c r="AC22" s="68">
-        <v>2.0321037160719337E-4</v>
+        <v>2.3689025180487829E-4</v>
       </c>
       <c r="AD22" s="163"/>
       <c r="AH22" s="151"/>
@@ -4335,10 +4442,10 @@
         <v>9</v>
       </c>
       <c r="B23" s="63" t="s">
+        <v>112</v>
+      </c>
+      <c r="C23" s="63" t="s">
         <v>113</v>
-      </c>
-      <c r="C23" s="63" t="s">
-        <v>114</v>
       </c>
       <c r="D23" s="63"/>
       <c r="E23" s="63"/>
@@ -4392,7 +4499,7 @@
         <v>FUT</v>
       </c>
       <c r="W23" s="3" t="str">
-        <v>obj_005d5</v>
+        <v>obj_005fd</v>
       </c>
       <c r="X23" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W23,Trigger),"")</f>
@@ -4400,11 +4507,11 @@
       </c>
       <c r="Y23" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W23,Trigger),"")</f>
-        <v>6.7499999999998117E-4</v>
+        <v>6.9999999999986468E-4</v>
       </c>
       <c r="Z23" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W23)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W23)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W23)),_xll.qlSwapRateHelperSpread($W23))</f>
-        <v>0</v>
+        <v>2.5000000000000001E-5</v>
       </c>
       <c r="AA23" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W23,Trigger),"")</f>
@@ -4415,14 +4522,14 @@
         <v>43089</v>
       </c>
       <c r="AC23" s="68">
-        <v>2.5656112799061375E-4</v>
+        <v>2.8938329891613484E-4</v>
       </c>
       <c r="AD23" s="163"/>
       <c r="AH23" s="151"/>
     </row>
     <row r="24" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="53" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B24" s="110">
         <v>1</v>
@@ -4444,7 +4551,7 @@
       </c>
       <c r="I24" s="123"/>
       <c r="J24" s="57" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K24" s="48"/>
       <c r="L24" s="9" t="str">
@@ -4485,7 +4592,7 @@
         <v>Sw</v>
       </c>
       <c r="W24" s="3" t="str">
-        <v>obj_005bb</v>
+        <v>obj_005d1</v>
       </c>
       <c r="X24" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W24,Trigger),"")</f>
@@ -4493,7 +4600,7 @@
       </c>
       <c r="Y24" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W24,Trigger),"")</f>
-        <v>1.2800000000000001E-3</v>
+        <v>1.32E-3</v>
       </c>
       <c r="Z24" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W24)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W24)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W24)),_xll.qlSwapRateHelperSpread($W24))</f>
@@ -4501,21 +4608,21 @@
       </c>
       <c r="AA24" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W24,Trigger),"")</f>
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="AB24" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W24,Trigger),"")</f>
-        <v>43368</v>
+        <v>43371</v>
       </c>
       <c r="AC24" s="68">
-        <v>1.3072044946034873E-3</v>
+        <v>1.3095924569536091E-3</v>
       </c>
       <c r="AD24" s="163"/>
       <c r="AH24" s="151"/>
     </row>
     <row r="25" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="58" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B25" s="111">
         <v>2</v>
@@ -4576,7 +4683,7 @@
         <v>Sw</v>
       </c>
       <c r="W25" s="3" t="str">
-        <v>obj_005b3</v>
+        <v>obj_005d0</v>
       </c>
       <c r="X25" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W25,Trigger),"")</f>
@@ -4584,7 +4691,7 @@
       </c>
       <c r="Y25" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W25,Trigger),"")</f>
-        <v>2.3899999999999998E-3</v>
+        <v>2.4099999999999998E-3</v>
       </c>
       <c r="Z25" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W25)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W25)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W25)),_xll.qlSwapRateHelperSpread($W25))</f>
@@ -4592,21 +4699,21 @@
       </c>
       <c r="AA25" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W25,Trigger),"")</f>
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="AB25" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W25,Trigger),"")</f>
-        <v>43733</v>
+        <v>43738</v>
       </c>
       <c r="AC25" s="68">
-        <v>2.4107312622728182E-3</v>
+        <v>2.400989128450725E-3</v>
       </c>
       <c r="AD25" s="163"/>
       <c r="AH25" s="151"/>
     </row>
     <row r="26" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="58" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B26" s="111">
         <v>3</v>
@@ -4667,7 +4774,7 @@
         <v>Sw</v>
       </c>
       <c r="W26" s="3" t="str">
-        <v>obj_005b9</v>
+        <v>obj_005dc</v>
       </c>
       <c r="X26" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W26,Trigger),"")</f>
@@ -4675,7 +4782,7 @@
       </c>
       <c r="Y26" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W26,Trigger),"")</f>
-        <v>3.6800000000000001E-3</v>
+        <v>3.6700000000000001E-3</v>
       </c>
       <c r="Z26" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W26)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W26)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W26)),_xll.qlSwapRateHelperSpread($W26))</f>
@@ -4683,21 +4790,21 @@
       </c>
       <c r="AA26" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W26,Trigger),"")</f>
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="AB26" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W26,Trigger),"")</f>
-        <v>44099</v>
+        <v>44102</v>
       </c>
       <c r="AC26" s="68">
-        <v>3.7000280343199138E-3</v>
+        <v>3.6645880640709177E-3</v>
       </c>
       <c r="AD26" s="163"/>
       <c r="AH26" s="151"/>
     </row>
     <row r="27" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="58" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B27" s="111">
         <v>4</v>
@@ -4758,7 +4865,7 @@
         <v>Sw</v>
       </c>
       <c r="W27" s="3" t="str">
-        <v>obj_005ba</v>
+        <v>obj_005de</v>
       </c>
       <c r="X27" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W27,Trigger),"")</f>
@@ -4766,7 +4873,7 @@
       </c>
       <c r="Y27" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W27,Trigger),"")</f>
-        <v>5.0200000000000002E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="Z27" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W27)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W27)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W27)),_xll.qlSwapRateHelperSpread($W27))</f>
@@ -4774,21 +4881,21 @@
       </c>
       <c r="AA27" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W27,Trigger),"")</f>
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="AB27" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W27,Trigger),"")</f>
-        <v>44466</v>
+        <v>44467</v>
       </c>
       <c r="AC27" s="68">
-        <v>5.0494075475303411E-3</v>
+        <v>5.0066882113487107E-3</v>
       </c>
       <c r="AD27" s="163"/>
       <c r="AH27" s="151"/>
     </row>
     <row r="28" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="58" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B28" s="111">
         <v>5</v>
@@ -4849,7 +4956,7 @@
         <v>Sw</v>
       </c>
       <c r="W28" s="3" t="str">
-        <v>obj_005bf</v>
+        <v>obj_005e8</v>
       </c>
       <c r="X28" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W28,Trigger),"")</f>
@@ -4857,7 +4964,7 @@
       </c>
       <c r="Y28" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W28,Trigger),"")</f>
-        <v>6.3599999999999993E-3</v>
+        <v>6.3299999999999997E-3</v>
       </c>
       <c r="Z28" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W28)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W28)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W28)),_xll.qlSwapRateHelperSpread($W28))</f>
@@ -4865,21 +4972,21 @@
       </c>
       <c r="AA28" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W28,Trigger),"")</f>
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="AB28" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W28,Trigger),"")</f>
-        <v>44830</v>
+        <v>44832</v>
       </c>
       <c r="AC28" s="68">
-        <v>6.4080744729809675E-3</v>
+        <v>6.3571006395426516E-3</v>
       </c>
       <c r="AD28" s="163"/>
       <c r="AH28" s="151"/>
     </row>
     <row r="29" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="58" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B29" s="111">
         <v>6</v>
@@ -4940,7 +5047,7 @@
         <v>Sw</v>
       </c>
       <c r="W29" s="3" t="str">
-        <v>obj_005b1</v>
+        <v>obj_005db</v>
       </c>
       <c r="X29" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W29,Trigger),"")</f>
@@ -4948,7 +5055,7 @@
       </c>
       <c r="Y29" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W29,Trigger),"")</f>
-        <v>7.6499999999999988E-3</v>
+        <v>7.6099999999999987E-3</v>
       </c>
       <c r="Z29" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W29)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W29)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W29)),_xll.qlSwapRateHelperSpread($W29))</f>
@@ -4956,21 +5063,21 @@
       </c>
       <c r="AA29" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W29,Trigger),"")</f>
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="AB29" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W29,Trigger),"")</f>
-        <v>45194</v>
+        <v>45197</v>
       </c>
       <c r="AC29" s="68">
-        <v>7.7259658490480441E-3</v>
+        <v>7.6661162612250162E-3</v>
       </c>
       <c r="AD29" s="163"/>
       <c r="AH29" s="151"/>
     </row>
     <row r="30" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="58" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B30" s="111">
         <v>7</v>
@@ -5031,7 +5138,7 @@
         <v>Sw</v>
       </c>
       <c r="W30" s="3" t="str">
-        <v>obj_005b4</v>
+        <v>obj_005e0</v>
       </c>
       <c r="X30" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W30,Trigger),"")</f>
@@ -5039,7 +5146,7 @@
       </c>
       <c r="Y30" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W30,Trigger),"")</f>
-        <v>8.8400000000000006E-3</v>
+        <v>8.8000000000000005E-3</v>
       </c>
       <c r="Z30" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W30)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W30)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W30)),_xll.qlSwapRateHelperSpread($W30))</f>
@@ -5047,21 +5154,21 @@
       </c>
       <c r="AA30" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W30,Trigger),"")</f>
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="AB30" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W30,Trigger),"")</f>
-        <v>45560</v>
+        <v>45565</v>
       </c>
       <c r="AC30" s="68">
-        <v>8.9485900852184358E-3</v>
+        <v>8.8898800909487687E-3</v>
       </c>
       <c r="AD30" s="163"/>
       <c r="AH30" s="151"/>
     </row>
     <row r="31" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="58" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B31" s="111">
         <v>8</v>
@@ -5122,7 +5229,7 @@
         <v>Sw</v>
       </c>
       <c r="W31" s="3" t="str">
-        <v>obj_005b6</v>
+        <v>obj_005d5</v>
       </c>
       <c r="X31" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W31,Trigger),"")</f>
@@ -5130,7 +5237,7 @@
       </c>
       <c r="Y31" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W31,Trigger),"")</f>
-        <v>9.8999999999999991E-3</v>
+        <v>9.8499999999999994E-3</v>
       </c>
       <c r="Z31" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W31)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W31)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W31)),_xll.qlSwapRateHelperSpread($W31))</f>
@@ -5138,21 +5245,21 @@
       </c>
       <c r="AA31" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W31,Trigger),"")</f>
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="AB31" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W31,Trigger),"")</f>
-        <v>45925</v>
+        <v>45929</v>
       </c>
       <c r="AC31" s="68">
-        <v>1.004853505493635E-2</v>
+        <v>9.9803129128340929E-3</v>
       </c>
       <c r="AD31" s="163"/>
       <c r="AH31" s="151"/>
     </row>
     <row r="32" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="58" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B32" s="111">
         <v>9</v>
@@ -5213,7 +5320,7 @@
         <v>Sw</v>
       </c>
       <c r="W32" s="3" t="str">
-        <v>obj_005b8</v>
+        <v>obj_005da</v>
       </c>
       <c r="X32" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W32,Trigger),"")</f>
@@ -5221,7 +5328,7 @@
       </c>
       <c r="Y32" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W32,Trigger),"")</f>
-        <v>1.0860000000000002E-2</v>
+        <v>1.0789999999999999E-2</v>
       </c>
       <c r="Z32" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W32)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W32)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W32)),_xll.qlSwapRateHelperSpread($W32))</f>
@@ -5229,20 +5336,20 @@
       </c>
       <c r="AA32" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W32,Trigger),"")</f>
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="AB32" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W32,Trigger),"")</f>
-        <v>46290</v>
+        <v>46293</v>
       </c>
       <c r="AC32" s="68">
-        <v>1.1052856795162203E-2</v>
+        <v>1.096412244984466E-2</v>
       </c>
       <c r="AD32" s="163"/>
     </row>
     <row r="33" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="58" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B33" s="111">
         <v>10</v>
@@ -5303,7 +5410,7 @@
         <v>Sw</v>
       </c>
       <c r="W33" s="3" t="str">
-        <v>obj_005c4</v>
+        <v>obj_005e2</v>
       </c>
       <c r="X33" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W33,Trigger),"")</f>
@@ -5311,7 +5418,7 @@
       </c>
       <c r="Y33" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W33,Trigger),"")</f>
-        <v>1.171E-2</v>
+        <v>1.163E-2</v>
       </c>
       <c r="Z33" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W33)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W33)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W33)),_xll.qlSwapRateHelperSpread($W33))</f>
@@ -5319,20 +5426,20 @@
       </c>
       <c r="AA33" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W33,Trigger),"")</f>
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="AB33" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W33,Trigger),"")</f>
-        <v>46657</v>
+        <v>46658</v>
       </c>
       <c r="AC33" s="68">
-        <v>1.1948799501942487E-2</v>
+        <v>1.1850005917914805E-2</v>
       </c>
       <c r="AD33" s="163"/>
     </row>
     <row r="34" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="58" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B34" s="111">
         <v>11</v>
@@ -5393,7 +5500,7 @@
         <v>Sw</v>
       </c>
       <c r="W34" s="3" t="str">
-        <v>obj_005c2</v>
+        <v>obj_005ee</v>
       </c>
       <c r="X34" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W34,Trigger),"")</f>
@@ -5401,7 +5508,7 @@
       </c>
       <c r="Y34" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W34,Trigger),"")</f>
-        <v>1.2450000000000001E-2</v>
+        <v>1.2359999999999999E-2</v>
       </c>
       <c r="Z34" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W34)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W34)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W34)),_xll.qlSwapRateHelperSpread($W34))</f>
@@ -5409,20 +5516,20 @@
       </c>
       <c r="AA34" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W34,Trigger),"")</f>
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="AB34" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W34,Trigger),"")</f>
-        <v>47021</v>
+        <v>47024</v>
       </c>
       <c r="AC34" s="68">
-        <v>1.2731625477171592E-2</v>
+        <v>1.2622337418620023E-2</v>
       </c>
       <c r="AD34" s="163"/>
     </row>
     <row r="35" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="58" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B35" s="111">
         <v>12</v>
@@ -5483,7 +5590,7 @@
         <v>Sw</v>
       </c>
       <c r="W35" s="3" t="str">
-        <v>obj_005b5</v>
+        <v>obj_005d3</v>
       </c>
       <c r="X35" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W35,Trigger),"")</f>
@@ -5491,7 +5598,7 @@
       </c>
       <c r="Y35" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W35,Trigger),"")</f>
-        <v>1.307E-2</v>
+        <v>1.298E-2</v>
       </c>
       <c r="Z35" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W35)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W35)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W35)),_xll.qlSwapRateHelperSpread($W35))</f>
@@ -5499,20 +5606,20 @@
       </c>
       <c r="AA35" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W35,Trigger),"")</f>
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="AB35" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W35,Trigger),"")</f>
-        <v>47386</v>
+        <v>47389</v>
       </c>
       <c r="AC35" s="68">
-        <v>1.3392620374080646E-2</v>
+        <v>1.3283919469376966E-2</v>
       </c>
       <c r="AD35" s="163"/>
     </row>
     <row r="36" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="58" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B36" s="111">
         <v>13</v>
@@ -5573,7 +5680,7 @@
         <v>Sw</v>
       </c>
       <c r="W36" s="3" t="str">
-        <v>obj_005ae</v>
+        <v>obj_005e5</v>
       </c>
       <c r="X36" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W36,Trigger),"")</f>
@@ -5581,7 +5688,7 @@
       </c>
       <c r="Y36" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W36,Trigger),"")</f>
-        <v>1.359E-2</v>
+        <v>1.3500000000000002E-2</v>
       </c>
       <c r="Z36" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W36)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W36)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W36)),_xll.qlSwapRateHelperSpread($W36))</f>
@@ -5589,20 +5696,20 @@
       </c>
       <c r="AA36" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W36,Trigger),"")</f>
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="AB36" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W36,Trigger),"")</f>
-        <v>47751</v>
+        <v>47756</v>
       </c>
       <c r="AC36" s="68">
-        <v>1.3948733102349207E-2</v>
+        <v>1.3840491673804882E-2</v>
       </c>
       <c r="AD36" s="163"/>
     </row>
     <row r="37" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="58" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B37" s="111">
         <v>14</v>
@@ -5663,7 +5770,7 @@
         <v>Sw</v>
       </c>
       <c r="W37" s="3" t="str">
-        <v>obj_005be</v>
+        <v>obj_005d6</v>
       </c>
       <c r="X37" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W37,Trigger),"")</f>
@@ -5671,7 +5778,7 @@
       </c>
       <c r="Y37" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W37,Trigger),"")</f>
-        <v>1.4030000000000001E-2</v>
+        <v>1.3940000000000001E-2</v>
       </c>
       <c r="Z37" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W37)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W37)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W37)),_xll.qlSwapRateHelperSpread($W37))</f>
@@ -5679,20 +5786,20 @@
       </c>
       <c r="AA37" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W37,Trigger),"")</f>
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="AB37" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W37,Trigger),"")</f>
-        <v>48116</v>
+        <v>48120</v>
       </c>
       <c r="AC37" s="68">
-        <v>1.4420303964073095E-2</v>
+        <v>1.4312725423553035E-2</v>
       </c>
       <c r="AD37" s="163"/>
     </row>
     <row r="38" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="58" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B38" s="111">
         <v>15</v>
@@ -5753,7 +5860,7 @@
         <v>Sw</v>
       </c>
       <c r="W38" s="3" t="str">
-        <v>obj_005aa</v>
+        <v>obj_005dd</v>
       </c>
       <c r="X38" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W38,Trigger),"")</f>
@@ -5761,7 +5868,7 @@
       </c>
       <c r="Y38" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W38,Trigger),"")</f>
-        <v>1.44E-2</v>
+        <v>1.431E-2</v>
       </c>
       <c r="Z38" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W38)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W38)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W38)),_xll.qlSwapRateHelperSpread($W38))</f>
@@ -5769,20 +5876,20 @@
       </c>
       <c r="AA38" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W38,Trigger),"")</f>
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="AB38" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W38,Trigger),"")</f>
-        <v>48484</v>
+        <v>48485</v>
       </c>
       <c r="AC38" s="68">
-        <v>1.4814416819105577E-2</v>
+        <v>1.4707624463393477E-2</v>
       </c>
       <c r="AD38" s="163"/>
     </row>
     <row r="39" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="58" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B39" s="111">
         <v>16</v>
@@ -5843,7 +5950,7 @@
         <v>Sw</v>
       </c>
       <c r="W39" s="3" t="str">
-        <v>obj_005a8</v>
+        <v>obj_005e9</v>
       </c>
       <c r="X39" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W39,Trigger),"")</f>
@@ -5851,7 +5958,7 @@
       </c>
       <c r="Y39" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W39,Trigger),"")</f>
-        <v>1.47E-2</v>
+        <v>1.4609999999999998E-2</v>
       </c>
       <c r="Z39" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W39)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W39)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W39)),_xll.qlSwapRateHelperSpread($W39))</f>
@@ -5859,20 +5966,20 @@
       </c>
       <c r="AA39" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W39,Trigger),"")</f>
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="AB39" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W39,Trigger),"")</f>
-        <v>48848</v>
+        <v>48850</v>
       </c>
       <c r="AC39" s="68">
-        <v>1.5134626829913234E-2</v>
+        <v>1.5028290933760605E-2</v>
       </c>
       <c r="AD39" s="163"/>
     </row>
     <row r="40" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="58" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B40" s="111">
         <v>17</v>
@@ -5896,12 +6003,12 @@
       <c r="J40" s="62"/>
       <c r="K40" s="48"/>
       <c r="L40" s="66" t="str">
-        <f t="shared" ref="L40:L61" si="8">A44</f>
+        <f>A47</f>
         <v>FUT</v>
       </c>
       <c r="M40" s="124" t="str">
-        <f t="shared" ref="M40:M61" si="9">IF(ISBLANK(J44),"--",J44)</f>
-        <v>obj_005d3#0001</v>
+        <f>IF(ISBLANK(J47),"--",J47)</f>
+        <v>obj_005fb#0010</v>
       </c>
       <c r="N40" s="138" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M40,Trigger),"--")</f>
@@ -5912,6 +6019,7 @@
         <v>100.0425</v>
       </c>
       <c r="P40" s="125" t="b">
+        <f>IF($T$21&gt;S40,FALSE,TRUE)</f>
         <v>0</v>
       </c>
       <c r="Q40" s="124">
@@ -5933,7 +6041,7 @@
         <v>Sw</v>
       </c>
       <c r="W40" s="3" t="str">
-        <v>obj_005ad</v>
+        <v>obj_005e3</v>
       </c>
       <c r="X40" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W40,Trigger),"")</f>
@@ -5941,7 +6049,7 @@
       </c>
       <c r="Y40" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W40,Trigger),"")</f>
-        <v>1.4929999999999999E-2</v>
+        <v>1.4849999999999999E-2</v>
       </c>
       <c r="Z40" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W40)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W40)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W40)),_xll.qlSwapRateHelperSpread($W40))</f>
@@ -5949,20 +6057,20 @@
       </c>
       <c r="AA40" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W40,Trigger),"")</f>
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="AB40" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W40,Trigger),"")</f>
-        <v>49212</v>
+        <v>49215</v>
       </c>
       <c r="AC40" s="68">
-        <v>1.5376600778594202E-2</v>
+        <v>1.5282524356744816E-2</v>
       </c>
       <c r="AD40" s="163"/>
     </row>
     <row r="41" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B41" s="112">
         <v>18</v>
@@ -5985,12 +6093,12 @@
       <c r="I41" s="118"/>
       <c r="J41" s="2"/>
       <c r="L41" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f>A48</f>
         <v>FUT</v>
       </c>
       <c r="M41" s="90" t="str">
-        <f t="shared" si="9"/>
-        <v>obj_005c8#0001</v>
+        <f>IF(ISBLANK(J48),"--",J48)</f>
+        <v>obj_005f0#0008</v>
       </c>
       <c r="N41" s="139" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M41,Trigger),"--")</f>
@@ -6001,6 +6109,7 @@
         <v>100.0425</v>
       </c>
       <c r="P41" s="93" t="b">
+        <f t="shared" ref="P41:P61" si="8">IF($T$21&gt;S41,FALSE,TRUE)</f>
         <v>0</v>
       </c>
       <c r="Q41" s="90">
@@ -6022,7 +6131,7 @@
         <v>Sw</v>
       </c>
       <c r="W41" s="3" t="str">
-        <v>obj_005ac</v>
+        <v>obj_005df</v>
       </c>
       <c r="X41" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W41,Trigger),"")</f>
@@ -6030,7 +6139,7 @@
       </c>
       <c r="Y41" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W41,Trigger),"")</f>
-        <v>1.5110000000000002E-2</v>
+        <v>1.5030000000000002E-2</v>
       </c>
       <c r="Z41" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W41)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W41)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W41)),_xll.qlSwapRateHelperSpread($W41))</f>
@@ -6038,36 +6147,25 @@
       </c>
       <c r="AA41" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W41,Trigger),"")</f>
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="AB41" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W41,Trigger),"")</f>
-        <v>49577</v>
+        <v>49580</v>
       </c>
       <c r="AC41" s="68">
-        <v>1.5562567567235456E-2</v>
+        <v>1.5469006683633988E-2</v>
       </c>
       <c r="AD41" s="163"/>
     </row>
     <row r="42" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="47"/>
-      <c r="C42" s="47"/>
-      <c r="D42" s="47"/>
-      <c r="E42" s="47"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="H42" s="47" t="s">
-        <v>82</v>
-      </c>
       <c r="L42" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f>A49</f>
         <v>FUT</v>
       </c>
       <c r="M42" s="90" t="str">
-        <f t="shared" si="9"/>
-        <v>obj_005dd#0001</v>
+        <f>IF(ISBLANK(J49),"--",J49)</f>
+        <v>obj_00605#0008</v>
       </c>
       <c r="N42" s="139" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M42,Trigger),"--")</f>
@@ -6078,6 +6176,7 @@
         <v>100.0475</v>
       </c>
       <c r="P42" s="93" t="b">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q42" s="90">
@@ -6099,7 +6198,7 @@
         <v>Sw</v>
       </c>
       <c r="W42" s="3" t="str">
-        <v>obj_005c0</v>
+        <v>obj_005ea</v>
       </c>
       <c r="X42" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W42,Trigger),"")</f>
@@ -6107,7 +6206,7 @@
       </c>
       <c r="Y42" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W42,Trigger),"")</f>
-        <v>1.525E-2</v>
+        <v>1.5169999999999999E-2</v>
       </c>
       <c r="Z42" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W42)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W42)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W42)),_xll.qlSwapRateHelperSpread($W42))</f>
@@ -6115,49 +6214,31 @@
       </c>
       <c r="AA42" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W42,Trigger),"")</f>
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="AB42" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W42,Trigger),"")</f>
-        <v>49943</v>
+        <v>49947</v>
       </c>
       <c r="AC42" s="68">
-        <v>1.5701524672114921E-2</v>
+        <v>1.5608421474789667E-2</v>
       </c>
       <c r="AD42" s="163"/>
     </row>
     <row r="43" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="63" t="s">
-        <v>9</v>
-      </c>
-      <c r="B43" s="63" t="s">
-        <v>84</v>
-      </c>
-      <c r="C43" s="63" t="s">
-        <v>34</v>
-      </c>
-      <c r="D43" s="63"/>
-      <c r="E43" s="63"/>
-      <c r="F43" s="63"/>
-      <c r="G43" s="63" t="s">
-        <v>4</v>
-      </c>
-      <c r="H43" s="63" t="s">
-        <v>1</v>
-      </c>
-      <c r="I43" s="63" t="s">
-        <v>83</v>
-      </c>
-      <c r="J43" s="63" t="s">
-        <v>25</v>
+      <c r="D43" s="63" t="s">
+        <v>156</v>
+      </c>
+      <c r="E43" s="63" t="s">
+        <v>157</v>
       </c>
       <c r="L43" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f>A50</f>
         <v>FUT</v>
       </c>
       <c r="M43" s="90" t="str">
-        <f t="shared" si="9"/>
-        <v>obj_005d7#0001</v>
+        <f>IF(ISBLANK(J50),"--",J50)</f>
+        <v>obj_005ff#0008</v>
       </c>
       <c r="N43" s="139" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M43,Trigger),"--")</f>
@@ -6168,6 +6249,7 @@
         <v>--</v>
       </c>
       <c r="P43" s="93" t="b">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q43" s="90">
@@ -6189,7 +6271,7 @@
         <v>Sw</v>
       </c>
       <c r="W43" s="3" t="str">
-        <v>obj_005b7</v>
+        <v>obj_005d8</v>
       </c>
       <c r="X43" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W43,Trigger),"")</f>
@@ -6197,7 +6279,7 @@
       </c>
       <c r="Y43" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W43,Trigger),"")</f>
-        <v>1.5339999999999999E-2</v>
+        <v>1.5260000000000001E-2</v>
       </c>
       <c r="Z43" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W43)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W43)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W43)),_xll.qlSwapRateHelperSpread($W43))</f>
@@ -6205,54 +6287,33 @@
       </c>
       <c r="AA43" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W43,Trigger),"")</f>
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="AB43" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W43,Trigger),"")</f>
-        <v>50308</v>
+        <v>50311</v>
       </c>
       <c r="AC43" s="68">
-        <v>1.5784710187168906E-2</v>
+        <v>1.5692188762998927E-2</v>
       </c>
       <c r="AD43" s="163"/>
     </row>
     <row r="44" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="53" t="s">
-        <v>81</v>
-      </c>
-      <c r="B44" s="110" t="b">
-        <v>0</v>
-      </c>
-      <c r="C44" s="56" t="str">
-        <f>_xll.qlIMMNextCode(Evaluationdate-1,B44,Trigger)</f>
-        <v>V5</v>
-      </c>
-      <c r="D44" s="123"/>
-      <c r="E44" s="123"/>
-      <c r="F44" s="123"/>
-      <c r="G44" s="55" t="str">
-        <f t="shared" ref="G44:G65" si="10">PROPER(Currency)&amp;FamilyName&amp;$G$42</f>
-        <v>Euribor3M</v>
-      </c>
-      <c r="H44" s="113" t="str">
-        <f t="shared" ref="H44:H65" si="11">Currency&amp;"FUT"&amp;$G$42&amp;$C44&amp;QuoteSuffix</f>
-        <v>EURFUT3MV5_Quote</v>
-      </c>
-      <c r="I44" s="113" t="str">
-        <f t="shared" ref="I44:I65" si="12">Currency&amp;"FUT"&amp;$G$42&amp;$C44&amp;"ConvAdj"&amp;QuoteSuffix</f>
-        <v>EURFUT3MV5ConvAdj_Quote</v>
-      </c>
-      <c r="J44" s="57" t="str">
-        <f>_xll.qlFuturesRateHelper(,H44,,C44,G44,I44,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005d3#0001</v>
+      <c r="D44" s="108" t="str">
+        <f>_xll.qlIMMNextCode(_xll.qlIMMNextCode(_xll.qlIMMNextCode(Settlementdate+2,TRUE,),TRUE,),TRUE,)</f>
+        <v>M6</v>
+      </c>
+      <c r="E44" s="225">
+        <f>_xll.qlIMMdate(D44,,Trigger)</f>
+        <v>42536</v>
       </c>
       <c r="L44" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f>A51</f>
         <v>FUT</v>
       </c>
       <c r="M44" s="90" t="str">
-        <f t="shared" si="9"/>
-        <v>obj_005ce#0001</v>
+        <f>IF(ISBLANK(J51),"--",J51)</f>
+        <v>obj_005f7#0008</v>
       </c>
       <c r="N44" s="139" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M44,Trigger),"--")</f>
@@ -6263,6 +6324,7 @@
         <v>--</v>
       </c>
       <c r="P44" s="93" t="b">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q44" s="90">
@@ -6284,7 +6346,7 @@
         <v>Sw</v>
       </c>
       <c r="W44" s="3" t="str">
-        <v>obj_005b2</v>
+        <v>obj_005ed</v>
       </c>
       <c r="X44" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W44,Trigger),"")</f>
@@ -6292,7 +6354,7 @@
       </c>
       <c r="Y44" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W44,Trigger),"")</f>
-        <v>1.541E-2</v>
+        <v>1.532E-2</v>
       </c>
       <c r="Z44" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W44)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W44)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W44)),_xll.qlSwapRateHelperSpread($W44))</f>
@@ -6300,54 +6362,36 @@
       </c>
       <c r="AA44" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W44,Trigger),"")</f>
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="AB44" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W44,Trigger),"")</f>
-        <v>50675</v>
+        <v>50676</v>
       </c>
       <c r="AC44" s="68">
-        <v>1.5845665123441814E-2</v>
+        <v>1.5741546538829747E-2</v>
       </c>
       <c r="AD44" s="163"/>
     </row>
     <row r="45" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="58" t="s">
+      <c r="B45" s="47"/>
+      <c r="C45" s="47"/>
+      <c r="D45" s="47"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="H45" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="B45" s="111" t="b">
-        <v>0</v>
-      </c>
-      <c r="C45" s="61" t="str">
-        <f>_xll.qlIMMNextCode(C44,B45,Trigger)</f>
-        <v>X5</v>
-      </c>
-      <c r="D45" s="117"/>
-      <c r="E45" s="117"/>
-      <c r="F45" s="117"/>
-      <c r="G45" s="60" t="str">
-        <f t="shared" si="10"/>
-        <v>Euribor3M</v>
-      </c>
-      <c r="H45" s="114" t="str">
-        <f t="shared" si="11"/>
-        <v>EURFUT3MX5_Quote</v>
-      </c>
-      <c r="I45" s="114" t="str">
-        <f t="shared" si="12"/>
-        <v>EURFUT3MX5ConvAdj_Quote</v>
-      </c>
-      <c r="J45" s="62" t="str">
-        <f>_xll.qlFuturesRateHelper(,H45,,C45,G45,I45,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005c8#0001</v>
-      </c>
       <c r="L45" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f>A52</f>
         <v>FUT</v>
       </c>
       <c r="M45" s="90" t="str">
-        <f t="shared" si="9"/>
-        <v>obj_005cd#0001</v>
+        <f>IF(ISBLANK(J52),"--",J52)</f>
+        <v>obj_005f5#0008</v>
       </c>
       <c r="N45" s="139" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M45,Trigger),"--")</f>
@@ -6358,6 +6402,7 @@
         <v>100.05250000000001</v>
       </c>
       <c r="P45" s="93" t="b">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q45" s="90">
@@ -6379,7 +6424,7 @@
         <v>Sw</v>
       </c>
       <c r="W45" s="3" t="str">
-        <v>obj_005b0</v>
+        <v>obj_005d9</v>
       </c>
       <c r="X45" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W45,Trigger),"")</f>
@@ -6387,7 +6432,7 @@
       </c>
       <c r="Y45" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W45,Trigger),"")</f>
-        <v>1.5449999999999998E-2</v>
+        <v>1.536E-2</v>
       </c>
       <c r="Z45" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W45)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W45)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W45)),_xll.qlSwapRateHelperSpread($W45))</f>
@@ -6395,54 +6440,49 @@
       </c>
       <c r="AA45" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W45,Trigger),"")</f>
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="AB45" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W45,Trigger),"")</f>
-        <v>51039</v>
+        <v>51041</v>
       </c>
       <c r="AC45" s="68">
-        <v>1.5871916407421655E-2</v>
+        <v>1.5768312439626685E-2</v>
       </c>
       <c r="AD45" s="163"/>
     </row>
     <row r="46" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="B46" s="111" t="b">
-        <v>0</v>
-      </c>
-      <c r="C46" s="61" t="str">
-        <f>_xll.qlIMMNextCode(C45,B46,Trigger)</f>
-        <v>Z5</v>
-      </c>
-      <c r="D46" s="117"/>
-      <c r="E46" s="117"/>
-      <c r="F46" s="117"/>
-      <c r="G46" s="60" t="str">
-        <f t="shared" si="10"/>
-        <v>Euribor3M</v>
-      </c>
-      <c r="H46" s="114" t="str">
-        <f t="shared" si="11"/>
-        <v>EURFUT3MZ5_Quote</v>
-      </c>
-      <c r="I46" s="114" t="str">
-        <f t="shared" si="12"/>
-        <v>EURFUT3MZ5ConvAdj_Quote</v>
-      </c>
-      <c r="J46" s="62" t="str">
-        <f>_xll.qlFuturesRateHelper(,H46,,C46,G46,I46,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005dd#0001</v>
+      <c r="A46" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" s="63" t="s">
+        <v>83</v>
+      </c>
+      <c r="C46" s="63" t="s">
+        <v>33</v>
+      </c>
+      <c r="D46" s="63"/>
+      <c r="E46" s="63"/>
+      <c r="F46" s="63"/>
+      <c r="G46" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="H46" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="I46" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="J46" s="63" t="s">
+        <v>25</v>
       </c>
       <c r="L46" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f>A53</f>
         <v>FUT</v>
       </c>
       <c r="M46" s="90" t="str">
-        <f t="shared" si="9"/>
-        <v>obj_005dc#0001</v>
+        <f>IF(ISBLANK(J53),"--",J53)</f>
+        <v>obj_00604#0008</v>
       </c>
       <c r="N46" s="139" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M46,Trigger),"--")</f>
@@ -6450,9 +6490,10 @@
       </c>
       <c r="O46" s="144">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M46,Trigger),"--")</f>
-        <v>100.0575</v>
+        <v>100.05250000000001</v>
       </c>
       <c r="P46" s="93" t="b">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Q46" s="90">
@@ -6474,7 +6515,7 @@
         <v>Sw</v>
       </c>
       <c r="W46" s="3" t="str">
-        <v>obj_005a9</v>
+        <v>obj_005eb</v>
       </c>
       <c r="X46" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W46,Trigger),"")</f>
@@ -6482,7 +6523,7 @@
       </c>
       <c r="Y46" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W46,Trigger),"")</f>
-        <v>1.5480000000000001E-2</v>
+        <v>1.5390000000000001E-2</v>
       </c>
       <c r="Z46" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W46)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W46)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W46)),_xll.qlSwapRateHelperSpread($W46))</f>
@@ -6490,54 +6531,54 @@
       </c>
       <c r="AA46" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W46,Trigger),"")</f>
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="AB46" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W46,Trigger),"")</f>
-        <v>51404</v>
+        <v>51407</v>
       </c>
       <c r="AC46" s="68">
-        <v>1.5885849704561084E-2</v>
+        <v>1.578275049292507E-2</v>
       </c>
       <c r="AD46" s="163"/>
     </row>
     <row r="47" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="B47" s="111" t="b">
-        <v>0</v>
-      </c>
-      <c r="C47" s="61" t="str">
-        <f>_xll.qlIMMNextCode(C46,B47,Trigger)</f>
-        <v>F6</v>
-      </c>
-      <c r="D47" s="117"/>
-      <c r="E47" s="117"/>
-      <c r="F47" s="117"/>
-      <c r="G47" s="60" t="str">
-        <f t="shared" si="10"/>
+      <c r="A47" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="B47" s="110" t="b">
+        <v>0</v>
+      </c>
+      <c r="C47" s="56" t="str">
+        <f>_xll.qlIMMNextCode(Evaluationdate-1,B47,Trigger)</f>
+        <v>V5</v>
+      </c>
+      <c r="D47" s="123"/>
+      <c r="E47" s="123"/>
+      <c r="F47" s="123"/>
+      <c r="G47" s="55" t="str">
+        <f>PROPER(Currency)&amp;FamilyName&amp;$G$45</f>
         <v>Euribor3M</v>
       </c>
-      <c r="H47" s="114" t="str">
-        <f t="shared" si="11"/>
-        <v>EURFUT3MF6_Quote</v>
-      </c>
-      <c r="I47" s="114" t="str">
-        <f t="shared" si="12"/>
-        <v>EURFUT3MF6ConvAdj_Quote</v>
-      </c>
-      <c r="J47" s="62" t="str">
+      <c r="H47" s="113" t="str">
+        <f>Currency&amp;"FUT"&amp;$G$45&amp;$C47&amp;QuoteSuffix</f>
+        <v>EURFUT3MV5_Quote</v>
+      </c>
+      <c r="I47" s="120">
+        <f>IFERROR(INDEX($AF$12:$AF$17,MATCH(C47,$AE$12:$AE$17,0))/100,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J47" s="57" t="str">
         <f>_xll.qlFuturesRateHelper(,H47,,C47,G47,I47,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005d7#0001</v>
+        <v>obj_005fb#0010</v>
       </c>
       <c r="L47" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f>A54</f>
         <v>FUT</v>
       </c>
       <c r="M47" s="90" t="str">
-        <f t="shared" si="9"/>
-        <v>obj_005d6#0001</v>
+        <f>IF(ISBLANK(J54),"--",J54)</f>
+        <v>obj_005fe#0008</v>
       </c>
       <c r="N47" s="139" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M47,Trigger),"--")</f>
@@ -6545,9 +6586,10 @@
       </c>
       <c r="O47" s="144">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M47,Trigger),"--")</f>
-        <v>100.05250000000001</v>
+        <v>100.0475</v>
       </c>
       <c r="P47" s="93" t="b">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Q47" s="90">
@@ -6569,7 +6611,7 @@
         <v>Sw</v>
       </c>
       <c r="W47" s="3" t="str">
-        <v>obj_005c5</v>
+        <v>obj_005d4</v>
       </c>
       <c r="X47" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W47,Trigger),"")</f>
@@ -6577,7 +6619,7 @@
       </c>
       <c r="Y47" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W47,Trigger),"")</f>
-        <v>1.55E-2</v>
+        <v>1.541E-2</v>
       </c>
       <c r="Z47" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W47)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W47)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W47)),_xll.qlSwapRateHelperSpread($W47))</f>
@@ -6585,54 +6627,54 @@
       </c>
       <c r="AA47" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W47,Trigger),"")</f>
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="AB47" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W47,Trigger),"")</f>
-        <v>51769</v>
+        <v>51774</v>
       </c>
       <c r="AC47" s="68">
-        <v>1.5890690084728109E-2</v>
+        <v>1.5788025564802334E-2</v>
       </c>
       <c r="AD47" s="163"/>
     </row>
     <row r="48" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B48" s="112" t="b">
-        <v>0</v>
-      </c>
-      <c r="C48" s="8" t="str">
+      <c r="A48" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="B48" s="111" t="b">
+        <v>0</v>
+      </c>
+      <c r="C48" s="61" t="str">
         <f>_xll.qlIMMNextCode(C47,B48,Trigger)</f>
-        <v>G6</v>
-      </c>
-      <c r="D48" s="118"/>
-      <c r="E48" s="118"/>
-      <c r="F48" s="118"/>
-      <c r="G48" s="6" t="str">
-        <f t="shared" si="10"/>
+        <v>X5</v>
+      </c>
+      <c r="D48" s="117"/>
+      <c r="E48" s="117"/>
+      <c r="F48" s="117"/>
+      <c r="G48" s="60" t="str">
+        <f>PROPER(Currency)&amp;FamilyName&amp;$G$45</f>
         <v>Euribor3M</v>
       </c>
-      <c r="H48" s="115" t="str">
-        <f t="shared" si="11"/>
-        <v>EURFUT3MG6_Quote</v>
-      </c>
-      <c r="I48" s="115" t="str">
-        <f t="shared" si="12"/>
-        <v>EURFUT3MG6ConvAdj_Quote</v>
-      </c>
-      <c r="J48" s="2" t="str">
+      <c r="H48" s="114" t="str">
+        <f>Currency&amp;"FUT"&amp;$G$45&amp;$C48&amp;QuoteSuffix</f>
+        <v>EURFUT3MX5_Quote</v>
+      </c>
+      <c r="I48" s="121">
+        <f t="shared" ref="I48:I68" si="9">IFERROR(INDEX($AF$12:$AF$17,MATCH(C48,$AE$12:$AE$17,0))/100,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J48" s="62" t="str">
         <f>_xll.qlFuturesRateHelper(,H48,,C48,G48,I48,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005ce#0001</v>
+        <v>obj_005f0#0008</v>
       </c>
       <c r="L48" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f>A55</f>
         <v>FUT</v>
       </c>
       <c r="M48" s="90" t="str">
-        <f t="shared" si="9"/>
-        <v>obj_005cf#0001</v>
+        <f>IF(ISBLANK(J55),"--",J55)</f>
+        <v>obj_005f6#0007</v>
       </c>
       <c r="N48" s="139" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M48,Trigger),"--")</f>
@@ -6640,9 +6682,10 @@
       </c>
       <c r="O48" s="144">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M48,Trigger),"--")</f>
-        <v>100.03749999999999</v>
+        <v>100.0325</v>
       </c>
       <c r="P48" s="93" t="b">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Q48" s="90">
@@ -6664,7 +6707,7 @@
         <v>Sw</v>
       </c>
       <c r="W48" s="3" t="str">
-        <v>obj_005c3</v>
+        <v>obj_005d2</v>
       </c>
       <c r="X48" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W48,Trigger),"")</f>
@@ -6672,7 +6715,7 @@
       </c>
       <c r="Y48" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W48,Trigger),"")</f>
-        <v>1.5509999999999999E-2</v>
+        <v>1.542E-2</v>
       </c>
       <c r="Z48" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W48)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W48)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W48)),_xll.qlSwapRateHelperSpread($W48))</f>
@@ -6680,54 +6723,54 @@
       </c>
       <c r="AA48" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W48,Trigger),"")</f>
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="AB48" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W48,Trigger),"")</f>
-        <v>52134</v>
+        <v>52138</v>
       </c>
       <c r="AC48" s="68">
-        <v>1.5884424006018017E-2</v>
+        <v>1.57823047982351E-2</v>
       </c>
       <c r="AD48" s="163"/>
     </row>
     <row r="49" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="58" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B49" s="111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C49" s="61" t="str">
         <f>_xll.qlIMMNextCode(C48,B49,Trigger)</f>
-        <v>H6</v>
+        <v>Z5</v>
       </c>
       <c r="D49" s="117"/>
       <c r="E49" s="117"/>
       <c r="F49" s="117"/>
       <c r="G49" s="60" t="str">
-        <f t="shared" si="10"/>
+        <f>PROPER(Currency)&amp;FamilyName&amp;$G$45</f>
         <v>Euribor3M</v>
       </c>
       <c r="H49" s="114" t="str">
-        <f t="shared" si="11"/>
-        <v>EURFUT3MH6_Quote</v>
-      </c>
-      <c r="I49" s="114" t="str">
-        <f t="shared" si="12"/>
-        <v>EURFUT3MH6ConvAdj_Quote</v>
+        <f>Currency&amp;"FUT"&amp;$G$45&amp;$C49&amp;QuoteSuffix</f>
+        <v>EURFUT3MZ5_Quote</v>
+      </c>
+      <c r="I49" s="121">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="J49" s="62" t="str">
         <f>_xll.qlFuturesRateHelper(,H49,,C49,G49,I49,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005cd#0001</v>
+        <v>obj_00605#0008</v>
       </c>
       <c r="L49" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f>A56</f>
         <v>FUT</v>
       </c>
       <c r="M49" s="90" t="str">
-        <f t="shared" si="9"/>
-        <v>obj_005cc#0001</v>
+        <f>IF(ISBLANK(J56),"--",J56)</f>
+        <v>obj_005f4#0008</v>
       </c>
       <c r="N49" s="139" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M49,Trigger),"--")</f>
@@ -6735,9 +6778,10 @@
       </c>
       <c r="O49" s="144">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M49,Trigger),"--")</f>
-        <v>100.00999999999999</v>
+        <v>100.0025</v>
       </c>
       <c r="P49" s="93" t="b">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Q49" s="90">
@@ -6759,7 +6803,7 @@
         <v>Sw</v>
       </c>
       <c r="W49" s="3" t="str">
-        <v>obj_005c1</v>
+        <v>obj_005ec</v>
       </c>
       <c r="X49" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W49,Trigger),"")</f>
@@ -6767,7 +6811,7 @@
       </c>
       <c r="Y49" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W49,Trigger),"")</f>
-        <v>1.5520000000000001E-2</v>
+        <v>1.5430000000000001E-2</v>
       </c>
       <c r="Z49" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W49)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W49)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W49)),_xll.qlSwapRateHelperSpread($W49))</f>
@@ -6775,54 +6819,54 @@
       </c>
       <c r="AA49" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W49,Trigger),"")</f>
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="AB49" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W49,Trigger),"")</f>
-        <v>52499</v>
+        <v>52502</v>
       </c>
       <c r="AC49" s="68">
-        <v>1.5879500283656291E-2</v>
+        <v>1.5777882371739348E-2</v>
       </c>
       <c r="AD49" s="163"/>
     </row>
     <row r="50" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="58" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B50" s="111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50" s="61" t="str">
         <f>_xll.qlIMMNextCode(C49,B50,Trigger)</f>
-        <v>M6</v>
+        <v>F6</v>
       </c>
       <c r="D50" s="117"/>
       <c r="E50" s="117"/>
       <c r="F50" s="117"/>
       <c r="G50" s="60" t="str">
-        <f t="shared" si="10"/>
+        <f>PROPER(Currency)&amp;FamilyName&amp;$G$45</f>
         <v>Euribor3M</v>
       </c>
       <c r="H50" s="114" t="str">
-        <f t="shared" si="11"/>
-        <v>EURFUT3MM6_Quote</v>
-      </c>
-      <c r="I50" s="114" t="str">
-        <f t="shared" si="12"/>
-        <v>EURFUT3MM6ConvAdj_Quote</v>
+        <f>Currency&amp;"FUT"&amp;$G$45&amp;$C50&amp;QuoteSuffix</f>
+        <v>EURFUT3MF6_Quote</v>
+      </c>
+      <c r="I50" s="121">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="J50" s="62" t="str">
         <f>_xll.qlFuturesRateHelper(,H50,,C50,G50,I50,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005dc#0001</v>
+        <v>obj_005ff#0008</v>
       </c>
       <c r="L50" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f>A57</f>
         <v>FUT</v>
       </c>
       <c r="M50" s="90" t="str">
-        <f t="shared" si="9"/>
-        <v>obj_005db#0001</v>
+        <f>IF(ISBLANK(J57),"--",J57)</f>
+        <v>obj_00603#0008</v>
       </c>
       <c r="N50" s="139" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M50,Trigger),"--")</f>
@@ -6830,9 +6874,10 @@
       </c>
       <c r="O50" s="144">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M50,Trigger),"--")</f>
-        <v>99.972499999999997</v>
+        <v>99.967500000000001</v>
       </c>
       <c r="P50" s="93" t="b">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Q50" s="90">
@@ -6854,7 +6899,7 @@
         <v>Sw</v>
       </c>
       <c r="W50" s="3" t="str">
-        <v>obj_005ab</v>
+        <v>obj_005cf</v>
       </c>
       <c r="X50" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W50,Trigger),"")</f>
@@ -6862,7 +6907,7 @@
       </c>
       <c r="Y50" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W50,Trigger),"")</f>
-        <v>1.5529999999999999E-2</v>
+        <v>1.5440000000000001E-2</v>
       </c>
       <c r="Z50" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W50)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W50)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W50)),_xll.qlSwapRateHelperSpread($W50))</f>
@@ -6870,54 +6915,54 @@
       </c>
       <c r="AA50" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W50,Trigger),"")</f>
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="AB50" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W50,Trigger),"")</f>
-        <v>52866</v>
+        <v>52868</v>
       </c>
       <c r="AC50" s="68">
-        <v>1.5874255484886298E-2</v>
+        <v>1.5773110614887551E-2</v>
       </c>
       <c r="AD50" s="163"/>
     </row>
     <row r="51" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="B51" s="111" t="b">
-        <v>1</v>
-      </c>
-      <c r="C51" s="61" t="str">
+      <c r="A51" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B51" s="112" t="b">
+        <v>0</v>
+      </c>
+      <c r="C51" s="8" t="str">
         <f>_xll.qlIMMNextCode(C50,B51,Trigger)</f>
-        <v>U6</v>
-      </c>
-      <c r="D51" s="117"/>
-      <c r="E51" s="117"/>
-      <c r="F51" s="117"/>
-      <c r="G51" s="60" t="str">
-        <f t="shared" si="10"/>
+        <v>G6</v>
+      </c>
+      <c r="D51" s="118"/>
+      <c r="E51" s="118"/>
+      <c r="F51" s="118"/>
+      <c r="G51" s="6" t="str">
+        <f>PROPER(Currency)&amp;FamilyName&amp;$G$45</f>
         <v>Euribor3M</v>
       </c>
-      <c r="H51" s="114" t="str">
-        <f t="shared" si="11"/>
-        <v>EURFUT3MU6_Quote</v>
-      </c>
-      <c r="I51" s="114" t="str">
-        <f t="shared" si="12"/>
-        <v>EURFUT3MU6ConvAdj_Quote</v>
-      </c>
-      <c r="J51" s="62" t="str">
+      <c r="H51" s="115" t="str">
+        <f>Currency&amp;"FUT"&amp;$G$45&amp;$C51&amp;QuoteSuffix</f>
+        <v>EURFUT3MG6_Quote</v>
+      </c>
+      <c r="I51" s="228">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J51" s="2" t="str">
         <f>_xll.qlFuturesRateHelper(,H51,,C51,G51,I51,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005d6#0001</v>
+        <v>obj_005f7#0008</v>
       </c>
       <c r="L51" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f>A58</f>
         <v>FUT</v>
       </c>
       <c r="M51" s="90" t="str">
-        <f t="shared" si="9"/>
-        <v>obj_005d5#0001</v>
+        <f>IF(ISBLANK(J58),"--",J58)</f>
+        <v>obj_005fd#0008</v>
       </c>
       <c r="N51" s="139" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M51,Trigger),"--")</f>
@@ -6925,9 +6970,10 @@
       </c>
       <c r="O51" s="144">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M51,Trigger),"--")</f>
-        <v>99.932500000000005</v>
+        <v>99.927500000000009</v>
       </c>
       <c r="P51" s="93" t="b">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Q51" s="90">
@@ -6949,7 +6995,7 @@
         <v>Sw</v>
       </c>
       <c r="W51" s="3" t="str">
-        <v>obj_005c6</v>
+        <v>obj_005e6</v>
       </c>
       <c r="X51" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W51,Trigger),"")</f>
@@ -6957,7 +7003,7 @@
       </c>
       <c r="Y51" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W51,Trigger),"")</f>
-        <v>1.554E-2</v>
+        <v>1.5449999999999998E-2</v>
       </c>
       <c r="Z51" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W51)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W51)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W51)),_xll.qlSwapRateHelperSpread($W51))</f>
@@ -6965,54 +7011,54 @@
       </c>
       <c r="AA51" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W51,Trigger),"")</f>
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="AB51" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W51,Trigger),"")</f>
-        <v>53230</v>
+        <v>53233</v>
       </c>
       <c r="AC51" s="68">
-        <v>1.5871729136836807E-2</v>
+        <v>1.5770946741597638E-2</v>
       </c>
       <c r="AD51" s="163"/>
     </row>
     <row r="52" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="58" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B52" s="111" t="b">
         <v>1</v>
       </c>
       <c r="C52" s="61" t="str">
         <f>_xll.qlIMMNextCode(C51,B52,Trigger)</f>
-        <v>Z6</v>
+        <v>H6</v>
       </c>
       <c r="D52" s="117"/>
       <c r="E52" s="117"/>
       <c r="F52" s="117"/>
       <c r="G52" s="60" t="str">
-        <f t="shared" si="10"/>
+        <f>PROPER(Currency)&amp;FamilyName&amp;$G$45</f>
         <v>Euribor3M</v>
       </c>
       <c r="H52" s="114" t="str">
-        <f t="shared" si="11"/>
-        <v>EURFUT3MZ6_Quote</v>
-      </c>
-      <c r="I52" s="114" t="str">
-        <f t="shared" si="12"/>
-        <v>EURFUT3MZ6ConvAdj_Quote</v>
+        <f>Currency&amp;"FUT"&amp;$G$45&amp;$C52&amp;QuoteSuffix</f>
+        <v>EURFUT3MH6_Quote</v>
+      </c>
+      <c r="I52" s="121">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="J52" s="62" t="str">
         <f>_xll.qlFuturesRateHelper(,H52,,C52,G52,I52,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005cf#0001</v>
+        <v>obj_005f5#0008</v>
       </c>
       <c r="L52" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f>A59</f>
         <v>FUT</v>
       </c>
       <c r="M52" s="90" t="str">
-        <f t="shared" si="9"/>
-        <v>obj_005d2#0001</v>
+        <f>IF(ISBLANK(J59),"--",J59)</f>
+        <v>obj_005fa#0008</v>
       </c>
       <c r="N52" s="139" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M52,Trigger),"--")</f>
@@ -7020,9 +7066,10 @@
       </c>
       <c r="O52" s="144">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M52,Trigger),"--")</f>
-        <v>99.882499999999993</v>
+        <v>99.877499999999998</v>
       </c>
       <c r="P52" s="93" t="b">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Q52" s="90">
@@ -7044,7 +7091,7 @@
         <v>Sw</v>
       </c>
       <c r="W52" s="3" t="str">
-        <v>obj_005af</v>
+        <v>obj_005d7</v>
       </c>
       <c r="X52" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W52,Trigger),"")</f>
@@ -7052,7 +7099,7 @@
       </c>
       <c r="Y52" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W52,Trigger),"")</f>
-        <v>1.5600000000000001E-2</v>
+        <v>1.5509999999999999E-2</v>
       </c>
       <c r="Z52" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W52)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W52)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W52)),_xll.qlSwapRateHelperSpread($W52))</f>
@@ -7060,54 +7107,54 @@
       </c>
       <c r="AA52" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W52,Trigger),"")</f>
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="AB52" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W52,Trigger),"")</f>
-        <v>55057</v>
+        <v>55059</v>
       </c>
       <c r="AC52" s="68">
-        <v>1.5883974750377519E-2</v>
+        <v>1.5784830620204721E-2</v>
       </c>
       <c r="AD52" s="163"/>
     </row>
     <row r="53" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="58" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B53" s="111" t="b">
         <v>1</v>
       </c>
       <c r="C53" s="61" t="str">
         <f>_xll.qlIMMNextCode(C52,B53,Trigger)</f>
-        <v>H7</v>
+        <v>M6</v>
       </c>
       <c r="D53" s="117"/>
       <c r="E53" s="117"/>
       <c r="F53" s="117"/>
       <c r="G53" s="60" t="str">
-        <f t="shared" si="10"/>
+        <f>PROPER(Currency)&amp;FamilyName&amp;$G$45</f>
         <v>Euribor3M</v>
       </c>
       <c r="H53" s="114" t="str">
-        <f t="shared" si="11"/>
-        <v>EURFUT3MH7_Quote</v>
-      </c>
-      <c r="I53" s="114" t="str">
-        <f t="shared" si="12"/>
-        <v>EURFUT3MH7ConvAdj_Quote</v>
+        <f>Currency&amp;"FUT"&amp;$G$45&amp;$C53&amp;QuoteSuffix</f>
+        <v>EURFUT3MM6_Quote</v>
+      </c>
+      <c r="I53" s="121">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="J53" s="62" t="str">
         <f>_xll.qlFuturesRateHelper(,H53,,C53,G53,I53,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005cc#0001</v>
+        <v>obj_00604#0008</v>
       </c>
       <c r="L53" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f>A60</f>
         <v>FUT</v>
       </c>
       <c r="M53" s="90" t="str">
-        <f t="shared" si="9"/>
-        <v>obj_005cb#0001</v>
+        <f>IF(ISBLANK(J60),"--",J60)</f>
+        <v>obj_005f3#0008</v>
       </c>
       <c r="N53" s="139" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M53,Trigger),"--")</f>
@@ -7118,6 +7165,7 @@
         <v>99.817499999999995</v>
       </c>
       <c r="P53" s="93" t="b">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Q53" s="90">
@@ -7139,7 +7187,7 @@
         <v>Sw</v>
       </c>
       <c r="W53" s="3" t="str">
-        <v>obj_005bd</v>
+        <v>obj_005e4</v>
       </c>
       <c r="X53" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W53,Trigger),"")</f>
@@ -7147,7 +7195,7 @@
       </c>
       <c r="Y53" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W53,Trigger),"")</f>
-        <v>1.5600000000000001E-2</v>
+        <v>1.5509999999999999E-2</v>
       </c>
       <c r="Z53" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W53)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W53)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W53)),_xll.qlSwapRateHelperSpread($W53))</f>
@@ -7155,54 +7203,54 @@
       </c>
       <c r="AA53" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W53,Trigger),"")</f>
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="AB53" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W53,Trigger),"")</f>
-        <v>56884</v>
+        <v>56885</v>
       </c>
       <c r="AC53" s="68">
-        <v>1.5832267522101706E-2</v>
+        <v>1.573446911416294E-2</v>
       </c>
       <c r="AD53" s="163"/>
     </row>
     <row r="54" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="58" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B54" s="111" t="b">
         <v>1</v>
       </c>
       <c r="C54" s="61" t="str">
         <f>_xll.qlIMMNextCode(C53,B54,Trigger)</f>
-        <v>M7</v>
+        <v>U6</v>
       </c>
       <c r="D54" s="117"/>
       <c r="E54" s="117"/>
       <c r="F54" s="117"/>
       <c r="G54" s="60" t="str">
-        <f t="shared" si="10"/>
+        <f>PROPER(Currency)&amp;FamilyName&amp;$G$45</f>
         <v>Euribor3M</v>
       </c>
       <c r="H54" s="114" t="str">
-        <f t="shared" si="11"/>
-        <v>EURFUT3MM7_Quote</v>
-      </c>
-      <c r="I54" s="114" t="str">
-        <f t="shared" si="12"/>
-        <v>EURFUT3MM7ConvAdj_Quote</v>
+        <f>Currency&amp;"FUT"&amp;$G$45&amp;$C54&amp;QuoteSuffix</f>
+        <v>EURFUT3MU6_Quote</v>
+      </c>
+      <c r="I54" s="121">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="J54" s="62" t="str">
         <f>_xll.qlFuturesRateHelper(,H54,,C54,G54,I54,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005db#0001</v>
+        <v>obj_005fe#0008</v>
       </c>
       <c r="L54" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f>A61</f>
         <v>FUT</v>
       </c>
       <c r="M54" s="90" t="str">
-        <f t="shared" si="9"/>
-        <v>obj_005da#0001</v>
+        <f>IF(ISBLANK(J61),"--",J61)</f>
+        <v>obj_00602#0008</v>
       </c>
       <c r="N54" s="139" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M54,Trigger),"--")</f>
@@ -7210,9 +7258,10 @@
       </c>
       <c r="O54" s="144">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M54,Trigger),"--")</f>
-        <v>99.752499999999998</v>
+        <v>99.747500000000002</v>
       </c>
       <c r="P54" s="93" t="b">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Q54" s="90">
@@ -7234,7 +7283,7 @@
         <v>Sw</v>
       </c>
       <c r="W54" s="3" t="str">
-        <v>obj_005bc</v>
+        <v>obj_005e1</v>
       </c>
       <c r="X54" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W54,Trigger),"")</f>
@@ -7242,7 +7291,7 @@
       </c>
       <c r="Y54" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W54,Trigger),"")</f>
-        <v>1.5169999999999999E-2</v>
+        <v>1.508E-2</v>
       </c>
       <c r="Z54" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W54)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W54)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W54)),_xll.qlSwapRateHelperSpread($W54))</f>
@@ -7250,54 +7299,54 @@
       </c>
       <c r="AA54" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W54,Trigger),"")</f>
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="AB54" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W54,Trigger),"")</f>
-        <v>60535</v>
+        <v>60538</v>
       </c>
       <c r="AC54" s="68">
-        <v>1.5156806650219302E-2</v>
+        <v>1.506225273653119E-2</v>
       </c>
       <c r="AD54" s="163"/>
     </row>
     <row r="55" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="58" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B55" s="111" t="b">
         <v>1</v>
       </c>
       <c r="C55" s="61" t="str">
         <f>_xll.qlIMMNextCode(C54,B55,Trigger)</f>
-        <v>U7</v>
+        <v>Z6</v>
       </c>
       <c r="D55" s="117"/>
       <c r="E55" s="117"/>
       <c r="F55" s="117"/>
       <c r="G55" s="60" t="str">
-        <f t="shared" si="10"/>
+        <f>PROPER(Currency)&amp;FamilyName&amp;$G$45</f>
         <v>Euribor3M</v>
       </c>
       <c r="H55" s="114" t="str">
-        <f t="shared" si="11"/>
-        <v>EURFUT3MU7_Quote</v>
-      </c>
-      <c r="I55" s="114" t="str">
-        <f t="shared" si="12"/>
-        <v>EURFUT3MU7ConvAdj_Quote</v>
+        <f>Currency&amp;"FUT"&amp;$G$45&amp;$C55&amp;QuoteSuffix</f>
+        <v>EURFUT3MZ6_Quote</v>
+      </c>
+      <c r="I55" s="121">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="J55" s="62" t="str">
         <f>_xll.qlFuturesRateHelper(,H55,,C55,G55,I55,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005d5#0001</v>
+        <v>obj_005f6#0007</v>
       </c>
       <c r="L55" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f>A62</f>
         <v>FUT</v>
       </c>
       <c r="M55" s="90" t="str">
-        <f t="shared" si="9"/>
-        <v>obj_005d4#0001</v>
+        <f>IF(ISBLANK(J62),"--",J62)</f>
+        <v>obj_005fc#0008</v>
       </c>
       <c r="N55" s="139" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M55,Trigger),"--")</f>
@@ -7308,6 +7357,7 @@
         <v>99.672499999999999</v>
       </c>
       <c r="P55" s="93" t="b">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Q55" s="90">
@@ -7329,7 +7379,7 @@
         <v>Sw</v>
       </c>
       <c r="W55" s="3" t="str">
-        <v>obj_005a7</v>
+        <v>obj_005e7</v>
       </c>
       <c r="X55" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W55,Trigger),"")</f>
@@ -7337,7 +7387,7 @@
       </c>
       <c r="Y55" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W55,Trigger),"")</f>
-        <v>1.502E-2</v>
+        <v>1.4929999999999999E-2</v>
       </c>
       <c r="Z55" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W55)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W55)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W55)),_xll.qlSwapRateHelperSpread($W55))</f>
@@ -7345,54 +7395,54 @@
       </c>
       <c r="AA55" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W55,Trigger),"")</f>
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="AB55" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W55,Trigger),"")</f>
-        <v>64187</v>
+        <v>64192</v>
       </c>
       <c r="AC55" s="68">
-        <v>1.4914551805124313E-2</v>
+        <v>1.4821612126394733E-2</v>
       </c>
       <c r="AD55" s="163"/>
     </row>
     <row r="56" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="58" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B56" s="111" t="b">
         <v>1</v>
       </c>
       <c r="C56" s="61" t="str">
         <f>_xll.qlIMMNextCode(C55,B56,Trigger)</f>
-        <v>Z7</v>
+        <v>H7</v>
       </c>
       <c r="D56" s="117"/>
       <c r="E56" s="117"/>
       <c r="F56" s="117"/>
       <c r="G56" s="60" t="str">
-        <f t="shared" si="10"/>
+        <f>PROPER(Currency)&amp;FamilyName&amp;$G$45</f>
         <v>Euribor3M</v>
       </c>
       <c r="H56" s="114" t="str">
-        <f t="shared" si="11"/>
-        <v>EURFUT3MZ7_Quote</v>
-      </c>
-      <c r="I56" s="114" t="str">
-        <f t="shared" si="12"/>
-        <v>EURFUT3MZ7ConvAdj_Quote</v>
+        <f>Currency&amp;"FUT"&amp;$G$45&amp;$C56&amp;QuoteSuffix</f>
+        <v>EURFUT3MH7_Quote</v>
+      </c>
+      <c r="I56" s="121">
+        <f t="shared" si="9"/>
+        <v>1.5E-5</v>
       </c>
       <c r="J56" s="62" t="str">
         <f>_xll.qlFuturesRateHelper(,H56,,C56,G56,I56,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005d2#0001</v>
+        <v>obj_005f4#0008</v>
       </c>
       <c r="L56" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f>A63</f>
         <v>FUT</v>
       </c>
       <c r="M56" s="90" t="str">
-        <f t="shared" si="9"/>
-        <v>obj_005d1#0001</v>
+        <f>IF(ISBLANK(J63),"--",J63)</f>
+        <v>obj_005f9#0007</v>
       </c>
       <c r="N56" s="139" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M56,Trigger),"--")</f>
@@ -7403,6 +7453,7 @@
         <v>99.592500000000001</v>
       </c>
       <c r="P56" s="93" t="b">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Q56" s="90">
@@ -7453,41 +7504,41 @@
     </row>
     <row r="57" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="58" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B57" s="111" t="b">
         <v>1</v>
       </c>
       <c r="C57" s="61" t="str">
         <f>_xll.qlIMMNextCode(C56,B57,Trigger)</f>
-        <v>H8</v>
+        <v>M7</v>
       </c>
       <c r="D57" s="117"/>
       <c r="E57" s="117"/>
       <c r="F57" s="117"/>
       <c r="G57" s="60" t="str">
-        <f t="shared" si="10"/>
+        <f>PROPER(Currency)&amp;FamilyName&amp;$G$45</f>
         <v>Euribor3M</v>
       </c>
       <c r="H57" s="114" t="str">
-        <f t="shared" si="11"/>
-        <v>EURFUT3MH8_Quote</v>
-      </c>
-      <c r="I57" s="114" t="str">
-        <f t="shared" si="12"/>
-        <v>EURFUT3MH8ConvAdj_Quote</v>
+        <f>Currency&amp;"FUT"&amp;$G$45&amp;$C57&amp;QuoteSuffix</f>
+        <v>EURFUT3MM7_Quote</v>
+      </c>
+      <c r="I57" s="121">
+        <f t="shared" si="9"/>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="J57" s="62" t="str">
         <f>_xll.qlFuturesRateHelper(,H57,,C57,G57,I57,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005cb#0001</v>
+        <v>obj_00603#0008</v>
       </c>
       <c r="L57" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f>A64</f>
         <v>FUT</v>
       </c>
       <c r="M57" s="90" t="str">
-        <f t="shared" si="9"/>
-        <v>obj_005ca#0001</v>
+        <f>IF(ISBLANK(J64),"--",J64)</f>
+        <v>obj_005f2#0007</v>
       </c>
       <c r="N57" s="139" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M57,Trigger),"--")</f>
@@ -7498,6 +7549,7 @@
         <v>99.512500000000003</v>
       </c>
       <c r="P57" s="93" t="b">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Q57" s="90">
@@ -7548,41 +7600,41 @@
     </row>
     <row r="58" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="58" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B58" s="111" t="b">
         <v>1</v>
       </c>
       <c r="C58" s="61" t="str">
         <f>_xll.qlIMMNextCode(C57,B58,Trigger)</f>
-        <v>M8</v>
+        <v>U7</v>
       </c>
       <c r="D58" s="117"/>
       <c r="E58" s="117"/>
       <c r="F58" s="117"/>
       <c r="G58" s="60" t="str">
-        <f t="shared" si="10"/>
+        <f>PROPER(Currency)&amp;FamilyName&amp;$G$45</f>
         <v>Euribor3M</v>
       </c>
       <c r="H58" s="114" t="str">
-        <f t="shared" si="11"/>
-        <v>EURFUT3MM8_Quote</v>
-      </c>
-      <c r="I58" s="114" t="str">
-        <f t="shared" si="12"/>
-        <v>EURFUT3MM8ConvAdj_Quote</v>
+        <f>Currency&amp;"FUT"&amp;$G$45&amp;$C58&amp;QuoteSuffix</f>
+        <v>EURFUT3MU7_Quote</v>
+      </c>
+      <c r="I58" s="121">
+        <f t="shared" si="9"/>
+        <v>2.5000000000000001E-5</v>
       </c>
       <c r="J58" s="62" t="str">
         <f>_xll.qlFuturesRateHelper(,H58,,C58,G58,I58,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005da#0001</v>
+        <v>obj_005fd#0008</v>
       </c>
       <c r="L58" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f>A65</f>
         <v>FUT</v>
       </c>
       <c r="M58" s="90" t="str">
-        <f t="shared" si="9"/>
-        <v>obj_005d9#0001</v>
+        <f>IF(ISBLANK(J65),"--",J65)</f>
+        <v>obj_00601#0007</v>
       </c>
       <c r="N58" s="139" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M58,Trigger),"--")</f>
@@ -7593,6 +7645,7 @@
         <v>99.432500000000005</v>
       </c>
       <c r="P58" s="93" t="b">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Q58" s="90">
@@ -7643,41 +7696,41 @@
     </row>
     <row r="59" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="58" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B59" s="111" t="b">
         <v>1</v>
       </c>
       <c r="C59" s="61" t="str">
         <f>_xll.qlIMMNextCode(C58,B59,Trigger)</f>
-        <v>U8</v>
+        <v>Z7</v>
       </c>
       <c r="D59" s="117"/>
       <c r="E59" s="117"/>
       <c r="F59" s="117"/>
       <c r="G59" s="60" t="str">
-        <f t="shared" si="10"/>
+        <f>PROPER(Currency)&amp;FamilyName&amp;$G$45</f>
         <v>Euribor3M</v>
       </c>
       <c r="H59" s="114" t="str">
-        <f t="shared" si="11"/>
-        <v>EURFUT3MU8_Quote</v>
-      </c>
-      <c r="I59" s="114" t="str">
-        <f t="shared" si="12"/>
-        <v>EURFUT3MU8ConvAdj_Quote</v>
+        <f>Currency&amp;"FUT"&amp;$G$45&amp;$C59&amp;QuoteSuffix</f>
+        <v>EURFUT3MZ7_Quote</v>
+      </c>
+      <c r="I59" s="121">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="J59" s="62" t="str">
         <f>_xll.qlFuturesRateHelper(,H59,,C59,G59,I59,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005d4#0001</v>
+        <v>obj_005fa#0008</v>
       </c>
       <c r="L59" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f>A66</f>
         <v>FUT</v>
       </c>
       <c r="M59" s="90" t="str">
-        <f t="shared" si="9"/>
-        <v>obj_005d8#0001</v>
+        <f>IF(ISBLANK(J66),"--",J66)</f>
+        <v>obj_00600#0007</v>
       </c>
       <c r="N59" s="139" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M59,Trigger),"--")</f>
@@ -7685,9 +7738,10 @@
       </c>
       <c r="O59" s="144">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M59,Trigger),"--")</f>
-        <v>99.352499999999992</v>
+        <v>99.35</v>
       </c>
       <c r="P59" s="93" t="b">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Q59" s="90">
@@ -7738,41 +7792,41 @@
     </row>
     <row r="60" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="58" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B60" s="111" t="b">
         <v>1</v>
       </c>
       <c r="C60" s="61" t="str">
         <f>_xll.qlIMMNextCode(C59,B60,Trigger)</f>
-        <v>Z8</v>
+        <v>H8</v>
       </c>
       <c r="D60" s="117"/>
       <c r="E60" s="117"/>
       <c r="F60" s="117"/>
       <c r="G60" s="60" t="str">
-        <f t="shared" si="10"/>
+        <f>PROPER(Currency)&amp;FamilyName&amp;$G$45</f>
         <v>Euribor3M</v>
       </c>
       <c r="H60" s="114" t="str">
-        <f t="shared" si="11"/>
-        <v>EURFUT3MZ8_Quote</v>
-      </c>
-      <c r="I60" s="114" t="str">
-        <f t="shared" si="12"/>
-        <v>EURFUT3MZ8ConvAdj_Quote</v>
+        <f>Currency&amp;"FUT"&amp;$G$45&amp;$C60&amp;QuoteSuffix</f>
+        <v>EURFUT3MH8_Quote</v>
+      </c>
+      <c r="I60" s="121">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="J60" s="62" t="str">
         <f>_xll.qlFuturesRateHelper(,H60,,C60,G60,I60,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005d1#0001</v>
+        <v>obj_005f3#0008</v>
       </c>
       <c r="L60" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f>A67</f>
         <v>FUT</v>
       </c>
       <c r="M60" s="90" t="str">
-        <f t="shared" si="9"/>
-        <v>obj_005d0#0001</v>
+        <f>IF(ISBLANK(J67),"--",J67)</f>
+        <v>obj_005f8#0007</v>
       </c>
       <c r="N60" s="139" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M60,Trigger),"--")</f>
@@ -7780,9 +7834,10 @@
       </c>
       <c r="O60" s="144">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M60,Trigger),"--")</f>
-        <v>99.27000000000001</v>
+        <v>99.267500000000013</v>
       </c>
       <c r="P60" s="93" t="b">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Q60" s="90">
@@ -7833,41 +7888,41 @@
     </row>
     <row r="61" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="58" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B61" s="111" t="b">
         <v>1</v>
       </c>
       <c r="C61" s="61" t="str">
         <f>_xll.qlIMMNextCode(C60,B61,Trigger)</f>
-        <v>H9</v>
+        <v>M8</v>
       </c>
       <c r="D61" s="117"/>
       <c r="E61" s="117"/>
       <c r="F61" s="117"/>
       <c r="G61" s="60" t="str">
-        <f t="shared" si="10"/>
+        <f>PROPER(Currency)&amp;FamilyName&amp;$G$45</f>
         <v>Euribor3M</v>
       </c>
       <c r="H61" s="114" t="str">
-        <f t="shared" si="11"/>
-        <v>EURFUT3MH9_Quote</v>
-      </c>
-      <c r="I61" s="114" t="str">
-        <f t="shared" si="12"/>
-        <v>EURFUT3MH9ConvAdj_Quote</v>
+        <f>Currency&amp;"FUT"&amp;$G$45&amp;$C61&amp;QuoteSuffix</f>
+        <v>EURFUT3MM8_Quote</v>
+      </c>
+      <c r="I61" s="121">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="J61" s="62" t="str">
         <f>_xll.qlFuturesRateHelper(,H61,,C61,G61,I61,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005ca#0001</v>
+        <v>obj_00602#0008</v>
       </c>
       <c r="L61" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f>A68</f>
         <v>FUT</v>
       </c>
       <c r="M61" s="91" t="str">
-        <f t="shared" si="9"/>
-        <v>obj_005c9#0001</v>
+        <f>IF(ISBLANK(J68),"--",J68)</f>
+        <v>obj_005f1#0007</v>
       </c>
       <c r="N61" s="140" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M61,Trigger),"--")</f>
@@ -7875,9 +7930,10 @@
       </c>
       <c r="O61" s="145">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M61,Trigger),"--")</f>
-        <v>99.19</v>
+        <v>99.1875</v>
       </c>
       <c r="P61" s="96" t="b">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Q61" s="91">
@@ -7928,40 +7984,40 @@
     </row>
     <row r="62" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="58" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B62" s="111" t="b">
         <v>1</v>
       </c>
       <c r="C62" s="61" t="str">
         <f>_xll.qlIMMNextCode(C61,B62,Trigger)</f>
-        <v>M9</v>
+        <v>U8</v>
       </c>
       <c r="D62" s="117"/>
       <c r="E62" s="117"/>
       <c r="F62" s="117"/>
       <c r="G62" s="60" t="str">
-        <f t="shared" si="10"/>
+        <f>PROPER(Currency)&amp;FamilyName&amp;$G$45</f>
         <v>Euribor3M</v>
       </c>
       <c r="H62" s="114" t="str">
-        <f t="shared" si="11"/>
-        <v>EURFUT3MM9_Quote</v>
-      </c>
-      <c r="I62" s="114" t="str">
-        <f t="shared" si="12"/>
-        <v>EURFUT3MM9ConvAdj_Quote</v>
+        <f>Currency&amp;"FUT"&amp;$G$45&amp;$C62&amp;QuoteSuffix</f>
+        <v>EURFUT3MU8_Quote</v>
+      </c>
+      <c r="I62" s="121">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="J62" s="62" t="str">
         <f>_xll.qlFuturesRateHelper(,H62,,C62,G62,I62,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005d9#0001</v>
+        <v>obj_005fc#0008</v>
       </c>
       <c r="L62" s="128" t="str">
-        <f t="shared" ref="L62:L99" si="13">A68</f>
+        <f>A71</f>
         <v>Sw</v>
       </c>
       <c r="M62" s="129" t="str">
-        <f t="shared" ref="M62:M99" si="14">IF(ISBLANK(J68),"--",J68)</f>
+        <f>IF(ISBLANK(J71),"--",J71)</f>
         <v>--</v>
       </c>
       <c r="N62" s="141" t="str">
@@ -8023,40 +8079,40 @@
     </row>
     <row r="63" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="58" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B63" s="111" t="b">
         <v>1</v>
       </c>
       <c r="C63" s="61" t="str">
         <f>_xll.qlIMMNextCode(C62,B63,Trigger)</f>
-        <v>U9</v>
+        <v>Z8</v>
       </c>
       <c r="D63" s="117"/>
       <c r="E63" s="117"/>
       <c r="F63" s="117"/>
       <c r="G63" s="60" t="str">
-        <f t="shared" si="10"/>
+        <f>PROPER(Currency)&amp;FamilyName&amp;$G$45</f>
         <v>Euribor3M</v>
       </c>
       <c r="H63" s="114" t="str">
-        <f t="shared" si="11"/>
-        <v>EURFUT3MU9_Quote</v>
-      </c>
-      <c r="I63" s="114" t="str">
-        <f t="shared" si="12"/>
-        <v>EURFUT3MU9ConvAdj_Quote</v>
+        <f>Currency&amp;"FUT"&amp;$G$45&amp;$C63&amp;QuoteSuffix</f>
+        <v>EURFUT3MZ8_Quote</v>
+      </c>
+      <c r="I63" s="121">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="J63" s="62" t="str">
         <f>_xll.qlFuturesRateHelper(,H63,,C63,G63,I63,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005d8#0001</v>
+        <v>obj_005f9#0007</v>
       </c>
       <c r="L63" s="69" t="str">
-        <f t="shared" si="13"/>
+        <f>A72</f>
         <v>Sw</v>
       </c>
       <c r="M63" s="133" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(ISBLANK(J72),"--",J72)</f>
         <v>--</v>
       </c>
       <c r="N63" s="142" t="str">
@@ -8118,40 +8174,40 @@
     </row>
     <row r="64" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="58" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B64" s="111" t="b">
         <v>1</v>
       </c>
       <c r="C64" s="61" t="str">
         <f>_xll.qlIMMNextCode(C63,B64,Trigger)</f>
-        <v>Z9</v>
+        <v>H9</v>
       </c>
       <c r="D64" s="117"/>
       <c r="E64" s="117"/>
       <c r="F64" s="117"/>
       <c r="G64" s="60" t="str">
-        <f t="shared" si="10"/>
+        <f>PROPER(Currency)&amp;FamilyName&amp;$G$45</f>
         <v>Euribor3M</v>
       </c>
       <c r="H64" s="114" t="str">
-        <f t="shared" si="11"/>
-        <v>EURFUT3MZ9_Quote</v>
-      </c>
-      <c r="I64" s="114" t="str">
-        <f t="shared" si="12"/>
-        <v>EURFUT3MZ9ConvAdj_Quote</v>
+        <f>Currency&amp;"FUT"&amp;$G$45&amp;$C64&amp;QuoteSuffix</f>
+        <v>EURFUT3MH9_Quote</v>
+      </c>
+      <c r="I64" s="121">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="J64" s="62" t="str">
         <f>_xll.qlFuturesRateHelper(,H64,,C64,G64,I64,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005d0#0001</v>
+        <v>obj_005f2#0007</v>
       </c>
       <c r="L64" s="69" t="str">
-        <f t="shared" si="13"/>
+        <f>A73</f>
         <v>Sw</v>
       </c>
       <c r="M64" s="133" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(ISBLANK(J73),"--",J73)</f>
         <v>--</v>
       </c>
       <c r="N64" s="142" t="str">
@@ -8212,41 +8268,41 @@
       <c r="AD64" s="163"/>
     </row>
     <row r="65" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B65" s="112" t="b">
-        <v>1</v>
-      </c>
-      <c r="C65" s="8" t="str">
+      <c r="A65" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="B65" s="111" t="b">
+        <v>1</v>
+      </c>
+      <c r="C65" s="61" t="str">
         <f>_xll.qlIMMNextCode(C64,B65,Trigger)</f>
-        <v>H0</v>
-      </c>
-      <c r="D65" s="118"/>
-      <c r="E65" s="118"/>
-      <c r="F65" s="118"/>
-      <c r="G65" s="6" t="str">
-        <f t="shared" si="10"/>
+        <v>M9</v>
+      </c>
+      <c r="D65" s="117"/>
+      <c r="E65" s="117"/>
+      <c r="F65" s="117"/>
+      <c r="G65" s="60" t="str">
+        <f>PROPER(Currency)&amp;FamilyName&amp;$G$45</f>
         <v>Euribor3M</v>
       </c>
-      <c r="H65" s="115" t="str">
-        <f t="shared" si="11"/>
-        <v>EURFUT3MH0_Quote</v>
-      </c>
-      <c r="I65" s="115" t="str">
-        <f t="shared" si="12"/>
-        <v>EURFUT3MH0ConvAdj_Quote</v>
-      </c>
-      <c r="J65" s="2" t="str">
+      <c r="H65" s="114" t="str">
+        <f>Currency&amp;"FUT"&amp;$G$45&amp;$C65&amp;QuoteSuffix</f>
+        <v>EURFUT3MM9_Quote</v>
+      </c>
+      <c r="I65" s="121">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J65" s="62" t="str">
         <f>_xll.qlFuturesRateHelper(,H65,,C65,G65,I65,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005c9#0001</v>
+        <v>obj_00601#0007</v>
       </c>
       <c r="L65" s="69" t="str">
-        <f t="shared" si="13"/>
+        <f>A74</f>
         <v>Sw</v>
       </c>
       <c r="M65" s="133" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(ISBLANK(J74),"--",J74)</f>
         <v>--</v>
       </c>
       <c r="N65" s="142" t="str">
@@ -8307,18 +8363,41 @@
       <c r="AD65" s="163"/>
     </row>
     <row r="66" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G66" s="50" t="s">
-        <v>116</v>
-      </c>
-      <c r="H66" s="50" t="s">
-        <v>117</v>
+      <c r="A66" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="B66" s="111" t="b">
+        <v>1</v>
+      </c>
+      <c r="C66" s="61" t="str">
+        <f>_xll.qlIMMNextCode(C65,B66,Trigger)</f>
+        <v>U9</v>
+      </c>
+      <c r="D66" s="117"/>
+      <c r="E66" s="117"/>
+      <c r="F66" s="117"/>
+      <c r="G66" s="60" t="str">
+        <f>PROPER(Currency)&amp;FamilyName&amp;$G$45</f>
+        <v>Euribor3M</v>
+      </c>
+      <c r="H66" s="114" t="str">
+        <f>Currency&amp;"FUT"&amp;$G$45&amp;$C66&amp;QuoteSuffix</f>
+        <v>EURFUT3MU9_Quote</v>
+      </c>
+      <c r="I66" s="121">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J66" s="62" t="str">
+        <f>_xll.qlFuturesRateHelper(,H66,,C66,G66,I66,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_00600#0007</v>
       </c>
       <c r="L66" s="69" t="str">
-        <f t="shared" si="13"/>
+        <f>A75</f>
         <v>Sw</v>
       </c>
       <c r="M66" s="133" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(ISBLANK(J75),"--",J75)</f>
         <v>--</v>
       </c>
       <c r="N66" s="142" t="str">
@@ -8379,43 +8458,42 @@
       <c r="AD66" s="163"/>
     </row>
     <row r="67" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="63" t="s">
-        <v>9</v>
-      </c>
-      <c r="B67" s="63" t="s">
-        <v>30</v>
-      </c>
-      <c r="C67" s="63" t="s">
-        <v>101</v>
-      </c>
-      <c r="D67" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="E67" s="63" t="s">
-        <v>35</v>
-      </c>
-      <c r="F67" s="63" t="s">
-        <v>102</v>
-      </c>
-      <c r="G67" s="63" t="s">
-        <v>4</v>
-      </c>
-      <c r="H67" s="63" t="s">
-        <v>1</v>
-      </c>
-      <c r="I67" s="63" t="s">
-        <v>100</v>
-      </c>
-      <c r="J67" s="63" t="s">
-        <v>25</v>
+      <c r="A67" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="B67" s="111" t="b">
+        <v>1</v>
+      </c>
+      <c r="C67" s="61" t="str">
+        <f>_xll.qlIMMNextCode(C66,B67,Trigger)</f>
+        <v>Z9</v>
+      </c>
+      <c r="D67" s="117"/>
+      <c r="E67" s="117"/>
+      <c r="F67" s="117"/>
+      <c r="G67" s="60" t="str">
+        <f>PROPER(Currency)&amp;FamilyName&amp;$G$45</f>
+        <v>Euribor3M</v>
+      </c>
+      <c r="H67" s="114" t="str">
+        <f>Currency&amp;"FUT"&amp;$G$45&amp;$C67&amp;QuoteSuffix</f>
+        <v>EURFUT3MZ9_Quote</v>
+      </c>
+      <c r="I67" s="121">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J67" s="62" t="str">
+        <f>_xll.qlFuturesRateHelper(,H67,,C67,G67,I67,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_005f8#0007</v>
       </c>
       <c r="L67" s="69" t="str">
-        <f t="shared" si="13"/>
+        <f>A76</f>
         <v>Sw</v>
       </c>
       <c r="M67" s="133" t="str">
-        <f t="shared" si="14"/>
-        <v>obj_005bb#0001</v>
+        <f>IF(ISBLANK(J76),"--",J76)</f>
+        <v>obj_005d1#0002</v>
       </c>
       <c r="N67" s="142" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M67,Trigger),"--")</f>
@@ -8423,7 +8501,7 @@
       </c>
       <c r="O67" s="135">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M67,Trigger),"--")</f>
-        <v>1.2800000000000001E-3</v>
+        <v>1.32E-3</v>
       </c>
       <c r="P67" s="134" t="b">
         <v>1</v>
@@ -8436,11 +8514,11 @@
       </c>
       <c r="S67" s="136">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M67,Trigger),"--")</f>
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="T67" s="136">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M67,Trigger),"--")</f>
-        <v>43368</v>
+        <v>43371</v>
       </c>
       <c r="V67" s="3" t="str">
         <f t="shared" si="2"/>
@@ -8475,43 +8553,42 @@
       <c r="AD67" s="163"/>
     </row>
     <row r="68" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="B68" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="C68" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="D68" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="E68" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="F68" s="60" t="s">
-        <v>118</v>
-      </c>
-      <c r="G68" s="60" t="str">
-        <f t="shared" ref="G68:G105" si="15">PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$66,"E","M")</f>
-        <v>Euribor6M</v>
-      </c>
-      <c r="H68" s="58" t="str">
-        <f t="shared" ref="H68:H105" si="16">Currency&amp;$G$66&amp;$H$66&amp;$B68&amp;"_Quote"</f>
-        <v>EURAB6E1Y_Quote</v>
-      </c>
-      <c r="I68" s="120">
-        <v>0</v>
-      </c>
-      <c r="J68" s="57"/>
+      <c r="A68" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B68" s="112" t="b">
+        <v>1</v>
+      </c>
+      <c r="C68" s="8" t="str">
+        <f>_xll.qlIMMNextCode(C67,B68,Trigger)</f>
+        <v>H0</v>
+      </c>
+      <c r="D68" s="118"/>
+      <c r="E68" s="118"/>
+      <c r="F68" s="118"/>
+      <c r="G68" s="6" t="str">
+        <f>PROPER(Currency)&amp;FamilyName&amp;$G$45</f>
+        <v>Euribor3M</v>
+      </c>
+      <c r="H68" s="115" t="str">
+        <f>Currency&amp;"FUT"&amp;$G$45&amp;$C68&amp;QuoteSuffix</f>
+        <v>EURFUT3MH0_Quote</v>
+      </c>
+      <c r="I68" s="228">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J68" s="2" t="str">
+        <f>_xll.qlFuturesRateHelper(,H68,,C68,G68,I68,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_005f1#0007</v>
+      </c>
       <c r="L68" s="69" t="str">
-        <f t="shared" si="13"/>
+        <f>A77</f>
         <v>Sw</v>
       </c>
       <c r="M68" s="133" t="str">
-        <f t="shared" si="14"/>
-        <v>obj_005b3#0001</v>
+        <f>IF(ISBLANK(J77),"--",J77)</f>
+        <v>obj_005d0#0002</v>
       </c>
       <c r="N68" s="142" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M68,Trigger),"--")</f>
@@ -8519,7 +8596,7 @@
       </c>
       <c r="O68" s="135">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M68,Trigger),"--")</f>
-        <v>2.3899999999999998E-3</v>
+        <v>2.4099999999999998E-3</v>
       </c>
       <c r="P68" s="134" t="b">
         <v>1</v>
@@ -8532,14 +8609,14 @@
       </c>
       <c r="S68" s="136">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M68,Trigger),"--")</f>
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="T68" s="136">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M68,Trigger),"--")</f>
-        <v>43733</v>
+        <v>43738</v>
       </c>
       <c r="V68" s="3" t="str">
-        <f t="shared" ref="V68:V99" si="17">IFERROR(INDEX($L$3:$L$99,MATCH(X68,$N$3:$N$99,0),1),"")</f>
+        <f t="shared" ref="V68:V99" si="10">IFERROR(INDEX($L$3:$L$99,MATCH(X68,$N$3:$N$99,0),1),"")</f>
         <v/>
       </c>
       <c r="W68" s="3" t="e">
@@ -8571,43 +8648,19 @@
       <c r="AD68" s="163"/>
     </row>
     <row r="69" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="B69" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="C69" s="60" t="s">
-        <v>6</v>
-      </c>
-      <c r="D69" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="E69" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="F69" s="60" t="s">
-        <v>118</v>
-      </c>
-      <c r="G69" s="60" t="str">
-        <f t="shared" si="15"/>
-        <v>Euribor6M</v>
-      </c>
-      <c r="H69" s="58" t="str">
-        <f t="shared" si="16"/>
-        <v>EURAB6E15M_Quote</v>
-      </c>
-      <c r="I69" s="121">
-        <v>0</v>
-      </c>
-      <c r="J69" s="62"/>
+      <c r="G69" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="H69" s="50" t="s">
+        <v>116</v>
+      </c>
       <c r="L69" s="69" t="str">
-        <f t="shared" si="13"/>
+        <f>A78</f>
         <v>Sw</v>
       </c>
       <c r="M69" s="133" t="str">
-        <f t="shared" si="14"/>
-        <v>obj_005b9#0001</v>
+        <f>IF(ISBLANK(J78),"--",J78)</f>
+        <v>obj_005dc#0002</v>
       </c>
       <c r="N69" s="142" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M69,Trigger),"--")</f>
@@ -8615,7 +8668,7 @@
       </c>
       <c r="O69" s="135">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M69,Trigger),"--")</f>
-        <v>3.6800000000000001E-3</v>
+        <v>3.6700000000000001E-3</v>
       </c>
       <c r="P69" s="134" t="b">
         <v>1</v>
@@ -8628,14 +8681,14 @@
       </c>
       <c r="S69" s="136">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M69,Trigger),"--")</f>
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="T69" s="136">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M69,Trigger),"--")</f>
-        <v>44099</v>
+        <v>44102</v>
       </c>
       <c r="V69" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="W69" s="3" t="e">
@@ -8667,43 +8720,43 @@
       <c r="AD69" s="163"/>
     </row>
     <row r="70" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="B70" s="59" t="s">
-        <v>41</v>
-      </c>
-      <c r="C70" s="60" t="s">
-        <v>6</v>
-      </c>
-      <c r="D70" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="E70" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="F70" s="60" t="s">
-        <v>118</v>
-      </c>
-      <c r="G70" s="60" t="str">
-        <f t="shared" si="15"/>
-        <v>Euribor6M</v>
-      </c>
-      <c r="H70" s="58" t="str">
-        <f t="shared" si="16"/>
-        <v>EURAB6E18M_Quote</v>
-      </c>
-      <c r="I70" s="121">
-        <v>0</v>
-      </c>
-      <c r="J70" s="62"/>
+      <c r="A70" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="B70" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="C70" s="63" t="s">
+        <v>100</v>
+      </c>
+      <c r="D70" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="E70" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="F70" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="G70" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="H70" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="I70" s="63" t="s">
+        <v>99</v>
+      </c>
+      <c r="J70" s="63" t="s">
+        <v>25</v>
+      </c>
       <c r="L70" s="69" t="str">
-        <f t="shared" si="13"/>
+        <f>A79</f>
         <v>Sw</v>
       </c>
       <c r="M70" s="133" t="str">
-        <f t="shared" si="14"/>
-        <v>obj_005ba#0001</v>
+        <f>IF(ISBLANK(J79),"--",J79)</f>
+        <v>obj_005de#0002</v>
       </c>
       <c r="N70" s="142" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M70,Trigger),"--")</f>
@@ -8711,7 +8764,7 @@
       </c>
       <c r="O70" s="135">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M70,Trigger),"--")</f>
-        <v>5.0200000000000002E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="P70" s="134" t="b">
         <v>1</v>
@@ -8724,14 +8777,14 @@
       </c>
       <c r="S70" s="136">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M70,Trigger),"--")</f>
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="T70" s="136">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M70,Trigger),"--")</f>
-        <v>44466</v>
+        <v>44467</v>
       </c>
       <c r="V70" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="W70" s="3" t="e">
@@ -8763,13 +8816,13 @@
       <c r="AD70" s="163"/>
     </row>
     <row r="71" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="58" t="s">
+      <c r="A71" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="B71" s="59" t="s">
-        <v>42</v>
-      </c>
-      <c r="C71" s="60" t="s">
+      <c r="B71" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="C71" s="55" t="s">
         <v>6</v>
       </c>
       <c r="D71" s="60" t="s">
@@ -8779,27 +8832,27 @@
         <v>7</v>
       </c>
       <c r="F71" s="60" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G71" s="60" t="str">
-        <f t="shared" si="15"/>
+        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$69,"E","M")</f>
         <v>Euribor6M</v>
       </c>
       <c r="H71" s="58" t="str">
-        <f t="shared" si="16"/>
-        <v>EURAB6E21M_Quote</v>
-      </c>
-      <c r="I71" s="121">
-        <v>0</v>
-      </c>
-      <c r="J71" s="62"/>
+        <f>Currency&amp;$G$69&amp;$H$69&amp;$B71&amp;"_Quote"</f>
+        <v>EURAB6E1Y_Quote</v>
+      </c>
+      <c r="I71" s="120">
+        <v>0</v>
+      </c>
+      <c r="J71" s="57"/>
       <c r="L71" s="69" t="str">
-        <f t="shared" si="13"/>
+        <f>A80</f>
         <v>Sw</v>
       </c>
       <c r="M71" s="133" t="str">
-        <f t="shared" si="14"/>
-        <v>obj_005bf#0001</v>
+        <f>IF(ISBLANK(J80),"--",J80)</f>
+        <v>obj_005e8#0002</v>
       </c>
       <c r="N71" s="142" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M71,Trigger),"--")</f>
@@ -8807,7 +8860,7 @@
       </c>
       <c r="O71" s="135">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M71,Trigger),"--")</f>
-        <v>6.3599999999999993E-3</v>
+        <v>6.3299999999999997E-3</v>
       </c>
       <c r="P71" s="134" t="b">
         <v>1</v>
@@ -8820,14 +8873,14 @@
       </c>
       <c r="S71" s="136">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M71,Trigger),"--")</f>
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="T71" s="136">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M71,Trigger),"--")</f>
-        <v>44830</v>
+        <v>44832</v>
       </c>
       <c r="V71" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="W71" s="3" t="e">
@@ -8863,7 +8916,7 @@
         <v>26</v>
       </c>
       <c r="B72" s="59" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C72" s="60" t="s">
         <v>6</v>
@@ -8875,27 +8928,27 @@
         <v>7</v>
       </c>
       <c r="F72" s="60" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G72" s="60" t="str">
-        <f t="shared" si="15"/>
+        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$69,"E","M")</f>
         <v>Euribor6M</v>
       </c>
       <c r="H72" s="58" t="str">
-        <f t="shared" si="16"/>
-        <v>EURAB6E2Y_Quote</v>
+        <f>Currency&amp;$G$69&amp;$H$69&amp;$B72&amp;"_Quote"</f>
+        <v>EURAB6E15M_Quote</v>
       </c>
       <c r="I72" s="121">
         <v>0</v>
       </c>
       <c r="J72" s="62"/>
       <c r="L72" s="69" t="str">
-        <f t="shared" si="13"/>
+        <f>A81</f>
         <v>Sw</v>
       </c>
       <c r="M72" s="133" t="str">
-        <f t="shared" si="14"/>
-        <v>obj_005b1#0001</v>
+        <f>IF(ISBLANK(J81),"--",J81)</f>
+        <v>obj_005db#0002</v>
       </c>
       <c r="N72" s="142" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M72,Trigger),"--")</f>
@@ -8903,7 +8956,7 @@
       </c>
       <c r="O72" s="135">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M72,Trigger),"--")</f>
-        <v>7.6499999999999988E-3</v>
+        <v>7.6099999999999987E-3</v>
       </c>
       <c r="P72" s="134" t="b">
         <v>1</v>
@@ -8916,14 +8969,14 @@
       </c>
       <c r="S72" s="136">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M72,Trigger),"--")</f>
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="T72" s="136">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M72,Trigger),"--")</f>
-        <v>45194</v>
+        <v>45197</v>
       </c>
       <c r="V72" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="W72" s="3" t="e">
@@ -8959,7 +9012,7 @@
         <v>26</v>
       </c>
       <c r="B73" s="59" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C73" s="60" t="s">
         <v>6</v>
@@ -8971,30 +9024,27 @@
         <v>7</v>
       </c>
       <c r="F73" s="60" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G73" s="60" t="str">
-        <f t="shared" si="15"/>
+        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$69,"E","M")</f>
         <v>Euribor6M</v>
       </c>
       <c r="H73" s="58" t="str">
-        <f t="shared" si="16"/>
-        <v>EURAB6E3Y_Quote</v>
+        <f>Currency&amp;$G$69&amp;$H$69&amp;$B73&amp;"_Quote"</f>
+        <v>EURAB6E18M_Quote</v>
       </c>
       <c r="I73" s="121">
         <v>0</v>
       </c>
-      <c r="J73" s="62" t="str">
-        <f>_xll.qlSwapRateHelper2(,H73,,B73,Calendar,D73,E73,F73,G73,I73,C73,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005bb#0001</v>
-      </c>
+      <c r="J73" s="62"/>
       <c r="L73" s="69" t="str">
-        <f t="shared" si="13"/>
+        <f>A82</f>
         <v>Sw</v>
       </c>
       <c r="M73" s="133" t="str">
-        <f t="shared" si="14"/>
-        <v>obj_005b4#0001</v>
+        <f>IF(ISBLANK(J82),"--",J82)</f>
+        <v>obj_005e0#0002</v>
       </c>
       <c r="N73" s="142" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M73,Trigger),"--")</f>
@@ -9002,7 +9052,7 @@
       </c>
       <c r="O73" s="135">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M73,Trigger),"--")</f>
-        <v>8.8400000000000006E-3</v>
+        <v>8.8000000000000005E-3</v>
       </c>
       <c r="P73" s="134" t="b">
         <v>1</v>
@@ -9015,14 +9065,14 @@
       </c>
       <c r="S73" s="136">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M73,Trigger),"--")</f>
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="T73" s="136">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M73,Trigger),"--")</f>
-        <v>45560</v>
+        <v>45565</v>
       </c>
       <c r="V73" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="W73" s="3" t="e">
@@ -9058,7 +9108,7 @@
         <v>26</v>
       </c>
       <c r="B74" s="59" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C74" s="60" t="s">
         <v>6</v>
@@ -9070,30 +9120,27 @@
         <v>7</v>
       </c>
       <c r="F74" s="60" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G74" s="60" t="str">
-        <f t="shared" si="15"/>
+        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$69,"E","M")</f>
         <v>Euribor6M</v>
       </c>
       <c r="H74" s="58" t="str">
-        <f t="shared" si="16"/>
-        <v>EURAB6E4Y_Quote</v>
+        <f>Currency&amp;$G$69&amp;$H$69&amp;$B74&amp;"_Quote"</f>
+        <v>EURAB6E21M_Quote</v>
       </c>
       <c r="I74" s="121">
         <v>0</v>
       </c>
-      <c r="J74" s="62" t="str">
-        <f>_xll.qlSwapRateHelper2(,H74,,B74,Calendar,D74,E74,F74,G74,I74,C74,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005b3#0001</v>
-      </c>
+      <c r="J74" s="62"/>
       <c r="L74" s="69" t="str">
-        <f t="shared" si="13"/>
+        <f>A83</f>
         <v>Sw</v>
       </c>
       <c r="M74" s="133" t="str">
-        <f t="shared" si="14"/>
-        <v>obj_005b6#0001</v>
+        <f>IF(ISBLANK(J83),"--",J83)</f>
+        <v>obj_005d5#0002</v>
       </c>
       <c r="N74" s="142" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M74,Trigger),"--")</f>
@@ -9101,7 +9148,7 @@
       </c>
       <c r="O74" s="135">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M74,Trigger),"--")</f>
-        <v>9.8999999999999991E-3</v>
+        <v>9.8499999999999994E-3</v>
       </c>
       <c r="P74" s="134" t="b">
         <v>1</v>
@@ -9114,14 +9161,14 @@
       </c>
       <c r="S74" s="136">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M74,Trigger),"--")</f>
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="T74" s="136">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M74,Trigger),"--")</f>
-        <v>45925</v>
+        <v>45929</v>
       </c>
       <c r="V74" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="W74" s="3" t="e">
@@ -9157,7 +9204,7 @@
         <v>26</v>
       </c>
       <c r="B75" s="59" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C75" s="60" t="s">
         <v>6</v>
@@ -9169,30 +9216,27 @@
         <v>7</v>
       </c>
       <c r="F75" s="60" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G75" s="60" t="str">
-        <f t="shared" si="15"/>
+        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$69,"E","M")</f>
         <v>Euribor6M</v>
       </c>
       <c r="H75" s="58" t="str">
-        <f t="shared" si="16"/>
-        <v>EURAB6E5Y_Quote</v>
+        <f>Currency&amp;$G$69&amp;$H$69&amp;$B75&amp;"_Quote"</f>
+        <v>EURAB6E2Y_Quote</v>
       </c>
       <c r="I75" s="121">
         <v>0</v>
       </c>
-      <c r="J75" s="62" t="str">
-        <f>_xll.qlSwapRateHelper2(,H75,,B75,Calendar,D75,E75,F75,G75,I75,C75,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005b9#0001</v>
-      </c>
+      <c r="J75" s="62"/>
       <c r="L75" s="69" t="str">
-        <f t="shared" si="13"/>
+        <f>A84</f>
         <v>Sw</v>
       </c>
       <c r="M75" s="134" t="str">
-        <f t="shared" si="14"/>
-        <v>obj_005b8#0001</v>
+        <f>IF(ISBLANK(J84),"--",J84)</f>
+        <v>obj_005da#0002</v>
       </c>
       <c r="N75" s="142" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M75,Trigger),"--")</f>
@@ -9200,7 +9244,7 @@
       </c>
       <c r="O75" s="135">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M75,Trigger),"--")</f>
-        <v>1.0860000000000002E-2</v>
+        <v>1.0789999999999999E-2</v>
       </c>
       <c r="P75" s="134" t="b">
         <v>1</v>
@@ -9213,14 +9257,14 @@
       </c>
       <c r="S75" s="136">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M75,Trigger),"--")</f>
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="T75" s="136">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M75,Trigger),"--")</f>
-        <v>46290</v>
+        <v>46293</v>
       </c>
       <c r="V75" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="W75" s="3" t="e">
@@ -9256,7 +9300,7 @@
         <v>26</v>
       </c>
       <c r="B76" s="59" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C76" s="60" t="s">
         <v>6</v>
@@ -9268,30 +9312,30 @@
         <v>7</v>
       </c>
       <c r="F76" s="60" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G76" s="60" t="str">
-        <f t="shared" si="15"/>
+        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$69,"E","M")</f>
         <v>Euribor6M</v>
       </c>
       <c r="H76" s="58" t="str">
-        <f t="shared" si="16"/>
-        <v>EURAB6E6Y_Quote</v>
+        <f>Currency&amp;$G$69&amp;$H$69&amp;$B76&amp;"_Quote"</f>
+        <v>EURAB6E3Y_Quote</v>
       </c>
       <c r="I76" s="121">
         <v>0</v>
       </c>
       <c r="J76" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H76,,B76,Calendar,D76,E76,F76,G76,I76,C76,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005ba#0001</v>
+        <v>obj_005d1#0002</v>
       </c>
       <c r="L76" s="69" t="str">
-        <f t="shared" si="13"/>
+        <f>A85</f>
         <v>Sw</v>
       </c>
       <c r="M76" s="134" t="str">
-        <f t="shared" si="14"/>
-        <v>obj_005c4#0001</v>
+        <f>IF(ISBLANK(J85),"--",J85)</f>
+        <v>obj_005e2#0002</v>
       </c>
       <c r="N76" s="142" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M76,Trigger),"--")</f>
@@ -9299,7 +9343,7 @@
       </c>
       <c r="O76" s="135">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M76,Trigger),"--")</f>
-        <v>1.171E-2</v>
+        <v>1.163E-2</v>
       </c>
       <c r="P76" s="134" t="b">
         <v>1</v>
@@ -9312,14 +9356,14 @@
       </c>
       <c r="S76" s="136">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M76,Trigger),"--")</f>
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="T76" s="136">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M76,Trigger),"--")</f>
-        <v>46657</v>
+        <v>46658</v>
       </c>
       <c r="V76" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="W76" s="3" t="e">
@@ -9355,7 +9399,7 @@
         <v>26</v>
       </c>
       <c r="B77" s="59" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C77" s="60" t="s">
         <v>6</v>
@@ -9367,30 +9411,30 @@
         <v>7</v>
       </c>
       <c r="F77" s="60" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G77" s="60" t="str">
-        <f t="shared" si="15"/>
+        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$69,"E","M")</f>
         <v>Euribor6M</v>
       </c>
       <c r="H77" s="58" t="str">
-        <f t="shared" si="16"/>
-        <v>EURAB6E7Y_Quote</v>
+        <f>Currency&amp;$G$69&amp;$H$69&amp;$B77&amp;"_Quote"</f>
+        <v>EURAB6E4Y_Quote</v>
       </c>
       <c r="I77" s="121">
         <v>0</v>
       </c>
       <c r="J77" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H77,,B77,Calendar,D77,E77,F77,G77,I77,C77,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005bf#0001</v>
+        <v>obj_005d0#0002</v>
       </c>
       <c r="L77" s="69" t="str">
-        <f t="shared" si="13"/>
+        <f>A86</f>
         <v>Sw</v>
       </c>
       <c r="M77" s="134" t="str">
-        <f t="shared" si="14"/>
-        <v>obj_005c2#0001</v>
+        <f>IF(ISBLANK(J86),"--",J86)</f>
+        <v>obj_005ee#0002</v>
       </c>
       <c r="N77" s="142" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M77,Trigger),"--")</f>
@@ -9398,7 +9442,7 @@
       </c>
       <c r="O77" s="135">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M77,Trigger),"--")</f>
-        <v>1.2450000000000001E-2</v>
+        <v>1.2359999999999999E-2</v>
       </c>
       <c r="P77" s="134" t="b">
         <v>1</v>
@@ -9411,14 +9455,14 @@
       </c>
       <c r="S77" s="136">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M77,Trigger),"--")</f>
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="T77" s="136">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M77,Trigger),"--")</f>
-        <v>47021</v>
+        <v>47024</v>
       </c>
       <c r="V77" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="W77" s="3" t="e">
@@ -9454,7 +9498,7 @@
         <v>26</v>
       </c>
       <c r="B78" s="59" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C78" s="60" t="s">
         <v>6</v>
@@ -9466,30 +9510,30 @@
         <v>7</v>
       </c>
       <c r="F78" s="60" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G78" s="60" t="str">
-        <f t="shared" si="15"/>
+        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$69,"E","M")</f>
         <v>Euribor6M</v>
       </c>
       <c r="H78" s="58" t="str">
-        <f t="shared" si="16"/>
-        <v>EURAB6E8Y_Quote</v>
+        <f>Currency&amp;$G$69&amp;$H$69&amp;$B78&amp;"_Quote"</f>
+        <v>EURAB6E5Y_Quote</v>
       </c>
       <c r="I78" s="121">
         <v>0</v>
       </c>
       <c r="J78" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H78,,B78,Calendar,D78,E78,F78,G78,I78,C78,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005b1#0001</v>
+        <v>obj_005dc#0002</v>
       </c>
       <c r="L78" s="69" t="str">
-        <f t="shared" si="13"/>
+        <f>A87</f>
         <v>Sw</v>
       </c>
       <c r="M78" s="134" t="str">
-        <f t="shared" si="14"/>
-        <v>obj_005b5#0001</v>
+        <f>IF(ISBLANK(J87),"--",J87)</f>
+        <v>obj_005d3#0002</v>
       </c>
       <c r="N78" s="142" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M78,Trigger),"--")</f>
@@ -9497,7 +9541,7 @@
       </c>
       <c r="O78" s="135">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M78,Trigger),"--")</f>
-        <v>1.307E-2</v>
+        <v>1.298E-2</v>
       </c>
       <c r="P78" s="134" t="b">
         <v>1</v>
@@ -9510,14 +9554,14 @@
       </c>
       <c r="S78" s="136">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M78,Trigger),"--")</f>
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="T78" s="136">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M78,Trigger),"--")</f>
-        <v>47386</v>
+        <v>47389</v>
       </c>
       <c r="V78" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="W78" s="3" t="e">
@@ -9553,7 +9597,7 @@
         <v>26</v>
       </c>
       <c r="B79" s="59" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C79" s="60" t="s">
         <v>6</v>
@@ -9565,30 +9609,30 @@
         <v>7</v>
       </c>
       <c r="F79" s="60" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G79" s="60" t="str">
-        <f t="shared" si="15"/>
+        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$69,"E","M")</f>
         <v>Euribor6M</v>
       </c>
       <c r="H79" s="58" t="str">
-        <f t="shared" si="16"/>
-        <v>EURAB6E9Y_Quote</v>
+        <f>Currency&amp;$G$69&amp;$H$69&amp;$B79&amp;"_Quote"</f>
+        <v>EURAB6E6Y_Quote</v>
       </c>
       <c r="I79" s="121">
         <v>0</v>
       </c>
       <c r="J79" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H79,,B79,Calendar,D79,E79,F79,G79,I79,C79,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005b4#0001</v>
+        <v>obj_005de#0002</v>
       </c>
       <c r="L79" s="69" t="str">
-        <f t="shared" si="13"/>
+        <f>A88</f>
         <v>Sw</v>
       </c>
       <c r="M79" s="134" t="str">
-        <f t="shared" si="14"/>
-        <v>obj_005ae#0001</v>
+        <f>IF(ISBLANK(J88),"--",J88)</f>
+        <v>obj_005e5#0002</v>
       </c>
       <c r="N79" s="142" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M79,Trigger),"--")</f>
@@ -9596,7 +9640,7 @@
       </c>
       <c r="O79" s="135">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M79,Trigger),"--")</f>
-        <v>1.359E-2</v>
+        <v>1.3500000000000002E-2</v>
       </c>
       <c r="P79" s="134" t="b">
         <v>1</v>
@@ -9609,14 +9653,14 @@
       </c>
       <c r="S79" s="136">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M79,Trigger),"--")</f>
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="T79" s="136">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M79,Trigger),"--")</f>
-        <v>47751</v>
+        <v>47756</v>
       </c>
       <c r="V79" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="W79" s="3" t="e">
@@ -9652,7 +9696,7 @@
         <v>26</v>
       </c>
       <c r="B80" s="59" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C80" s="60" t="s">
         <v>6</v>
@@ -9664,30 +9708,30 @@
         <v>7</v>
       </c>
       <c r="F80" s="60" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G80" s="60" t="str">
-        <f t="shared" si="15"/>
+        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$69,"E","M")</f>
         <v>Euribor6M</v>
       </c>
       <c r="H80" s="58" t="str">
-        <f t="shared" si="16"/>
-        <v>EURAB6E10Y_Quote</v>
+        <f>Currency&amp;$G$69&amp;$H$69&amp;$B80&amp;"_Quote"</f>
+        <v>EURAB6E7Y_Quote</v>
       </c>
       <c r="I80" s="121">
         <v>0</v>
       </c>
       <c r="J80" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H80,,B80,Calendar,D80,E80,F80,G80,I80,C80,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005b6#0001</v>
+        <v>obj_005e8#0002</v>
       </c>
       <c r="L80" s="69" t="str">
-        <f t="shared" si="13"/>
+        <f>A89</f>
         <v>Sw</v>
       </c>
       <c r="M80" s="134" t="str">
-        <f t="shared" si="14"/>
-        <v>obj_005be#0001</v>
+        <f>IF(ISBLANK(J89),"--",J89)</f>
+        <v>obj_005d6#0002</v>
       </c>
       <c r="N80" s="142" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M80,Trigger),"--")</f>
@@ -9695,7 +9739,7 @@
       </c>
       <c r="O80" s="135">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M80,Trigger),"--")</f>
-        <v>1.4030000000000001E-2</v>
+        <v>1.3940000000000001E-2</v>
       </c>
       <c r="P80" s="134" t="b">
         <v>1</v>
@@ -9708,14 +9752,14 @@
       </c>
       <c r="S80" s="136">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M80,Trigger),"--")</f>
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="T80" s="136">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M80,Trigger),"--")</f>
-        <v>48116</v>
+        <v>48120</v>
       </c>
       <c r="V80" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="W80" s="3" t="e">
@@ -9751,7 +9795,7 @@
         <v>26</v>
       </c>
       <c r="B81" s="59" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="C81" s="60" t="s">
         <v>6</v>
@@ -9763,30 +9807,30 @@
         <v>7</v>
       </c>
       <c r="F81" s="60" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G81" s="60" t="str">
-        <f t="shared" si="15"/>
+        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$69,"E","M")</f>
         <v>Euribor6M</v>
       </c>
       <c r="H81" s="58" t="str">
-        <f t="shared" si="16"/>
-        <v>EURAB6E11Y_Quote</v>
+        <f>Currency&amp;$G$69&amp;$H$69&amp;$B81&amp;"_Quote"</f>
+        <v>EURAB6E8Y_Quote</v>
       </c>
       <c r="I81" s="121">
         <v>0</v>
       </c>
       <c r="J81" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H81,,B81,Calendar,D81,E81,F81,G81,I81,C81,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005b8#0001</v>
+        <v>obj_005db#0002</v>
       </c>
       <c r="L81" s="69" t="str">
-        <f t="shared" si="13"/>
+        <f>A90</f>
         <v>Sw</v>
       </c>
       <c r="M81" s="134" t="str">
-        <f t="shared" si="14"/>
-        <v>obj_005aa#0001</v>
+        <f>IF(ISBLANK(J90),"--",J90)</f>
+        <v>obj_005dd#0002</v>
       </c>
       <c r="N81" s="142" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M81,Trigger),"--")</f>
@@ -9794,7 +9838,7 @@
       </c>
       <c r="O81" s="135">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M81,Trigger),"--")</f>
-        <v>1.44E-2</v>
+        <v>1.431E-2</v>
       </c>
       <c r="P81" s="134" t="b">
         <v>1</v>
@@ -9807,14 +9851,14 @@
       </c>
       <c r="S81" s="136">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M81,Trigger),"--")</f>
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="T81" s="136">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M81,Trigger),"--")</f>
-        <v>48484</v>
+        <v>48485</v>
       </c>
       <c r="V81" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="W81" s="3" t="e">
@@ -9850,7 +9894,7 @@
         <v>26</v>
       </c>
       <c r="B82" s="59" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C82" s="60" t="s">
         <v>6</v>
@@ -9862,30 +9906,30 @@
         <v>7</v>
       </c>
       <c r="F82" s="60" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G82" s="60" t="str">
-        <f t="shared" si="15"/>
+        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$69,"E","M")</f>
         <v>Euribor6M</v>
       </c>
       <c r="H82" s="58" t="str">
-        <f t="shared" si="16"/>
-        <v>EURAB6E12Y_Quote</v>
+        <f>Currency&amp;$G$69&amp;$H$69&amp;$B82&amp;"_Quote"</f>
+        <v>EURAB6E9Y_Quote</v>
       </c>
       <c r="I82" s="121">
         <v>0</v>
       </c>
       <c r="J82" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H82,,B82,Calendar,D82,E82,F82,G82,I82,C82,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005c4#0001</v>
+        <v>obj_005e0#0002</v>
       </c>
       <c r="L82" s="69" t="str">
-        <f t="shared" si="13"/>
+        <f>A91</f>
         <v>Sw</v>
       </c>
       <c r="M82" s="134" t="str">
-        <f t="shared" si="14"/>
-        <v>obj_005a8#0001</v>
+        <f>IF(ISBLANK(J91),"--",J91)</f>
+        <v>obj_005e9#0002</v>
       </c>
       <c r="N82" s="142" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M82,Trigger),"--")</f>
@@ -9893,7 +9937,7 @@
       </c>
       <c r="O82" s="135">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M82,Trigger),"--")</f>
-        <v>1.47E-2</v>
+        <v>1.4609999999999998E-2</v>
       </c>
       <c r="P82" s="134" t="b">
         <v>1</v>
@@ -9906,14 +9950,14 @@
       </c>
       <c r="S82" s="136">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M82,Trigger),"--")</f>
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="T82" s="136">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M82,Trigger),"--")</f>
-        <v>48848</v>
+        <v>48850</v>
       </c>
       <c r="V82" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="W82" s="3" t="e">
@@ -9949,7 +9993,7 @@
         <v>26</v>
       </c>
       <c r="B83" s="59" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="C83" s="60" t="s">
         <v>6</v>
@@ -9961,30 +10005,30 @@
         <v>7</v>
       </c>
       <c r="F83" s="60" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G83" s="60" t="str">
-        <f t="shared" si="15"/>
+        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$69,"E","M")</f>
         <v>Euribor6M</v>
       </c>
       <c r="H83" s="58" t="str">
-        <f t="shared" si="16"/>
-        <v>EURAB6E13Y_Quote</v>
+        <f>Currency&amp;$G$69&amp;$H$69&amp;$B83&amp;"_Quote"</f>
+        <v>EURAB6E10Y_Quote</v>
       </c>
       <c r="I83" s="121">
         <v>0</v>
       </c>
       <c r="J83" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H83,,B83,Calendar,D83,E83,F83,G83,I83,C83,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005c2#0001</v>
+        <v>obj_005d5#0002</v>
       </c>
       <c r="L83" s="69" t="str">
-        <f t="shared" si="13"/>
+        <f>A92</f>
         <v>Sw</v>
       </c>
       <c r="M83" s="134" t="str">
-        <f t="shared" si="14"/>
-        <v>obj_005ad#0001</v>
+        <f>IF(ISBLANK(J92),"--",J92)</f>
+        <v>obj_005e3#0002</v>
       </c>
       <c r="N83" s="142" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M83,Trigger),"--")</f>
@@ -9992,7 +10036,7 @@
       </c>
       <c r="O83" s="135">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M83,Trigger),"--")</f>
-        <v>1.4929999999999999E-2</v>
+        <v>1.4849999999999999E-2</v>
       </c>
       <c r="P83" s="134" t="b">
         <v>1</v>
@@ -10005,14 +10049,14 @@
       </c>
       <c r="S83" s="136">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M83,Trigger),"--")</f>
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="T83" s="136">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M83,Trigger),"--")</f>
-        <v>49212</v>
+        <v>49215</v>
       </c>
       <c r="V83" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="W83" s="3" t="e">
@@ -10048,7 +10092,7 @@
         <v>26</v>
       </c>
       <c r="B84" s="59" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C84" s="60" t="s">
         <v>6</v>
@@ -10060,30 +10104,30 @@
         <v>7</v>
       </c>
       <c r="F84" s="60" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G84" s="60" t="str">
-        <f t="shared" si="15"/>
+        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$69,"E","M")</f>
         <v>Euribor6M</v>
       </c>
       <c r="H84" s="58" t="str">
-        <f t="shared" si="16"/>
-        <v>EURAB6E14Y_Quote</v>
+        <f>Currency&amp;$G$69&amp;$H$69&amp;$B84&amp;"_Quote"</f>
+        <v>EURAB6E11Y_Quote</v>
       </c>
       <c r="I84" s="121">
         <v>0</v>
       </c>
       <c r="J84" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H84,,B84,Calendar,D84,E84,F84,G84,I84,C84,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005b5#0001</v>
+        <v>obj_005da#0002</v>
       </c>
       <c r="L84" s="69" t="str">
-        <f t="shared" si="13"/>
+        <f>A93</f>
         <v>Sw</v>
       </c>
       <c r="M84" s="134" t="str">
-        <f t="shared" si="14"/>
-        <v>obj_005ac#0001</v>
+        <f>IF(ISBLANK(J93),"--",J93)</f>
+        <v>obj_005df#0002</v>
       </c>
       <c r="N84" s="142" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M84,Trigger),"--")</f>
@@ -10091,7 +10135,7 @@
       </c>
       <c r="O84" s="135">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M84,Trigger),"--")</f>
-        <v>1.5110000000000002E-2</v>
+        <v>1.5030000000000002E-2</v>
       </c>
       <c r="P84" s="134" t="b">
         <v>1</v>
@@ -10104,14 +10148,14 @@
       </c>
       <c r="S84" s="136">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M84,Trigger),"--")</f>
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="T84" s="136">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M84,Trigger),"--")</f>
-        <v>49577</v>
+        <v>49580</v>
       </c>
       <c r="V84" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="W84" s="3" t="e">
@@ -10147,7 +10191,7 @@
         <v>26</v>
       </c>
       <c r="B85" s="59" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C85" s="60" t="s">
         <v>6</v>
@@ -10159,30 +10203,30 @@
         <v>7</v>
       </c>
       <c r="F85" s="60" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G85" s="60" t="str">
-        <f t="shared" si="15"/>
+        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$69,"E","M")</f>
         <v>Euribor6M</v>
       </c>
       <c r="H85" s="58" t="str">
-        <f t="shared" si="16"/>
-        <v>EURAB6E15Y_Quote</v>
+        <f>Currency&amp;$G$69&amp;$H$69&amp;$B85&amp;"_Quote"</f>
+        <v>EURAB6E12Y_Quote</v>
       </c>
       <c r="I85" s="121">
         <v>0</v>
       </c>
       <c r="J85" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H85,,B85,Calendar,D85,E85,F85,G85,I85,C85,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005ae#0001</v>
+        <v>obj_005e2#0002</v>
       </c>
       <c r="L85" s="69" t="str">
-        <f t="shared" si="13"/>
+        <f>A94</f>
         <v>Sw</v>
       </c>
       <c r="M85" s="134" t="str">
-        <f t="shared" si="14"/>
-        <v>obj_005c0#0001</v>
+        <f>IF(ISBLANK(J94),"--",J94)</f>
+        <v>obj_005ea#0002</v>
       </c>
       <c r="N85" s="142" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M85,Trigger),"--")</f>
@@ -10190,7 +10234,7 @@
       </c>
       <c r="O85" s="135">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M85,Trigger),"--")</f>
-        <v>1.525E-2</v>
+        <v>1.5169999999999999E-2</v>
       </c>
       <c r="P85" s="134" t="b">
         <v>1</v>
@@ -10203,14 +10247,14 @@
       </c>
       <c r="S85" s="136">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M85,Trigger),"--")</f>
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="T85" s="136">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M85,Trigger),"--")</f>
-        <v>49943</v>
+        <v>49947</v>
       </c>
       <c r="V85" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="W85" s="3" t="e">
@@ -10246,7 +10290,7 @@
         <v>26</v>
       </c>
       <c r="B86" s="59" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C86" s="60" t="s">
         <v>6</v>
@@ -10258,30 +10302,30 @@
         <v>7</v>
       </c>
       <c r="F86" s="60" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G86" s="60" t="str">
-        <f t="shared" si="15"/>
+        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$69,"E","M")</f>
         <v>Euribor6M</v>
       </c>
       <c r="H86" s="58" t="str">
-        <f t="shared" si="16"/>
-        <v>EURAB6E16Y_Quote</v>
+        <f>Currency&amp;$G$69&amp;$H$69&amp;$B86&amp;"_Quote"</f>
+        <v>EURAB6E13Y_Quote</v>
       </c>
       <c r="I86" s="121">
         <v>0</v>
       </c>
       <c r="J86" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H86,,B86,Calendar,D86,E86,F86,G86,I86,C86,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005be#0001</v>
+        <v>obj_005ee#0002</v>
       </c>
       <c r="L86" s="69" t="str">
-        <f t="shared" si="13"/>
+        <f>A95</f>
         <v>Sw</v>
       </c>
       <c r="M86" s="134" t="str">
-        <f t="shared" si="14"/>
-        <v>obj_005b7#0001</v>
+        <f>IF(ISBLANK(J95),"--",J95)</f>
+        <v>obj_005d8#0002</v>
       </c>
       <c r="N86" s="142" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M86,Trigger),"--")</f>
@@ -10289,7 +10333,7 @@
       </c>
       <c r="O86" s="135">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M86,Trigger),"--")</f>
-        <v>1.5339999999999999E-2</v>
+        <v>1.5260000000000001E-2</v>
       </c>
       <c r="P86" s="134" t="b">
         <v>1</v>
@@ -10302,14 +10346,14 @@
       </c>
       <c r="S86" s="136">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M86,Trigger),"--")</f>
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="T86" s="136">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M86,Trigger),"--")</f>
-        <v>50308</v>
+        <v>50311</v>
       </c>
       <c r="V86" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="W86" s="3" t="e">
@@ -10345,7 +10389,7 @@
         <v>26</v>
       </c>
       <c r="B87" s="59" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C87" s="60" t="s">
         <v>6</v>
@@ -10357,30 +10401,30 @@
         <v>7</v>
       </c>
       <c r="F87" s="60" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G87" s="60" t="str">
-        <f t="shared" si="15"/>
+        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$69,"E","M")</f>
         <v>Euribor6M</v>
       </c>
       <c r="H87" s="58" t="str">
-        <f t="shared" si="16"/>
-        <v>EURAB6E17Y_Quote</v>
+        <f>Currency&amp;$G$69&amp;$H$69&amp;$B87&amp;"_Quote"</f>
+        <v>EURAB6E14Y_Quote</v>
       </c>
       <c r="I87" s="121">
         <v>0</v>
       </c>
       <c r="J87" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H87,,B87,Calendar,D87,E87,F87,G87,I87,C87,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005aa#0001</v>
+        <v>obj_005d3#0002</v>
       </c>
       <c r="L87" s="69" t="str">
-        <f t="shared" si="13"/>
+        <f>A96</f>
         <v>Sw</v>
       </c>
       <c r="M87" s="134" t="str">
-        <f t="shared" si="14"/>
-        <v>obj_005b2#0001</v>
+        <f>IF(ISBLANK(J96),"--",J96)</f>
+        <v>obj_005ed#0002</v>
       </c>
       <c r="N87" s="142" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M87,Trigger),"--")</f>
@@ -10388,7 +10432,7 @@
       </c>
       <c r="O87" s="135">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M87,Trigger),"--")</f>
-        <v>1.541E-2</v>
+        <v>1.532E-2</v>
       </c>
       <c r="P87" s="134" t="b">
         <v>1</v>
@@ -10401,14 +10445,14 @@
       </c>
       <c r="S87" s="136">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M87,Trigger),"--")</f>
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="T87" s="136">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M87,Trigger),"--")</f>
-        <v>50675</v>
+        <v>50676</v>
       </c>
       <c r="V87" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="W87" s="3" t="e">
@@ -10444,7 +10488,7 @@
         <v>26</v>
       </c>
       <c r="B88" s="59" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="C88" s="60" t="s">
         <v>6</v>
@@ -10456,30 +10500,30 @@
         <v>7</v>
       </c>
       <c r="F88" s="60" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G88" s="60" t="str">
-        <f t="shared" si="15"/>
+        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$69,"E","M")</f>
         <v>Euribor6M</v>
       </c>
       <c r="H88" s="58" t="str">
-        <f t="shared" si="16"/>
-        <v>EURAB6E18Y_Quote</v>
+        <f>Currency&amp;$G$69&amp;$H$69&amp;$B88&amp;"_Quote"</f>
+        <v>EURAB6E15Y_Quote</v>
       </c>
       <c r="I88" s="121">
         <v>0</v>
       </c>
       <c r="J88" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H88,,B88,Calendar,D88,E88,F88,G88,I88,C88,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005a8#0001</v>
+        <v>obj_005e5#0002</v>
       </c>
       <c r="L88" s="69" t="str">
-        <f t="shared" si="13"/>
+        <f>A97</f>
         <v>Sw</v>
       </c>
       <c r="M88" s="134" t="str">
-        <f t="shared" si="14"/>
-        <v>obj_005b0#0001</v>
+        <f>IF(ISBLANK(J97),"--",J97)</f>
+        <v>obj_005d9#0002</v>
       </c>
       <c r="N88" s="142" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M88,Trigger),"--")</f>
@@ -10487,7 +10531,7 @@
       </c>
       <c r="O88" s="135">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M88,Trigger),"--")</f>
-        <v>1.5449999999999998E-2</v>
+        <v>1.536E-2</v>
       </c>
       <c r="P88" s="134" t="b">
         <v>1</v>
@@ -10500,14 +10544,14 @@
       </c>
       <c r="S88" s="136">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M88,Trigger),"--")</f>
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="T88" s="136">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M88,Trigger),"--")</f>
-        <v>51039</v>
+        <v>51041</v>
       </c>
       <c r="V88" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="W88" s="3" t="e">
@@ -10543,7 +10587,7 @@
         <v>26</v>
       </c>
       <c r="B89" s="59" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C89" s="60" t="s">
         <v>6</v>
@@ -10555,30 +10599,30 @@
         <v>7</v>
       </c>
       <c r="F89" s="60" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G89" s="60" t="str">
-        <f t="shared" si="15"/>
+        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$69,"E","M")</f>
         <v>Euribor6M</v>
       </c>
       <c r="H89" s="58" t="str">
-        <f t="shared" si="16"/>
-        <v>EURAB6E19Y_Quote</v>
+        <f>Currency&amp;$G$69&amp;$H$69&amp;$B89&amp;"_Quote"</f>
+        <v>EURAB6E16Y_Quote</v>
       </c>
       <c r="I89" s="121">
         <v>0</v>
       </c>
       <c r="J89" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H89,,B89,Calendar,D89,E89,F89,G89,I89,C89,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005ad#0001</v>
+        <v>obj_005d6#0002</v>
       </c>
       <c r="L89" s="69" t="str">
-        <f t="shared" si="13"/>
+        <f>A98</f>
         <v>Sw</v>
       </c>
       <c r="M89" s="134" t="str">
-        <f t="shared" si="14"/>
-        <v>obj_005a9#0001</v>
+        <f>IF(ISBLANK(J98),"--",J98)</f>
+        <v>obj_005eb#0002</v>
       </c>
       <c r="N89" s="142" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M89,Trigger),"--")</f>
@@ -10586,7 +10630,7 @@
       </c>
       <c r="O89" s="135">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M89,Trigger),"--")</f>
-        <v>1.5480000000000001E-2</v>
+        <v>1.5390000000000001E-2</v>
       </c>
       <c r="P89" s="134" t="b">
         <v>1</v>
@@ -10599,14 +10643,14 @@
       </c>
       <c r="S89" s="136">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M89,Trigger),"--")</f>
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="T89" s="136">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M89,Trigger),"--")</f>
-        <v>51404</v>
+        <v>51407</v>
       </c>
       <c r="V89" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="W89" s="3" t="e">
@@ -10642,7 +10686,7 @@
         <v>26</v>
       </c>
       <c r="B90" s="59" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="C90" s="60" t="s">
         <v>6</v>
@@ -10654,33 +10698,33 @@
         <v>7</v>
       </c>
       <c r="F90" s="60" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G90" s="60" t="str">
-        <f t="shared" si="15"/>
+        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$69,"E","M")</f>
         <v>Euribor6M</v>
       </c>
       <c r="H90" s="58" t="str">
-        <f t="shared" si="16"/>
-        <v>EURAB6E20Y_Quote</v>
+        <f>Currency&amp;$G$69&amp;$H$69&amp;$B90&amp;"_Quote"</f>
+        <v>EURAB6E17Y_Quote</v>
       </c>
       <c r="I90" s="121">
         <v>0</v>
       </c>
       <c r="J90" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H90,,B90,Calendar,D90,E90,F90,G90,I90,C90,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005ac#0001</v>
+        <v>obj_005dd#0002</v>
       </c>
       <c r="K90" s="47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L90" s="69" t="str">
-        <f t="shared" si="13"/>
+        <f>A99</f>
         <v>Sw</v>
       </c>
       <c r="M90" s="134" t="str">
-        <f t="shared" si="14"/>
-        <v>obj_005c5#0001</v>
+        <f>IF(ISBLANK(J99),"--",J99)</f>
+        <v>obj_005d4#0002</v>
       </c>
       <c r="N90" s="142" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M90,Trigger),"--")</f>
@@ -10688,7 +10732,7 @@
       </c>
       <c r="O90" s="135">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M90,Trigger),"--")</f>
-        <v>1.55E-2</v>
+        <v>1.541E-2</v>
       </c>
       <c r="P90" s="134" t="b">
         <v>1</v>
@@ -10701,14 +10745,14 @@
       </c>
       <c r="S90" s="136">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M90,Trigger),"--")</f>
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="T90" s="136">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M90,Trigger),"--")</f>
-        <v>51769</v>
+        <v>51774</v>
       </c>
       <c r="V90" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="W90" s="3" t="e">
@@ -10744,7 +10788,7 @@
         <v>26</v>
       </c>
       <c r="B91" s="59" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C91" s="60" t="s">
         <v>6</v>
@@ -10756,30 +10800,30 @@
         <v>7</v>
       </c>
       <c r="F91" s="60" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G91" s="60" t="str">
-        <f t="shared" si="15"/>
+        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$69,"E","M")</f>
         <v>Euribor6M</v>
       </c>
       <c r="H91" s="58" t="str">
-        <f t="shared" si="16"/>
-        <v>EURAB6E21Y_Quote</v>
+        <f>Currency&amp;$G$69&amp;$H$69&amp;$B91&amp;"_Quote"</f>
+        <v>EURAB6E18Y_Quote</v>
       </c>
       <c r="I91" s="121">
         <v>0</v>
       </c>
       <c r="J91" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H91,,B91,Calendar,D91,E91,F91,G91,I91,C91,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005c0#0001</v>
+        <v>obj_005e9#0002</v>
       </c>
       <c r="L91" s="69" t="str">
-        <f t="shared" si="13"/>
+        <f>A100</f>
         <v>Sw</v>
       </c>
       <c r="M91" s="134" t="str">
-        <f t="shared" si="14"/>
-        <v>obj_005c3#0001</v>
+        <f>IF(ISBLANK(J100),"--",J100)</f>
+        <v>obj_005d2#0002</v>
       </c>
       <c r="N91" s="142" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M91,Trigger),"--")</f>
@@ -10787,7 +10831,7 @@
       </c>
       <c r="O91" s="135">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M91,Trigger),"--")</f>
-        <v>1.5509999999999999E-2</v>
+        <v>1.542E-2</v>
       </c>
       <c r="P91" s="134" t="b">
         <v>1</v>
@@ -10800,14 +10844,14 @@
       </c>
       <c r="S91" s="136">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M91,Trigger),"--")</f>
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="T91" s="136">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M91,Trigger),"--")</f>
-        <v>52134</v>
+        <v>52138</v>
       </c>
       <c r="V91" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="W91" s="3" t="e">
@@ -10843,7 +10887,7 @@
         <v>26</v>
       </c>
       <c r="B92" s="59" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C92" s="60" t="s">
         <v>6</v>
@@ -10855,30 +10899,30 @@
         <v>7</v>
       </c>
       <c r="F92" s="60" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G92" s="60" t="str">
-        <f t="shared" si="15"/>
+        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$69,"E","M")</f>
         <v>Euribor6M</v>
       </c>
       <c r="H92" s="58" t="str">
-        <f t="shared" si="16"/>
-        <v>EURAB6E22Y_Quote</v>
+        <f>Currency&amp;$G$69&amp;$H$69&amp;$B92&amp;"_Quote"</f>
+        <v>EURAB6E19Y_Quote</v>
       </c>
       <c r="I92" s="121">
         <v>0</v>
       </c>
       <c r="J92" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H92,,B92,Calendar,D92,E92,F92,G92,I92,C92,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005b7#0001</v>
+        <v>obj_005e3#0002</v>
       </c>
       <c r="L92" s="69" t="str">
-        <f t="shared" si="13"/>
+        <f>A101</f>
         <v>Sw</v>
       </c>
       <c r="M92" s="134" t="str">
-        <f t="shared" si="14"/>
-        <v>obj_005c1#0001</v>
+        <f>IF(ISBLANK(J101),"--",J101)</f>
+        <v>obj_005ec#0002</v>
       </c>
       <c r="N92" s="142" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M92,Trigger),"--")</f>
@@ -10886,7 +10930,7 @@
       </c>
       <c r="O92" s="135">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M92,Trigger),"--")</f>
-        <v>1.5520000000000001E-2</v>
+        <v>1.5430000000000001E-2</v>
       </c>
       <c r="P92" s="134" t="b">
         <v>1</v>
@@ -10899,14 +10943,14 @@
       </c>
       <c r="S92" s="136">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M92,Trigger),"--")</f>
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="T92" s="136">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M92,Trigger),"--")</f>
-        <v>52499</v>
+        <v>52502</v>
       </c>
       <c r="V92" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="W92" s="3" t="e">
@@ -10942,7 +10986,7 @@
         <v>26</v>
       </c>
       <c r="B93" s="59" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="C93" s="60" t="s">
         <v>6</v>
@@ -10954,30 +10998,30 @@
         <v>7</v>
       </c>
       <c r="F93" s="60" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G93" s="60" t="str">
-        <f t="shared" si="15"/>
+        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$69,"E","M")</f>
         <v>Euribor6M</v>
       </c>
       <c r="H93" s="58" t="str">
-        <f t="shared" si="16"/>
-        <v>EURAB6E23Y_Quote</v>
+        <f>Currency&amp;$G$69&amp;$H$69&amp;$B93&amp;"_Quote"</f>
+        <v>EURAB6E20Y_Quote</v>
       </c>
       <c r="I93" s="121">
         <v>0</v>
       </c>
       <c r="J93" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H93,,B93,Calendar,D93,E93,F93,G93,I93,C93,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005b2#0001</v>
+        <v>obj_005df#0002</v>
       </c>
       <c r="L93" s="69" t="str">
-        <f t="shared" si="13"/>
+        <f>A102</f>
         <v>Sw</v>
       </c>
       <c r="M93" s="134" t="str">
-        <f t="shared" si="14"/>
-        <v>obj_005ab#0001</v>
+        <f>IF(ISBLANK(J102),"--",J102)</f>
+        <v>obj_005cf#0002</v>
       </c>
       <c r="N93" s="142" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M93,Trigger),"--")</f>
@@ -10985,7 +11029,7 @@
       </c>
       <c r="O93" s="135">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M93,Trigger),"--")</f>
-        <v>1.5529999999999999E-2</v>
+        <v>1.5440000000000001E-2</v>
       </c>
       <c r="P93" s="134" t="b">
         <v>1</v>
@@ -10998,14 +11042,14 @@
       </c>
       <c r="S93" s="136">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M93,Trigger),"--")</f>
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="T93" s="136">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M93,Trigger),"--")</f>
-        <v>52866</v>
+        <v>52868</v>
       </c>
       <c r="V93" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="W93" s="3" t="e">
@@ -11041,7 +11085,7 @@
         <v>26</v>
       </c>
       <c r="B94" s="59" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C94" s="60" t="s">
         <v>6</v>
@@ -11053,30 +11097,30 @@
         <v>7</v>
       </c>
       <c r="F94" s="60" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G94" s="60" t="str">
-        <f t="shared" si="15"/>
+        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$69,"E","M")</f>
         <v>Euribor6M</v>
       </c>
       <c r="H94" s="58" t="str">
-        <f t="shared" si="16"/>
-        <v>EURAB6E24Y_Quote</v>
+        <f>Currency&amp;$G$69&amp;$H$69&amp;$B94&amp;"_Quote"</f>
+        <v>EURAB6E21Y_Quote</v>
       </c>
       <c r="I94" s="121">
         <v>0</v>
       </c>
       <c r="J94" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H94,,B94,Calendar,D94,E94,F94,G94,I94,C94,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005b0#0001</v>
+        <v>obj_005ea#0002</v>
       </c>
       <c r="L94" s="69" t="str">
-        <f t="shared" si="13"/>
+        <f>A103</f>
         <v>Sw</v>
       </c>
       <c r="M94" s="134" t="str">
-        <f t="shared" si="14"/>
-        <v>obj_005c6#0001</v>
+        <f>IF(ISBLANK(J103),"--",J103)</f>
+        <v>obj_005e6#0002</v>
       </c>
       <c r="N94" s="142" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M94,Trigger),"--")</f>
@@ -11084,7 +11128,7 @@
       </c>
       <c r="O94" s="135">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M94,Trigger),"--")</f>
-        <v>1.554E-2</v>
+        <v>1.5449999999999998E-2</v>
       </c>
       <c r="P94" s="134" t="b">
         <v>1</v>
@@ -11097,14 +11141,14 @@
       </c>
       <c r="S94" s="136">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M94,Trigger),"--")</f>
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="T94" s="136">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M94,Trigger),"--")</f>
-        <v>53230</v>
+        <v>53233</v>
       </c>
       <c r="V94" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="W94" s="3" t="e">
@@ -11140,7 +11184,7 @@
         <v>26</v>
       </c>
       <c r="B95" s="59" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="C95" s="60" t="s">
         <v>6</v>
@@ -11152,30 +11196,30 @@
         <v>7</v>
       </c>
       <c r="F95" s="60" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G95" s="60" t="str">
-        <f t="shared" si="15"/>
+        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$69,"E","M")</f>
         <v>Euribor6M</v>
       </c>
       <c r="H95" s="58" t="str">
-        <f t="shared" si="16"/>
-        <v>EURAB6E25Y_Quote</v>
+        <f>Currency&amp;$G$69&amp;$H$69&amp;$B95&amp;"_Quote"</f>
+        <v>EURAB6E22Y_Quote</v>
       </c>
       <c r="I95" s="121">
         <v>0</v>
       </c>
       <c r="J95" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H95,,B95,Calendar,D95,E95,F95,G95,I95,C95,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005a9#0001</v>
+        <v>obj_005d8#0002</v>
       </c>
       <c r="L95" s="69" t="str">
-        <f t="shared" si="13"/>
+        <f>A104</f>
         <v>Sw</v>
       </c>
       <c r="M95" s="134" t="str">
-        <f t="shared" si="14"/>
-        <v>obj_005af#0001</v>
+        <f>IF(ISBLANK(J104),"--",J104)</f>
+        <v>obj_005d7#0002</v>
       </c>
       <c r="N95" s="142" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M95,Trigger),"--")</f>
@@ -11183,7 +11227,7 @@
       </c>
       <c r="O95" s="135">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M95,Trigger),"--")</f>
-        <v>1.5600000000000001E-2</v>
+        <v>1.5509999999999999E-2</v>
       </c>
       <c r="P95" s="134" t="b">
         <v>1</v>
@@ -11196,14 +11240,14 @@
       </c>
       <c r="S95" s="136">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M95,Trigger),"--")</f>
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="T95" s="136">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M95,Trigger),"--")</f>
-        <v>55057</v>
+        <v>55059</v>
       </c>
       <c r="V95" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="W95" s="3" t="e">
@@ -11239,7 +11283,7 @@
         <v>26</v>
       </c>
       <c r="B96" s="59" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C96" s="60" t="s">
         <v>6</v>
@@ -11251,30 +11295,30 @@
         <v>7</v>
       </c>
       <c r="F96" s="60" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G96" s="60" t="str">
-        <f t="shared" si="15"/>
+        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$69,"E","M")</f>
         <v>Euribor6M</v>
       </c>
       <c r="H96" s="58" t="str">
-        <f t="shared" si="16"/>
-        <v>EURAB6E26Y_Quote</v>
+        <f>Currency&amp;$G$69&amp;$H$69&amp;$B96&amp;"_Quote"</f>
+        <v>EURAB6E23Y_Quote</v>
       </c>
       <c r="I96" s="121">
         <v>0</v>
       </c>
       <c r="J96" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H96,,B96,Calendar,D96,E96,F96,G96,I96,C96,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005c5#0001</v>
+        <v>obj_005ed#0002</v>
       </c>
       <c r="L96" s="69" t="str">
-        <f t="shared" si="13"/>
+        <f>A105</f>
         <v>Sw</v>
       </c>
       <c r="M96" s="134" t="str">
-        <f t="shared" si="14"/>
-        <v>obj_005bd#0001</v>
+        <f>IF(ISBLANK(J105),"--",J105)</f>
+        <v>obj_005e4#0002</v>
       </c>
       <c r="N96" s="142" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M96,Trigger),"--")</f>
@@ -11282,7 +11326,7 @@
       </c>
       <c r="O96" s="135">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M96,Trigger),"--")</f>
-        <v>1.5600000000000001E-2</v>
+        <v>1.5509999999999999E-2</v>
       </c>
       <c r="P96" s="134" t="b">
         <v>1</v>
@@ -11295,14 +11339,14 @@
       </c>
       <c r="S96" s="136">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M96,Trigger),"--")</f>
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="T96" s="136">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M96,Trigger),"--")</f>
-        <v>56884</v>
+        <v>56885</v>
       </c>
       <c r="V96" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="W96" s="3" t="e">
@@ -11338,7 +11382,7 @@
         <v>26</v>
       </c>
       <c r="B97" s="59" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="C97" s="60" t="s">
         <v>6</v>
@@ -11350,29 +11394,29 @@
         <v>7</v>
       </c>
       <c r="F97" s="60" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G97" s="60" t="str">
-        <f t="shared" si="15"/>
+        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$69,"E","M")</f>
         <v>Euribor6M</v>
       </c>
       <c r="H97" s="58" t="str">
-        <f t="shared" si="16"/>
-        <v>EURAB6E27Y_Quote</v>
+        <f>Currency&amp;$G$69&amp;$H$69&amp;$B97&amp;"_Quote"</f>
+        <v>EURAB6E24Y_Quote</v>
       </c>
       <c r="I97" s="121">
         <v>0</v>
       </c>
       <c r="J97" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H97,,B97,Calendar,D97,E97,F97,G97,I97,C97,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005c3#0001</v>
+        <v>obj_005d9#0002</v>
       </c>
       <c r="L97" s="69" t="str">
-        <f t="shared" si="13"/>
+        <f>A106</f>
         <v>Sw</v>
       </c>
       <c r="M97" s="134" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(ISBLANK(J106),"--",J106)</f>
         <v>--</v>
       </c>
       <c r="N97" s="142" t="str">
@@ -11401,7 +11445,7 @@
         <v>--</v>
       </c>
       <c r="V97" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="W97" s="3" t="e">
@@ -11437,7 +11481,7 @@
         <v>26</v>
       </c>
       <c r="B98" s="59" t="s">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="C98" s="60" t="s">
         <v>6</v>
@@ -11449,30 +11493,30 @@
         <v>7</v>
       </c>
       <c r="F98" s="60" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G98" s="60" t="str">
-        <f t="shared" si="15"/>
+        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$69,"E","M")</f>
         <v>Euribor6M</v>
       </c>
       <c r="H98" s="58" t="str">
-        <f t="shared" si="16"/>
-        <v>EURAB6E28Y_Quote</v>
+        <f>Currency&amp;$G$69&amp;$H$69&amp;$B98&amp;"_Quote"</f>
+        <v>EURAB6E25Y_Quote</v>
       </c>
       <c r="I98" s="121">
         <v>0</v>
       </c>
       <c r="J98" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H98,,B98,Calendar,D98,E98,F98,G98,I98,C98,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005c1#0001</v>
+        <v>obj_005eb#0002</v>
       </c>
       <c r="L98" s="69" t="str">
-        <f t="shared" si="13"/>
+        <f>A107</f>
         <v>Sw</v>
       </c>
       <c r="M98" s="134" t="str">
-        <f t="shared" si="14"/>
-        <v>obj_005bc#0001</v>
+        <f>IF(ISBLANK(J107),"--",J107)</f>
+        <v>obj_005e1#0002</v>
       </c>
       <c r="N98" s="142" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M98,Trigger),"--")</f>
@@ -11480,7 +11524,7 @@
       </c>
       <c r="O98" s="135">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M98,Trigger),"--")</f>
-        <v>1.5169999999999999E-2</v>
+        <v>1.508E-2</v>
       </c>
       <c r="P98" s="134" t="b">
         <v>1</v>
@@ -11493,14 +11537,14 @@
       </c>
       <c r="S98" s="136">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M98,Trigger),"--")</f>
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="T98" s="136">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M98,Trigger),"--")</f>
-        <v>60535</v>
+        <v>60538</v>
       </c>
       <c r="V98" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="W98" s="3" t="e">
@@ -11536,7 +11580,7 @@
         <v>26</v>
       </c>
       <c r="B99" s="59" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C99" s="60" t="s">
         <v>6</v>
@@ -11548,30 +11592,30 @@
         <v>7</v>
       </c>
       <c r="F99" s="60" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G99" s="60" t="str">
-        <f t="shared" si="15"/>
+        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$69,"E","M")</f>
         <v>Euribor6M</v>
       </c>
       <c r="H99" s="58" t="str">
-        <f t="shared" si="16"/>
-        <v>EURAB6E29Y_Quote</v>
+        <f>Currency&amp;$G$69&amp;$H$69&amp;$B99&amp;"_Quote"</f>
+        <v>EURAB6E26Y_Quote</v>
       </c>
       <c r="I99" s="121">
         <v>0</v>
       </c>
       <c r="J99" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H99,,B99,Calendar,D99,E99,F99,G99,I99,C99,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005ab#0001</v>
+        <v>obj_005d4#0002</v>
       </c>
       <c r="L99" s="70" t="str">
-        <f t="shared" si="13"/>
+        <f>A108</f>
         <v>Sw</v>
       </c>
       <c r="M99" s="137" t="str">
-        <f t="shared" si="14"/>
-        <v>obj_005a7#0001</v>
+        <f>IF(ISBLANK(J108),"--",J108)</f>
+        <v>obj_005e7#0002</v>
       </c>
       <c r="N99" s="147" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M99,Trigger),"--")</f>
@@ -11579,7 +11623,7 @@
       </c>
       <c r="O99" s="148">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M99,Trigger),"--")</f>
-        <v>1.502E-2</v>
+        <v>1.4929999999999999E-2</v>
       </c>
       <c r="P99" s="137" t="b">
         <v>1</v>
@@ -11592,14 +11636,14 @@
       </c>
       <c r="S99" s="146">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M99,Trigger),"--")</f>
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="T99" s="146">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M99,Trigger),"--")</f>
-        <v>64187</v>
+        <v>64192</v>
       </c>
       <c r="V99" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="W99" s="5" t="e">
@@ -11635,7 +11679,7 @@
         <v>26</v>
       </c>
       <c r="B100" s="59" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C100" s="60" t="s">
         <v>6</v>
@@ -11647,22 +11691,22 @@
         <v>7</v>
       </c>
       <c r="F100" s="60" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G100" s="60" t="str">
-        <f t="shared" si="15"/>
+        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$69,"E","M")</f>
         <v>Euribor6M</v>
       </c>
       <c r="H100" s="58" t="str">
-        <f t="shared" si="16"/>
-        <v>EURAB6E30Y_Quote</v>
+        <f>Currency&amp;$G$69&amp;$H$69&amp;$B100&amp;"_Quote"</f>
+        <v>EURAB6E27Y_Quote</v>
       </c>
       <c r="I100" s="121">
         <v>0</v>
       </c>
       <c r="J100" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H100,,B100,Calendar,D100,E100,F100,G100,I100,C100,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005c6#0001</v>
+        <v>obj_005d2#0002</v>
       </c>
       <c r="AD100" s="163"/>
     </row>
@@ -11671,7 +11715,7 @@
         <v>26</v>
       </c>
       <c r="B101" s="59" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="C101" s="60" t="s">
         <v>6</v>
@@ -11683,22 +11727,22 @@
         <v>7</v>
       </c>
       <c r="F101" s="60" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G101" s="60" t="str">
-        <f t="shared" si="15"/>
+        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$69,"E","M")</f>
         <v>Euribor6M</v>
       </c>
       <c r="H101" s="58" t="str">
-        <f t="shared" si="16"/>
-        <v>EURAB6E35Y_Quote</v>
+        <f>Currency&amp;$G$69&amp;$H$69&amp;$B101&amp;"_Quote"</f>
+        <v>EURAB6E28Y_Quote</v>
       </c>
       <c r="I101" s="121">
         <v>0</v>
       </c>
       <c r="J101" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H101,,B101,Calendar,D101,E101,F101,G101,I101,C101,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005af#0001</v>
+        <v>obj_005ec#0002</v>
       </c>
       <c r="AD101" s="163"/>
     </row>
@@ -11707,7 +11751,7 @@
         <v>26</v>
       </c>
       <c r="B102" s="59" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="C102" s="60" t="s">
         <v>6</v>
@@ -11719,22 +11763,22 @@
         <v>7</v>
       </c>
       <c r="F102" s="60" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G102" s="60" t="str">
-        <f t="shared" si="15"/>
+        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$69,"E","M")</f>
         <v>Euribor6M</v>
       </c>
       <c r="H102" s="58" t="str">
-        <f t="shared" si="16"/>
-        <v>EURAB6E40Y_Quote</v>
-      </c>
-      <c r="I102" s="119">
+        <f>Currency&amp;$G$69&amp;$H$69&amp;$B102&amp;"_Quote"</f>
+        <v>EURAB6E29Y_Quote</v>
+      </c>
+      <c r="I102" s="121">
         <v>0</v>
       </c>
       <c r="J102" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H102,,B102,Calendar,D102,E102,F102,G102,I102,C102,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005bd#0001</v>
+        <v>obj_005cf#0002</v>
       </c>
       <c r="AD102" s="163"/>
     </row>
@@ -11743,7 +11787,7 @@
         <v>26</v>
       </c>
       <c r="B103" s="59" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C103" s="60" t="s">
         <v>6</v>
@@ -11755,20 +11799,23 @@
         <v>7</v>
       </c>
       <c r="F103" s="60" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G103" s="60" t="str">
-        <f t="shared" si="15"/>
+        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$69,"E","M")</f>
         <v>Euribor6M</v>
       </c>
       <c r="H103" s="58" t="str">
-        <f t="shared" si="16"/>
-        <v>EURAB6E45Y_Quote</v>
-      </c>
-      <c r="I103" s="119">
-        <v>0</v>
-      </c>
-      <c r="J103" s="62"/>
+        <f>Currency&amp;$G$69&amp;$H$69&amp;$B103&amp;"_Quote"</f>
+        <v>EURAB6E30Y_Quote</v>
+      </c>
+      <c r="I103" s="121">
+        <v>0</v>
+      </c>
+      <c r="J103" s="62" t="str">
+        <f>_xll.qlSwapRateHelper2(,H103,,B103,Calendar,D103,E103,F103,G103,I103,C103,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_005e6#0002</v>
+      </c>
       <c r="AD103" s="163"/>
     </row>
     <row r="104" spans="1:30" x14ac:dyDescent="0.2">
@@ -11776,7 +11823,7 @@
         <v>26</v>
       </c>
       <c r="B104" s="59" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C104" s="60" t="s">
         <v>6</v>
@@ -11788,68 +11835,164 @@
         <v>7</v>
       </c>
       <c r="F104" s="60" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G104" s="60" t="str">
-        <f t="shared" si="15"/>
+        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$69,"E","M")</f>
         <v>Euribor6M</v>
       </c>
       <c r="H104" s="58" t="str">
-        <f t="shared" si="16"/>
-        <v>EURAB6E50Y_Quote</v>
-      </c>
-      <c r="I104" s="119">
+        <f>Currency&amp;$G$69&amp;$H$69&amp;$B104&amp;"_Quote"</f>
+        <v>EURAB6E35Y_Quote</v>
+      </c>
+      <c r="I104" s="121">
         <v>0</v>
       </c>
       <c r="J104" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H104,,B104,Calendar,D104,E104,F104,G104,I104,C104,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005bc#0001</v>
+        <v>obj_005d7#0002</v>
       </c>
       <c r="AD104" s="163"/>
     </row>
     <row r="105" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A105" s="1" t="s">
+      <c r="A105" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="B105" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C105" s="6" t="s">
+      <c r="B105" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="C105" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="D105" s="6" t="s">
+      <c r="D105" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="E105" s="6" t="s">
+      <c r="E105" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="F105" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="G105" s="6" t="str">
-        <f t="shared" si="15"/>
+      <c r="F105" s="60" t="s">
+        <v>117</v>
+      </c>
+      <c r="G105" s="60" t="str">
+        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$69,"E","M")</f>
         <v>Euribor6M</v>
       </c>
-      <c r="H105" s="1" t="str">
-        <f t="shared" si="16"/>
+      <c r="H105" s="58" t="str">
+        <f>Currency&amp;$G$69&amp;$H$69&amp;$B105&amp;"_Quote"</f>
+        <v>EURAB6E40Y_Quote</v>
+      </c>
+      <c r="I105" s="119">
+        <v>0</v>
+      </c>
+      <c r="J105" s="62" t="str">
+        <f>_xll.qlSwapRateHelper2(,H105,,B105,Calendar,D105,E105,F105,G105,I105,C105,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_005e4#0002</v>
+      </c>
+      <c r="AD105" s="163"/>
+    </row>
+    <row r="106" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A106" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="B106" s="59" t="s">
+        <v>59</v>
+      </c>
+      <c r="C106" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="D106" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="E106" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="F106" s="60" t="s">
+        <v>117</v>
+      </c>
+      <c r="G106" s="60" t="str">
+        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$69,"E","M")</f>
+        <v>Euribor6M</v>
+      </c>
+      <c r="H106" s="58" t="str">
+        <f>Currency&amp;$G$69&amp;$H$69&amp;$B106&amp;"_Quote"</f>
+        <v>EURAB6E45Y_Quote</v>
+      </c>
+      <c r="I106" s="119">
+        <v>0</v>
+      </c>
+      <c r="J106" s="62"/>
+      <c r="AD106" s="163"/>
+    </row>
+    <row r="107" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A107" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="B107" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="C107" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="D107" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="E107" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="F107" s="60" t="s">
+        <v>117</v>
+      </c>
+      <c r="G107" s="60" t="str">
+        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$69,"E","M")</f>
+        <v>Euribor6M</v>
+      </c>
+      <c r="H107" s="58" t="str">
+        <f>Currency&amp;$G$69&amp;$H$69&amp;$B107&amp;"_Quote"</f>
+        <v>EURAB6E50Y_Quote</v>
+      </c>
+      <c r="I107" s="119">
+        <v>0</v>
+      </c>
+      <c r="J107" s="62" t="str">
+        <f>_xll.qlSwapRateHelper2(,H107,,B107,Calendar,D107,E107,F107,G107,I107,C107,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_005e1#0002</v>
+      </c>
+      <c r="AD107" s="163"/>
+    </row>
+    <row r="108" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E108" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F108" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G108" s="6" t="str">
+        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$69,"E","M")</f>
+        <v>Euribor6M</v>
+      </c>
+      <c r="H108" s="1" t="str">
+        <f>Currency&amp;$G$69&amp;$H$69&amp;$B108&amp;"_Quote"</f>
         <v>EURAB6E60Y_Quote</v>
       </c>
-      <c r="I105" s="122">
-        <v>0</v>
-      </c>
-      <c r="J105" s="2" t="str">
-        <f>_xll.qlSwapRateHelper2(,H105,,B105,Calendar,D105,E105,F105,G105,I105,C105,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_005a7#0001</v>
-      </c>
-      <c r="AD105" s="163"/>
-    </row>
-    <row r="106" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="AD106" s="163"/>
-    </row>
-    <row r="107" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="AD107" s="163"/>
-    </row>
-    <row r="108" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="I108" s="122">
+        <v>0</v>
+      </c>
+      <c r="J108" s="2" t="str">
+        <f>_xll.qlSwapRateHelper2(,H108,,B108,Calendar,D108,E108,F108,G108,I108,C108,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>obj_005e7#0002</v>
+      </c>
       <c r="AD108" s="163"/>
     </row>
     <row r="109" spans="1:30" x14ac:dyDescent="0.2">
@@ -11914,13 +12057,13 @@
     <mergeCell ref="AE2:AF2"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D68:D105">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D71:D108">
       <formula1>"Annual,Semiannual,EveryFourthMonth,Quarterly,Bimonthly,Monthly,Biweekly,Weekly,Daily,Once,NoFrequency"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E68:E105 E3:E11 E21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E71:E108 E3:E11 E21">
       <formula1>"Following,Modified Following,Preceding,Modified Preceding,Unadjusted,Half-Month Modified Following"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F68:F105 F3:F11 F21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F71:F108 F3:F11 F21">
       <formula1>"Actual/Actual (ISDA),Actual/360,30/360 (Bond Basis),30E/360 (Eurobond Basis),Actual/365 (Fixed),Actual/Actual (ISMA),Actual/Actual (AFB),1/1,30/360 (Italian),Simple"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF6">
@@ -11969,7 +12112,7 @@
       <c r="D1" s="166"/>
       <c r="E1" s="166"/>
       <c r="F1" s="167"/>
-      <c r="G1" s="222"/>
+      <c r="G1" s="219"/>
       <c r="H1" s="168"/>
       <c r="I1" s="169"/>
       <c r="J1" s="169"/>
@@ -11980,1064 +12123,1064 @@
       <c r="O1" s="169"/>
       <c r="P1" s="171"/>
       <c r="Q1" s="172"/>
-      <c r="R1" s="222"/>
-      <c r="S1" s="222"/>
-      <c r="T1" s="222"/>
-      <c r="U1" s="222"/>
-      <c r="V1" s="222"/>
-      <c r="W1" s="222"/>
-    </row>
-    <row r="2" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="173"/>
-      <c r="B2" s="191" t="s">
+      <c r="R1" s="219"/>
+      <c r="S1" s="219"/>
+      <c r="T1" s="219"/>
+      <c r="U1" s="219"/>
+      <c r="V1" s="219"/>
+      <c r="W1" s="219"/>
+    </row>
+    <row r="2" spans="1:23" s="230" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="232"/>
+      <c r="B2" s="233" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="191" t="s">
-        <v>155</v>
-      </c>
-      <c r="D2" s="192" t="s">
-        <v>156</v>
-      </c>
-      <c r="E2" s="192" t="s">
+      <c r="C2" s="233" t="s">
+        <v>153</v>
+      </c>
+      <c r="D2" s="234" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2" s="234" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="222"/>
-      <c r="H2" s="173"/>
-      <c r="I2" s="192" t="s">
+      <c r="F2" s="235"/>
+      <c r="G2" s="236"/>
+      <c r="H2" s="232"/>
+      <c r="I2" s="234" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="227" t="str">
+      <c r="J2" s="221" t="str">
         <f>_xll.RData(J3:J20,K2:K2,"RTFEED:DTSIMI1","FRQ:1S",,K3)</f>
-        <v>Paused at 16:50:53</v>
-      </c>
-      <c r="K2" s="192" t="s">
+        <v>Paused at 10:49:43</v>
+      </c>
+      <c r="K2" s="234" t="s">
+        <v>144</v>
+      </c>
+      <c r="L2" s="237"/>
+      <c r="M2" s="234" t="s">
         <v>145</v>
       </c>
-      <c r="L2" s="174"/>
-      <c r="M2" s="192" t="s">
+      <c r="N2" s="237"/>
+      <c r="O2" s="234" t="s">
         <v>146</v>
       </c>
-      <c r="N2" s="174"/>
-      <c r="O2" s="192" t="s">
+      <c r="P2" s="234" t="s">
         <v>147</v>
       </c>
-      <c r="P2" s="192" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="222"/>
-      <c r="S2" s="222"/>
-      <c r="T2" s="222"/>
-      <c r="U2" s="222"/>
-      <c r="V2" s="222"/>
-      <c r="W2" s="222"/>
+      <c r="Q2" s="235"/>
+      <c r="R2" s="236"/>
+      <c r="S2" s="236"/>
+      <c r="T2" s="236"/>
+      <c r="U2" s="236"/>
+      <c r="V2" s="236"/>
+      <c r="W2" s="236"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="173"/>
-      <c r="B3" s="193" t="s">
-        <v>119</v>
-      </c>
-      <c r="C3" s="193" t="str">
+      <c r="B3" s="190" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="190" t="str">
         <f t="shared" ref="C3:C21" si="0">Currency&amp;B3&amp;"_Mx"&amp;QuoteSuffix</f>
         <v>EUROND_Mx_Quote</v>
       </c>
-      <c r="D3" s="194" t="str">
+      <c r="D3" s="191" t="str">
         <f>_xll.qlSimpleQuote(C3,,0.01%,Permanent,Trigger,ObjectOverwrite)</f>
         <v>EUROND_Mx_Quote#0001</v>
       </c>
-      <c r="E3" s="195" t="str">
+      <c r="E3" s="192" t="str">
         <f>_xll.ohRangeRetrieveError(D3)</f>
         <v/>
       </c>
       <c r="F3" s="16"/>
-      <c r="G3" s="222"/>
+      <c r="G3" s="219"/>
       <c r="H3" s="173"/>
-      <c r="I3" s="202" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" s="215" t="str">
+      <c r="I3" s="199" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="212" t="str">
         <f t="shared" ref="J3:J21" si="1">Currency&amp;"X"&amp;I3&amp;"D="</f>
         <v>EURXOND=</v>
       </c>
-      <c r="K3" s="203">
+      <c r="K3" s="200">
         <v>-0.1299999</v>
       </c>
-      <c r="L3" s="204"/>
-      <c r="M3" s="205">
+      <c r="L3" s="201"/>
+      <c r="M3" s="202">
         <v>-9.9999900000000003E-2</v>
       </c>
-      <c r="N3" s="204"/>
-      <c r="O3" s="218">
+      <c r="N3" s="201"/>
+      <c r="O3" s="215">
         <f t="array" ref="O3:O21">QuoteLive</f>
         <v>-0.1299999</v>
       </c>
-      <c r="P3" s="206" t="e">
+      <c r="P3" s="203" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D3,O3/100,Trigger)</f>
         <v>#N/A</v>
       </c>
       <c r="Q3" s="16"/>
-      <c r="R3" s="222"/>
-      <c r="S3" s="222"/>
-      <c r="T3" s="222"/>
-      <c r="U3" s="222"/>
-      <c r="V3" s="222"/>
-      <c r="W3" s="222"/>
+      <c r="R3" s="219"/>
+      <c r="S3" s="219"/>
+      <c r="T3" s="219"/>
+      <c r="U3" s="219"/>
+      <c r="V3" s="219"/>
+      <c r="W3" s="219"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="173"/>
-      <c r="B4" s="196" t="s">
-        <v>120</v>
-      </c>
-      <c r="C4" s="196" t="str">
+      <c r="B4" s="193" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="193" t="str">
         <f t="shared" si="0"/>
         <v>EURTND_Mx_Quote</v>
       </c>
-      <c r="D4" s="197" t="str">
+      <c r="D4" s="194" t="str">
         <f>_xll.qlSimpleQuote(C4,,0.01%,Permanent,Trigger,ObjectOverwrite)</f>
         <v>EURTND_Mx_Quote#0001</v>
       </c>
-      <c r="E4" s="198" t="str">
+      <c r="E4" s="195" t="str">
         <f>_xll.ohRangeRetrieveError(D4)</f>
         <v/>
       </c>
       <c r="F4" s="16"/>
-      <c r="G4" s="222"/>
+      <c r="G4" s="219"/>
       <c r="H4" s="173"/>
-      <c r="I4" s="207" t="s">
-        <v>64</v>
-      </c>
-      <c r="J4" s="216" t="str">
+      <c r="I4" s="204" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" s="213" t="str">
         <f t="shared" si="1"/>
         <v>EURXTND=</v>
       </c>
-      <c r="K4" s="208">
+      <c r="K4" s="205">
         <v>-0.13</v>
       </c>
-      <c r="L4" s="204"/>
-      <c r="M4" s="209">
+      <c r="L4" s="201"/>
+      <c r="M4" s="206">
         <v>-0.1</v>
       </c>
-      <c r="N4" s="204"/>
-      <c r="O4" s="219">
+      <c r="N4" s="201"/>
+      <c r="O4" s="216">
         <v>-0.13</v>
       </c>
-      <c r="P4" s="210" t="e">
+      <c r="P4" s="207" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D4,O4/100,Trigger)</f>
         <v>#N/A</v>
       </c>
       <c r="Q4" s="16"/>
-      <c r="R4" s="222"/>
-      <c r="S4" s="222"/>
-      <c r="T4" s="222"/>
-      <c r="U4" s="222"/>
-      <c r="V4" s="222"/>
-      <c r="W4" s="222"/>
+      <c r="R4" s="219"/>
+      <c r="S4" s="219"/>
+      <c r="T4" s="219"/>
+      <c r="U4" s="219"/>
+      <c r="V4" s="219"/>
+      <c r="W4" s="219"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="173"/>
-      <c r="B5" s="196" t="s">
-        <v>121</v>
-      </c>
-      <c r="C5" s="196" t="str">
+      <c r="B5" s="193" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="193" t="str">
         <f t="shared" si="0"/>
         <v>EURSND_Mx_Quote</v>
       </c>
-      <c r="D5" s="197" t="str">
+      <c r="D5" s="194" t="str">
         <f>_xll.qlSimpleQuote(C5,,0.01%,Permanent,Trigger,ObjectOverwrite)</f>
         <v>EURSND_Mx_Quote#0001</v>
       </c>
-      <c r="E5" s="198" t="str">
+      <c r="E5" s="195" t="str">
         <f>_xll.ohRangeRetrieveError(D5)</f>
         <v/>
       </c>
       <c r="F5" s="16"/>
-      <c r="G5" s="222"/>
+      <c r="G5" s="219"/>
       <c r="H5" s="173"/>
-      <c r="I5" s="207" t="s">
-        <v>65</v>
-      </c>
-      <c r="J5" s="216" t="str">
+      <c r="I5" s="204" t="s">
+        <v>64</v>
+      </c>
+      <c r="J5" s="213" t="str">
         <f t="shared" si="1"/>
         <v>EURXSND=</v>
       </c>
-      <c r="K5" s="208">
+      <c r="K5" s="205">
         <v>-0.13</v>
       </c>
-      <c r="L5" s="204"/>
-      <c r="M5" s="209">
+      <c r="L5" s="201"/>
+      <c r="M5" s="206">
         <v>-0.1</v>
       </c>
-      <c r="N5" s="204"/>
-      <c r="O5" s="219">
+      <c r="N5" s="201"/>
+      <c r="O5" s="216">
         <v>-0.13</v>
       </c>
-      <c r="P5" s="210" t="e">
+      <c r="P5" s="207" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D5,O5/100,Trigger)</f>
         <v>#N/A</v>
       </c>
       <c r="Q5" s="16"/>
-      <c r="R5" s="222"/>
-      <c r="S5" s="222"/>
-      <c r="T5" s="222"/>
-      <c r="U5" s="222"/>
-      <c r="V5" s="222"/>
-      <c r="W5" s="222"/>
+      <c r="R5" s="219"/>
+      <c r="S5" s="219"/>
+      <c r="T5" s="219"/>
+      <c r="U5" s="219"/>
+      <c r="V5" s="219"/>
+      <c r="W5" s="219"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="173"/>
-      <c r="B6" s="196" t="s">
-        <v>122</v>
-      </c>
-      <c r="C6" s="196" t="str">
+      <c r="B6" s="193" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="193" t="str">
         <f t="shared" si="0"/>
         <v>EURSWD_Mx_Quote</v>
       </c>
-      <c r="D6" s="197" t="str">
+      <c r="D6" s="194" t="str">
         <f>_xll.qlSimpleQuote(C6,,0.01%,Permanent,Trigger,ObjectOverwrite)</f>
         <v>EURSWD_Mx_Quote#0001</v>
       </c>
-      <c r="E6" s="198" t="str">
+      <c r="E6" s="195" t="str">
         <f>_xll.ohRangeRetrieveError(D6)</f>
         <v/>
       </c>
       <c r="F6" s="16"/>
-      <c r="G6" s="222"/>
+      <c r="G6" s="219"/>
       <c r="H6" s="173"/>
-      <c r="I6" s="207" t="s">
-        <v>79</v>
-      </c>
-      <c r="J6" s="216" t="str">
+      <c r="I6" s="204" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" s="213" t="str">
         <f t="shared" si="1"/>
         <v>EURXSWD=</v>
       </c>
-      <c r="K6" s="208">
+      <c r="K6" s="205">
         <v>-0.1</v>
       </c>
-      <c r="L6" s="204"/>
-      <c r="M6" s="209">
+      <c r="L6" s="201"/>
+      <c r="M6" s="206">
         <v>-0.09</v>
       </c>
-      <c r="N6" s="204"/>
-      <c r="O6" s="219">
+      <c r="N6" s="201"/>
+      <c r="O6" s="216">
         <v>-0.1</v>
       </c>
-      <c r="P6" s="210" t="e">
+      <c r="P6" s="207" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D6,O6/100,Trigger)</f>
         <v>#N/A</v>
       </c>
       <c r="Q6" s="16"/>
-      <c r="R6" s="222"/>
-      <c r="S6" s="222"/>
-      <c r="T6" s="222"/>
-      <c r="U6" s="222"/>
-      <c r="V6" s="222"/>
-      <c r="W6" s="222"/>
+      <c r="R6" s="219"/>
+      <c r="S6" s="219"/>
+      <c r="T6" s="219"/>
+      <c r="U6" s="219"/>
+      <c r="V6" s="219"/>
+      <c r="W6" s="219"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="173"/>
-      <c r="B7" s="196" t="s">
-        <v>123</v>
-      </c>
-      <c r="C7" s="196" t="str">
+      <c r="B7" s="193" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="193" t="str">
         <f t="shared" si="0"/>
         <v>EUR2WD_Mx_Quote</v>
       </c>
-      <c r="D7" s="197" t="str">
+      <c r="D7" s="194" t="str">
         <f>_xll.qlSimpleQuote(C7,,0.01%,Permanent,Trigger,ObjectOverwrite)</f>
         <v>EUR2WD_Mx_Quote#0001</v>
       </c>
-      <c r="E7" s="198" t="str">
+      <c r="E7" s="195" t="str">
         <f>_xll.ohRangeRetrieveError(D7)</f>
         <v/>
       </c>
       <c r="F7" s="16"/>
-      <c r="G7" s="222"/>
+      <c r="G7" s="219"/>
       <c r="H7" s="173"/>
-      <c r="I7" s="207" t="s">
-        <v>138</v>
-      </c>
-      <c r="J7" s="216" t="str">
+      <c r="I7" s="204" t="s">
+        <v>137</v>
+      </c>
+      <c r="J7" s="213" t="str">
         <f t="shared" si="1"/>
         <v>EURX2WD=</v>
       </c>
-      <c r="K7" s="208">
+      <c r="K7" s="205">
         <v>-0.11000000000000001</v>
       </c>
-      <c r="L7" s="204"/>
-      <c r="M7" s="209">
+      <c r="L7" s="201"/>
+      <c r="M7" s="206">
         <v>-0.08</v>
       </c>
-      <c r="N7" s="204"/>
-      <c r="O7" s="219">
+      <c r="N7" s="201"/>
+      <c r="O7" s="216">
         <v>-0.11000000000000001</v>
       </c>
-      <c r="P7" s="210" t="e">
+      <c r="P7" s="207" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D7,O7/100,Trigger)</f>
         <v>#N/A</v>
       </c>
       <c r="Q7" s="16"/>
-      <c r="R7" s="222"/>
-      <c r="S7" s="222"/>
-      <c r="T7" s="222"/>
-      <c r="U7" s="222"/>
-      <c r="V7" s="222"/>
-      <c r="W7" s="222"/>
+      <c r="R7" s="219"/>
+      <c r="S7" s="219"/>
+      <c r="T7" s="219"/>
+      <c r="U7" s="219"/>
+      <c r="V7" s="219"/>
+      <c r="W7" s="219"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="173"/>
-      <c r="B8" s="196" t="s">
-        <v>124</v>
-      </c>
-      <c r="C8" s="196" t="str">
+      <c r="B8" s="193" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="193" t="str">
         <f t="shared" si="0"/>
         <v>EUR3WD_Mx_Quote</v>
       </c>
-      <c r="D8" s="197" t="str">
+      <c r="D8" s="194" t="str">
         <f>_xll.qlSimpleQuote(C8,,0.01%,Permanent,Trigger,ObjectOverwrite)</f>
         <v>EUR3WD_Mx_Quote#0001</v>
       </c>
-      <c r="E8" s="198" t="str">
+      <c r="E8" s="195" t="str">
         <f>_xll.ohRangeRetrieveError(D8)</f>
         <v/>
       </c>
       <c r="F8" s="16"/>
-      <c r="G8" s="222"/>
+      <c r="G8" s="219"/>
       <c r="H8" s="173"/>
-      <c r="I8" s="207" t="s">
-        <v>139</v>
-      </c>
-      <c r="J8" s="216" t="str">
+      <c r="I8" s="204" t="s">
+        <v>138</v>
+      </c>
+      <c r="J8" s="213" t="str">
         <f t="shared" si="1"/>
         <v>EURX3WD=</v>
       </c>
-      <c r="K8" s="208">
+      <c r="K8" s="205">
         <v>-0.11000000000000001</v>
       </c>
-      <c r="L8" s="204"/>
-      <c r="M8" s="209">
+      <c r="L8" s="201"/>
+      <c r="M8" s="206">
         <v>-0.06</v>
       </c>
-      <c r="N8" s="204"/>
-      <c r="O8" s="219">
+      <c r="N8" s="201"/>
+      <c r="O8" s="216">
         <v>-0.11000000000000001</v>
       </c>
-      <c r="P8" s="210" t="e">
+      <c r="P8" s="207" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D8,O8/100,Trigger)</f>
         <v>#N/A</v>
       </c>
       <c r="Q8" s="16"/>
-      <c r="R8" s="222"/>
-      <c r="S8" s="222"/>
-      <c r="T8" s="222"/>
-      <c r="U8" s="222"/>
-      <c r="V8" s="222"/>
-      <c r="W8" s="222"/>
+      <c r="R8" s="219"/>
+      <c r="S8" s="219"/>
+      <c r="T8" s="219"/>
+      <c r="U8" s="219"/>
+      <c r="V8" s="219"/>
+      <c r="W8" s="219"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="173"/>
-      <c r="B9" s="196" t="s">
-        <v>125</v>
-      </c>
-      <c r="C9" s="196" t="str">
+      <c r="B9" s="193" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="193" t="str">
         <f t="shared" si="0"/>
         <v>EUR1MD_Mx_Quote</v>
       </c>
-      <c r="D9" s="197" t="str">
+      <c r="D9" s="194" t="str">
         <f>_xll.qlSimpleQuote(C9,,0.01%,Permanent,Trigger,ObjectOverwrite)</f>
         <v>EUR1MD_Mx_Quote#0001</v>
       </c>
-      <c r="E9" s="198" t="str">
+      <c r="E9" s="195" t="str">
         <f>_xll.ohRangeRetrieveError(D9)</f>
         <v/>
       </c>
       <c r="F9" s="16"/>
-      <c r="G9" s="222"/>
+      <c r="G9" s="219"/>
       <c r="H9" s="173"/>
-      <c r="I9" s="207" t="s">
+      <c r="I9" s="204" t="s">
         <v>2</v>
       </c>
-      <c r="J9" s="216" t="str">
+      <c r="J9" s="213" t="str">
         <f t="shared" si="1"/>
         <v>EURX1MD=</v>
       </c>
-      <c r="K9" s="208">
+      <c r="K9" s="205">
         <v>-0.1</v>
       </c>
-      <c r="L9" s="204"/>
-      <c r="M9" s="209">
+      <c r="L9" s="201"/>
+      <c r="M9" s="206">
         <v>-0.04</v>
       </c>
-      <c r="N9" s="204"/>
-      <c r="O9" s="219">
+      <c r="N9" s="201"/>
+      <c r="O9" s="216">
         <v>-0.1</v>
       </c>
-      <c r="P9" s="210" t="e">
+      <c r="P9" s="207" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D9,O9/100,Trigger)</f>
         <v>#N/A</v>
       </c>
       <c r="Q9" s="16"/>
-      <c r="R9" s="222"/>
-      <c r="S9" s="222"/>
-      <c r="T9" s="222"/>
-      <c r="U9" s="222"/>
-      <c r="V9" s="222"/>
-      <c r="W9" s="222"/>
+      <c r="R9" s="219"/>
+      <c r="S9" s="219"/>
+      <c r="T9" s="219"/>
+      <c r="U9" s="219"/>
+      <c r="V9" s="219"/>
+      <c r="W9" s="219"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="173"/>
-      <c r="B10" s="196" t="s">
-        <v>126</v>
-      </c>
-      <c r="C10" s="196" t="str">
+      <c r="B10" s="193" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="193" t="str">
         <f t="shared" si="0"/>
         <v>EUR2MD_Mx_Quote</v>
       </c>
-      <c r="D10" s="197" t="str">
+      <c r="D10" s="194" t="str">
         <f>_xll.qlSimpleQuote(C10,,0.01%,Permanent,Trigger,ObjectOverwrite)</f>
         <v>EUR2MD_Mx_Quote#0001</v>
       </c>
-      <c r="E10" s="198" t="str">
+      <c r="E10" s="195" t="str">
         <f>_xll.ohRangeRetrieveError(D10)</f>
         <v/>
       </c>
       <c r="F10" s="16"/>
-      <c r="G10" s="222"/>
+      <c r="G10" s="219"/>
       <c r="H10" s="173"/>
-      <c r="I10" s="207" t="s">
-        <v>39</v>
-      </c>
-      <c r="J10" s="216" t="str">
+      <c r="I10" s="204" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="213" t="str">
         <f t="shared" si="1"/>
         <v>EURX2MD=</v>
       </c>
-      <c r="K10" s="208">
+      <c r="K10" s="205">
         <v>-0.06</v>
       </c>
-      <c r="L10" s="204"/>
-      <c r="M10" s="209">
+      <c r="L10" s="201"/>
+      <c r="M10" s="206">
         <v>-0.02</v>
       </c>
-      <c r="N10" s="204"/>
-      <c r="O10" s="219">
+      <c r="N10" s="201"/>
+      <c r="O10" s="216">
         <v>-0.06</v>
       </c>
-      <c r="P10" s="210" t="e">
+      <c r="P10" s="207" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D10,O10/100,Trigger)</f>
         <v>#N/A</v>
       </c>
       <c r="Q10" s="16"/>
-      <c r="R10" s="222"/>
-      <c r="S10" s="222"/>
-      <c r="T10" s="222"/>
-      <c r="U10" s="222"/>
-      <c r="V10" s="222"/>
-      <c r="W10" s="222"/>
+      <c r="R10" s="219"/>
+      <c r="S10" s="219"/>
+      <c r="T10" s="219"/>
+      <c r="U10" s="219"/>
+      <c r="V10" s="219"/>
+      <c r="W10" s="219"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="173"/>
-      <c r="B11" s="196" t="s">
-        <v>127</v>
-      </c>
-      <c r="C11" s="196" t="str">
+      <c r="B11" s="193" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="193" t="str">
         <f t="shared" si="0"/>
         <v>EUR3MD_Mx_Quote</v>
       </c>
-      <c r="D11" s="197" t="str">
+      <c r="D11" s="194" t="str">
         <f>_xll.qlSimpleQuote(C11,,0.01%,Permanent,Trigger,ObjectOverwrite)</f>
         <v>EUR3MD_Mx_Quote#0001</v>
       </c>
-      <c r="E11" s="198" t="str">
+      <c r="E11" s="195" t="str">
         <f>_xll.ohRangeRetrieveError(D11)</f>
         <v/>
       </c>
       <c r="F11" s="16"/>
-      <c r="G11" s="222"/>
+      <c r="G11" s="219"/>
       <c r="H11" s="173"/>
-      <c r="I11" s="207" t="s">
-        <v>0</v>
-      </c>
-      <c r="J11" s="216" t="str">
+      <c r="I11" s="204" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" s="213" t="str">
         <f t="shared" si="1"/>
         <v>EURX3MD=</v>
       </c>
-      <c r="K11" s="208">
+      <c r="K11" s="205">
         <v>-0.03</v>
       </c>
-      <c r="L11" s="204"/>
-      <c r="M11" s="209">
+      <c r="L11" s="201"/>
+      <c r="M11" s="206">
         <v>0.01</v>
       </c>
-      <c r="N11" s="204"/>
-      <c r="O11" s="219">
+      <c r="N11" s="201"/>
+      <c r="O11" s="216">
         <v>-0.03</v>
       </c>
-      <c r="P11" s="210" t="e">
+      <c r="P11" s="207" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D11,O11/100,Trigger)</f>
         <v>#N/A</v>
       </c>
       <c r="Q11" s="16"/>
-      <c r="R11" s="222"/>
-      <c r="S11" s="222"/>
-      <c r="T11" s="222"/>
-      <c r="U11" s="222"/>
-      <c r="V11" s="222"/>
-      <c r="W11" s="222"/>
+      <c r="R11" s="219"/>
+      <c r="S11" s="219"/>
+      <c r="T11" s="219"/>
+      <c r="U11" s="219"/>
+      <c r="V11" s="219"/>
+      <c r="W11" s="219"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="173"/>
-      <c r="B12" s="196" t="s">
-        <v>128</v>
-      </c>
-      <c r="C12" s="196" t="str">
+      <c r="B12" s="193" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" s="193" t="str">
         <f t="shared" si="0"/>
         <v>EUR4MD_Mx_Quote</v>
       </c>
-      <c r="D12" s="197" t="str">
+      <c r="D12" s="194" t="str">
         <f>_xll.qlSimpleQuote(C12,,0.01%,Permanent,Trigger,ObjectOverwrite)</f>
         <v>EUR4MD_Mx_Quote#0001</v>
       </c>
-      <c r="E12" s="198" t="str">
+      <c r="E12" s="195" t="str">
         <f>_xll.ohRangeRetrieveError(D12)</f>
         <v/>
       </c>
       <c r="F12" s="16"/>
-      <c r="G12" s="222"/>
+      <c r="G12" s="219"/>
       <c r="H12" s="173"/>
-      <c r="I12" s="207" t="s">
-        <v>109</v>
-      </c>
-      <c r="J12" s="216" t="str">
+      <c r="I12" s="204" t="s">
+        <v>108</v>
+      </c>
+      <c r="J12" s="213" t="str">
         <f t="shared" si="1"/>
         <v>EURX4MD=</v>
       </c>
-      <c r="K12" s="208">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="L12" s="204"/>
-      <c r="M12" s="209">
+      <c r="K12" s="205">
+        <v>0.01</v>
+      </c>
+      <c r="L12" s="201"/>
+      <c r="M12" s="206">
         <v>0.03</v>
       </c>
-      <c r="N12" s="204"/>
-      <c r="O12" s="219">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="P12" s="210" t="e">
+      <c r="N12" s="201"/>
+      <c r="O12" s="216">
+        <v>0.01</v>
+      </c>
+      <c r="P12" s="207" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D12,O12/100,Trigger)</f>
         <v>#N/A</v>
       </c>
       <c r="Q12" s="16"/>
-      <c r="R12" s="222"/>
-      <c r="S12" s="222"/>
-      <c r="T12" s="222"/>
-      <c r="U12" s="222"/>
-      <c r="V12" s="222"/>
-      <c r="W12" s="222"/>
+      <c r="R12" s="219"/>
+      <c r="S12" s="219"/>
+      <c r="T12" s="219"/>
+      <c r="U12" s="219"/>
+      <c r="V12" s="219"/>
+      <c r="W12" s="219"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="173"/>
-      <c r="B13" s="196" t="s">
-        <v>129</v>
-      </c>
-      <c r="C13" s="196" t="str">
+      <c r="B13" s="193" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" s="193" t="str">
         <f t="shared" si="0"/>
         <v>EUR5MD_Mx_Quote</v>
       </c>
-      <c r="D13" s="197" t="str">
+      <c r="D13" s="194" t="str">
         <f>_xll.qlSimpleQuote(C13,,0.01%,Permanent,Trigger,ObjectOverwrite)</f>
         <v>EUR5MD_Mx_Quote#0001</v>
       </c>
-      <c r="E13" s="198" t="str">
+      <c r="E13" s="195" t="str">
         <f>_xll.ohRangeRetrieveError(D13)</f>
         <v/>
       </c>
       <c r="F13" s="16"/>
-      <c r="G13" s="222"/>
+      <c r="G13" s="219"/>
       <c r="H13" s="173"/>
-      <c r="I13" s="207" t="s">
-        <v>110</v>
-      </c>
-      <c r="J13" s="216" t="str">
+      <c r="I13" s="204" t="s">
+        <v>109</v>
+      </c>
+      <c r="J13" s="213" t="str">
         <f t="shared" si="1"/>
         <v>EURX5MD=</v>
       </c>
-      <c r="K13" s="208">
-        <v>2.4E-2</v>
-      </c>
-      <c r="L13" s="204"/>
-      <c r="M13" s="209">
+      <c r="K13" s="205">
+        <v>2.6000000000000002E-2</v>
+      </c>
+      <c r="L13" s="201"/>
+      <c r="M13" s="206">
         <v>0.06</v>
       </c>
-      <c r="N13" s="204"/>
-      <c r="O13" s="219">
-        <v>2.4E-2</v>
-      </c>
-      <c r="P13" s="210" t="e">
+      <c r="N13" s="201"/>
+      <c r="O13" s="216">
+        <v>2.6000000000000002E-2</v>
+      </c>
+      <c r="P13" s="207" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D13,O13/100,Trigger)</f>
         <v>#N/A</v>
       </c>
       <c r="Q13" s="16"/>
-      <c r="R13" s="222"/>
-      <c r="S13" s="222"/>
-      <c r="T13" s="222"/>
-      <c r="U13" s="222"/>
-      <c r="V13" s="222"/>
-      <c r="W13" s="222"/>
+      <c r="R13" s="219"/>
+      <c r="S13" s="219"/>
+      <c r="T13" s="219"/>
+      <c r="U13" s="219"/>
+      <c r="V13" s="219"/>
+      <c r="W13" s="219"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="173"/>
-      <c r="B14" s="196" t="s">
-        <v>130</v>
-      </c>
-      <c r="C14" s="196" t="str">
+      <c r="B14" s="193" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" s="193" t="str">
         <f t="shared" si="0"/>
         <v>EUR6MD_Mx_Quote</v>
       </c>
-      <c r="D14" s="197" t="str">
+      <c r="D14" s="194" t="str">
         <f>_xll.qlSimpleQuote(C14,,0.01%,Permanent,Trigger,ObjectOverwrite)</f>
         <v>EUR6MD_Mx_Quote#0001</v>
       </c>
-      <c r="E14" s="198" t="str">
+      <c r="E14" s="195" t="str">
         <f>_xll.ohRangeRetrieveError(D14)</f>
         <v/>
       </c>
       <c r="F14" s="16"/>
-      <c r="G14" s="222"/>
+      <c r="G14" s="219"/>
       <c r="H14" s="173"/>
-      <c r="I14" s="207" t="s">
+      <c r="I14" s="204" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="216" t="str">
+      <c r="J14" s="213" t="str">
         <f t="shared" si="1"/>
         <v>EURX6MD=</v>
       </c>
-      <c r="K14" s="208">
-        <v>5.2000000000000005E-2</v>
-      </c>
-      <c r="L14" s="204"/>
-      <c r="M14" s="209">
+      <c r="K14" s="205">
+        <v>5.5000000000000007E-2</v>
+      </c>
+      <c r="L14" s="201"/>
+      <c r="M14" s="206">
         <v>0.09</v>
       </c>
-      <c r="N14" s="204"/>
-      <c r="O14" s="219">
-        <v>5.2000000000000005E-2</v>
-      </c>
-      <c r="P14" s="210" t="e">
+      <c r="N14" s="201"/>
+      <c r="O14" s="216">
+        <v>5.5000000000000007E-2</v>
+      </c>
+      <c r="P14" s="207" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D14,O14/100,Trigger)</f>
         <v>#N/A</v>
       </c>
       <c r="Q14" s="16"/>
-      <c r="R14" s="222"/>
-      <c r="S14" s="222"/>
-      <c r="T14" s="222"/>
-      <c r="U14" s="222"/>
-      <c r="V14" s="222"/>
-      <c r="W14" s="222"/>
+      <c r="R14" s="219"/>
+      <c r="S14" s="219"/>
+      <c r="T14" s="219"/>
+      <c r="U14" s="219"/>
+      <c r="V14" s="219"/>
+      <c r="W14" s="219"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="173"/>
-      <c r="B15" s="196" t="s">
-        <v>131</v>
-      </c>
-      <c r="C15" s="196" t="str">
+      <c r="B15" s="193" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" s="193" t="str">
         <f t="shared" si="0"/>
         <v>EUR7MD_Mx_Quote</v>
       </c>
-      <c r="D15" s="197" t="str">
+      <c r="D15" s="194" t="str">
         <f>_xll.qlSimpleQuote(C15,,0.01%,Permanent,Trigger,ObjectOverwrite)</f>
         <v>EUR7MD_Mx_Quote#0001</v>
       </c>
-      <c r="E15" s="198" t="str">
+      <c r="E15" s="195" t="str">
         <f>_xll.ohRangeRetrieveError(D15)</f>
         <v/>
       </c>
       <c r="F15" s="16"/>
-      <c r="G15" s="222"/>
+      <c r="G15" s="219"/>
       <c r="H15" s="173"/>
-      <c r="I15" s="207" t="s">
-        <v>140</v>
-      </c>
-      <c r="J15" s="216" t="str">
+      <c r="I15" s="204" t="s">
+        <v>139</v>
+      </c>
+      <c r="J15" s="213" t="str">
         <f t="shared" si="1"/>
         <v>EURX7MD=</v>
       </c>
-      <c r="K15" s="208">
-        <v>6.9999999999999993E-2</v>
-      </c>
-      <c r="L15" s="204"/>
-      <c r="M15" s="209">
+      <c r="K15" s="205">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="L15" s="201"/>
+      <c r="M15" s="206">
         <v>0.11000000000000001</v>
       </c>
-      <c r="N15" s="204"/>
-      <c r="O15" s="219">
-        <v>6.9999999999999993E-2</v>
-      </c>
-      <c r="P15" s="210" t="e">
+      <c r="N15" s="201"/>
+      <c r="O15" s="216">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="P15" s="207" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D15,O15/100,Trigger)</f>
         <v>#N/A</v>
       </c>
       <c r="Q15" s="16"/>
-      <c r="R15" s="222"/>
-      <c r="S15" s="222"/>
-      <c r="T15" s="222"/>
-      <c r="U15" s="222"/>
-      <c r="V15" s="222"/>
-      <c r="W15" s="222"/>
+      <c r="R15" s="219"/>
+      <c r="S15" s="219"/>
+      <c r="T15" s="219"/>
+      <c r="U15" s="219"/>
+      <c r="V15" s="219"/>
+      <c r="W15" s="219"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="173"/>
-      <c r="B16" s="196" t="s">
-        <v>132</v>
-      </c>
-      <c r="C16" s="196" t="str">
+      <c r="B16" s="193" t="s">
+        <v>131</v>
+      </c>
+      <c r="C16" s="193" t="str">
         <f t="shared" si="0"/>
         <v>EUR8MD_Mx_Quote</v>
       </c>
-      <c r="D16" s="197" t="str">
+      <c r="D16" s="194" t="str">
         <f>_xll.qlSimpleQuote(C16,,0.01%,Permanent,Trigger,ObjectOverwrite)</f>
         <v>EUR8MD_Mx_Quote#0001</v>
       </c>
-      <c r="E16" s="198" t="str">
+      <c r="E16" s="195" t="str">
         <f>_xll.ohRangeRetrieveError(D16)</f>
         <v/>
       </c>
       <c r="F16" s="16"/>
-      <c r="G16" s="222"/>
+      <c r="G16" s="219"/>
       <c r="H16" s="173"/>
-      <c r="I16" s="207" t="s">
-        <v>141</v>
-      </c>
-      <c r="J16" s="216" t="str">
+      <c r="I16" s="204" t="s">
+        <v>140</v>
+      </c>
+      <c r="J16" s="213" t="str">
         <f t="shared" si="1"/>
         <v>EURX8MD=</v>
       </c>
-      <c r="K16" s="208">
-        <v>8.8000000000000009E-2</v>
-      </c>
-      <c r="L16" s="204"/>
-      <c r="M16" s="209">
+      <c r="K16" s="205">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="L16" s="201"/>
+      <c r="M16" s="206">
         <v>0.13</v>
       </c>
-      <c r="N16" s="204"/>
-      <c r="O16" s="219">
-        <v>8.8000000000000009E-2</v>
-      </c>
-      <c r="P16" s="210" t="e">
+      <c r="N16" s="201"/>
+      <c r="O16" s="216">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="P16" s="207" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D16,O16/100,Trigger)</f>
         <v>#N/A</v>
       </c>
       <c r="Q16" s="16"/>
-      <c r="R16" s="222"/>
-      <c r="S16" s="222"/>
-      <c r="T16" s="222"/>
-      <c r="U16" s="222"/>
-      <c r="V16" s="222"/>
-      <c r="W16" s="222"/>
+      <c r="R16" s="219"/>
+      <c r="S16" s="219"/>
+      <c r="T16" s="219"/>
+      <c r="U16" s="219"/>
+      <c r="V16" s="219"/>
+      <c r="W16" s="219"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="173"/>
-      <c r="B17" s="196" t="s">
-        <v>133</v>
-      </c>
-      <c r="C17" s="196" t="str">
+      <c r="B17" s="193" t="s">
+        <v>132</v>
+      </c>
+      <c r="C17" s="193" t="str">
         <f t="shared" si="0"/>
         <v>EUR9MD_Mx_Quote</v>
       </c>
-      <c r="D17" s="197" t="str">
+      <c r="D17" s="194" t="str">
         <f>_xll.qlSimpleQuote(C17,,0.01%,Permanent,Trigger,ObjectOverwrite)</f>
         <v>EUR9MD_Mx_Quote#0001</v>
       </c>
-      <c r="E17" s="198" t="str">
+      <c r="E17" s="195" t="str">
         <f>_xll.ohRangeRetrieveError(D17)</f>
         <v/>
       </c>
       <c r="F17" s="16"/>
-      <c r="G17" s="222"/>
+      <c r="G17" s="219"/>
       <c r="H17" s="173"/>
-      <c r="I17" s="207" t="s">
-        <v>142</v>
-      </c>
-      <c r="J17" s="216" t="str">
+      <c r="I17" s="204" t="s">
+        <v>141</v>
+      </c>
+      <c r="J17" s="213" t="str">
         <f t="shared" si="1"/>
         <v>EURX9MD=</v>
       </c>
-      <c r="K17" s="208">
-        <v>0.10800000000000001</v>
-      </c>
-      <c r="L17" s="204"/>
-      <c r="M17" s="209">
+      <c r="K17" s="205">
+        <v>0.11200000000000002</v>
+      </c>
+      <c r="L17" s="201"/>
+      <c r="M17" s="206">
         <v>0.15</v>
       </c>
-      <c r="N17" s="204"/>
-      <c r="O17" s="219">
-        <v>0.10800000000000001</v>
-      </c>
-      <c r="P17" s="210" t="e">
+      <c r="N17" s="201"/>
+      <c r="O17" s="216">
+        <v>0.11200000000000002</v>
+      </c>
+      <c r="P17" s="207" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D17,O17/100,Trigger)</f>
         <v>#N/A</v>
       </c>
       <c r="Q17" s="16"/>
-      <c r="R17" s="222"/>
-      <c r="S17" s="222"/>
-      <c r="T17" s="222"/>
-      <c r="U17" s="222"/>
-      <c r="V17" s="222"/>
-      <c r="W17" s="222"/>
+      <c r="R17" s="219"/>
+      <c r="S17" s="219"/>
+      <c r="T17" s="219"/>
+      <c r="U17" s="219"/>
+      <c r="V17" s="219"/>
+      <c r="W17" s="219"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="173"/>
-      <c r="B18" s="196" t="s">
-        <v>134</v>
-      </c>
-      <c r="C18" s="196" t="str">
+      <c r="B18" s="193" t="s">
+        <v>133</v>
+      </c>
+      <c r="C18" s="193" t="str">
         <f t="shared" si="0"/>
         <v>EUR10MD_Mx_Quote</v>
       </c>
-      <c r="D18" s="197" t="str">
+      <c r="D18" s="194" t="str">
         <f>_xll.qlSimpleQuote(C18,,0.01%,Permanent,Trigger,ObjectOverwrite)</f>
         <v>EUR10MD_Mx_Quote#0001</v>
       </c>
-      <c r="E18" s="198" t="str">
+      <c r="E18" s="195" t="str">
         <f>_xll.ohRangeRetrieveError(D18)</f>
         <v/>
       </c>
       <c r="F18" s="16"/>
-      <c r="G18" s="222"/>
+      <c r="G18" s="219"/>
       <c r="H18" s="173"/>
-      <c r="I18" s="207" t="s">
-        <v>143</v>
-      </c>
-      <c r="J18" s="216" t="str">
+      <c r="I18" s="204" t="s">
+        <v>142</v>
+      </c>
+      <c r="J18" s="213" t="str">
         <f t="shared" si="1"/>
         <v>EURX10MD=</v>
       </c>
-      <c r="K18" s="208">
-        <v>0.126</v>
-      </c>
-      <c r="L18" s="204"/>
-      <c r="M18" s="209">
+      <c r="K18" s="205">
+        <v>0.13</v>
+      </c>
+      <c r="L18" s="201"/>
+      <c r="M18" s="206">
         <v>0.16999999999999998</v>
       </c>
-      <c r="N18" s="204"/>
-      <c r="O18" s="219">
-        <v>0.126</v>
-      </c>
-      <c r="P18" s="210" t="e">
+      <c r="N18" s="201"/>
+      <c r="O18" s="216">
+        <v>0.13</v>
+      </c>
+      <c r="P18" s="207" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D18,O18/100,Trigger)</f>
         <v>#N/A</v>
       </c>
       <c r="Q18" s="16"/>
-      <c r="R18" s="222"/>
-      <c r="S18" s="222"/>
-      <c r="T18" s="222"/>
-      <c r="U18" s="222"/>
-      <c r="V18" s="222"/>
-      <c r="W18" s="222"/>
+      <c r="R18" s="219"/>
+      <c r="S18" s="219"/>
+      <c r="T18" s="219"/>
+      <c r="U18" s="219"/>
+      <c r="V18" s="219"/>
+      <c r="W18" s="219"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="173"/>
-      <c r="B19" s="196" t="s">
-        <v>135</v>
-      </c>
-      <c r="C19" s="196" t="str">
+      <c r="B19" s="193" t="s">
+        <v>134</v>
+      </c>
+      <c r="C19" s="193" t="str">
         <f t="shared" si="0"/>
         <v>EUR11MD_Mx_Quote</v>
       </c>
-      <c r="D19" s="197" t="str">
+      <c r="D19" s="194" t="str">
         <f>_xll.qlSimpleQuote(C19,,0.01%,Permanent,Trigger,ObjectOverwrite)</f>
         <v>EUR11MD_Mx_Quote#0001</v>
       </c>
-      <c r="E19" s="198" t="str">
+      <c r="E19" s="195" t="str">
         <f>_xll.ohRangeRetrieveError(D19)</f>
         <v/>
       </c>
       <c r="F19" s="16"/>
-      <c r="G19" s="222"/>
+      <c r="G19" s="219"/>
       <c r="H19" s="173"/>
-      <c r="I19" s="207" t="s">
-        <v>144</v>
-      </c>
-      <c r="J19" s="216" t="str">
+      <c r="I19" s="204" t="s">
+        <v>143</v>
+      </c>
+      <c r="J19" s="213" t="str">
         <f t="shared" si="1"/>
         <v>EURX11MD=</v>
       </c>
-      <c r="K19" s="208">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="L19" s="204"/>
-      <c r="M19" s="209">
+      <c r="K19" s="205">
+        <v>0.15</v>
+      </c>
+      <c r="L19" s="201"/>
+      <c r="M19" s="206">
         <v>0.19</v>
       </c>
-      <c r="N19" s="204"/>
-      <c r="O19" s="219">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="P19" s="210" t="e">
+      <c r="N19" s="201"/>
+      <c r="O19" s="216">
+        <v>0.15</v>
+      </c>
+      <c r="P19" s="207" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D19,O19/100,Trigger)</f>
         <v>#N/A</v>
       </c>
       <c r="Q19" s="16"/>
-      <c r="R19" s="222"/>
-      <c r="S19" s="222"/>
-      <c r="T19" s="222"/>
-      <c r="U19" s="222"/>
-      <c r="V19" s="222"/>
-      <c r="W19" s="222"/>
+      <c r="R19" s="219"/>
+      <c r="S19" s="219"/>
+      <c r="T19" s="219"/>
+      <c r="U19" s="219"/>
+      <c r="V19" s="219"/>
+      <c r="W19" s="219"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="173"/>
-      <c r="B20" s="196" t="s">
-        <v>136</v>
-      </c>
-      <c r="C20" s="196" t="str">
+      <c r="B20" s="193" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" s="193" t="str">
         <f t="shared" si="0"/>
         <v>EUR1YD_Mx_Quote</v>
       </c>
-      <c r="D20" s="197" t="str">
+      <c r="D20" s="194" t="str">
         <f>_xll.qlSimpleQuote(C20,,0.01%,Permanent,Trigger,ObjectOverwrite)</f>
         <v>EUR1YD_Mx_Quote#0001</v>
       </c>
-      <c r="E20" s="198" t="str">
+      <c r="E20" s="195" t="str">
         <f>_xll.ohRangeRetrieveError(D20)</f>
         <v/>
       </c>
       <c r="F20" s="16"/>
-      <c r="G20" s="222"/>
+      <c r="G20" s="219"/>
       <c r="H20" s="173"/>
-      <c r="I20" s="207" t="s">
+      <c r="I20" s="204" t="s">
         <v>29</v>
       </c>
-      <c r="J20" s="216" t="str">
+      <c r="J20" s="213" t="str">
         <f t="shared" si="1"/>
         <v>EURX1YD=</v>
       </c>
-      <c r="K20" s="208">
-        <v>0.16400000000000001</v>
-      </c>
-      <c r="L20" s="204"/>
-      <c r="M20" s="211">
+      <c r="K20" s="205">
+        <v>0.16899999999999998</v>
+      </c>
+      <c r="L20" s="201"/>
+      <c r="M20" s="208">
         <v>0.22000000000000003</v>
       </c>
-      <c r="N20" s="204"/>
-      <c r="O20" s="220">
-        <v>0.16400000000000001</v>
-      </c>
-      <c r="P20" s="212" t="e">
+      <c r="N20" s="201"/>
+      <c r="O20" s="217">
+        <v>0.16899999999999998</v>
+      </c>
+      <c r="P20" s="209" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D20,O20/100,Trigger)</f>
         <v>#N/A</v>
       </c>
       <c r="Q20" s="16"/>
-      <c r="R20" s="222"/>
-      <c r="S20" s="222"/>
+      <c r="R20" s="219"/>
+      <c r="S20" s="219"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="173"/>
-      <c r="B21" s="199" t="s">
-        <v>137</v>
-      </c>
-      <c r="C21" s="199" t="str">
+      <c r="B21" s="196" t="s">
+        <v>136</v>
+      </c>
+      <c r="C21" s="196" t="str">
         <f t="shared" si="0"/>
         <v>EURSTUB_Mx_Quote</v>
       </c>
-      <c r="D21" s="200" t="str">
+      <c r="D21" s="197" t="str">
         <f>_xll.qlSimpleQuote(C21,,0.01%,Permanent,Trigger,ObjectOverwrite)</f>
         <v>EURSTUB_Mx_Quote#0001</v>
       </c>
-      <c r="E21" s="201" t="str">
+      <c r="E21" s="198" t="str">
         <f>_xll.ohRangeRetrieveError(D21)</f>
         <v/>
       </c>
       <c r="F21" s="16"/>
-      <c r="G21" s="222"/>
+      <c r="G21" s="219"/>
       <c r="H21" s="173"/>
-      <c r="I21" s="213" t="s">
-        <v>137</v>
-      </c>
-      <c r="J21" s="217" t="str">
+      <c r="I21" s="210" t="s">
+        <v>136</v>
+      </c>
+      <c r="J21" s="214" t="str">
         <f t="shared" si="1"/>
         <v>EURXSTUBD=</v>
       </c>
-      <c r="K21" s="214">
-        <f>$M$24</f>
-        <v>0.10072727300000001</v>
-      </c>
-      <c r="L21" s="204"/>
-      <c r="M21" s="211">
+      <c r="K21" s="211">
+        <f>$M$25</f>
+        <v>0.103034483</v>
+      </c>
+      <c r="L21" s="201"/>
+      <c r="M21" s="208">
         <v>0.12129032300000001</v>
       </c>
-      <c r="N21" s="204"/>
-      <c r="O21" s="220">
-        <v>0.10072727300000001</v>
-      </c>
-      <c r="P21" s="212" t="e">
+      <c r="N21" s="201"/>
+      <c r="O21" s="217">
+        <v>0.103034483</v>
+      </c>
+      <c r="P21" s="209" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D21,O21/100,Trigger)</f>
         <v>#N/A</v>
       </c>
       <c r="Q21" s="16"/>
-      <c r="R21" s="222"/>
-      <c r="S21" s="222"/>
+      <c r="R21" s="219"/>
+      <c r="S21" s="219"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A22" s="175"/>
-      <c r="B22" s="175"/>
-      <c r="C22" s="175"/>
-      <c r="D22" s="175"/>
-      <c r="E22" s="175"/>
-      <c r="F22" s="176"/>
-      <c r="G22" s="222"/>
-      <c r="H22" s="177"/>
-      <c r="I22" s="175"/>
-      <c r="J22" s="175"/>
-      <c r="K22" s="175"/>
-      <c r="L22" s="175"/>
-      <c r="M22" s="175"/>
-      <c r="N22" s="175"/>
-      <c r="O22" s="175"/>
-      <c r="P22" s="175"/>
-      <c r="Q22" s="176"/>
-      <c r="R22" s="222"/>
-      <c r="S22" s="222"/>
-      <c r="T22" s="222"/>
-      <c r="U22" s="222"/>
-      <c r="V22" s="222"/>
-      <c r="W22" s="222"/>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="J23" s="223" t="str">
-        <f>_xll.RData(J24,K23:L23,"RTFEED:DTSIMI1","FRQ:1S",,K24)</f>
-        <v>Paused at 16:50:53</v>
-      </c>
-      <c r="K23" s="224" t="s">
-        <v>145</v>
-      </c>
-      <c r="L23" s="225" t="s">
-        <v>153</v>
-      </c>
-      <c r="M23" s="225" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="J24" s="226" t="str">
+      <c r="A22" s="174"/>
+      <c r="B22" s="174"/>
+      <c r="C22" s="174"/>
+      <c r="D22" s="174"/>
+      <c r="E22" s="174"/>
+      <c r="F22" s="175"/>
+      <c r="G22" s="219"/>
+      <c r="H22" s="176"/>
+      <c r="I22" s="174"/>
+      <c r="J22" s="174"/>
+      <c r="K22" s="174"/>
+      <c r="L22" s="174"/>
+      <c r="M22" s="174"/>
+      <c r="N22" s="174"/>
+      <c r="O22" s="174"/>
+      <c r="P22" s="174"/>
+      <c r="Q22" s="175"/>
+      <c r="R22" s="219"/>
+      <c r="S22" s="219"/>
+      <c r="T22" s="219"/>
+      <c r="U22" s="219"/>
+      <c r="V22" s="219"/>
+      <c r="W22" s="219"/>
+    </row>
+    <row r="24" spans="1:23" s="230" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J24" s="229" t="str">
+        <f>_xll.RData(J25,K24:L24,"RTFEED:DTSIMI1","FRQ:1S",,K25)</f>
+        <v>Paused at 10:59:27</v>
+      </c>
+      <c r="K24" s="231" t="s">
+        <v>144</v>
+      </c>
+      <c r="L24" s="229" t="s">
+        <v>151</v>
+      </c>
+      <c r="M24" s="229" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="J25" s="220" t="str">
         <f>$J$21</f>
         <v>EURXSTUBD=</v>
       </c>
-      <c r="K24" s="228">
-        <v>0.110727273</v>
-      </c>
-      <c r="L24" s="228">
-        <v>9.0727273000000011E-2</v>
-      </c>
-      <c r="M24" s="228">
-        <f>AVERAGE(K24,L24)</f>
-        <v>0.10072727300000001</v>
+      <c r="K25" s="222">
+        <v>0.11303448300000001</v>
+      </c>
+      <c r="L25" s="222">
+        <v>9.3034482999999987E-2</v>
+      </c>
+      <c r="M25" s="222">
+        <f>AVERAGE(K25,L25)</f>
+        <v>0.103034483</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="E32" s="221"/>
+      <c r="E32" s="218"/>
     </row>
     <row r="33" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E33" s="221"/>
+      <c r="E33" s="218"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
